--- a/resources/pheknowlator_source_metadata.xlsx
+++ b/resources/pheknowlator_source_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiffanycallahan/Dropbox/GraduateSchool/PhD/LabWork/PheKnowLator/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E670431-3B2E-0747-995F-C3F805130481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CFCD08-C0F5-E54C-9D64-34602B9C555D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11940" yWindow="1740" windowWidth="37820" windowHeight="23880" xr2:uid="{82CFCCA6-69D0-6D4F-8FD9-9511C5B37B8B}"/>
+    <workbookView xWindow="22600" yWindow="1580" windowWidth="37820" windowHeight="23880" xr2:uid="{82CFCCA6-69D0-6D4F-8FD9-9511C5B37B8B}"/>
   </bookViews>
   <sheets>
     <sheet name="edges" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="58">
   <si>
     <t>edge_type</t>
   </si>
@@ -49,19 +49,7 @@
     <t>chemical-disease</t>
   </si>
   <si>
-    <t>DirectEvidence</t>
-  </si>
-  <si>
-    <t>InferenceScore</t>
-  </si>
-  <si>
-    <t>PubMedIDs</t>
-  </si>
-  <si>
     <t>delimiter</t>
-  </si>
-  <si>
-    <t>column_name</t>
   </si>
   <si>
     <t>variable_name</t>
@@ -132,9 +120,6 @@
   </si>
   <si>
     <t>value</t>
-  </si>
-  <si>
-    <t>Exact value taken from CTD spreadsheet</t>
   </si>
   <si>
     <t>biolink:treats</t>
@@ -244,6 +229,24 @@
   </si>
   <si>
     <t>Keyword provided by a user in the resource_info.txt, edge_source_list.txt, ontology_source_list.txt</t>
+  </si>
+  <si>
+    <t>provider_column_name</t>
+  </si>
+  <si>
+    <t>PubMedIDs (column 9)</t>
+  </si>
+  <si>
+    <t>InferenceScore (column 7)</t>
+  </si>
+  <si>
+    <t>DirectEvidence (column 5)</t>
+  </si>
+  <si>
+    <t>InferenceGeneSymbol (column 6)</t>
+  </si>
+  <si>
+    <t>Value derived from CTD</t>
   </si>
 </sst>
 </file>
@@ -707,11 +710,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC7A73D-1C32-0943-8AF1-D604CF68867B}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -720,7 +723,7 @@
     <col min="2" max="2" width="13.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.1640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="45.1640625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="1"/>
@@ -734,19 +737,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -756,21 +759,21 @@
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
+      <c r="C2" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E2" s="5" t="str">
-        <f>_xlfn.CONCAT(B2, "_", C2)</f>
-        <v>CTD_DirectEvidence</v>
+        <f>LEFT(_xlfn.CONCAT(B2, "_", C2), (FIND("(", _xlfn.CONCAT(B2, "_", C2), 1)-1))</f>
+        <v xml:space="preserve">CTD_DirectEvidence </v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -780,17 +783,17 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
+      <c r="C3" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="str">
-        <f>_xlfn.CONCAT(B3, "_", C3)</f>
-        <v>CTD_InferenceScore</v>
+        <f t="shared" ref="E3:E5" si="0">LEFT(_xlfn.CONCAT(B3, "_", C3), (FIND("(", _xlfn.CONCAT(B3, "_", C3), 1)-1))</f>
+        <v xml:space="preserve">CTD_InferenceScore </v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="6" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -800,40 +803,39 @@
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
+      <c r="C4" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E4" s="5" t="str">
-        <f>_xlfn.CONCAT(B4, "_", C4)</f>
-        <v>CTD_PubMedIDs</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">CTD_PubMedIDs </v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="6" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>19</v>
+      <c r="B5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="E5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">CTD_InferenceGeneSymbol </v>
+      </c>
+      <c r="F5" s="5"/>
       <c r="G5" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -841,123 +843,164 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="7" t="str">
-        <f>_xlfn.CONCAT(B7, "_", C7)</f>
-        <v>CTD_DirectEvidence</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="B7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="E8" s="7" t="str">
-        <f>_xlfn.CONCAT(B8, "_", C8)</f>
-        <v>CTD_InferenceScore</v>
+        <f t="shared" ref="E8:E11" si="1">LEFT(_xlfn.CONCAT(B8, "_", C8), (FIND("(", _xlfn.CONCAT(B8, "_", C8), 1)-1))</f>
+        <v xml:space="preserve">CTD_DirectEvidence </v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>12</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7" t="str">
-        <f>_xlfn.CONCAT(B9, "_", C9)</f>
-        <v>CTD_PubMedIDs</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">CTD_InferenceScore </v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="8" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>33</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">CTD_PubMedIDs </v>
+      </c>
+      <c r="F10" s="7"/>
       <c r="G10" s="8" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="8"/>
+      <c r="E11" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">CTD_InferenceGeneSymbol </v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -970,7 +1013,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -988,574 +1031,574 @@
   <sheetData>
     <row r="1" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="G4" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="C5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="C6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="C7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="H9" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C18" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="13" t="s">
         <v>50</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>23</v>
-      </c>
       <c r="G19" s="12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/resources/pheknowlator_source_metadata.xlsx
+++ b/resources/pheknowlator_source_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiffanycallahan/Dropbox/GraduateSchool/PhD/LabWork/PheKnowLator/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CFCD08-C0F5-E54C-9D64-34602B9C555D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F6F915-1A6B-0849-B45E-2FEFD24061D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22600" yWindow="1580" windowWidth="37820" windowHeight="23880" xr2:uid="{82CFCCA6-69D0-6D4F-8FD9-9511C5B37B8B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="57">
   <si>
     <t>edge_type</t>
   </si>
@@ -125,9 +125,6 @@
     <t>biolink:treats</t>
   </si>
   <si>
-    <t>biolink:ChemicalEntity (default)</t>
-  </si>
-  <si>
     <t>CTD:ChemicalID (column 1)</t>
   </si>
   <si>
@@ -140,8 +137,72 @@
     <t>Mapped through RO concept RO:0002606</t>
   </si>
   <si>
+    <t>CTD:DiseaseName (column 3)</t>
+  </si>
+  <si>
+    <t>CTD:DiseaseID (column 4)
+CTD:OmimIDs (column 8)</t>
+  </si>
+  <si>
+    <t>dbxref</t>
+  </si>
+  <si>
+    <t>synonym</t>
+  </si>
+  <si>
+    <t>primary_ontology</t>
+  </si>
+  <si>
+    <t>phenotype</t>
+  </si>
+  <si>
+    <t>Chemical Entities of Biological Interest (ChEBI)</t>
+  </si>
+  <si>
+    <t>The Mondo Disease Ontology (MONDO)</t>
+  </si>
+  <si>
+    <t>The Human Phenotype Ontology (HP)</t>
+  </si>
+  <si>
+    <t>Derived from ontology</t>
+  </si>
+  <si>
+    <t>Derived from ontology and pulled from data provided by CTD</t>
+  </si>
+  <si>
+    <t>Ontology concept's immediate parent concept</t>
+  </si>
+  <si>
+    <t>provider_column_name</t>
+  </si>
+  <si>
+    <t>PubMedIDs (column 9)</t>
+  </si>
+  <si>
+    <t>InferenceScore (column 7)</t>
+  </si>
+  <si>
+    <t>DirectEvidence (column 5)</t>
+  </si>
+  <si>
+    <t>InferenceGeneSymbol (column 6)</t>
+  </si>
+  <si>
+    <t>Value derived from CTD</t>
+  </si>
+  <si>
+    <t>Keyword provided by a user in the resource_info.txt, edge_source_list.txt, ontology_source_list.txt.
+Default value is chemical</t>
+  </si>
+  <si>
+    <t>Keyword provided by a user in the resource_info.txt, edge_source_list.txt, ontology_source_list.txt
+Default value is disease</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Value determined by NodeNormalizaiton. When no match is found, use nearest parent's mapped concept. If no map can be found to a parent concept use the BioLink concept use the default mapping to </t>
+      <t>Value determined by NodeNormalizaiton. When no match is found, use nearest parent's mapped concept. If no map can be found to a parent concept use the BioLink concept use the default value.
+Default value is</t>
     </r>
     <r>
       <rPr>
@@ -156,7 +217,8 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Value determined by NodeNormalizaiton. When no match is found, use nearest parent's mapped concept. If no map can be found to a parent concept use the default mapping to BioLink concept </t>
+      <t xml:space="preserve">Value determined by NodeNormalizaiton. When no match is found, use nearest parent's mapped concept. If no map can be found to a parent concept use the default value.
+Default value is </t>
     </r>
     <r>
       <rPr>
@@ -170,42 +232,9 @@
     </r>
   </si>
   <si>
-    <t>biolink:Disease (default)</t>
-  </si>
-  <si>
-    <t>CTD:DiseaseName (column 3)</t>
-  </si>
-  <si>
-    <t>CTD:DiseaseID (column 4)
-CTD:OmimIDs (column 8)</t>
-  </si>
-  <si>
-    <t>dbxref</t>
-  </si>
-  <si>
-    <t>synonym</t>
-  </si>
-  <si>
-    <t>primary_ontology</t>
-  </si>
-  <si>
-    <t>phenotype</t>
-  </si>
-  <si>
-    <t>Chemical Entities of Biological Interest (ChEBI)</t>
-  </si>
-  <si>
-    <t>The Mondo Disease Ontology (MONDO)</t>
-  </si>
-  <si>
-    <t>The Human Phenotype Ontology (HP)</t>
-  </si>
-  <si>
-    <t>biolink:PhenotypicFeature (default)</t>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">Value determined by NodeNormalizaiton. When no match is found, use nearest parent's mapped concept. If no map can be found to a parent concept use the default mapping to BioLink concept </t>
+      <t xml:space="preserve">Value determined by NodeNormalizaiton. When no match is found, use nearest parent's mapped concept. If no map can be found to a parent concept use the default value.
+Default value is </t>
     </r>
     <r>
       <rPr>
@@ -219,34 +248,8 @@
     </r>
   </si>
   <si>
-    <t>Derived from ontology</t>
-  </si>
-  <si>
-    <t>Derived from ontology and pulled from data provided by CTD</t>
-  </si>
-  <si>
-    <t>Ontology concept's immediate parent concept</t>
-  </si>
-  <si>
-    <t>Keyword provided by a user in the resource_info.txt, edge_source_list.txt, ontology_source_list.txt</t>
-  </si>
-  <si>
-    <t>provider_column_name</t>
-  </si>
-  <si>
-    <t>PubMedIDs (column 9)</t>
-  </si>
-  <si>
-    <t>InferenceScore (column 7)</t>
-  </si>
-  <si>
-    <t>DirectEvidence (column 5)</t>
-  </si>
-  <si>
-    <t>InferenceGeneSymbol (column 6)</t>
-  </si>
-  <si>
-    <t>Value derived from CTD</t>
+    <t>Keyword provided by a user in the resource_info.txt, edge_source_list.txt, ontology_source_list.txt
+Defauly value is phenotype</t>
   </si>
 </sst>
 </file>
@@ -714,7 +717,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -737,7 +740,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>4</v>
@@ -760,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>7</v>
@@ -773,7 +776,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -784,16 +787,18 @@
         <v>1</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="str">
         <f t="shared" ref="E3:E5" si="0">LEFT(_xlfn.CONCAT(B3, "_", C3), (FIND("(", _xlfn.CONCAT(B3, "_", C3), 1)-1))</f>
         <v xml:space="preserve">CTD_InferenceScore </v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G3" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -804,7 +809,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>8</v>
@@ -813,9 +818,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">CTD_PubMedIDs </v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G4" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -826,16 +833,18 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">CTD_InferenceGeneSymbol </v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G5" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -856,7 +865,7 @@
         <v>28</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -886,7 +895,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>7</v>
@@ -895,9 +904,11 @@
         <f t="shared" ref="E8:E11" si="1">LEFT(_xlfn.CONCAT(B8, "_", C8), (FIND("(", _xlfn.CONCAT(B8, "_", C8), 1)-1))</f>
         <v xml:space="preserve">CTD_DirectEvidence </v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G8" s="8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -908,16 +919,18 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">CTD_InferenceScore </v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G9" s="8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -928,7 +941,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>8</v>
@@ -937,9 +950,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">CTD_PubMedIDs </v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G10" s="8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -950,16 +965,18 @@
         <v>1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">CTD_InferenceGeneSymbol </v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G11" s="8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -980,7 +997,7 @@
         <v>28</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1009,11 +1026,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780CD01F-0819-CA44-B0D6-41E21FE9EADE}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1024,38 +1041,34 @@
     <col min="4" max="4" width="17.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="26.1640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="25.1640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="28.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="73.5" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="73.5" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="70" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
@@ -1063,7 +1076,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>11</v>
@@ -1074,14 +1087,11 @@
       <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="G2" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="56" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -1089,7 +1099,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>16</v>
@@ -1100,14 +1110,11 @@
       <c r="F3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
@@ -1115,7 +1122,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>16</v>
@@ -1126,14 +1133,11 @@
       <c r="F4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G4" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
@@ -1141,7 +1145,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>21</v>
@@ -1152,14 +1156,11 @@
       <c r="F5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G5" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
@@ -1167,7 +1168,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>21</v>
@@ -1178,14 +1179,11 @@
       <c r="F6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="G6" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -1193,7 +1191,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>22</v>
@@ -1202,16 +1200,13 @@
         <v>15</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
@@ -1219,33 +1214,30 @@
         <v>14</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="C9" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>11</v>
@@ -1256,22 +1248,19 @@
       <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="G9" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="56" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>16</v>
@@ -1282,22 +1271,19 @@
       <c r="F10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G10" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>16</v>
@@ -1308,22 +1294,19 @@
       <c r="F11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G11" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>21</v>
@@ -1334,22 +1317,19 @@
       <c r="F12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G12" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>21</v>
@@ -1360,74 +1340,65 @@
       <c r="F13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="G13" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="C16" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>11</v>
@@ -1438,22 +1409,19 @@
       <c r="F16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="G16" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="56" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>16</v>
@@ -1464,22 +1432,19 @@
       <c r="F17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G17" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>16</v>
@@ -1490,22 +1455,19 @@
       <c r="F18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G18" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>21</v>
@@ -1516,22 +1478,19 @@
       <c r="F19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G19" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>21</v>
@@ -1542,63 +1501,54 @@
       <c r="F20" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="G20" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>22</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>49</v>
+        <v>35</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/resources/pheknowlator_source_metadata.xlsx
+++ b/resources/pheknowlator_source_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiffanycallahan/Dropbox/GraduateSchool/PhD/LabWork/PheKnowLator/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2537AF-3DC2-1F4A-AB37-D8BAA8B35F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67185A4-6EE4-7247-B23B-3BE506981181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10440" yWindow="1160" windowWidth="37820" windowHeight="23880" xr2:uid="{82CFCCA6-69D0-6D4F-8FD9-9511C5B37B8B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="89">
   <si>
     <t>edge_type</t>
   </si>
@@ -107,6 +107,9 @@
 CTD</t>
   </si>
   <si>
+    <t>CTD:ChemicalID</t>
+  </si>
+  <si>
     <t>biolink:Predicate</t>
   </si>
   <si>
@@ -134,13 +137,6 @@
     <t>Mapped through RO concept RO:0002606</t>
   </si>
   <si>
-    <t>CTD:DiseaseName (column 3)</t>
-  </si>
-  <si>
-    <t>CTD:DiseaseID (column 4)
-CTD:OmimIDs (column 8)</t>
-  </si>
-  <si>
     <t>dbxref</t>
   </si>
   <si>
@@ -165,9 +161,6 @@
     <t>Derived from ontology</t>
   </si>
   <si>
-    <t>Derived from ontology and pulled from data provided by CTD</t>
-  </si>
-  <si>
     <t>Ontology concept's immediate parent concept</t>
   </si>
   <si>
@@ -196,6 +189,150 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Value determined by NodeNormalization. When no match is found, use nearest parent's mapped concept. If no map can be found to a parent concept use the default value. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">The Default value is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>biolink:PhenotypicFeature</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Value determined by NodeNormalization. When no match is found, use nearest parent's mapped concept. If no map can be found to a parent concept use the BioLink concept use the default value.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> The Default value is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>biolink:ChemicalEntity</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Value determined by NodeNormalization. When no match is found, use nearest parent's mapped concept. If no map can be found to a parent concept use the default value. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">The Default value is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>biolink:Disease</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Value determined by NodeNormalization. When no match is found, use nearest parent's mapped concept. If no map can be found to a parent concept use the BioLink concept use the default value.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> The Default value is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>biolink:Gene</t>
+    </r>
+  </si>
+  <si>
+    <t>The Sequence Ontology (SO)</t>
+  </si>
+  <si>
+    <t>Interaction (column 8)</t>
+  </si>
+  <si>
+    <t>biolink:interacts_with</t>
+  </si>
+  <si>
+    <t>Mapped through RO concept RO:0002434</t>
+  </si>
+  <si>
+    <t>InteractionActions (column 9)</t>
+  </si>
+  <si>
+    <t>PubMedIDs (column 10)</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>The Protein Ontology (PR)</t>
+  </si>
+  <si>
+    <r>
+      <t>Value determined by NodeNormalization. When no match is found, use nearest parent's mapped concept. If no map can be found to a parent concept use the BioLink concept use the default value.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> The Default value is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>biolink:Protein</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Keyword provided by a user in the resource_info.txt, edge_source_list.txt, ontology_source_list.txt. </t>
     </r>
     <r>
@@ -205,7 +342,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>The Default value is chemical</t>
+      <t xml:space="preserve">The Default value is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>protein</t>
     </r>
   </si>
   <si>
@@ -219,7 +366,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>The Default value is disease</t>
+      <t xml:space="preserve">The Default value is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>gene</t>
     </r>
   </si>
   <si>
@@ -233,20 +390,30 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>The Default value is phenotype</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Value determined by NodeNormalization. When no match is found, use nearest parent's mapped concept. If no map can be found to a parent concept use the default value. </t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">The Default value is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>phenotype</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Keyword provided by a user in the resource_info.txt, edge_source_list.txt, ontology_source_list.txt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">The Default value is </t>
     </r>
     <r>
@@ -257,8 +424,328 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>biolink:PhenotypicFeature</t>
-    </r>
+      <t>disease</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Keyword provided by a user in the resource_info.txt, edge_source_list.txt, ontology_source_list.txt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">The Default value is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>chemical</t>
+    </r>
+  </si>
+  <si>
+    <t>chemical-protein</t>
+  </si>
+  <si>
+    <t>chemical-rna</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTD Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-disease:column 0
+chemical-phenotype:column 0</t>
+    </r>
+  </si>
+  <si>
+    <t>CTD:ChemicalName</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTD Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-disease:column 1
+chemical-phenotype:column 1
+chemical-gene:column 0
+chemical-rna:column 0
+chemical-protein:column 0</t>
+    </r>
+  </si>
+  <si>
+    <t>CTD:CasRN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTD Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-disease:column 2
+chemical-phenotype:column 2
+chemical-gene:column 1
+chemical-rna:column 1
+chemical-protein:column 1</t>
+    </r>
+  </si>
+  <si>
+    <t>CTD:DiseaseName</t>
+  </si>
+  <si>
+    <t>CTD:DiseaseID</t>
+  </si>
+  <si>
+    <t>CTD:OmimIDs</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTD Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-phenotype:column 8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTD Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-phenotype:column 4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTD Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-phenotype:column 3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTD Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-disease:column 8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTD Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-disease:column 4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTD Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-disease:column 3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTD Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-gene:column 3</t>
+    </r>
+  </si>
+  <si>
+    <t>CTD:GeneSymbol</t>
+  </si>
+  <si>
+    <t>rna</t>
   </si>
   <si>
     <r>
@@ -281,12 +768,12 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>biolink:ChemicalEntity</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Value determined by NodeNormalization. When no match is found, use nearest parent's mapped concept. If no map can be found to a parent concept use the default value. </t>
+      <t>biolink:GenomicEntity</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Keyword provided by a user in the resource_info.txt, edge_source_list.txt, ontology_source_list.txt. </t>
     </r>
     <r>
       <rPr>
@@ -305,81 +792,15 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>biolink:Disease</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Value determined by NodeNormalization. When no match is found, use nearest parent's mapped concept. If no map can be found to a parent concept use the BioLink concept use the default value.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> The Default value is </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>biolink:Gene</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Keyword provided by a user in the resource_info.txt, edge_source_list.txt, ontology_source_list.txt. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>The Default value is gene</t>
-    </r>
-  </si>
-  <si>
-    <t>CTD:GeneSymbol (column 3)</t>
-  </si>
-  <si>
-    <t>The Sequence Ontology (SO)</t>
-  </si>
-  <si>
-    <t>CTD:ChemicalID (column 1)
-CTD:CasRN (column 2)</t>
-  </si>
-  <si>
-    <t>CTD:ChemicalName (column 0)</t>
-  </si>
-  <si>
-    <t>Interaction (column 8)</t>
-  </si>
-  <si>
-    <t>biolink:interacts_with</t>
-  </si>
-  <si>
-    <t>Mapped through RO concept RO:0002434</t>
-  </si>
-  <si>
-    <t>InteractionActions (column 9)</t>
-  </si>
-  <si>
-    <t>PubMedIDs (column 10)</t>
+      <t>rna</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -410,6 +831,13 @@
       <i/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -504,7 +932,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -597,6 +1025,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -928,7 +1371,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -951,7 +1394,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>4</v>
@@ -960,7 +1403,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>6</v>
@@ -974,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -987,7 +1430,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -996,7 +1439,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="str">
@@ -1007,7 +1450,7 @@
         <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1016,7 +1459,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -1029,7 +1472,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1038,7 +1481,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="str">
@@ -1049,39 +1492,39 @@
         <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>3</v>
@@ -1096,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>7</v>
@@ -1109,7 +1552,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1118,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="str">
@@ -1129,7 +1572,7 @@
         <v>15</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1138,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>8</v>
@@ -1151,7 +1594,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1160,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="str">
@@ -1171,39 +1614,39 @@
         <v>15</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>9</v>
@@ -1212,13 +1655,13 @@
     </row>
     <row r="14" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="str">
@@ -1229,7 +1672,7 @@
         <v>15</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1238,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>8</v>
@@ -1251,7 +1694,7 @@
         <v>15</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1260,7 +1703,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>8</v>
@@ -1273,133 +1716,247 @@
         <v>15</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="str">
+        <f>LEFT(_xlfn.CONCAT(B19, "_", C19), (FIND("(", _xlfn.CONCAT(B19, "_", C19), 1)-1))</f>
+        <v xml:space="preserve">CTD_Interaction </v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
+      <c r="B20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3" t="str">
+        <f t="shared" ref="E20:E21" si="3">LEFT(_xlfn.CONCAT(B20, "_", C20), (FIND("(", _xlfn.CONCAT(B20, "_", C20), 1)-1))</f>
+        <v xml:space="preserve">CTD_InteractionActions </v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">CTD_PubMedIDs </v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A22" s="18"/>
+      <c r="B22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A23" s="19"/>
+      <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="C23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="E24" s="1" t="str">
+        <f>LEFT(_xlfn.CONCAT(B24, "_", C24), (FIND("(", _xlfn.CONCAT(B24, "_", C24), 1)-1))</f>
+        <v xml:space="preserve">CTD_Interaction </v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A25" s="15"/>
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f t="shared" ref="E25:E26" si="4">LEFT(_xlfn.CONCAT(B25, "_", C25), (FIND("(", _xlfn.CONCAT(B25, "_", C25), 1)-1))</f>
+        <v xml:space="preserve">CTD_InteractionActions </v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">CTD_PubMedIDs </v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A27" s="15"/>
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A28" s="16"/>
+      <c r="B28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1511,10 +2068,12 @@
       <c r="G40" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1522,11 +2081,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780CD01F-0819-CA44-B0D6-41E21FE9EADE}">
-  <dimension ref="A1:G188"/>
+  <dimension ref="A1:G191"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1535,7 +2094,7 @@
     <col min="2" max="2" width="13.1640625" style="11" customWidth="1"/>
     <col min="3" max="3" width="38" style="11" customWidth="1"/>
     <col min="4" max="4" width="17.83203125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="26.1640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" style="11" customWidth="1"/>
     <col min="6" max="6" width="25.1640625" style="11" customWidth="1"/>
     <col min="7" max="7" width="93.6640625" style="12" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="10"/>
@@ -1543,19 +2102,19 @@
   <sheetData>
     <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>5</v>
@@ -1572,7 +2131,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -1584,7 +2143,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -1601,7 +2160,7 @@
         <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1618,7 +2177,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1635,7 +2194,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1652,10 +2211,10 @@
         <v>20</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="70" x14ac:dyDescent="0.2">
       <c r="A7" s="24"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -1663,73 +2222,71 @@
         <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+      <c r="A8" s="24"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+      <c r="A9" s="25"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A10" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="B10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="E10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="G10" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -1740,10 +2297,10 @@
         <v>15</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1751,13 +2308,13 @@
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>41</v>
@@ -1774,118 +2331,116 @@
         <v>15</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A15" s="27"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A17" s="28"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="B18" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="6" t="s">
+      <c r="E18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="G18" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A19" s="30"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1893,329 +2448,475 @@
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A21" s="30"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A22" s="30"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A23" s="30"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A22" s="31"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="6" t="s">
+      <c r="E23" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A24" s="30"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E24" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A23" s="26" t="s">
+      <c r="G24" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A25" s="31"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A26" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="B26" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="E26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="G26" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
       <c r="D27" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
       <c r="D28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E31" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+      <c r="A33" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="F38" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A40" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="3" t="s">
+      <c r="C40" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A45" s="27"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E45" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="13"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="13"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="13"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="13"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="13"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="13"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="13"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="13"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="13"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="13"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="13"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="13"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="13"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="13"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="13"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="13"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="13"/>
+      <c r="G45" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
@@ -3495,20 +4196,56 @@
       <c r="F188" s="5"/>
       <c r="G188" s="13"/>
     </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189" s="5"/>
+      <c r="B189" s="5"/>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="5"/>
+      <c r="G189" s="13"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190" s="5"/>
+      <c r="B190" s="5"/>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="5"/>
+      <c r="G190" s="13"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191" s="5"/>
+      <c r="B191" s="5"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
+      <c r="F191" s="5"/>
+      <c r="G191" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="C23:C29"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="C16:C22"/>
+  <mergeCells count="21">
+    <mergeCell ref="A40:A46"/>
+    <mergeCell ref="B40:B46"/>
+    <mergeCell ref="C40:C46"/>
+    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="C26:C32"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/pheknowlator_source_metadata.xlsx
+++ b/resources/pheknowlator_source_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiffanycallahan/Dropbox/GraduateSchool/PhD/LabWork/PheKnowLator/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67185A4-6EE4-7247-B23B-3BE506981181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA50798B-145F-9841-A8C7-1F74017332A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10440" yWindow="1160" windowWidth="37820" windowHeight="23880" xr2:uid="{82CFCCA6-69D0-6D4F-8FD9-9511C5B37B8B}"/>
+    <workbookView xWindow="10440" yWindow="1160" windowWidth="37820" windowHeight="23880" activeTab="1" xr2:uid="{82CFCCA6-69D0-6D4F-8FD9-9511C5B37B8B}"/>
   </bookViews>
   <sheets>
     <sheet name="edges" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="99">
   <si>
     <t>edge_type</t>
   </si>
@@ -47,6 +47,15 @@
   </si>
   <si>
     <t>chemical-disease</t>
+  </si>
+  <si>
+    <t>DirectEvidence</t>
+  </si>
+  <si>
+    <t>InferenceScore</t>
+  </si>
+  <si>
+    <t>PubMedIDs</t>
   </si>
   <si>
     <t>delimiter</t>
@@ -167,21 +176,6 @@
     <t>provider_column_name</t>
   </si>
   <si>
-    <t>PubMedIDs (column 9)</t>
-  </si>
-  <si>
-    <t>InferenceScore (column 7)</t>
-  </si>
-  <si>
-    <t>DirectEvidence (column 5)</t>
-  </si>
-  <si>
-    <t>InferenceGeneSymbol (column 6)</t>
-  </si>
-  <si>
-    <t>Value derived from CTD</t>
-  </si>
-  <si>
     <t>chemical-gene</t>
   </si>
   <si>
@@ -287,19 +281,10 @@
     <t>The Sequence Ontology (SO)</t>
   </si>
   <si>
-    <t>Interaction (column 8)</t>
-  </si>
-  <si>
     <t>biolink:interacts_with</t>
   </si>
   <si>
     <t>Mapped through RO concept RO:0002434</t>
-  </si>
-  <si>
-    <t>InteractionActions (column 9)</t>
-  </si>
-  <si>
-    <t>PubMedIDs (column 10)</t>
   </si>
   <si>
     <t>protein</t>
@@ -794,6 +779,74 @@
       </rPr>
       <t>rna</t>
     </r>
+  </si>
+  <si>
+    <t>CTD:OrganismID</t>
+  </si>
+  <si>
+    <t>CTD_OrganismID</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulled from data provided by CTD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTD Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-gene:column 7</t>
+    </r>
+  </si>
+  <si>
+    <t>Value derived from CTD (column: 6)</t>
+  </si>
+  <si>
+    <t>Value derived from CTD (column: 9)</t>
+  </si>
+  <si>
+    <t>Value derived from CTD (column: 7)</t>
+  </si>
+  <si>
+    <t>Value derived from CTD (column: 5)</t>
+  </si>
+  <si>
+    <t>InferenceGeneSymbol</t>
+  </si>
+  <si>
+    <t>Value derived from CTD (column:8)</t>
+  </si>
+  <si>
+    <t>OrganismID</t>
+  </si>
+  <si>
+    <t>Value derived from CTD (column:9)</t>
+  </si>
+  <si>
+    <t>Value derived from CTD (column:10)</t>
+  </si>
+  <si>
+    <t>Value derived from CTD (column:7)</t>
+  </si>
+  <si>
+    <t>InteractionActions</t>
+  </si>
+  <si>
+    <t>Interaction</t>
   </si>
 </sst>
 </file>
@@ -1367,11 +1420,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC7A73D-1C32-0943-8AF1-D604CF68867B}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1394,19 +1447,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1417,20 +1470,20 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f>LEFT(_xlfn.CONCAT(B2, "_", C2), (FIND("(", _xlfn.CONCAT(B2, "_", C2), 1)-1))</f>
-        <v xml:space="preserve">CTD_DirectEvidence </v>
+        <f>_xlfn.CONCAT(B2, "_", C2)</f>
+        <v>CTD_DirectEvidence</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1439,18 +1492,18 @@
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="str">
-        <f t="shared" ref="E3:E5" si="0">LEFT(_xlfn.CONCAT(B3, "_", C3), (FIND("(", _xlfn.CONCAT(B3, "_", C3), 1)-1))</f>
-        <v xml:space="preserve">CTD_InferenceScore </v>
+        <f t="shared" ref="E3:E5" si="0">_xlfn.CONCAT(B3, "_", C3)</f>
+        <v>CTD_InferenceScore</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1459,72 +1512,72 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CTD_PubMedIDs </v>
+        <v>CTD_PubMedIDs</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">CTD_InferenceGeneSymbol </v>
+        <v>CTD_InferenceGeneSymbol</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>3</v>
@@ -1533,26 +1586,26 @@
     </row>
     <row r="8" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E8" s="3" t="str">
-        <f t="shared" ref="E8:E11" si="1">LEFT(_xlfn.CONCAT(B8, "_", C8), (FIND("(", _xlfn.CONCAT(B8, "_", C8), 1)-1))</f>
-        <v xml:space="preserve">CTD_DirectEvidence </v>
+        <f t="shared" ref="E8:E11" si="1">_xlfn.CONCAT(B8, "_", C8)</f>
+        <v>CTD_DirectEvidence</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1561,18 +1614,18 @@
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CTD_InferenceScore </v>
+        <v>CTD_InferenceScore</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1581,20 +1634,20 @@
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CTD_PubMedIDs </v>
+        <v>CTD_PubMedIDs</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1603,76 +1656,76 @@
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CTD_InferenceGeneSymbol </v>
+        <v>CTD_InferenceGeneSymbol</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="str">
-        <f>LEFT(_xlfn.CONCAT(B14, "_", C14), (FIND("(", _xlfn.CONCAT(B14, "_", C14), 1)-1))</f>
-        <v xml:space="preserve">CTD_Interaction </v>
+        <f>_xlfn.CONCAT(B14, "_", C14)</f>
+        <v>CTD_Interaction</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1681,20 +1734,20 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f t="shared" ref="E15:E16" si="2">LEFT(_xlfn.CONCAT(B15, "_", C15), (FIND("(", _xlfn.CONCAT(B15, "_", C15), 1)-1))</f>
-        <v xml:space="preserve">CTD_InteractionActions </v>
+        <f t="shared" ref="E15:E17" si="2">_xlfn.CONCAT(B15, "_", C15)</f>
+        <v>CTD_InteractionActions</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1703,100 +1756,96 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">CTD_PubMedIDs </v>
+        <v>CTD_PubMedIDs</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="E17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>CTD_OrganismID</v>
+      </c>
+      <c r="F17" s="1"/>
       <c r="G17" s="2" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3" t="str">
-        <f>LEFT(_xlfn.CONCAT(B19, "_", C19), (FIND("(", _xlfn.CONCAT(B19, "_", C19), 1)-1))</f>
-        <v xml:space="preserve">CTD_Interaction </v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="A19" s="16"/>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
+      <c r="A20" s="17" t="s">
+        <v>63</v>
+      </c>
       <c r="B20" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D20" s="3"/>
       <c r="E20" s="3" t="str">
-        <f t="shared" ref="E20:E21" si="3">LEFT(_xlfn.CONCAT(B20, "_", C20), (FIND("(", _xlfn.CONCAT(B20, "_", C20), 1)-1))</f>
-        <v xml:space="preserve">CTD_InteractionActions </v>
+        <f>_xlfn.CONCAT(B20, "_", C20)</f>
+        <v>CTD_Interaction</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1805,185 +1854,216 @@
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E21" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">CTD_PubMedIDs </v>
+        <f t="shared" ref="E21:E23" si="3">_xlfn.CONCAT(B21, "_", C21)</f>
+        <v>CTD_InteractionActions</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
       <c r="B22" s="3" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>CTD_PubMedIDs</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="3" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>CTD_OrganismID</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A24" s="18"/>
+      <c r="B24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1" t="str">
-        <f>LEFT(_xlfn.CONCAT(B24, "_", C24), (FIND("(", _xlfn.CONCAT(B24, "_", C24), 1)-1))</f>
-        <v xml:space="preserve">CTD_Interaction </v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>47</v>
+      <c r="F24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
-      <c r="B25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="1" t="str">
-        <f t="shared" ref="E25:E26" si="4">LEFT(_xlfn.CONCAT(B25, "_", C25), (FIND("(", _xlfn.CONCAT(B25, "_", C25), 1)-1))</f>
-        <v xml:space="preserve">CTD_InteractionActions </v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="A25" s="19"/>
+      <c r="B25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
+      <c r="A26" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="B26" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D26" s="1"/>
       <c r="E26" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">CTD_PubMedIDs </v>
+        <f>_xlfn.CONCAT(B26, "_", C26)</f>
+        <v>CTD_Interaction</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
-        <v>24</v>
+        <v>97</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f t="shared" ref="E27:E29" si="4">_xlfn.CONCAT(B27, "_", C27)</f>
+        <v>CTD_InteractionActions</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>CTD_PubMedIDs</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A29" s="15"/>
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>CTD_OrganismID</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A30" s="15"/>
+      <c r="B30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A31" s="16"/>
+      <c r="B31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -2067,13 +2147,40 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A26:A31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2081,11 +2188,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780CD01F-0819-CA44-B0D6-41E21FE9EADE}">
-  <dimension ref="A1:G191"/>
+  <dimension ref="A1:G194"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2102,48 +2209,48 @@
   <sheetData>
     <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="42" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -2151,16 +2258,16 @@
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2168,16 +2275,16 @@
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2185,16 +2292,16 @@
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2202,16 +2309,16 @@
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="70" x14ac:dyDescent="0.2">
@@ -2219,16 +2326,16 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="112" x14ac:dyDescent="0.2">
@@ -2236,16 +2343,16 @@
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="112" x14ac:dyDescent="0.2">
@@ -2253,37 +2360,37 @@
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G10" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -2291,16 +2398,16 @@
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2308,16 +2415,16 @@
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2325,16 +2432,16 @@
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2342,16 +2449,16 @@
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="56" x14ac:dyDescent="0.2">
@@ -2359,16 +2466,16 @@
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="56" x14ac:dyDescent="0.2">
@@ -2376,16 +2483,16 @@
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="56" x14ac:dyDescent="0.2">
@@ -2393,37 +2500,37 @@
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
       <c r="D17" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A18" s="29" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -2431,16 +2538,16 @@
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2448,16 +2555,16 @@
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2465,16 +2572,16 @@
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2482,16 +2589,16 @@
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
       <c r="D22" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="56" x14ac:dyDescent="0.2">
@@ -2499,16 +2606,16 @@
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="56" x14ac:dyDescent="0.2">
@@ -2516,16 +2623,16 @@
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
       <c r="D24" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="56" x14ac:dyDescent="0.2">
@@ -2533,37 +2640,37 @@
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
       <c r="D25" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A26" s="26" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G26" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -2571,16 +2678,16 @@
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
       <c r="D27" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2588,16 +2695,16 @@
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
       <c r="D28" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2605,16 +2712,16 @@
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
       <c r="D29" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2622,16 +2729,16 @@
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
       <c r="D30" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="56" x14ac:dyDescent="0.2">
@@ -2639,90 +2746,90 @@
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
       <c r="D31" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="42" x14ac:dyDescent="0.2">
-      <c r="A33" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="32" t="s">
+      <c r="G33" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="33" t="s">
+    </row>
+    <row r="34" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+      <c r="A34" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="34" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A34" s="35"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="33" t="s">
-        <v>17</v>
-      </c>
       <c r="G34" s="34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A35" s="35"/>
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="33" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F35" s="33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G35" s="34" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2730,16 +2837,16 @@
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E36" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="33" t="s">
-        <v>19</v>
-      </c>
       <c r="G36" s="34" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2747,124 +2854,124 @@
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="33" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E37" s="33" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F37" s="33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G37" s="34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A38" s="35"/>
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E38" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" s="34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A41" s="36"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F38" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" s="34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A39" s="36"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F39" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" s="34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A40" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="3" t="s">
+      <c r="G41" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A42" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="G42" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
       <c r="D43" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2872,78 +2979,102 @@
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
       <c r="D44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="G44" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="27"/>
       <c r="C45" s="27"/>
       <c r="D45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="G45" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A46" s="27"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A47" s="27"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A48" s="27"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="13"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="13"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="13"/>
+      <c r="G49" s="4" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
@@ -4223,23 +4354,50 @@
       <c r="F191" s="5"/>
       <c r="G191" s="13"/>
     </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192" s="5"/>
+      <c r="B192" s="5"/>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="5"/>
+      <c r="G192" s="13"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193" s="5"/>
+      <c r="B193" s="5"/>
+      <c r="C193" s="5"/>
+      <c r="D193" s="5"/>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5"/>
+      <c r="G193" s="13"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194" s="5"/>
+      <c r="B194" s="5"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A40:A46"/>
-    <mergeCell ref="B40:B46"/>
-    <mergeCell ref="C40:C46"/>
-    <mergeCell ref="A33:A39"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="B42:B49"/>
+    <mergeCell ref="C42:C49"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="C34:C41"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A17"/>
     <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="C26:C32"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="C10:C17"/>

--- a/resources/pheknowlator_source_metadata.xlsx
+++ b/resources/pheknowlator_source_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiffanycallahan/Dropbox/GraduateSchool/PhD/LabWork/PheKnowLator/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA50798B-145F-9841-A8C7-1F74017332A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7546682-E100-2045-9977-B9391BC86D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10440" yWindow="1160" windowWidth="37820" windowHeight="23880" activeTab="1" xr2:uid="{82CFCCA6-69D0-6D4F-8FD9-9511C5B37B8B}"/>
+    <workbookView xWindow="13360" yWindow="460" windowWidth="37820" windowHeight="23880" activeTab="1" xr2:uid="{82CFCCA6-69D0-6D4F-8FD9-9511C5B37B8B}"/>
   </bookViews>
   <sheets>
     <sheet name="edges" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="115">
   <si>
     <t>edge_type</t>
   </si>
@@ -161,12 +161,6 @@
     <t>Chemical Entities of Biological Interest (ChEBI)</t>
   </si>
   <si>
-    <t>The Mondo Disease Ontology (MONDO)</t>
-  </si>
-  <si>
-    <t>The Human Phenotype Ontology (HP)</t>
-  </si>
-  <si>
     <t>Derived from ontology</t>
   </si>
   <si>
@@ -278,9 +272,6 @@
     </r>
   </si>
   <si>
-    <t>The Sequence Ontology (SO)</t>
-  </si>
-  <si>
     <t>biolink:interacts_with</t>
   </si>
   <si>
@@ -288,9 +279,6 @@
   </si>
   <si>
     <t>protein</t>
-  </si>
-  <si>
-    <t>The Protein Ontology (PR)</t>
   </si>
   <si>
     <r>
@@ -847,6 +835,154 @@
   </si>
   <si>
     <t>Interaction</t>
+  </si>
+  <si>
+    <t>pathway</t>
+  </si>
+  <si>
+    <t>Pathway Ontology (PW)</t>
+  </si>
+  <si>
+    <t>Protein Ontology (PR)</t>
+  </si>
+  <si>
+    <t>Sequence Ontology (SO)</t>
+  </si>
+  <si>
+    <t>Human Phenotype Ontology (HP)</t>
+  </si>
+  <si>
+    <t>Mondo Disease Ontology (MONDO)</t>
+  </si>
+  <si>
+    <t>CTD:ReactomeID</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTD Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-gene:column 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulled from data provided by CTD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTD Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-gene:column 5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Keyword provided by a user in the resource_info.txt, edge_source_list.txt, ontology_source_list.txt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">The Default value is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pathway</t>
+    </r>
+  </si>
+  <si>
+    <t>chemical-pathway</t>
+  </si>
+  <si>
+    <t>Mapped through RO concept RO:0000056</t>
+  </si>
+  <si>
+    <t>biolink:participates_in</t>
+  </si>
+  <si>
+    <t>EvidenceID</t>
+  </si>
+  <si>
+    <t>Value derived from CTD (column:5)</t>
+  </si>
+  <si>
+    <t>Value derived from CTD (column:4)</t>
+  </si>
+  <si>
+    <r>
+      <t>Value determined by NodeNormalization. When no match is found, use nearest parent's mapped concept. If no map can be found to a parent concept use the BioLink concept use the default value.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> The Default value is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>biolink:Pathway</t>
+    </r>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>CTD:Species</t>
+  </si>
+  <si>
+    <t>CTD_Species</t>
   </si>
 </sst>
 </file>
@@ -1420,11 +1556,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC7A73D-1C32-0943-8AF1-D604CF68867B}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1447,7 +1583,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>7</v>
@@ -1483,7 +1619,7 @@
         <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1503,7 +1639,7 @@
         <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1525,7 +1661,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -1534,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="str">
@@ -1545,7 +1681,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1605,7 +1741,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1625,7 +1761,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1647,7 +1783,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1656,7 +1792,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="str">
@@ -1667,7 +1803,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1708,13 +1844,13 @@
     </row>
     <row r="14" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="str">
@@ -1725,7 +1861,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1734,7 +1870,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -1747,7 +1883,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1769,7 +1905,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1778,16 +1914,18 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="str">
         <f t="shared" si="2"/>
         <v>CTD_OrganismID</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G17" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1803,10 +1941,10 @@
         <v>27</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1822,19 +1960,19 @@
         <v>30</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="str">
@@ -1845,7 +1983,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1854,7 +1992,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>11</v>
@@ -1867,7 +2005,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1889,7 +2027,7 @@
         <v>18</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1898,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="str">
@@ -1907,7 +2045,7 @@
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1923,10 +2061,10 @@
         <v>27</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1942,19 +2080,19 @@
         <v>30</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="str">
@@ -1965,7 +2103,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1974,7 +2112,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>11</v>
@@ -1987,7 +2125,7 @@
         <v>18</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2009,7 +2147,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2018,16 +2156,18 @@
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="str">
         <f t="shared" si="4"/>
         <v>CTD_OrganismID</v>
       </c>
-      <c r="F29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G29" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2043,10 +2183,10 @@
         <v>27</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2062,45 +2202,87 @@
         <v>30</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+    <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A32" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3" t="str">
+        <f t="shared" ref="E32:E33" si="5">_xlfn.CONCAT(B32, "_", C32)</f>
+        <v>CTD_EvidenceID</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A33" s="18"/>
+      <c r="B33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="str">
+        <f>_xlfn.CONCAT(B33, "_", C33)</f>
+        <v>CTD_Species</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A34" s="18"/>
+      <c r="B34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A35" s="19"/>
+      <c r="B35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
@@ -2156,31 +2338,14 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="A20:A25"/>
     <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A32:A35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2191,8 +2356,8 @@
   <dimension ref="A1:G194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2221,7 +2386,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>8</v>
@@ -2250,7 +2415,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -2267,7 +2432,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2284,7 +2449,7 @@
         <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2301,7 +2466,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2318,7 +2483,7 @@
         <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="70" x14ac:dyDescent="0.2">
@@ -2329,13 +2494,13 @@
         <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="112" x14ac:dyDescent="0.2">
@@ -2352,7 +2517,7 @@
         <v>36</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="112" x14ac:dyDescent="0.2">
@@ -2363,11 +2528,11 @@
         <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -2378,7 +2543,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>14</v>
@@ -2390,7 +2555,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -2407,7 +2572,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2424,7 +2589,7 @@
         <v>21</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2441,7 +2606,7 @@
         <v>22</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2458,7 +2623,7 @@
         <v>23</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="56" x14ac:dyDescent="0.2">
@@ -2469,13 +2634,13 @@
         <v>25</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="56" x14ac:dyDescent="0.2">
@@ -2486,13 +2651,13 @@
         <v>25</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>36</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="56" x14ac:dyDescent="0.2">
@@ -2503,11 +2668,11 @@
         <v>25</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -2518,7 +2683,7 @@
         <v>39</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>14</v>
@@ -2530,7 +2695,7 @@
         <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -2547,7 +2712,7 @@
         <v>20</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2564,7 +2729,7 @@
         <v>21</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2581,7 +2746,7 @@
         <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2598,7 +2763,7 @@
         <v>23</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="56" x14ac:dyDescent="0.2">
@@ -2609,13 +2774,13 @@
         <v>25</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="56" x14ac:dyDescent="0.2">
@@ -2626,13 +2791,13 @@
         <v>25</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F24" s="20" t="s">
         <v>36</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="56" x14ac:dyDescent="0.2">
@@ -2643,11 +2808,11 @@
         <v>25</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -2655,10 +2820,10 @@
         <v>13</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>14</v>
@@ -2670,7 +2835,7 @@
         <v>15</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -2687,7 +2852,7 @@
         <v>20</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2704,7 +2869,7 @@
         <v>21</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2721,7 +2886,7 @@
         <v>22</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2738,7 +2903,7 @@
         <v>23</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="56" x14ac:dyDescent="0.2">
@@ -2749,13 +2914,13 @@
         <v>25</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="56" x14ac:dyDescent="0.2">
@@ -2766,13 +2931,13 @@
         <v>25</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="56" x14ac:dyDescent="0.2">
@@ -2783,13 +2948,13 @@
         <v>1</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="42" x14ac:dyDescent="0.2">
@@ -2797,10 +2962,10 @@
         <v>13</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="D34" s="33" t="s">
         <v>14</v>
@@ -2812,7 +2977,7 @@
         <v>15</v>
       </c>
       <c r="G34" s="34" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -2829,7 +2994,7 @@
         <v>20</v>
       </c>
       <c r="G35" s="34" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2846,7 +3011,7 @@
         <v>21</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2863,7 +3028,7 @@
         <v>22</v>
       </c>
       <c r="G37" s="34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2880,7 +3045,7 @@
         <v>23</v>
       </c>
       <c r="G38" s="34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="56" x14ac:dyDescent="0.2">
@@ -2891,13 +3056,13 @@
         <v>25</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F39" s="33" t="s">
         <v>37</v>
       </c>
       <c r="G39" s="34" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="56" x14ac:dyDescent="0.2">
@@ -2908,13 +3073,13 @@
         <v>25</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F40" s="33" t="s">
         <v>36</v>
       </c>
       <c r="G40" s="34" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="56" x14ac:dyDescent="0.2">
@@ -2925,13 +3090,13 @@
         <v>1</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -2939,10 +3104,10 @@
         <v>13</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>14</v>
@@ -2954,7 +3119,7 @@
         <v>15</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -2971,7 +3136,7 @@
         <v>20</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2988,7 +3153,7 @@
         <v>21</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -3005,7 +3170,7 @@
         <v>22</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -3022,7 +3187,7 @@
         <v>23</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="56" x14ac:dyDescent="0.2">
@@ -3033,13 +3198,13 @@
         <v>25</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="56" x14ac:dyDescent="0.2">
@@ -3050,13 +3215,13 @@
         <v>25</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="56" x14ac:dyDescent="0.2">
@@ -3067,77 +3232,139 @@
         <v>1</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="13"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="13"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="13"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="13"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="13"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="13"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="13"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+      <c r="A50" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A51" s="24"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" s="34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A52" s="24"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A53" s="24"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A54" s="24"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54" s="34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A55" s="24"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F55" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G55" s="34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
@@ -4382,7 +4609,10 @@
       <c r="G194" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="24">
+    <mergeCell ref="C50:C56"/>
+    <mergeCell ref="B50:B56"/>
+    <mergeCell ref="A50:A56"/>
     <mergeCell ref="A42:A49"/>
     <mergeCell ref="B42:B49"/>
     <mergeCell ref="C42:C49"/>

--- a/resources/pheknowlator_source_metadata.xlsx
+++ b/resources/pheknowlator_source_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiffanycallahan/Dropbox/GraduateSchool/PhD/LabWork/PheKnowLator/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7546682-E100-2045-9977-B9391BC86D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBA74CF-CBFA-B648-A424-9F2841554A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13360" yWindow="460" windowWidth="37820" windowHeight="23880" activeTab="1" xr2:uid="{82CFCCA6-69D0-6D4F-8FD9-9511C5B37B8B}"/>
+    <workbookView xWindow="9820" yWindow="460" windowWidth="37820" windowHeight="23880" activeTab="1" xr2:uid="{82CFCCA6-69D0-6D4F-8FD9-9511C5B37B8B}"/>
   </bookViews>
   <sheets>
     <sheet name="edges" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="145">
   <si>
     <t>edge_type</t>
   </si>
@@ -431,6 +431,21 @@
     <t>chemical-rna</t>
   </si>
   <si>
+    <t>CTD:ChemicalName</t>
+  </si>
+  <si>
+    <t>CTD:CasRN</t>
+  </si>
+  <si>
+    <t>CTD:DiseaseName</t>
+  </si>
+  <si>
+    <t>CTD:DiseaseID</t>
+  </si>
+  <si>
+    <t>CTD:OmimIDs</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
 </t>
@@ -453,12 +468,473 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-chemical-disease:column 0
-chemical-phenotype:column 0</t>
-    </r>
-  </si>
-  <si>
-    <t>CTD:ChemicalName</t>
+chemical-phenotype:column 8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTD Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-phenotype:column 4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTD Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-phenotype:column 3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTD Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-disease:column 8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTD Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-disease:column 4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTD Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-disease:column 3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTD Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-gene:column 3</t>
+    </r>
+  </si>
+  <si>
+    <t>CTD:GeneSymbol</t>
+  </si>
+  <si>
+    <t>rna</t>
+  </si>
+  <si>
+    <r>
+      <t>Value determined by NodeNormalization. When no match is found, use nearest parent's mapped concept. If no map can be found to a parent concept use the BioLink concept use the default value.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> The Default value is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>biolink:GenomicEntity</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Keyword provided by a user in the resource_info.txt, edge_source_list.txt, ontology_source_list.txt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">The Default value is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>rna</t>
+    </r>
+  </si>
+  <si>
+    <t>CTD:OrganismID</t>
+  </si>
+  <si>
+    <t>CTD_OrganismID</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulled from data provided by CTD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTD Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-gene:column 7</t>
+    </r>
+  </si>
+  <si>
+    <t>Value derived from CTD (column: 6)</t>
+  </si>
+  <si>
+    <t>Value derived from CTD (column: 9)</t>
+  </si>
+  <si>
+    <t>Value derived from CTD (column: 7)</t>
+  </si>
+  <si>
+    <t>Value derived from CTD (column: 5)</t>
+  </si>
+  <si>
+    <t>InferenceGeneSymbol</t>
+  </si>
+  <si>
+    <t>Value derived from CTD (column:8)</t>
+  </si>
+  <si>
+    <t>OrganismID</t>
+  </si>
+  <si>
+    <t>Value derived from CTD (column:9)</t>
+  </si>
+  <si>
+    <t>Value derived from CTD (column:10)</t>
+  </si>
+  <si>
+    <t>Value derived from CTD (column:7)</t>
+  </si>
+  <si>
+    <t>InteractionActions</t>
+  </si>
+  <si>
+    <t>Interaction</t>
+  </si>
+  <si>
+    <t>pathway</t>
+  </si>
+  <si>
+    <t>Pathway Ontology (PW)</t>
+  </si>
+  <si>
+    <t>Protein Ontology (PR)</t>
+  </si>
+  <si>
+    <t>Sequence Ontology (SO)</t>
+  </si>
+  <si>
+    <t>Human Phenotype Ontology (HP)</t>
+  </si>
+  <si>
+    <t>Mondo Disease Ontology (MONDO)</t>
+  </si>
+  <si>
+    <t>CTD:ReactomeID</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTD Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-gene:column 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulled from data provided by CTD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTD Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-gene:column 5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Keyword provided by a user in the resource_info.txt, edge_source_list.txt, ontology_source_list.txt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">The Default value is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pathway</t>
+    </r>
+  </si>
+  <si>
+    <t>chemical-pathway</t>
+  </si>
+  <si>
+    <t>Mapped through RO concept RO:0000056</t>
+  </si>
+  <si>
+    <t>biolink:participates_in</t>
+  </si>
+  <si>
+    <t>EvidenceID</t>
+  </si>
+  <si>
+    <t>Value derived from CTD (column:5)</t>
+  </si>
+  <si>
+    <t>Value derived from CTD (column:4)</t>
+  </si>
+  <si>
+    <r>
+      <t>Value determined by NodeNormalization. When no match is found, use nearest parent's mapped concept. If no map can be found to a parent concept use the BioLink concept use the default value.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> The Default value is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>biolink:Pathway</t>
+    </r>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>CTD:Species</t>
+  </si>
+  <si>
+    <t>CTD_Species</t>
+  </si>
+  <si>
+    <t>chemical-gobp</t>
+  </si>
+  <si>
+    <t>Mapped through RO concept RO:0002436</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTD Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-disease:column 2
+chemical-phenotype:column 2
+chemical-gene:column 1
+chemical-rna:column 1
+chemical-protein:column 1
+chemical-gobp:column 2
+chemical-gocc:column 2
+chemical-gomf:column 2</t>
+    </r>
   </si>
   <si>
     <r>
@@ -487,11 +963,11 @@
 chemical-phenotype:column 1
 chemical-gene:column 0
 chemical-rna:column 0
-chemical-protein:column 0</t>
-    </r>
-  </si>
-  <si>
-    <t>CTD:CasRN</t>
+chemical-protein:column 0
+chemical-gobp:column 1
+chemical-gocc:column 1
+chemical-gomf:column 1</t>
+    </r>
   </si>
   <si>
     <r>
@@ -516,21 +992,66 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-chemical-disease:column 2
-chemical-phenotype:column 2
-chemical-gene:column 1
-chemical-rna:column 1
-chemical-protein:column 1</t>
-    </r>
-  </si>
-  <si>
-    <t>CTD:DiseaseName</t>
-  </si>
-  <si>
-    <t>CTD:DiseaseID</t>
-  </si>
-  <si>
-    <t>CTD:OmimIDs</t>
+chemical-disease:column 0
+chemical-phenotype:column 0
+chemical-gobp:column 0
+chemical-gocc:column 0
+chemical-gomf:column 0</t>
+    </r>
+  </si>
+  <si>
+    <t>gobp</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Keyword provided by a user in the resource_info.txt, edge_source_list.txt, ontology_source_list.txt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">The Default value is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GOBiologicalProcess</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Value determined by NodeNormalization. When no match is found, use nearest parent's mapped concept. If no map can be found to a parent concept use the BioLink concept use the default value.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> The Default value is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>biolink:BiologicalProcess</t>
+    </r>
+  </si>
+  <si>
+    <t>CTD:GOTermName</t>
   </si>
   <si>
     <r>
@@ -555,170 +1076,89 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-chemical-phenotype:column 8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CTD Data Information</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-chemical-phenotype:column 4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CTD Data Information</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-chemical-phenotype:column 3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CTD Data Information</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-chemical-disease:column 8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CTD Data Information</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-chemical-disease:column 4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CTD Data Information</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-chemical-disease:column 3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CTD Data Information</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-chemical-gene:column 3</t>
-    </r>
-  </si>
-  <si>
-    <t>CTD:GeneSymbol</t>
-  </si>
-  <si>
-    <t>rna</t>
+chemical-gene:column 4</t>
+    </r>
+  </si>
+  <si>
+    <t>CTD:Ontology</t>
+  </si>
+  <si>
+    <t>CTD_Ontology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	biolink:molecularly_interacts_with</t>
+  </si>
+  <si>
+    <t>HighestGOLevel</t>
+  </si>
+  <si>
+    <t>Pvalue</t>
+  </si>
+  <si>
+    <t>CorrectedPValue</t>
+  </si>
+  <si>
+    <t>TargetMatchQty</t>
+  </si>
+  <si>
+    <t>TargetTotalQty</t>
+  </si>
+  <si>
+    <t>BackgroundMatchQty</t>
+  </si>
+  <si>
+    <t>BackgroundTotalQty</t>
+  </si>
+  <si>
+    <t>Gene Ontology (GO)</t>
+  </si>
+  <si>
+    <t>Value derived from CTD (column:6)</t>
+  </si>
+  <si>
+    <t>Value derived from CTD (column:11)</t>
+  </si>
+  <si>
+    <t>Value derived from CTD (column:12)</t>
+  </si>
+  <si>
+    <t>Chemical-gobp</t>
+  </si>
+  <si>
+    <t>Chemical-gocc</t>
+  </si>
+  <si>
+    <t>Chemical-gomf</t>
+  </si>
+  <si>
+    <t>gocc</t>
+  </si>
+  <si>
+    <t>gomf</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Keyword provided by a user in the resource_info.txt, edge_source_list.txt, ontology_source_list.txt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">The Default value is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GOCellularComponent</t>
+    </r>
   </si>
   <si>
     <r>
@@ -741,7 +1181,31 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>biolink:GenomicEntity</t>
+      <t>biolink:CellularComponent</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Value determined by NodeNormalization. When no match is found, use nearest parent's mapped concept. If no map can be found to a parent concept use the BioLink concept use the default value.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> The Default value is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>biolink:MolecularFunction</t>
     </r>
   </si>
   <si>
@@ -765,224 +1229,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>rna</t>
-    </r>
-  </si>
-  <si>
-    <t>CTD:OrganismID</t>
-  </si>
-  <si>
-    <t>CTD_OrganismID</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pulled from data provided by CTD
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CTD Data Information</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-chemical-gene:column 7</t>
-    </r>
-  </si>
-  <si>
-    <t>Value derived from CTD (column: 6)</t>
-  </si>
-  <si>
-    <t>Value derived from CTD (column: 9)</t>
-  </si>
-  <si>
-    <t>Value derived from CTD (column: 7)</t>
-  </si>
-  <si>
-    <t>Value derived from CTD (column: 5)</t>
-  </si>
-  <si>
-    <t>InferenceGeneSymbol</t>
-  </si>
-  <si>
-    <t>Value derived from CTD (column:8)</t>
-  </si>
-  <si>
-    <t>OrganismID</t>
-  </si>
-  <si>
-    <t>Value derived from CTD (column:9)</t>
-  </si>
-  <si>
-    <t>Value derived from CTD (column:10)</t>
-  </si>
-  <si>
-    <t>Value derived from CTD (column:7)</t>
-  </si>
-  <si>
-    <t>InteractionActions</t>
-  </si>
-  <si>
-    <t>Interaction</t>
-  </si>
-  <si>
-    <t>pathway</t>
-  </si>
-  <si>
-    <t>Pathway Ontology (PW)</t>
-  </si>
-  <si>
-    <t>Protein Ontology (PR)</t>
-  </si>
-  <si>
-    <t>Sequence Ontology (SO)</t>
-  </si>
-  <si>
-    <t>Human Phenotype Ontology (HP)</t>
-  </si>
-  <si>
-    <t>Mondo Disease Ontology (MONDO)</t>
-  </si>
-  <si>
-    <t>CTD:ReactomeID</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CTD Data Information</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-chemical-gene:column 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pulled from data provided by CTD
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CTD Data Information</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-chemical-gene:column 5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Keyword provided by a user in the resource_info.txt, edge_source_list.txt, ontology_source_list.txt. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">The Default value is </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>pathway</t>
-    </r>
-  </si>
-  <si>
-    <t>chemical-pathway</t>
-  </si>
-  <si>
-    <t>Mapped through RO concept RO:0000056</t>
-  </si>
-  <si>
-    <t>biolink:participates_in</t>
-  </si>
-  <si>
-    <t>EvidenceID</t>
-  </si>
-  <si>
-    <t>Value derived from CTD (column:5)</t>
-  </si>
-  <si>
-    <t>Value derived from CTD (column:4)</t>
-  </si>
-  <si>
-    <r>
-      <t>Value determined by NodeNormalization. When no match is found, use nearest parent's mapped concept. If no map can be found to a parent concept use the BioLink concept use the default value.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> The Default value is </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>biolink:Pathway</t>
-    </r>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>CTD:Species</t>
-  </si>
-  <si>
-    <t>CTD_Species</t>
+      <t>GOMolecularFunction</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1556,11 +1804,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC7A73D-1C32-0943-8AF1-D604CF68867B}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1570,7 +1818,7 @@
     <col min="3" max="3" width="27.83203125" style="9" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="9" customWidth="1"/>
     <col min="5" max="5" width="31.6640625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="25.83203125" style="9" customWidth="1"/>
     <col min="7" max="7" width="45.1640625" style="9" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="9"/>
   </cols>
@@ -1619,7 +1867,7 @@
         <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1639,7 +1887,7 @@
         <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1661,7 +1909,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -1670,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="str">
@@ -1681,7 +1929,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1741,7 +1989,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1761,7 +2009,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1783,7 +2031,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1792,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="str">
@@ -1803,7 +2051,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1850,7 +2098,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="str">
@@ -1861,7 +2109,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1870,7 +2118,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -1883,7 +2131,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1905,7 +2153,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1914,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="str">
@@ -1925,7 +2173,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1972,7 +2220,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="str">
@@ -1983,7 +2231,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -1992,7 +2240,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>11</v>
@@ -2005,7 +2253,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2027,7 +2275,7 @@
         <v>18</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2036,7 +2284,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="str">
@@ -2045,7 +2293,7 @@
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2092,7 +2340,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="str">
@@ -2103,7 +2351,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2112,7 +2360,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>11</v>
@@ -2125,7 +2373,7 @@
         <v>18</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2147,7 +2395,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2156,7 +2404,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="str">
@@ -2167,7 +2415,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2208,24 +2456,24 @@
     </row>
     <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="str">
-        <f t="shared" ref="E32:E33" si="5">_xlfn.CONCAT(B32, "_", C32)</f>
+        <f t="shared" ref="E32" si="5">_xlfn.CONCAT(B32, "_", C32)</f>
         <v>CTD_EvidenceID</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2234,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="str">
@@ -2245,7 +2493,7 @@
         <v>18</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2261,10 +2509,10 @@
         <v>27</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2280,66 +2528,549 @@
         <v>30</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+    <row r="36" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A36" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="E36" s="1" t="str">
+        <f t="shared" ref="E36:E42" si="6">_xlfn.CONCAT(B36, "_", C36)</f>
+        <v>CTD_HighestGOLevel</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A37" s="15"/>
+      <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>126</v>
+      </c>
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="E37" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>CTD_Pvalue</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A38" s="15"/>
+      <c r="B38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>127</v>
+      </c>
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="E38" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>CTD_CorrectedPValue</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A39" s="15"/>
+      <c r="B39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>128</v>
+      </c>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="E39" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>CTD_TargetMatchQty</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A40" s="15"/>
+      <c r="B40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>129</v>
+      </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="E40" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>CTD_TargetTotalQty</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A41" s="15"/>
+      <c r="B41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>130</v>
+      </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+      <c r="E41" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>CTD_BackgroundMatchQty</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A42" s="15"/>
+      <c r="B42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>CTD_BackgroundTotalQty</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A43" s="15"/>
+      <c r="B43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A44" s="16"/>
+      <c r="B44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A45" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3" t="str">
+        <f t="shared" ref="E45:E51" si="7">_xlfn.CONCAT(B45, "_", C45)</f>
+        <v>CTD_HighestGOLevel</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A46" s="18"/>
+      <c r="B46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>CTD_Pvalue</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A47" s="18"/>
+      <c r="B47" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>CTD_CorrectedPValue</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A48" s="18"/>
+      <c r="B48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>CTD_TargetMatchQty</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A49" s="18"/>
+      <c r="B49" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>CTD_TargetTotalQty</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A50" s="18"/>
+      <c r="B50" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>CTD_BackgroundMatchQty</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A51" s="18"/>
+      <c r="B51" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>CTD_BackgroundTotalQty</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A52" s="18"/>
+      <c r="B52" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A53" s="19"/>
+      <c r="B53" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A54" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1" t="str">
+        <f t="shared" ref="E54:E60" si="8">_xlfn.CONCAT(B54, "_", C54)</f>
+        <v>CTD_HighestGOLevel</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A55" s="15"/>
+      <c r="B55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>CTD_Pvalue</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A56" s="15"/>
+      <c r="B56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>CTD_CorrectedPValue</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A57" s="15"/>
+      <c r="B57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>CTD_TargetMatchQty</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A58" s="15"/>
+      <c r="B58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>CTD_TargetTotalQty</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A59" s="15"/>
+      <c r="B59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>CTD_BackgroundMatchQty</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A60" s="15"/>
+      <c r="B60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>CTD_BackgroundTotalQty</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A61" s="15"/>
+      <c r="B61" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A62" s="16"/>
+      <c r="B62" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G62" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="A36:A44"/>
+    <mergeCell ref="A45:A53"/>
+    <mergeCell ref="A54:A62"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A14:A19"/>
@@ -2356,8 +3087,8 @@
   <dimension ref="A1:G194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2486,7 +3217,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="70" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A7" s="24"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -2494,16 +3225,16 @@
         <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="154" x14ac:dyDescent="0.2">
       <c r="A8" s="24"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -2517,10 +3248,10 @@
         <v>36</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="154" x14ac:dyDescent="0.2">
       <c r="A9" s="25"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -2528,11 +3259,11 @@
         <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="7" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -2543,7 +3274,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>14</v>
@@ -2634,13 +3365,13 @@
         <v>25</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="56" x14ac:dyDescent="0.2">
@@ -2651,13 +3382,13 @@
         <v>25</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>36</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="56" x14ac:dyDescent="0.2">
@@ -2668,11 +3399,11 @@
         <v>25</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -2683,7 +3414,7 @@
         <v>39</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>14</v>
@@ -2774,13 +3505,13 @@
         <v>25</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="56" x14ac:dyDescent="0.2">
@@ -2791,13 +3522,13 @@
         <v>25</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F24" s="20" t="s">
         <v>36</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="56" x14ac:dyDescent="0.2">
@@ -2808,11 +3539,11 @@
         <v>25</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -2823,7 +3554,7 @@
         <v>45</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>14</v>
@@ -2914,13 +3645,13 @@
         <v>25</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="56" x14ac:dyDescent="0.2">
@@ -2931,13 +3662,13 @@
         <v>25</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="56" x14ac:dyDescent="0.2">
@@ -2948,13 +3679,13 @@
         <v>1</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="42" x14ac:dyDescent="0.2">
@@ -2962,10 +3693,10 @@
         <v>13</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D34" s="33" t="s">
         <v>14</v>
@@ -2977,7 +3708,7 @@
         <v>15</v>
       </c>
       <c r="G34" s="34" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -2994,7 +3725,7 @@
         <v>20</v>
       </c>
       <c r="G35" s="34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -3056,13 +3787,13 @@
         <v>25</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F39" s="33" t="s">
         <v>37</v>
       </c>
       <c r="G39" s="34" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="56" x14ac:dyDescent="0.2">
@@ -3073,13 +3804,13 @@
         <v>25</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F40" s="33" t="s">
         <v>36</v>
       </c>
       <c r="G40" s="34" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="56" x14ac:dyDescent="0.2">
@@ -3090,13 +3821,13 @@
         <v>1</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -3107,7 +3838,7 @@
         <v>52</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>14</v>
@@ -3198,13 +3929,13 @@
         <v>25</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="56" x14ac:dyDescent="0.2">
@@ -3215,13 +3946,13 @@
         <v>25</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="56" x14ac:dyDescent="0.2">
@@ -3232,13 +3963,13 @@
         <v>1</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="42" x14ac:dyDescent="0.2">
@@ -3246,10 +3977,10 @@
         <v>13</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D50" s="33" t="s">
         <v>14</v>
@@ -3261,7 +3992,7 @@
         <v>15</v>
       </c>
       <c r="G50" s="34" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -3278,7 +4009,7 @@
         <v>20</v>
       </c>
       <c r="G51" s="34" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -3340,13 +4071,13 @@
         <v>25</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F55" s="33" t="s">
         <v>36</v>
       </c>
       <c r="G55" s="34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="56" x14ac:dyDescent="0.2">
@@ -3357,230 +4088,440 @@
         <v>1</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="13"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="13"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="13"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="13"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="13"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="13"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="13"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="13"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="13"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="13"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="13"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="13"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="13"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="13"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="13"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="13"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="13"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="13"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="13"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="13"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="13"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="13"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="13"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="13"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+      <c r="A57" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A58" s="27"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A59" s="27"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A60" s="27"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A61" s="27"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A62" s="27"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A63" s="27"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A64" s="27"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+      <c r="A65" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A66" s="30"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A67" s="30"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A68" s="30"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A69" s="30"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A70" s="30"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A71" s="30"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A72" s="30"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+      <c r="A73" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A74" s="27"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A75" s="27"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A76" s="27"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A77" s="27"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A78" s="27"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A79" s="27"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A80" s="27"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
@@ -4609,10 +5550,19 @@
       <c r="G194" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="33">
+    <mergeCell ref="A65:A72"/>
+    <mergeCell ref="B65:B72"/>
+    <mergeCell ref="C65:C72"/>
+    <mergeCell ref="A73:A80"/>
+    <mergeCell ref="B73:B80"/>
+    <mergeCell ref="C73:C80"/>
     <mergeCell ref="C50:C56"/>
     <mergeCell ref="B50:B56"/>
     <mergeCell ref="A50:A56"/>
+    <mergeCell ref="A57:A64"/>
+    <mergeCell ref="B57:B64"/>
+    <mergeCell ref="C57:C64"/>
     <mergeCell ref="A42:A49"/>
     <mergeCell ref="B42:B49"/>
     <mergeCell ref="C42:C49"/>

--- a/resources/pheknowlator_source_metadata.xlsx
+++ b/resources/pheknowlator_source_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiffanycallahan/Dropbox/GraduateSchool/PhD/LabWork/PheKnowLator/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBA74CF-CBFA-B648-A424-9F2841554A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447710EF-F53E-BD42-8EA1-53241B518515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9820" yWindow="460" windowWidth="37820" windowHeight="23880" activeTab="1" xr2:uid="{82CFCCA6-69D0-6D4F-8FD9-9511C5B37B8B}"/>
+    <workbookView xWindow="9820" yWindow="460" windowWidth="37820" windowHeight="23880" xr2:uid="{82CFCCA6-69D0-6D4F-8FD9-9511C5B37B8B}"/>
   </bookViews>
   <sheets>
     <sheet name="edges" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="157">
   <si>
     <t>edge_type</t>
   </si>
@@ -1122,15 +1122,6 @@
     <t>Value derived from CTD (column:12)</t>
   </si>
   <si>
-    <t>Chemical-gobp</t>
-  </si>
-  <si>
-    <t>Chemical-gocc</t>
-  </si>
-  <si>
-    <t>Chemical-gomf</t>
-  </si>
-  <si>
     <t>gocc</t>
   </si>
   <si>
@@ -1231,6 +1222,51 @@
       </rPr>
       <t>GOMolecularFunction</t>
     </r>
+  </si>
+  <si>
+    <t>disease-chemical</t>
+  </si>
+  <si>
+    <t>Mapped through RO concept RO:0002302</t>
+  </si>
+  <si>
+    <t>biolink:treated_by</t>
+  </si>
+  <si>
+    <t>phenotype-chemical</t>
+  </si>
+  <si>
+    <t>gene-chemical</t>
+  </si>
+  <si>
+    <t>rna-chemical</t>
+  </si>
+  <si>
+    <t>protein-chemical</t>
+  </si>
+  <si>
+    <t>biolink:biolink:has_participant</t>
+  </si>
+  <si>
+    <t>Mapped through RO concept RO:0000057</t>
+  </si>
+  <si>
+    <t>pathway-chemical</t>
+  </si>
+  <si>
+    <t>gobp-chemical</t>
+  </si>
+  <si>
+    <t>chemical-gocc</t>
+  </si>
+  <si>
+    <t>gocc-chemical</t>
+  </si>
+  <si>
+    <t>chemical-gomf</t>
+  </si>
+  <si>
+    <t>gomf-chemical</t>
   </si>
 </sst>
 </file>
@@ -1369,7 +1405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1478,6 +1514,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1804,11 +1843,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC7A73D-1C32-0943-8AF1-D604CF68867B}">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1970,7 +2009,7 @@
     </row>
     <row r="8" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>1</v>
@@ -1982,7 +2021,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="3" t="str">
-        <f t="shared" ref="E8:E11" si="1">_xlfn.CONCAT(B8, "_", C8)</f>
+        <f>_xlfn.CONCAT(B8, "_", C8)</f>
         <v>CTD_DirectEvidence</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -2002,7 +2041,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E9:E11" si="1">_xlfn.CONCAT(B9, "_", C9)</f>
         <v>CTD_InferenceScore</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -2067,10 +2106,10 @@
         <v>27</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2086,152 +2125,154 @@
         <v>30</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="str">
-        <f>_xlfn.CONCAT(B14, "_", C14)</f>
-        <v>CTD_Interaction</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>85</v>
+      <c r="B14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="6" t="str">
+        <f t="shared" ref="E14:E17" si="2">_xlfn.CONCAT(B14, "_", C14)</f>
+        <v>CTD_DirectEvidence</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>CTD_InferenceScore</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A16" s="21"/>
+      <c r="B16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="1" t="str">
-        <f t="shared" ref="E15:E17" si="2">_xlfn.CONCAT(B15, "_", C15)</f>
-        <v>CTD_InteractionActions</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="1" t="str">
+      <c r="E16" s="6" t="str">
         <f t="shared" si="2"/>
         <v>CTD_PubMedIDs</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>88</v>
+      <c r="F16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="str">
+      <c r="A17" s="21"/>
+      <c r="B17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>CTD_OrganismID</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>89</v>
+        <v>CTD_InferenceGeneSymbol</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-      <c r="B18" s="1" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
+      <c r="C18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>51</v>
+      <c r="F18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="1" t="s">
+      <c r="A19" s="22"/>
+      <c r="B19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
+      <c r="C19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="1"/>
+      <c r="F19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="E20" s="3" t="str">
-        <f>_xlfn.CONCAT(B20, "_", C20)</f>
-        <v>CTD_Interaction</v>
+        <f t="shared" ref="E20:E23" si="3">_xlfn.CONCAT(B20, "_", C20)</f>
+        <v>CTD_DirectEvidence</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2240,20 +2281,18 @@
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="3" t="str">
-        <f t="shared" ref="E21:E23" si="3">_xlfn.CONCAT(B21, "_", C21)</f>
-        <v>CTD_InteractionActions</v>
+        <f t="shared" si="3"/>
+        <v>CTD_InferenceScore</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2275,7 +2314,7 @@
         <v>18</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2284,16 +2323,18 @@
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>CTD_OrganismID</v>
-      </c>
-      <c r="F23" s="3"/>
+        <v>CTD_InferenceGeneSymbol</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G23" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2309,10 +2350,10 @@
         <v>27</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2328,13 +2369,13 @@
         <v>30</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>1</v>
@@ -2450,30 +2491,30 @@
         <v>30</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A32" s="18" t="s">
-        <v>102</v>
+      <c r="A32" s="17" t="s">
+        <v>146</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="str">
-        <f t="shared" ref="E32" si="5">_xlfn.CONCAT(B32, "_", C32)</f>
-        <v>CTD_EvidenceID</v>
+        <f>_xlfn.CONCAT(B32, "_", C32)</f>
+        <v>CTD_Interaction</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2482,254 +2523,262 @@
         <v>1</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D33" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="E33" s="3" t="str">
-        <f>_xlfn.CONCAT(B33, "_", C33)</f>
-        <v>CTD_Species</v>
+        <f t="shared" ref="E33:E35" si="5">_xlfn.CONCAT(B33, "_", C33)</f>
+        <v>CTD_InteractionActions</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A34" s="18"/>
       <c r="B34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>CTD_PubMedIDs</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A35" s="18"/>
+      <c r="B35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>CTD_OrganismID</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A36" s="18"/>
+      <c r="B36" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3" t="s">
+      <c r="C36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A35" s="19"/>
-      <c r="B35" s="3" t="s">
+      <c r="F36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A37" s="19"/>
+      <c r="B37" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3" t="s">
+      <c r="C37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A36" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1" t="str">
-        <f t="shared" ref="E36:E42" si="6">_xlfn.CONCAT(B36, "_", C36)</f>
-        <v>CTD_HighestGOLevel</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1" t="str">
+      <c r="F37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" s="37" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A38" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6" t="str">
+        <f>_xlfn.CONCAT(B38, "_", C38)</f>
+        <v>CTD_Interaction</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="37" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="B39" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="6" t="str">
+        <f t="shared" ref="E39:E41" si="6">_xlfn.CONCAT(B39, "_", C39)</f>
+        <v>CTD_InteractionActions</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="37" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>CTD_Pvalue</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="2" t="s">
+        <v>CTD_PubMedIDs</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="37" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>CTD_OrganismID</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CTD_CorrectedPValue</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="2" t="s">
+    <row r="42" spans="1:7" s="37" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A42" s="21"/>
+      <c r="B42" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="37" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A43" s="22"/>
+      <c r="B43" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A44" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3" t="str">
+        <f>_xlfn.CONCAT(B44, "_", C44)</f>
+        <v>CTD_Interaction</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
-      <c r="B39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CTD_TargetMatchQty</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="2" t="s">
+    <row r="45" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A45" s="18"/>
+      <c r="B45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="3" t="str">
+        <f t="shared" ref="E45:E47" si="7">_xlfn.CONCAT(B45, "_", C45)</f>
+        <v>CTD_InteractionActions</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
-      <c r="B40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CTD_TargetTotalQty</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A41" s="15"/>
-      <c r="B41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CTD_BackgroundMatchQty</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CTD_BackgroundTotalQty</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A44" s="16"/>
-      <c r="B44" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A45" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3" t="str">
-        <f t="shared" ref="E45:E51" si="7">_xlfn.CONCAT(B45, "_", C45)</f>
-        <v>CTD_HighestGOLevel</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2738,18 +2787,20 @@
         <v>1</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D46" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="E46" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>CTD_Pvalue</v>
+        <v>CTD_PubMedIDs</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2758,325 +2809,1542 @@
         <v>1</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>CTD_CorrectedPValue</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>CTD_OrganismID</v>
+      </c>
+      <c r="F47" s="3"/>
       <c r="G47" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A48" s="18"/>
       <c r="B48" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A49" s="19"/>
+      <c r="B49" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A50" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1" t="str">
+        <f>_xlfn.CONCAT(B50, "_", C50)</f>
+        <v>CTD_Interaction</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A51" s="15"/>
+      <c r="B51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="1" t="str">
+        <f t="shared" ref="E51:E53" si="8">_xlfn.CONCAT(B51, "_", C51)</f>
+        <v>CTD_InteractionActions</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A52" s="15"/>
+      <c r="B52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>CTD_PubMedIDs</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A53" s="15"/>
+      <c r="B53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>CTD_OrganismID</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A54" s="15"/>
+      <c r="B54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A55" s="16"/>
+      <c r="B55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A56" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3" t="str">
+        <f>_xlfn.CONCAT(B56, "_", C56)</f>
+        <v>CTD_Interaction</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A57" s="18"/>
+      <c r="B57" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="3" t="str">
+        <f t="shared" ref="E57:E59" si="9">_xlfn.CONCAT(B57, "_", C57)</f>
+        <v>CTD_InteractionActions</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A58" s="18"/>
+      <c r="B58" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>CTD_PubMedIDs</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A59" s="18"/>
+      <c r="B59" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>CTD_OrganismID</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A60" s="18"/>
+      <c r="B60" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A61" s="19"/>
+      <c r="B61" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G61" s="3"/>
+    </row>
+    <row r="62" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A62" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6" t="str">
+        <f t="shared" ref="E62" si="10">_xlfn.CONCAT(B62, "_", C62)</f>
+        <v>CTD_EvidenceID</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A63" s="21"/>
+      <c r="B63" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6" t="str">
+        <f>_xlfn.CONCAT(B63, "_", C63)</f>
+        <v>CTD_Species</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A64" s="21"/>
+      <c r="B64" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A65" s="22"/>
+      <c r="B65" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G65" s="6"/>
+    </row>
+    <row r="66" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A66" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3" t="str">
+        <f t="shared" ref="E66" si="11">_xlfn.CONCAT(B66, "_", C66)</f>
+        <v>CTD_EvidenceID</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A67" s="18"/>
+      <c r="B67" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3" t="str">
+        <f>_xlfn.CONCAT(B67, "_", C67)</f>
+        <v>CTD_Species</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A68" s="18"/>
+      <c r="B68" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A69" s="19"/>
+      <c r="B69" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G69" s="3"/>
+    </row>
+    <row r="70" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A70" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1" t="str">
+        <f t="shared" ref="E70:E76" si="12">_xlfn.CONCAT(B70, "_", C70)</f>
+        <v>CTD_HighestGOLevel</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A71" s="15"/>
+      <c r="B71" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>CTD_Pvalue</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A72" s="15"/>
+      <c r="B72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>CTD_CorrectedPValue</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A73" s="15"/>
+      <c r="B73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1" t="str">
+        <f t="shared" si="12"/>
         <v>CTD_TargetMatchQty</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" s="4" t="s">
+      <c r="F73" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
-      <c r="B49" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="3" t="s">
+    <row r="74" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A74" s="15"/>
+      <c r="B74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1" t="str">
+        <f t="shared" si="12"/>
         <v>CTD_TargetTotalQty</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" s="4" t="s">
+      <c r="F74" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A50" s="18"/>
-      <c r="B50" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="3" t="s">
+    <row r="75" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A75" s="15"/>
+      <c r="B75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1" t="str">
+        <f t="shared" si="12"/>
         <v>CTD_BackgroundMatchQty</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" s="4" t="s">
+      <c r="F75" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A51" s="18"/>
-      <c r="B51" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" s="3" t="s">
+    <row r="76" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A76" s="15"/>
+      <c r="B76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1" t="str">
+        <f t="shared" si="12"/>
         <v>CTD_BackgroundTotalQty</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" s="4" t="s">
+      <c r="F76" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A52" s="18"/>
-      <c r="B52" s="3" t="s">
+    <row r="77" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A77" s="15"/>
+      <c r="B77" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3" t="s">
+      <c r="C77" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F77" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="G77" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A53" s="19"/>
-      <c r="B53" s="3" t="s">
+    <row r="78" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A78" s="16"/>
+      <c r="B78" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3" t="s">
+      <c r="C78" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F78" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A54" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="6" t="s">
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A79" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1" t="str">
-        <f t="shared" ref="E54:E60" si="8">_xlfn.CONCAT(B54, "_", C54)</f>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3" t="str">
+        <f t="shared" ref="E79:E85" si="13">_xlfn.CONCAT(B79, "_", C79)</f>
         <v>CTD_HighestGOLevel</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" s="2" t="s">
+      <c r="F79" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G79" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A55" s="15"/>
-      <c r="B55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="6" t="s">
+    <row r="80" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A80" s="18"/>
+      <c r="B80" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3" t="str">
+        <f t="shared" si="13"/>
         <v>CTD_Pvalue</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" s="2" t="s">
+      <c r="F80" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G80" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" s="6" t="s">
+    <row r="81" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A81" s="18"/>
+      <c r="B81" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3" t="str">
+        <f t="shared" si="13"/>
         <v>CTD_CorrectedPValue</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" s="2" t="s">
+      <c r="F81" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G81" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="6" t="s">
+    <row r="82" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A82" s="18"/>
+      <c r="B82" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3" t="str">
+        <f t="shared" si="13"/>
         <v>CTD_TargetMatchQty</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" s="2" t="s">
+      <c r="F82" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G82" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="6" t="s">
+    <row r="83" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A83" s="18"/>
+      <c r="B83" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3" t="str">
+        <f t="shared" si="13"/>
         <v>CTD_TargetTotalQty</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" s="2" t="s">
+      <c r="F83" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G83" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="6" t="s">
+    <row r="84" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A84" s="18"/>
+      <c r="B84" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3" t="str">
+        <f t="shared" si="13"/>
         <v>CTD_BackgroundMatchQty</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" s="2" t="s">
+      <c r="F84" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G84" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
-      <c r="B60" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" s="6" t="s">
+    <row r="85" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A85" s="18"/>
+      <c r="B85" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3" t="str">
+        <f t="shared" si="13"/>
         <v>CTD_BackgroundTotalQty</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" s="2" t="s">
+      <c r="F85" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G85" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A61" s="15"/>
-      <c r="B61" s="1" t="s">
+    <row r="86" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A86" s="18"/>
+      <c r="B86" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1" t="s">
+      <c r="C86" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F86" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G86" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A62" s="16"/>
-      <c r="B62" s="1" t="s">
+    <row r="87" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A87" s="19"/>
+      <c r="B87" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1" t="s">
+      <c r="C87" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F87" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G62" s="1"/>
+      <c r="G87" s="3"/>
+    </row>
+    <row r="88" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A88" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6" t="str">
+        <f t="shared" ref="E88:E94" si="14">_xlfn.CONCAT(B88, "_", C88)</f>
+        <v>CTD_HighestGOLevel</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A89" s="21"/>
+      <c r="B89" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>CTD_Pvalue</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A90" s="21"/>
+      <c r="B90" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>CTD_CorrectedPValue</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A91" s="21"/>
+      <c r="B91" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>CTD_TargetMatchQty</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A92" s="21"/>
+      <c r="B92" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>CTD_TargetTotalQty</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A93" s="21"/>
+      <c r="B93" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>CTD_BackgroundMatchQty</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A94" s="21"/>
+      <c r="B94" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>CTD_BackgroundTotalQty</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A95" s="21"/>
+      <c r="B95" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A96" s="22"/>
+      <c r="B96" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G96" s="6"/>
+    </row>
+    <row r="97" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A97" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3" t="str">
+        <f t="shared" ref="E97:E103" si="15">_xlfn.CONCAT(B97, "_", C97)</f>
+        <v>CTD_HighestGOLevel</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A98" s="18"/>
+      <c r="B98" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>CTD_Pvalue</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A99" s="18"/>
+      <c r="B99" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>CTD_CorrectedPValue</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A100" s="18"/>
+      <c r="B100" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>CTD_TargetMatchQty</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A101" s="18"/>
+      <c r="B101" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>CTD_TargetTotalQty</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A102" s="18"/>
+      <c r="B102" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>CTD_BackgroundMatchQty</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A103" s="18"/>
+      <c r="B103" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>CTD_BackgroundTotalQty</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A104" s="18"/>
+      <c r="B104" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A105" s="19"/>
+      <c r="B105" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G105" s="3"/>
+    </row>
+    <row r="106" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A106" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1" t="str">
+        <f t="shared" ref="E106:E112" si="16">_xlfn.CONCAT(B106, "_", C106)</f>
+        <v>CTD_HighestGOLevel</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A107" s="15"/>
+      <c r="B107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>CTD_Pvalue</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A108" s="15"/>
+      <c r="B108" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>CTD_CorrectedPValue</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A109" s="15"/>
+      <c r="B109" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>CTD_TargetMatchQty</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A110" s="15"/>
+      <c r="B110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>CTD_TargetTotalQty</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A111" s="15"/>
+      <c r="B111" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>CTD_BackgroundMatchQty</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A112" s="15"/>
+      <c r="B112" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>CTD_BackgroundTotalQty</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A113" s="15"/>
+      <c r="B113" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A114" s="16"/>
+      <c r="B114" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G114" s="1"/>
+    </row>
+    <row r="115" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A115" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3" t="str">
+        <f t="shared" ref="E115:E121" si="17">_xlfn.CONCAT(B115, "_", C115)</f>
+        <v>CTD_HighestGOLevel</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A116" s="18"/>
+      <c r="B116" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>CTD_Pvalue</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A117" s="18"/>
+      <c r="B117" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>CTD_CorrectedPValue</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A118" s="18"/>
+      <c r="B118" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>CTD_TargetMatchQty</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A119" s="18"/>
+      <c r="B119" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>CTD_TargetTotalQty</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A120" s="18"/>
+      <c r="B120" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>CTD_BackgroundMatchQty</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A121" s="18"/>
+      <c r="B121" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>CTD_BackgroundTotalQty</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A122" s="18"/>
+      <c r="B122" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A123" s="19"/>
+      <c r="B123" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G123" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A36:A44"/>
-    <mergeCell ref="A45:A53"/>
-    <mergeCell ref="A54:A62"/>
+  <mergeCells count="18">
+    <mergeCell ref="A88:A96"/>
+    <mergeCell ref="A70:A78"/>
+    <mergeCell ref="A79:A87"/>
+    <mergeCell ref="A97:A105"/>
+    <mergeCell ref="A115:A123"/>
     <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A14:A19"/>
     <mergeCell ref="A20:A25"/>
     <mergeCell ref="A26:A31"/>
-    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="A106:A114"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="A66:A69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3086,9 +4354,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780CD01F-0819-CA44-B0D6-41E21FE9EADE}">
   <dimension ref="A1:G194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C73" sqref="C73:C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4244,7 +5512,7 @@
         <v>13</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C65" s="29" t="s">
         <v>132</v>
@@ -4259,7 +5527,7 @@
         <v>15</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -4276,7 +5544,7 @@
         <v>20</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4386,7 +5654,7 @@
         <v>13</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C73" s="26" t="s">
         <v>132</v>
@@ -4401,7 +5669,7 @@
         <v>15</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -4418,7 +5686,7 @@
         <v>20</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="14" x14ac:dyDescent="0.2">

--- a/resources/pheknowlator_source_metadata.xlsx
+++ b/resources/pheknowlator_source_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiffanycallahan/Dropbox/GraduateSchool/PhD/LabWork/PheKnowLator/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447710EF-F53E-BD42-8EA1-53241B518515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CD4D05-C7E9-CB4B-961B-C0ABC3DFA342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9820" yWindow="460" windowWidth="37820" windowHeight="23880" xr2:uid="{82CFCCA6-69D0-6D4F-8FD9-9511C5B37B8B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="175">
   <si>
     <t>edge_type</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>phenotype</t>
+  </si>
+  <si>
+    <t>HPO</t>
   </si>
   <si>
     <t>Chemical Entities of Biological Interest (ChEBI)</t>
@@ -521,32 +524,6 @@
       </rPr>
       <t xml:space="preserve">
 chemical-phenotype:column 3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CTD Data Information</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-chemical-disease:column 8</t>
     </r>
   </si>
   <si>
@@ -1267,6 +1244,130 @@
   </si>
   <si>
     <t>gomf-chemical</t>
+  </si>
+  <si>
+    <t>disease-phenotype</t>
+  </si>
+  <si>
+    <t>Mapped through RO concept RO:0002200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	biolink:has_phenotype</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Evidence</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Modifier</t>
+  </si>
+  <si>
+    <t>Aspect</t>
+  </si>
+  <si>
+    <t>Biocuration</t>
+  </si>
+  <si>
+    <t>HPO:DatabaseID</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulled from data provided by CTD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTD Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-disease:column 8</t>
+    </r>
+  </si>
+  <si>
+    <t>HPO:DiseaseName</t>
+  </si>
+  <si>
+    <t>OBO Ontology
+HPO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulled from data provided by HPO
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>HPO Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-disease:column 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulled from data provided by HPO
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>HPO Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-disease:column 1</t>
+    </r>
+  </si>
+  <si>
+    <t>Mapped through RO concept RO:0002201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	biolink:phenotype_of</t>
   </si>
 </sst>
 </file>
@@ -1843,11 +1944,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC7A73D-1C32-0943-8AF1-D604CF68867B}">
-  <dimension ref="A1:G123"/>
+  <dimension ref="A1:G141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C126" sqref="C126"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F143" sqref="F143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1870,7 +1971,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>7</v>
@@ -2125,7 +2226,7 @@
         <v>30</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="G13" s="4"/>
     </row>
@@ -2369,13 +2470,13 @@
         <v>30</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>1</v>
@@ -2472,10 +2573,10 @@
         <v>27</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2491,7 +2592,7 @@
         <v>30</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G31" s="1"/>
     </row>
@@ -2594,10 +2695,10 @@
         <v>27</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2613,13 +2714,13 @@
         <v>30</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" s="37" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>1</v>
@@ -2714,10 +2815,10 @@
         <v>27</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="37" customFormat="1" ht="14" x14ac:dyDescent="0.2">
@@ -2733,7 +2834,7 @@
         <v>30</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G43" s="6"/>
     </row>
@@ -2834,10 +2935,10 @@
         <v>27</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2853,13 +2954,13 @@
         <v>30</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>59</v>
+        <v>148</v>
       </c>
       <c r="G49" s="3"/>
     </row>
     <row r="50" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>1</v>
@@ -2956,10 +3057,10 @@
         <v>27</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2975,7 +3076,7 @@
         <v>30</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G55" s="1"/>
     </row>
@@ -3078,10 +3179,10 @@
         <v>27</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -3097,7 +3198,7 @@
         <v>30</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="G61" s="3"/>
     </row>
@@ -3253,7 +3354,7 @@
         <v>30</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="G69" s="3"/>
     </row>
@@ -3609,7 +3710,7 @@
         <v>30</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="G87" s="3"/>
     </row>
@@ -3787,7 +3888,7 @@
         <v>30</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="G96" s="6"/>
     </row>
@@ -3965,7 +4066,7 @@
         <v>30</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="G105" s="3"/>
     </row>
@@ -4143,7 +4244,7 @@
         <v>30</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="G114" s="1"/>
     </row>
@@ -4321,14 +4422,372 @@
         <v>30</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="G123" s="3"/>
     </row>
+    <row r="124" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A124" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1" t="str">
+        <f t="shared" ref="E124:E130" si="18">_xlfn.CONCAT(B124, "_", C124)</f>
+        <v>HPO_Reference</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A125" s="15"/>
+      <c r="B125" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>HPO_Evidence</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A126" s="15"/>
+      <c r="B126" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>HPO_Frequency</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A127" s="15"/>
+      <c r="B127" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>HPO_Sex</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A128" s="15"/>
+      <c r="B128" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>HPO_Modifier</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A129" s="15"/>
+      <c r="B129" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>HPO_Aspect</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A130" s="15"/>
+      <c r="B130" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>HPO_Biocuration</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A131" s="15"/>
+      <c r="B131" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A132" s="16"/>
+      <c r="B132" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G132" s="1"/>
+    </row>
+    <row r="133" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A133" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3" t="str">
+        <f t="shared" ref="E133:E139" si="19">_xlfn.CONCAT(B133, "_", C133)</f>
+        <v>HPO_Reference</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A134" s="18"/>
+      <c r="B134" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>HPO_Evidence</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A135" s="18"/>
+      <c r="B135" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>HPO_Frequency</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A136" s="18"/>
+      <c r="B136" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>HPO_Sex</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A137" s="18"/>
+      <c r="B137" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>HPO_Modifier</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A138" s="18"/>
+      <c r="B138" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>HPO_Aspect</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A139" s="18"/>
+      <c r="B139" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>HPO_Biocuration</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A140" s="18"/>
+      <c r="B140" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A141" s="19"/>
+      <c r="B141" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G141" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
     <mergeCell ref="A88:A96"/>
     <mergeCell ref="A70:A78"/>
+    <mergeCell ref="A124:A132"/>
+    <mergeCell ref="A133:A141"/>
     <mergeCell ref="A79:A87"/>
     <mergeCell ref="A97:A105"/>
     <mergeCell ref="A115:A123"/>
@@ -4352,11 +4811,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780CD01F-0819-CA44-B0D6-41E21FE9EADE}">
-  <dimension ref="A1:G194"/>
+  <dimension ref="A1:G196"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C73" sqref="C73:C80"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4385,7 +4844,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>8</v>
@@ -4402,7 +4861,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>14</v>
@@ -4414,7 +4873,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -4431,7 +4890,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4448,7 +4907,7 @@
         <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4465,7 +4924,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4482,7 +4941,7 @@
         <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="112" x14ac:dyDescent="0.2">
@@ -4493,7 +4952,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>37</v>
@@ -4527,7 +4986,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="7" t="s">
@@ -4554,7 +5013,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -4571,7 +5030,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4588,7 +5047,7 @@
         <v>21</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4605,7 +5064,7 @@
         <v>22</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4622,7 +5081,7 @@
         <v>23</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="56" x14ac:dyDescent="0.2">
@@ -4633,9 +5092,9 @@
         <v>25</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="17" t="s">
         <v>37</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -4647,105 +5106,101 @@
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="3" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>36</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="F16" s="19"/>
       <c r="G16" s="4" t="s">
-        <v>70</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="19"/>
+      <c r="F17" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="G17" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A18" s="27"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A19" s="28"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A20" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B20" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C20" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="6" t="s">
+      <c r="E20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A21" s="30"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4753,139 +5208,139 @@
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
       <c r="D22" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A23" s="30"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A24" s="30"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
       <c r="D24" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>36</v>
+        <v>18</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A25" s="31"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E25" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A26" s="30"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="7" t="s">
+      <c r="F26" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A27" s="31"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A26" s="26" t="s">
+      <c r="F27" s="22"/>
+      <c r="G27" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A28" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="26" t="s">
+      <c r="B28" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="3" t="s">
+      <c r="E28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="G28" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
       <c r="D29" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4893,141 +5348,141 @@
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
       <c r="D30" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
       <c r="D31" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
       <c r="D32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G34" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" s="3" t="s">
+    <row r="35" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="42" x14ac:dyDescent="0.2">
-      <c r="A34" s="32" t="s">
+    <row r="36" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+      <c r="A36" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B36" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C36" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="33" t="s">
+      <c r="D36" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="33" t="s">
+      <c r="E36" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="34" t="s">
+      <c r="G36" s="34" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A35" s="35"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" s="34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A36" s="35"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" s="34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A37" s="35"/>
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="33" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E37" s="33" t="s">
         <v>18</v>
       </c>
       <c r="F37" s="33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G37" s="34" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5035,141 +5490,141 @@
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="33" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E38" s="33" t="s">
         <v>18</v>
       </c>
       <c r="F38" s="33" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G38" s="34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A39" s="35"/>
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="F39" s="33" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G39" s="34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A40" s="35"/>
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="33" t="s">
+      <c r="E41" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="F40" s="33" t="s">
+      <c r="F41" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G41" s="34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="G40" s="34" t="s">
+      <c r="G42" s="34" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A41" s="36"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E41" s="6" t="s">
+    <row r="43" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A43" s="36"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F43" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A42" s="26" t="s">
+    <row r="44" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A44" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" s="26" t="s">
+      <c r="B44" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="3" t="s">
+      <c r="E44" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" s="4" t="s">
+      <c r="G44" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="27"/>
       <c r="C45" s="27"/>
       <c r="D45" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5177,141 +5632,141 @@
       <c r="B46" s="27"/>
       <c r="C46" s="27"/>
       <c r="D46" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="27"/>
       <c r="C47" s="27"/>
       <c r="D47" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="27"/>
       <c r="C48" s="27"/>
       <c r="D48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A49" s="27"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F49" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G50" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E49" s="3" t="s">
+    <row r="51" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G51" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="42" x14ac:dyDescent="0.2">
-      <c r="A50" s="23" t="s">
+    <row r="52" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+      <c r="A52" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B52" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C52" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="33" t="s">
+      <c r="D52" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E50" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F50" s="33" t="s">
+      <c r="E52" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G50" s="34" t="s">
+      <c r="G52" s="34" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" s="34" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E52" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" s="34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A53" s="24"/>
       <c r="B53" s="24"/>
       <c r="C53" s="24"/>
       <c r="D53" s="33" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E53" s="33" t="s">
         <v>18</v>
       </c>
       <c r="F53" s="33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G53" s="34" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5319,124 +5774,124 @@
       <c r="B54" s="24"/>
       <c r="C54" s="24"/>
       <c r="D54" s="33" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E54" s="33" t="s">
         <v>18</v>
       </c>
       <c r="F54" s="33" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G54" s="34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A55" s="24"/>
       <c r="B55" s="24"/>
       <c r="C55" s="24"/>
       <c r="D55" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A56" s="24"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A57" s="24"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="33" t="s">
+      <c r="E57" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="F55" s="33" t="s">
+      <c r="F57" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="G55" s="34" t="s">
+      <c r="G57" s="34" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E56" s="6" t="s">
+    <row r="58" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A58" s="25"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="F58" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="G58" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="42" x14ac:dyDescent="0.2">
-      <c r="A57" s="26" t="s">
+    <row r="59" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+      <c r="A59" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B57" s="26" t="s">
+      <c r="B59" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="26" t="s">
+      <c r="C59" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D59" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" s="3" t="s">
+      <c r="E59" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="G59" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A58" s="27"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="27"/>
       <c r="C60" s="27"/>
       <c r="D60" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5444,33 +5899,33 @@
       <c r="B61" s="27"/>
       <c r="C61" s="27"/>
       <c r="D61" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="27"/>
       <c r="C62" s="27"/>
       <c r="D62" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5484,10 +5939,10 @@
         <v>18</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="56" x14ac:dyDescent="0.2">
@@ -5495,90 +5950,90 @@
       <c r="B64" s="27"/>
       <c r="C64" s="27"/>
       <c r="D64" s="3" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E64" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A65" s="27"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A66" s="27"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F66" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G64" s="4" t="s">
+      <c r="G66" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="42" x14ac:dyDescent="0.2">
-      <c r="A65" s="29" t="s">
+    <row r="67" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+      <c r="A67" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B65" s="29" t="s">
+      <c r="B67" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="C67" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D67" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E65" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F65" s="6" t="s">
+      <c r="E67" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="G67" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A66" s="30"/>
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A67" s="30"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A68" s="30"/>
       <c r="B68" s="30"/>
       <c r="C68" s="30"/>
       <c r="D68" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>41</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5586,33 +6041,33 @@
       <c r="B69" s="30"/>
       <c r="C69" s="30"/>
       <c r="D69" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A70" s="30"/>
       <c r="B70" s="30"/>
       <c r="C70" s="30"/>
       <c r="D70" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5626,10 +6081,10 @@
         <v>18</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="56" x14ac:dyDescent="0.2">
@@ -5637,90 +6092,90 @@
       <c r="B72" s="30"/>
       <c r="C72" s="30"/>
       <c r="D72" s="6" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E72" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A73" s="30"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A74" s="30"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E74" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="F74" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G72" s="7" t="s">
+      <c r="G74" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="42" x14ac:dyDescent="0.2">
-      <c r="A73" s="26" t="s">
+    <row r="75" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+      <c r="A75" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B73" s="26" t="s">
+      <c r="B75" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="C73" s="26" t="s">
+      <c r="C75" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D75" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E73" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F73" s="3" t="s">
+      <c r="E75" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F75" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G73" s="4" t="s">
+      <c r="G75" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A74" s="27"/>
-      <c r="B74" s="27"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A75" s="27"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="27"/>
       <c r="C76" s="27"/>
       <c r="D76" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5728,33 +6183,33 @@
       <c r="B77" s="27"/>
       <c r="C77" s="27"/>
       <c r="D77" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="27"/>
       <c r="C78" s="27"/>
       <c r="D78" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5768,10 +6223,10 @@
         <v>18</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="56" x14ac:dyDescent="0.2">
@@ -5779,35 +6234,51 @@
       <c r="B80" s="27"/>
       <c r="C80" s="27"/>
       <c r="D80" s="3" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E80" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A81" s="27"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A82" s="27"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E82" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="F82" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G80" s="4" t="s">
+      <c r="G82" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="13"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="13"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
@@ -6817,41 +7288,60 @@
       <c r="F194" s="5"/>
       <c r="G194" s="13"/>
     </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195" s="5"/>
+      <c r="B195" s="5"/>
+      <c r="C195" s="5"/>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
+      <c r="F195" s="5"/>
+      <c r="G195" s="13"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196" s="5"/>
+      <c r="B196" s="5"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="5"/>
+      <c r="G196" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="A65:A72"/>
-    <mergeCell ref="B65:B72"/>
-    <mergeCell ref="C65:C72"/>
-    <mergeCell ref="A73:A80"/>
-    <mergeCell ref="B73:B80"/>
-    <mergeCell ref="C73:C80"/>
-    <mergeCell ref="C50:C56"/>
-    <mergeCell ref="B50:B56"/>
-    <mergeCell ref="A50:A56"/>
-    <mergeCell ref="A57:A64"/>
-    <mergeCell ref="B57:B64"/>
-    <mergeCell ref="C57:C64"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="B42:B49"/>
-    <mergeCell ref="C42:C49"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="A26:A33"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="C34:C41"/>
+  <mergeCells count="34">
+    <mergeCell ref="A67:A74"/>
+    <mergeCell ref="B67:B74"/>
+    <mergeCell ref="C67:C74"/>
+    <mergeCell ref="A75:A82"/>
+    <mergeCell ref="B75:B82"/>
+    <mergeCell ref="C75:C82"/>
+    <mergeCell ref="C52:C58"/>
+    <mergeCell ref="B52:B58"/>
+    <mergeCell ref="A52:A58"/>
+    <mergeCell ref="A59:A66"/>
+    <mergeCell ref="B59:B66"/>
+    <mergeCell ref="C59:C66"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="B44:B51"/>
+    <mergeCell ref="C44:C51"/>
+    <mergeCell ref="C28:C35"/>
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="B36:B43"/>
+    <mergeCell ref="C36:C43"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F15:F16"/>
     <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A10:A19"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="C2:C9"/>
-    <mergeCell ref="C10:C17"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="C10:C19"/>
+    <mergeCell ref="B10:B19"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C20:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/pheknowlator_source_metadata.xlsx
+++ b/resources/pheknowlator_source_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiffanycallahan/Dropbox/GraduateSchool/PhD/LabWork/PheKnowLator/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CD4D05-C7E9-CB4B-961B-C0ABC3DFA342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8984D6F-3D87-2B4C-B10F-C190FEEBB516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9820" yWindow="460" windowWidth="37820" windowHeight="23880" xr2:uid="{82CFCCA6-69D0-6D4F-8FD9-9511C5B37B8B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="220">
   <si>
     <t>edge_type</t>
   </si>
@@ -1368,6 +1368,257 @@
   </si>
   <si>
     <t xml:space="preserve">	biolink:phenotype_of</t>
+  </si>
+  <si>
+    <t>gene-disease</t>
+  </si>
+  <si>
+    <t>DisGeNET</t>
+  </si>
+  <si>
+    <t>OBO Ontology
+DisGeNET</t>
+  </si>
+  <si>
+    <t>DisGeNET:geneSymbol</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by DisGeNET
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DisGeNET Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-gene:column 1</t>
+    </r>
+  </si>
+  <si>
+    <t>DisGeNET:diseaseName</t>
+  </si>
+  <si>
+    <t>DisGeNET:diseaseId</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulled from data provided by DisGeNET
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DisGeNET Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-disease:column 5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulled from data provided by DisGeNET
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DisGeNET Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-disease:column 4</t>
+    </r>
+  </si>
+  <si>
+    <t>DisGeNET:diseaseSematicType</t>
+  </si>
+  <si>
+    <t>DisGeNET_diseaseSematicType</t>
+  </si>
+  <si>
+    <t>DisGeNET:diseaseClass</t>
+  </si>
+  <si>
+    <t>DisGeNET_diseaseClass</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulled from data provided by DisGeNET
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DisGeNET Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-disease:column 8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulled from data provided by DisGeNET
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DisGeNET Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-disease:column 7</t>
+    </r>
+  </si>
+  <si>
+    <t>DSI</t>
+  </si>
+  <si>
+    <t>DPI</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>EI</t>
+  </si>
+  <si>
+    <t>YearInitial</t>
+  </si>
+  <si>
+    <t>YearFinal</t>
+  </si>
+  <si>
+    <t>NofPmids</t>
+  </si>
+  <si>
+    <t>NofSnps</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Mapped through RO concept RO:0003302</t>
+  </si>
+  <si>
+    <t>phenotype-disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	biolink:causes_or_contributes_to_condition</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>gene-phenotype</t>
+  </si>
+  <si>
+    <t>Value derived from HPO (column:4)</t>
+  </si>
+  <si>
+    <t>Value derived from HPO (column:5)</t>
+  </si>
+  <si>
+    <t>Value derived from HPO (column:7)</t>
+  </si>
+  <si>
+    <t>Value derived from HPO (column:8)</t>
+  </si>
+  <si>
+    <t>Value derived from HPO (column:9)</t>
+  </si>
+  <si>
+    <t>Value derived from HPO (column:10)</t>
+  </si>
+  <si>
+    <t>Value derived from HPO (column:11)</t>
+  </si>
+  <si>
+    <t>Value derived from DisGeNET (column:2)</t>
+  </si>
+  <si>
+    <t>Value derived from DisGeNET (column:3)</t>
+  </si>
+  <si>
+    <t>Value derived from DisGeNET (column:9)</t>
+  </si>
+  <si>
+    <t>Value derived from DisGeNET (column:10)</t>
+  </si>
+  <si>
+    <t>Value derived from DisGeNET (column:11)</t>
+  </si>
+  <si>
+    <t>Value derived from DisGeNET (column:12)</t>
+  </si>
+  <si>
+    <t>Value derived from DisGeNET (column:13)</t>
+  </si>
+  <si>
+    <t>Value derived from DisGeNET (column:14)</t>
+  </si>
+  <si>
+    <t>Value derived from DisGeNET (column:15)</t>
   </si>
 </sst>
 </file>
@@ -1442,7 +1693,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1465,48 +1716,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1547,61 +1761,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1610,14 +1785,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1944,11 +2119,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC7A73D-1C32-0943-8AF1-D604CF68867B}">
-  <dimension ref="A1:G141"/>
+  <dimension ref="A1:G163"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F143" sqref="F143"/>
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1958,7 +2133,7 @@
     <col min="3" max="3" width="27.83203125" style="9" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="9" customWidth="1"/>
     <col min="5" max="5" width="31.6640625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="25.83203125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="39.83203125" style="9" customWidth="1"/>
     <col min="7" max="7" width="45.1640625" style="9" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="9"/>
   </cols>
@@ -2011,7 +2186,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2031,7 +2206,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2053,7 +2228,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
@@ -2073,7 +2248,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
@@ -2092,7 +2267,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
@@ -2109,7 +2284,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="15" t="s">
         <v>142</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2133,7 +2308,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -2153,7 +2328,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
@@ -2175,7 +2350,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
@@ -2195,7 +2370,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
@@ -2214,7 +2389,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
@@ -2231,7 +2406,7 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -2255,7 +2430,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="6" t="s">
         <v>1</v>
       </c>
@@ -2275,7 +2450,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="6" t="s">
         <v>1</v>
       </c>
@@ -2297,7 +2472,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="6" t="s">
         <v>1</v>
       </c>
@@ -2317,7 +2492,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="6" t="s">
         <v>28</v>
       </c>
@@ -2336,7 +2511,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="6" t="s">
         <v>29</v>
       </c>
@@ -2353,7 +2528,7 @@
       <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="15" t="s">
         <v>145</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2377,7 +2552,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="3" t="s">
         <v>1</v>
       </c>
@@ -2397,7 +2572,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="3" t="s">
         <v>1</v>
       </c>
@@ -2419,7 +2594,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="3" t="s">
         <v>1</v>
       </c>
@@ -2439,7 +2614,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="3" t="s">
         <v>28</v>
       </c>
@@ -2458,7 +2633,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="3" t="s">
         <v>29</v>
       </c>
@@ -2497,7 +2672,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="1" t="s">
         <v>1</v>
       </c>
@@ -2519,7 +2694,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
@@ -2541,7 +2716,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="1" t="s">
         <v>1</v>
       </c>
@@ -2561,7 +2736,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
@@ -2580,7 +2755,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
@@ -2597,7 +2772,7 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="15" t="s">
         <v>146</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -2619,7 +2794,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="3" t="s">
         <v>1</v>
       </c>
@@ -2641,7 +2816,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="3" t="s">
         <v>1</v>
       </c>
@@ -2663,7 +2838,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="3" t="s">
         <v>1</v>
       </c>
@@ -2683,7 +2858,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="3" t="s">
         <v>28</v>
       </c>
@@ -2702,7 +2877,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A37" s="19"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="3" t="s">
         <v>29</v>
       </c>
@@ -2718,8 +2893,8 @@
       </c>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" s="37" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A38" s="20" t="s">
+    <row r="38" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A38" s="16" t="s">
         <v>60</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -2740,8 +2915,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="37" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
+    <row r="39" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A39" s="16"/>
       <c r="B39" s="6" t="s">
         <v>1</v>
       </c>
@@ -2762,8 +2937,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="37" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
+    <row r="40" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A40" s="16"/>
       <c r="B40" s="6" t="s">
         <v>1</v>
       </c>
@@ -2784,8 +2959,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="37" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
+    <row r="41" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A41" s="16"/>
       <c r="B41" s="6" t="s">
         <v>1</v>
       </c>
@@ -2802,8 +2977,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="37" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
+    <row r="42" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A42" s="16"/>
       <c r="B42" s="6" t="s">
         <v>28</v>
       </c>
@@ -2821,8 +2996,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="37" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A43" s="22"/>
+    <row r="43" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A43" s="16"/>
       <c r="B43" s="6" t="s">
         <v>29</v>
       </c>
@@ -2839,7 +3014,7 @@
       <c r="G43" s="6"/>
     </row>
     <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="15" t="s">
         <v>148</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -2861,7 +3036,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A45" s="18"/>
+      <c r="A45" s="15"/>
       <c r="B45" s="3" t="s">
         <v>1</v>
       </c>
@@ -2883,7 +3058,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A46" s="18"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="3" t="s">
         <v>1</v>
       </c>
@@ -2905,7 +3080,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A47" s="18"/>
+      <c r="A47" s="15"/>
       <c r="B47" s="3" t="s">
         <v>1</v>
       </c>
@@ -2923,7 +3098,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A48" s="18"/>
+      <c r="A48" s="15"/>
       <c r="B48" s="3" t="s">
         <v>28</v>
       </c>
@@ -2942,7 +3117,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A49" s="19"/>
+      <c r="A49" s="15"/>
       <c r="B49" s="3" t="s">
         <v>29</v>
       </c>
@@ -2981,7 +3156,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
+      <c r="A51" s="14"/>
       <c r="B51" s="1" t="s">
         <v>1</v>
       </c>
@@ -3003,7 +3178,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
+      <c r="A52" s="14"/>
       <c r="B52" s="1" t="s">
         <v>1</v>
       </c>
@@ -3025,7 +3200,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="1" t="s">
         <v>1</v>
       </c>
@@ -3045,7 +3220,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A54" s="15"/>
+      <c r="A54" s="14"/>
       <c r="B54" s="1" t="s">
         <v>28</v>
       </c>
@@ -3064,7 +3239,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A55" s="16"/>
+      <c r="A55" s="14"/>
       <c r="B55" s="1" t="s">
         <v>29</v>
       </c>
@@ -3081,7 +3256,7 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="15" t="s">
         <v>147</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -3103,7 +3278,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A57" s="18"/>
+      <c r="A57" s="15"/>
       <c r="B57" s="3" t="s">
         <v>1</v>
       </c>
@@ -3125,7 +3300,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A58" s="18"/>
+      <c r="A58" s="15"/>
       <c r="B58" s="3" t="s">
         <v>1</v>
       </c>
@@ -3147,7 +3322,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A59" s="18"/>
+      <c r="A59" s="15"/>
       <c r="B59" s="3" t="s">
         <v>1</v>
       </c>
@@ -3167,7 +3342,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A60" s="18"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="3" t="s">
         <v>28</v>
       </c>
@@ -3186,7 +3361,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A61" s="19"/>
+      <c r="A61" s="15"/>
       <c r="B61" s="3" t="s">
         <v>29</v>
       </c>
@@ -3203,7 +3378,7 @@
       <c r="G61" s="3"/>
     </row>
     <row r="62" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="16" t="s">
         <v>102</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -3225,7 +3400,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A63" s="21"/>
+      <c r="A63" s="16"/>
       <c r="B63" s="6" t="s">
         <v>1</v>
       </c>
@@ -3245,7 +3420,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A64" s="21"/>
+      <c r="A64" s="16"/>
       <c r="B64" s="6" t="s">
         <v>28</v>
       </c>
@@ -3264,7 +3439,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A65" s="22"/>
+      <c r="A65" s="16"/>
       <c r="B65" s="6" t="s">
         <v>29</v>
       </c>
@@ -3281,7 +3456,7 @@
       <c r="G65" s="6"/>
     </row>
     <row r="66" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A66" s="18" t="s">
+      <c r="A66" s="15" t="s">
         <v>151</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -3303,7 +3478,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A67" s="18"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="3" t="s">
         <v>1</v>
       </c>
@@ -3323,7 +3498,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A68" s="18"/>
+      <c r="A68" s="15"/>
       <c r="B68" s="3" t="s">
         <v>28</v>
       </c>
@@ -3342,7 +3517,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A69" s="19"/>
+      <c r="A69" s="15"/>
       <c r="B69" s="3" t="s">
         <v>29</v>
       </c>
@@ -3359,7 +3534,7 @@
       <c r="G69" s="3"/>
     </row>
     <row r="70" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="14" t="s">
         <v>112</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -3381,7 +3556,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
+      <c r="A71" s="14"/>
       <c r="B71" s="1" t="s">
         <v>1</v>
       </c>
@@ -3401,7 +3576,7 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
+      <c r="A72" s="14"/>
       <c r="B72" s="1" t="s">
         <v>1</v>
       </c>
@@ -3421,7 +3596,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
+      <c r="A73" s="14"/>
       <c r="B73" s="1" t="s">
         <v>1</v>
       </c>
@@ -3441,7 +3616,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
+      <c r="A74" s="14"/>
       <c r="B74" s="1" t="s">
         <v>1</v>
       </c>
@@ -3461,7 +3636,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A75" s="15"/>
+      <c r="A75" s="14"/>
       <c r="B75" s="1" t="s">
         <v>1</v>
       </c>
@@ -3481,7 +3656,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A76" s="15"/>
+      <c r="A76" s="14"/>
       <c r="B76" s="1" t="s">
         <v>1</v>
       </c>
@@ -3501,7 +3676,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
+      <c r="A77" s="14"/>
       <c r="B77" s="1" t="s">
         <v>28</v>
       </c>
@@ -3520,7 +3695,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A78" s="16"/>
+      <c r="A78" s="14"/>
       <c r="B78" s="1" t="s">
         <v>29</v>
       </c>
@@ -3537,7 +3712,7 @@
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A79" s="18" t="s">
+      <c r="A79" s="15" t="s">
         <v>152</v>
       </c>
       <c r="B79" s="3" t="s">
@@ -3559,7 +3734,7 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A80" s="18"/>
+      <c r="A80" s="15"/>
       <c r="B80" s="3" t="s">
         <v>1</v>
       </c>
@@ -3579,7 +3754,7 @@
       </c>
     </row>
     <row r="81" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A81" s="18"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="3" t="s">
         <v>1</v>
       </c>
@@ -3599,7 +3774,7 @@
       </c>
     </row>
     <row r="82" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A82" s="18"/>
+      <c r="A82" s="15"/>
       <c r="B82" s="3" t="s">
         <v>1</v>
       </c>
@@ -3619,7 +3794,7 @@
       </c>
     </row>
     <row r="83" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A83" s="18"/>
+      <c r="A83" s="15"/>
       <c r="B83" s="3" t="s">
         <v>1</v>
       </c>
@@ -3639,7 +3814,7 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A84" s="18"/>
+      <c r="A84" s="15"/>
       <c r="B84" s="3" t="s">
         <v>1</v>
       </c>
@@ -3659,7 +3834,7 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A85" s="18"/>
+      <c r="A85" s="15"/>
       <c r="B85" s="3" t="s">
         <v>1</v>
       </c>
@@ -3679,7 +3854,7 @@
       </c>
     </row>
     <row r="86" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A86" s="18"/>
+      <c r="A86" s="15"/>
       <c r="B86" s="3" t="s">
         <v>28</v>
       </c>
@@ -3698,7 +3873,7 @@
       </c>
     </row>
     <row r="87" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A87" s="19"/>
+      <c r="A87" s="15"/>
       <c r="B87" s="3" t="s">
         <v>29</v>
       </c>
@@ -3715,7 +3890,7 @@
       <c r="G87" s="3"/>
     </row>
     <row r="88" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A88" s="21" t="s">
+      <c r="A88" s="16" t="s">
         <v>153</v>
       </c>
       <c r="B88" s="6" t="s">
@@ -3737,7 +3912,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A89" s="21"/>
+      <c r="A89" s="16"/>
       <c r="B89" s="6" t="s">
         <v>1</v>
       </c>
@@ -3757,7 +3932,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A90" s="21"/>
+      <c r="A90" s="16"/>
       <c r="B90" s="6" t="s">
         <v>1</v>
       </c>
@@ -3777,7 +3952,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A91" s="21"/>
+      <c r="A91" s="16"/>
       <c r="B91" s="6" t="s">
         <v>1</v>
       </c>
@@ -3797,7 +3972,7 @@
       </c>
     </row>
     <row r="92" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A92" s="21"/>
+      <c r="A92" s="16"/>
       <c r="B92" s="6" t="s">
         <v>1</v>
       </c>
@@ -3817,7 +3992,7 @@
       </c>
     </row>
     <row r="93" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A93" s="21"/>
+      <c r="A93" s="16"/>
       <c r="B93" s="6" t="s">
         <v>1</v>
       </c>
@@ -3837,7 +4012,7 @@
       </c>
     </row>
     <row r="94" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A94" s="21"/>
+      <c r="A94" s="16"/>
       <c r="B94" s="6" t="s">
         <v>1</v>
       </c>
@@ -3857,7 +4032,7 @@
       </c>
     </row>
     <row r="95" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A95" s="21"/>
+      <c r="A95" s="16"/>
       <c r="B95" s="6" t="s">
         <v>28</v>
       </c>
@@ -3876,7 +4051,7 @@
       </c>
     </row>
     <row r="96" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A96" s="22"/>
+      <c r="A96" s="16"/>
       <c r="B96" s="6" t="s">
         <v>29</v>
       </c>
@@ -3893,7 +4068,7 @@
       <c r="G96" s="6"/>
     </row>
     <row r="97" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A97" s="18" t="s">
+      <c r="A97" s="15" t="s">
         <v>154</v>
       </c>
       <c r="B97" s="3" t="s">
@@ -3915,7 +4090,7 @@
       </c>
     </row>
     <row r="98" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A98" s="18"/>
+      <c r="A98" s="15"/>
       <c r="B98" s="3" t="s">
         <v>1</v>
       </c>
@@ -3935,7 +4110,7 @@
       </c>
     </row>
     <row r="99" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A99" s="18"/>
+      <c r="A99" s="15"/>
       <c r="B99" s="3" t="s">
         <v>1</v>
       </c>
@@ -3955,7 +4130,7 @@
       </c>
     </row>
     <row r="100" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A100" s="18"/>
+      <c r="A100" s="15"/>
       <c r="B100" s="3" t="s">
         <v>1</v>
       </c>
@@ -3975,7 +4150,7 @@
       </c>
     </row>
     <row r="101" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A101" s="18"/>
+      <c r="A101" s="15"/>
       <c r="B101" s="3" t="s">
         <v>1</v>
       </c>
@@ -3995,7 +4170,7 @@
       </c>
     </row>
     <row r="102" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A102" s="18"/>
+      <c r="A102" s="15"/>
       <c r="B102" s="3" t="s">
         <v>1</v>
       </c>
@@ -4015,7 +4190,7 @@
       </c>
     </row>
     <row r="103" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A103" s="18"/>
+      <c r="A103" s="15"/>
       <c r="B103" s="3" t="s">
         <v>1</v>
       </c>
@@ -4035,7 +4210,7 @@
       </c>
     </row>
     <row r="104" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A104" s="18"/>
+      <c r="A104" s="15"/>
       <c r="B104" s="3" t="s">
         <v>28</v>
       </c>
@@ -4054,7 +4229,7 @@
       </c>
     </row>
     <row r="105" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A105" s="19"/>
+      <c r="A105" s="15"/>
       <c r="B105" s="3" t="s">
         <v>29</v>
       </c>
@@ -4071,7 +4246,7 @@
       <c r="G105" s="3"/>
     </row>
     <row r="106" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A106" s="15" t="s">
+      <c r="A106" s="14" t="s">
         <v>155</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -4093,7 +4268,7 @@
       </c>
     </row>
     <row r="107" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A107" s="15"/>
+      <c r="A107" s="14"/>
       <c r="B107" s="1" t="s">
         <v>1</v>
       </c>
@@ -4113,7 +4288,7 @@
       </c>
     </row>
     <row r="108" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A108" s="15"/>
+      <c r="A108" s="14"/>
       <c r="B108" s="1" t="s">
         <v>1</v>
       </c>
@@ -4133,7 +4308,7 @@
       </c>
     </row>
     <row r="109" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A109" s="15"/>
+      <c r="A109" s="14"/>
       <c r="B109" s="1" t="s">
         <v>1</v>
       </c>
@@ -4153,7 +4328,7 @@
       </c>
     </row>
     <row r="110" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A110" s="15"/>
+      <c r="A110" s="14"/>
       <c r="B110" s="1" t="s">
         <v>1</v>
       </c>
@@ -4173,7 +4348,7 @@
       </c>
     </row>
     <row r="111" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A111" s="15"/>
+      <c r="A111" s="14"/>
       <c r="B111" s="1" t="s">
         <v>1</v>
       </c>
@@ -4193,7 +4368,7 @@
       </c>
     </row>
     <row r="112" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A112" s="15"/>
+      <c r="A112" s="14"/>
       <c r="B112" s="1" t="s">
         <v>1</v>
       </c>
@@ -4213,7 +4388,7 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A113" s="15"/>
+      <c r="A113" s="14"/>
       <c r="B113" s="1" t="s">
         <v>28</v>
       </c>
@@ -4232,7 +4407,7 @@
       </c>
     </row>
     <row r="114" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A114" s="16"/>
+      <c r="A114" s="14"/>
       <c r="B114" s="1" t="s">
         <v>29</v>
       </c>
@@ -4249,7 +4424,7 @@
       <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A115" s="18" t="s">
+      <c r="A115" s="15" t="s">
         <v>156</v>
       </c>
       <c r="B115" s="3" t="s">
@@ -4271,7 +4446,7 @@
       </c>
     </row>
     <row r="116" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A116" s="18"/>
+      <c r="A116" s="15"/>
       <c r="B116" s="3" t="s">
         <v>1</v>
       </c>
@@ -4291,7 +4466,7 @@
       </c>
     </row>
     <row r="117" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A117" s="18"/>
+      <c r="A117" s="15"/>
       <c r="B117" s="3" t="s">
         <v>1</v>
       </c>
@@ -4311,7 +4486,7 @@
       </c>
     </row>
     <row r="118" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A118" s="18"/>
+      <c r="A118" s="15"/>
       <c r="B118" s="3" t="s">
         <v>1</v>
       </c>
@@ -4331,7 +4506,7 @@
       </c>
     </row>
     <row r="119" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A119" s="18"/>
+      <c r="A119" s="15"/>
       <c r="B119" s="3" t="s">
         <v>1</v>
       </c>
@@ -4351,7 +4526,7 @@
       </c>
     </row>
     <row r="120" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A120" s="18"/>
+      <c r="A120" s="15"/>
       <c r="B120" s="3" t="s">
         <v>1</v>
       </c>
@@ -4371,7 +4546,7 @@
       </c>
     </row>
     <row r="121" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A121" s="18"/>
+      <c r="A121" s="15"/>
       <c r="B121" s="3" t="s">
         <v>1</v>
       </c>
@@ -4391,7 +4566,7 @@
       </c>
     </row>
     <row r="122" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A122" s="18"/>
+      <c r="A122" s="15"/>
       <c r="B122" s="3" t="s">
         <v>28</v>
       </c>
@@ -4410,7 +4585,7 @@
       </c>
     </row>
     <row r="123" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A123" s="19"/>
+      <c r="A123" s="15"/>
       <c r="B123" s="3" t="s">
         <v>29</v>
       </c>
@@ -4427,7 +4602,7 @@
       <c r="G123" s="3"/>
     </row>
     <row r="124" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A124" s="15" t="s">
+      <c r="A124" s="14" t="s">
         <v>157</v>
       </c>
       <c r="B124" s="1" t="s">
@@ -4445,11 +4620,11 @@
         <v>18</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>107</v>
+        <v>204</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A125" s="15"/>
+      <c r="A125" s="14"/>
       <c r="B125" s="1" t="s">
         <v>40</v>
       </c>
@@ -4465,11 +4640,11 @@
         <v>18</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>106</v>
+        <v>205</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A126" s="15"/>
+      <c r="A126" s="14"/>
       <c r="B126" s="1" t="s">
         <v>40</v>
       </c>
@@ -4485,11 +4660,11 @@
         <v>18</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>89</v>
+        <v>206</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A127" s="15"/>
+      <c r="A127" s="14"/>
       <c r="B127" s="1" t="s">
         <v>40</v>
       </c>
@@ -4505,11 +4680,11 @@
         <v>18</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>85</v>
+        <v>207</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A128" s="15"/>
+      <c r="A128" s="14"/>
       <c r="B128" s="1" t="s">
         <v>40</v>
       </c>
@@ -4525,11 +4700,11 @@
         <v>18</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A129" s="15"/>
+      <c r="A129" s="14"/>
       <c r="B129" s="1" t="s">
         <v>40</v>
       </c>
@@ -4545,11 +4720,11 @@
         <v>18</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>88</v>
+        <v>209</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A130" s="15"/>
+      <c r="A130" s="14"/>
       <c r="B130" s="1" t="s">
         <v>40</v>
       </c>
@@ -4565,11 +4740,11 @@
         <v>18</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>134</v>
+        <v>210</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A131" s="15"/>
+      <c r="A131" s="14"/>
       <c r="B131" s="1" t="s">
         <v>28</v>
       </c>
@@ -4588,7 +4763,7 @@
       </c>
     </row>
     <row r="132" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A132" s="16"/>
+      <c r="A132" s="14"/>
       <c r="B132" s="1" t="s">
         <v>29</v>
       </c>
@@ -4605,8 +4780,8 @@
       <c r="G132" s="1"/>
     </row>
     <row r="133" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A133" s="18" t="s">
-        <v>157</v>
+      <c r="A133" s="15" t="s">
+        <v>200</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>40</v>
@@ -4623,11 +4798,11 @@
         <v>18</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>107</v>
+        <v>204</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A134" s="18"/>
+      <c r="A134" s="15"/>
       <c r="B134" s="3" t="s">
         <v>40</v>
       </c>
@@ -4643,11 +4818,11 @@
         <v>18</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>106</v>
+        <v>205</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A135" s="18"/>
+      <c r="A135" s="15"/>
       <c r="B135" s="3" t="s">
         <v>40</v>
       </c>
@@ -4663,11 +4838,11 @@
         <v>18</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>89</v>
+        <v>206</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A136" s="18"/>
+      <c r="A136" s="15"/>
       <c r="B136" s="3" t="s">
         <v>40</v>
       </c>
@@ -4683,11 +4858,11 @@
         <v>18</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>85</v>
+        <v>207</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A137" s="18"/>
+      <c r="A137" s="15"/>
       <c r="B137" s="3" t="s">
         <v>40</v>
       </c>
@@ -4703,11 +4878,11 @@
         <v>18</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A138" s="18"/>
+      <c r="A138" s="15"/>
       <c r="B138" s="3" t="s">
         <v>40</v>
       </c>
@@ -4723,11 +4898,11 @@
         <v>18</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>88</v>
+        <v>209</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A139" s="18"/>
+      <c r="A139" s="15"/>
       <c r="B139" s="3" t="s">
         <v>40</v>
       </c>
@@ -4743,11 +4918,11 @@
         <v>18</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>134</v>
+        <v>210</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A140" s="18"/>
+      <c r="A140" s="15"/>
       <c r="B140" s="3" t="s">
         <v>28</v>
       </c>
@@ -4766,7 +4941,7 @@
       </c>
     </row>
     <row r="141" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A141" s="19"/>
+      <c r="A141" s="15"/>
       <c r="B141" s="3" t="s">
         <v>29</v>
       </c>
@@ -4778,16 +4953,454 @@
         <v>30</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="G141" s="3"/>
     </row>
+    <row r="142" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A142" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1" t="str">
+        <f t="shared" ref="E142:E150" si="20">_xlfn.CONCAT(B142, "_", C142)</f>
+        <v>DisGeNET_DSI</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A143" s="14"/>
+      <c r="B143" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>DisGeNET_DPI</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A144" s="14"/>
+      <c r="B144" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>DisGeNET_score</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A145" s="14"/>
+      <c r="B145" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>DisGeNET_EI</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A146" s="14"/>
+      <c r="B146" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>DisGeNET_YearInitial</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A147" s="14"/>
+      <c r="B147" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>DisGeNET_YearFinal</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A148" s="14"/>
+      <c r="B148" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>DisGeNET_NofPmids</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A149" s="14"/>
+      <c r="B149" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>DisGeNET_NofSnps</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A150" s="14"/>
+      <c r="B150" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>DisGeNET_source</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A151" s="14"/>
+      <c r="B151" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A152" s="14"/>
+      <c r="B152" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G152" s="1"/>
+    </row>
+    <row r="153" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A153" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3" t="str">
+        <f t="shared" ref="E153:E161" si="21">_xlfn.CONCAT(B153, "_", C153)</f>
+        <v>DisGeNET_DSI</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A154" s="15"/>
+      <c r="B154" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>DisGeNET_DPI</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A155" s="15"/>
+      <c r="B155" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>DisGeNET_score</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A156" s="15"/>
+      <c r="B156" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>DisGeNET_EI</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A157" s="15"/>
+      <c r="B157" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>DisGeNET_YearInitial</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A158" s="15"/>
+      <c r="B158" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>DisGeNET_YearFinal</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A159" s="15"/>
+      <c r="B159" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>DisGeNET_NofPmids</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A160" s="15"/>
+      <c r="B160" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>DisGeNET_NofSnps</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A161" s="15"/>
+      <c r="B161" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>DisGeNET_source</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A162" s="15"/>
+      <c r="B162" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A163" s="15"/>
+      <c r="B163" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G163" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="22">
     <mergeCell ref="A88:A96"/>
     <mergeCell ref="A70:A78"/>
     <mergeCell ref="A124:A132"/>
     <mergeCell ref="A133:A141"/>
+    <mergeCell ref="A142:A152"/>
+    <mergeCell ref="A153:A163"/>
     <mergeCell ref="A79:A87"/>
     <mergeCell ref="A97:A105"/>
     <mergeCell ref="A115:A123"/>
@@ -4811,11 +5424,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780CD01F-0819-CA44-B0D6-41E21FE9EADE}">
-  <dimension ref="A1:G196"/>
+  <dimension ref="A1:H205"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4825,12 +5438,13 @@
     <col min="3" max="3" width="38" style="11" customWidth="1"/>
     <col min="4" max="4" width="17.83203125" style="11" customWidth="1"/>
     <col min="5" max="5" width="34.33203125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="25.1640625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="93.6640625" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="10"/>
+    <col min="6" max="6" width="11.83203125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="93.6640625" style="12" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>34</v>
       </c>
@@ -4847,14 +5461,17 @@
         <v>44</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="42" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -4869,138 +5486,146 @@
       <c r="E2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
+    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A3" s="17"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
+    <row r="4" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A4" s="17"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A5" s="24"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
+    <row r="5" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
+    <row r="6" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="112" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
+    <row r="7" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="154" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
+    <row r="8" spans="1:8" ht="154" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="1"/>
+      <c r="G8" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="154" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
+    <row r="9" spans="1:8" ht="154" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="7" t="s">
+      <c r="F9" s="1"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+    <row r="10" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="15" t="s">
         <v>97</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -5009,2339 +5634,2684 @@
       <c r="E10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
+    <row r="11" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+    <row r="12" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+    <row r="13" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A13" s="18"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+    <row r="14" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
+    <row r="15" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="3"/>
+      <c r="G15" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+    <row r="16" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="3" t="s">
         <v>170</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="4" t="s">
+      <c r="F16" s="3"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
+    <row r="17" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="3" t="s">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
+        <v>180</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A18" s="18"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="4" t="s">
+      <c r="F19" s="3"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="3" t="s">
+    <row r="20" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="4" t="s">
+      <c r="F20" s="3"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A20" s="29" t="s">
+    <row r="21" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A22" s="18"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A23" s="18"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B24" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C24" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="6" t="s">
+      <c r="E24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H24" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="6" t="s">
+    <row r="25" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A25" s="19"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="6" t="s">
+      <c r="E25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H25" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="6" t="s">
+    <row r="26" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A26" s="19"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="6" t="s">
+      <c r="E26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H26" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="6" t="s">
+    <row r="27" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A27" s="19"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="6" t="s">
+      <c r="E27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H27" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="6" t="s">
+    <row r="28" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A28" s="19"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="6" t="s">
+      <c r="E28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="H28" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="6" t="s">
+    <row r="29" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A29" s="19"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F29" s="6"/>
+      <c r="G29" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H29" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A26" s="30"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="6" t="s">
+    <row r="30" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A30" s="19"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="F30" s="20"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A31" s="19"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E31" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F31" s="20"/>
+      <c r="G31" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H31" s="21" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A27" s="31"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="6" t="s">
+    <row r="32" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A32" s="19"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E32" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="7" t="s">
+      <c r="F32" s="20"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="21" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A28" s="26" t="s">
+    <row r="33" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A33" s="19"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="F33" s="20"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A34" s="19"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A35" s="19"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A36" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B36" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C36" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="3" t="s">
+      <c r="E36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="H36" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="3" t="s">
+    <row r="37" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="H37" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="3" t="s">
+    <row r="38" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="3" t="s">
+      <c r="E38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="H38" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="3" t="s">
+    <row r="39" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="3" t="s">
+      <c r="E39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="3" t="s">
+    <row r="40" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="3" t="s">
+      <c r="E40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="H40" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="3" t="s">
+    <row r="41" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F41" s="3"/>
+      <c r="G41" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="H41" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="3" t="s">
+    <row r="42" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F42" s="3"/>
+      <c r="G42" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="H42" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" s="3" t="s">
+    <row r="43" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F44" s="3"/>
+      <c r="G44" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="H44" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="42" x14ac:dyDescent="0.2">
-      <c r="A36" s="32" t="s">
+    <row r="45" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A45" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B45" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C45" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="33" t="s">
+      <c r="D45" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="33" t="s">
+      <c r="E45" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="34" t="s">
+      <c r="H45" s="21" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A37" s="35"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="33" t="s">
+    <row r="46" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A46" s="24"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="33" t="s">
+      <c r="E46" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G37" s="34" t="s">
+      <c r="H46" s="21" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A38" s="35"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="33" t="s">
+    <row r="47" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A47" s="24"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="33" t="s">
+      <c r="E47" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G38" s="34" t="s">
+      <c r="H47" s="21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="33" t="s">
+    <row r="48" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A48" s="24"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="33" t="s">
+      <c r="E48" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G39" s="34" t="s">
+      <c r="H48" s="21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A40" s="35"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="33" t="s">
+    <row r="49" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A49" s="24"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="33" t="s">
+      <c r="E49" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="34" t="s">
+      <c r="H49" s="21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A41" s="35"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="33" t="s">
+    <row r="50" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E41" s="33" t="s">
+      <c r="E50" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="F41" s="33" t="s">
+      <c r="F50" s="20"/>
+      <c r="G50" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G41" s="34" t="s">
+      <c r="H50" s="21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A42" s="35"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="33" t="s">
+    <row r="51" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A51" s="24"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="33" t="s">
+      <c r="E51" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="F42" s="33" t="s">
+      <c r="F51" s="20"/>
+      <c r="G51" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="G42" s="34" t="s">
+      <c r="H51" s="21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A43" s="36"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" s="6" t="s">
+    <row r="52" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A52" s="24"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F52" s="6"/>
+      <c r="G52" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="H52" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A44" s="26" t="s">
+    <row r="53" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A53" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B53" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C53" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="3" t="s">
+      <c r="E53" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="H53" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="3" t="s">
+    <row r="54" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A54" s="18"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" s="3" t="s">
+      <c r="E54" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="H54" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="3" t="s">
+    <row r="55" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A55" s="18"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46" s="3" t="s">
+      <c r="E55" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="H55" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="3" t="s">
+    <row r="56" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="3" t="s">
+      <c r="E56" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="H56" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="3" t="s">
+    <row r="57" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A57" s="18"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="3" t="s">
+      <c r="E57" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="H57" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="3" t="s">
+    <row r="58" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A58" s="18"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E58" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F58" s="3"/>
+      <c r="G58" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="H58" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="3" t="s">
+    <row r="59" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A59" s="18"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E59" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F59" s="3"/>
+      <c r="G59" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="H59" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A51" s="28"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E51" s="3" t="s">
+    <row r="60" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A60" s="18"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F60" s="3"/>
+      <c r="G60" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="H60" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="42" x14ac:dyDescent="0.2">
-      <c r="A52" s="23" t="s">
+    <row r="61" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A61" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B61" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="23" t="s">
+      <c r="C61" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="D52" s="33" t="s">
+      <c r="D61" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" s="33" t="s">
+      <c r="E61" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="34" t="s">
+      <c r="H61" s="21" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A53" s="24"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="33" t="s">
+    <row r="62" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E53" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53" s="33" t="s">
+      <c r="E62" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G53" s="34" t="s">
+      <c r="H62" s="21" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="33" t="s">
+    <row r="63" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A63" s="17"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" s="33" t="s">
+      <c r="E63" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G54" s="34" t="s">
+      <c r="H63" s="21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A55" s="24"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="33" t="s">
+    <row r="64" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A64" s="17"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E55" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" s="33" t="s">
+      <c r="E64" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G55" s="34" t="s">
+      <c r="H64" s="21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A56" s="24"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="33" t="s">
+    <row r="65" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E56" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" s="33" t="s">
+      <c r="E65" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G56" s="34" t="s">
+      <c r="H65" s="21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A57" s="24"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="33" t="s">
+    <row r="66" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A66" s="17"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E57" s="33" t="s">
+      <c r="E66" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="F57" s="33" t="s">
+      <c r="F66" s="20"/>
+      <c r="G66" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="G57" s="34" t="s">
+      <c r="H66" s="21" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A58" s="25"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E58" s="6" t="s">
+    <row r="67" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A67" s="17"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E67" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="F67" s="6"/>
+      <c r="G67" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="H67" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="42" x14ac:dyDescent="0.2">
-      <c r="A59" s="26" t="s">
+    <row r="68" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A68" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="26" t="s">
+      <c r="B68" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C59" s="26" t="s">
+      <c r="C68" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59" s="3" t="s">
+      <c r="E68" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="H68" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A60" s="27"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="3" t="s">
+    <row r="69" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A69" s="18"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F60" s="3" t="s">
+      <c r="E69" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="H69" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A61" s="27"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="3" t="s">
+    <row r="70" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A70" s="18"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F61" s="3" t="s">
+      <c r="E70" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="H70" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A62" s="27"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="3" t="s">
+    <row r="71" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A71" s="18"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F62" s="3" t="s">
+      <c r="E71" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="H71" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A63" s="27"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="3" t="s">
+    <row r="72" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A72" s="18"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F63" s="3" t="s">
+      <c r="E72" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="H72" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A64" s="27"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="3" t="s">
+    <row r="73" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A73" s="18"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E73" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F73" s="3"/>
+      <c r="G73" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G64" s="4" t="s">
+      <c r="H73" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A65" s="27"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="3" t="s">
+    <row r="74" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A74" s="18"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F65" s="3" t="s">
+      <c r="E74" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G65" s="4" t="s">
+      <c r="H74" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A66" s="27"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E66" s="3" t="s">
+    <row r="75" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A75" s="18"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F75" s="3"/>
+      <c r="G75" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="H75" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="42" x14ac:dyDescent="0.2">
-      <c r="A67" s="29" t="s">
+    <row r="76" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A76" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B67" s="29" t="s">
+      <c r="B76" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="C67" s="29" t="s">
+      <c r="C76" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D76" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E67" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F67" s="6" t="s">
+      <c r="E76" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G67" s="7" t="s">
+      <c r="H76" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A68" s="30"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="6" t="s">
+    <row r="77" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A77" s="19"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E68" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F68" s="6" t="s">
+      <c r="E77" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G68" s="7" t="s">
+      <c r="H77" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A69" s="30"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="6" t="s">
+    <row r="78" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A78" s="19"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E69" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F69" s="6" t="s">
+      <c r="E78" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G69" s="7" t="s">
+      <c r="H78" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A70" s="30"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="6" t="s">
+    <row r="79" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A79" s="19"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F70" s="6" t="s">
+      <c r="E79" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="H79" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A71" s="30"/>
-      <c r="B71" s="30"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="6" t="s">
+    <row r="80" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A80" s="19"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E71" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F71" s="6" t="s">
+      <c r="E80" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G71" s="7" t="s">
+      <c r="H80" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A72" s="30"/>
-      <c r="B72" s="30"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="6" t="s">
+    <row r="81" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A81" s="19"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E81" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="F81" s="6"/>
+      <c r="G81" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G72" s="7" t="s">
+      <c r="H81" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A73" s="30"/>
-      <c r="B73" s="30"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="6" t="s">
+    <row r="82" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A82" s="19"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E73" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F73" s="6" t="s">
+      <c r="E82" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G73" s="7" t="s">
+      <c r="H82" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A74" s="30"/>
-      <c r="B74" s="30"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E74" s="6" t="s">
+    <row r="83" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A83" s="19"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E83" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F74" s="6" t="s">
+      <c r="F83" s="6"/>
+      <c r="G83" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G74" s="7" t="s">
+      <c r="H83" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="42" x14ac:dyDescent="0.2">
-      <c r="A75" s="26" t="s">
+    <row r="84" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A84" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B75" s="26" t="s">
+      <c r="B84" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="C75" s="26" t="s">
+      <c r="C84" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E75" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F75" s="3" t="s">
+      <c r="E84" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G75" s="4" t="s">
+      <c r="H84" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A76" s="27"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="3" t="s">
+    <row r="85" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A85" s="18"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F76" s="3" t="s">
+      <c r="E85" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G76" s="4" t="s">
+      <c r="H85" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A77" s="27"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="3" t="s">
+    <row r="86" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A86" s="18"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E77" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F77" s="3" t="s">
+      <c r="E86" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G77" s="4" t="s">
+      <c r="H86" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A78" s="27"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="3" t="s">
+    <row r="87" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A87" s="18"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E78" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F78" s="3" t="s">
+      <c r="E87" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G78" s="4" t="s">
+      <c r="H87" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A79" s="27"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="3" t="s">
+    <row r="88" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A88" s="18"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E79" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F79" s="3" t="s">
+      <c r="E88" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="H88" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A80" s="27"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="3" t="s">
+    <row r="89" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A89" s="18"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E89" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="F89" s="3"/>
+      <c r="G89" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G80" s="4" t="s">
+      <c r="H89" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A81" s="27"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="3" t="s">
+    <row r="90" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A90" s="18"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F81" s="3" t="s">
+      <c r="E90" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G81" s="4" t="s">
+      <c r="H90" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A82" s="27"/>
-      <c r="B82" s="27"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E82" s="3" t="s">
+    <row r="91" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A91" s="18"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E91" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F82" s="3" t="s">
+      <c r="F91" s="3"/>
+      <c r="G91" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G82" s="4" t="s">
+      <c r="H91" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="13"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="13"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="13"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="13"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="13"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="13"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="13"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="13"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="13"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
-      <c r="G92" s="13"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G92" s="5"/>
+      <c r="H92" s="13"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
-      <c r="G93" s="13"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G93" s="5"/>
+      <c r="H93" s="13"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
-      <c r="G94" s="13"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G94" s="5"/>
+      <c r="H94" s="13"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
-      <c r="G95" s="13"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G95" s="5"/>
+      <c r="H95" s="13"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
-      <c r="G96" s="13"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G96" s="5"/>
+      <c r="H96" s="13"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
-      <c r="G97" s="13"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G97" s="5"/>
+      <c r="H97" s="13"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
-      <c r="G98" s="13"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G98" s="5"/>
+      <c r="H98" s="13"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
-      <c r="G99" s="13"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G99" s="5"/>
+      <c r="H99" s="13"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
-      <c r="G100" s="13"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G100" s="5"/>
+      <c r="H100" s="13"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
-      <c r="G101" s="13"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G101" s="5"/>
+      <c r="H101" s="13"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
-      <c r="G102" s="13"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G102" s="5"/>
+      <c r="H102" s="13"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
-      <c r="G103" s="13"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G103" s="5"/>
+      <c r="H103" s="13"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
-      <c r="G104" s="13"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G104" s="5"/>
+      <c r="H104" s="13"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
-      <c r="G105" s="13"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G105" s="5"/>
+      <c r="H105" s="13"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
-      <c r="G106" s="13"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G106" s="5"/>
+      <c r="H106" s="13"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
-      <c r="G107" s="13"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G107" s="5"/>
+      <c r="H107" s="13"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
-      <c r="G108" s="13"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G108" s="5"/>
+      <c r="H108" s="13"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
-      <c r="G109" s="13"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G109" s="5"/>
+      <c r="H109" s="13"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
-      <c r="G110" s="13"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G110" s="5"/>
+      <c r="H110" s="13"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
-      <c r="G111" s="13"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G111" s="5"/>
+      <c r="H111" s="13"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
-      <c r="G112" s="13"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G112" s="5"/>
+      <c r="H112" s="13"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
-      <c r="G113" s="13"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G113" s="5"/>
+      <c r="H113" s="13"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
-      <c r="G114" s="13"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G114" s="5"/>
+      <c r="H114" s="13"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
-      <c r="G115" s="13"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G115" s="5"/>
+      <c r="H115" s="13"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
-      <c r="G116" s="13"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G116" s="5"/>
+      <c r="H116" s="13"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
-      <c r="G117" s="13"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G117" s="5"/>
+      <c r="H117" s="13"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
-      <c r="G118" s="13"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G118" s="5"/>
+      <c r="H118" s="13"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
-      <c r="G119" s="13"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G119" s="5"/>
+      <c r="H119" s="13"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
-      <c r="G120" s="13"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G120" s="5"/>
+      <c r="H120" s="13"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
-      <c r="G121" s="13"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G121" s="5"/>
+      <c r="H121" s="13"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
-      <c r="G122" s="13"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G122" s="5"/>
+      <c r="H122" s="13"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
-      <c r="G123" s="13"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G123" s="5"/>
+      <c r="H123" s="13"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
-      <c r="G124" s="13"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G124" s="5"/>
+      <c r="H124" s="13"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
-      <c r="G125" s="13"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G125" s="5"/>
+      <c r="H125" s="13"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
-      <c r="G126" s="13"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G126" s="5"/>
+      <c r="H126" s="13"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
-      <c r="G127" s="13"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G127" s="5"/>
+      <c r="H127" s="13"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
-      <c r="G128" s="13"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G128" s="5"/>
+      <c r="H128" s="13"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
-      <c r="G129" s="13"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G129" s="5"/>
+      <c r="H129" s="13"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
-      <c r="G130" s="13"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G130" s="5"/>
+      <c r="H130" s="13"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
-      <c r="G131" s="13"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G131" s="5"/>
+      <c r="H131" s="13"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
-      <c r="G132" s="13"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G132" s="5"/>
+      <c r="H132" s="13"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
-      <c r="G133" s="13"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G133" s="5"/>
+      <c r="H133" s="13"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
-      <c r="G134" s="13"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G134" s="5"/>
+      <c r="H134" s="13"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
-      <c r="G135" s="13"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G135" s="5"/>
+      <c r="H135" s="13"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
-      <c r="G136" s="13"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G136" s="5"/>
+      <c r="H136" s="13"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
-      <c r="G137" s="13"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G137" s="5"/>
+      <c r="H137" s="13"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
-      <c r="G138" s="13"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G138" s="5"/>
+      <c r="H138" s="13"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
-      <c r="G139" s="13"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G139" s="5"/>
+      <c r="H139" s="13"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
-      <c r="G140" s="13"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G140" s="5"/>
+      <c r="H140" s="13"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
-      <c r="G141" s="13"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G141" s="5"/>
+      <c r="H141" s="13"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
-      <c r="G142" s="13"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G142" s="5"/>
+      <c r="H142" s="13"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
-      <c r="G143" s="13"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G143" s="5"/>
+      <c r="H143" s="13"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
-      <c r="G144" s="13"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G144" s="5"/>
+      <c r="H144" s="13"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
-      <c r="G145" s="13"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G145" s="5"/>
+      <c r="H145" s="13"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
-      <c r="G146" s="13"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G146" s="5"/>
+      <c r="H146" s="13"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
-      <c r="G147" s="13"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G147" s="5"/>
+      <c r="H147" s="13"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
-      <c r="G148" s="13"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G148" s="5"/>
+      <c r="H148" s="13"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
-      <c r="G149" s="13"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G149" s="5"/>
+      <c r="H149" s="13"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
-      <c r="G150" s="13"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G150" s="5"/>
+      <c r="H150" s="13"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
-      <c r="G151" s="13"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G151" s="5"/>
+      <c r="H151" s="13"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
-      <c r="G152" s="13"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G152" s="5"/>
+      <c r="H152" s="13"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
-      <c r="G153" s="13"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G153" s="5"/>
+      <c r="H153" s="13"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
-      <c r="G154" s="13"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G154" s="5"/>
+      <c r="H154" s="13"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
-      <c r="G155" s="13"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G155" s="5"/>
+      <c r="H155" s="13"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
-      <c r="G156" s="13"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G156" s="5"/>
+      <c r="H156" s="13"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
-      <c r="G157" s="13"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G157" s="5"/>
+      <c r="H157" s="13"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
-      <c r="G158" s="13"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G158" s="5"/>
+      <c r="H158" s="13"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
-      <c r="G159" s="13"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G159" s="5"/>
+      <c r="H159" s="13"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
-      <c r="G160" s="13"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G160" s="5"/>
+      <c r="H160" s="13"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
-      <c r="G161" s="13"/>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G161" s="5"/>
+      <c r="H161" s="13"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
-      <c r="G162" s="13"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G162" s="5"/>
+      <c r="H162" s="13"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
-      <c r="G163" s="13"/>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G163" s="5"/>
+      <c r="H163" s="13"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
-      <c r="G164" s="13"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G164" s="5"/>
+      <c r="H164" s="13"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
-      <c r="G165" s="13"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G165" s="5"/>
+      <c r="H165" s="13"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
-      <c r="G166" s="13"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G166" s="5"/>
+      <c r="H166" s="13"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
-      <c r="G167" s="13"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G167" s="5"/>
+      <c r="H167" s="13"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
-      <c r="G168" s="13"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G168" s="5"/>
+      <c r="H168" s="13"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
-      <c r="G169" s="13"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G169" s="5"/>
+      <c r="H169" s="13"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
-      <c r="G170" s="13"/>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G170" s="5"/>
+      <c r="H170" s="13"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
-      <c r="G171" s="13"/>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G171" s="5"/>
+      <c r="H171" s="13"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
-      <c r="G172" s="13"/>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G172" s="5"/>
+      <c r="H172" s="13"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
-      <c r="G173" s="13"/>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G173" s="5"/>
+      <c r="H173" s="13"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
-      <c r="G174" s="13"/>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G174" s="5"/>
+      <c r="H174" s="13"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
-      <c r="G175" s="13"/>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G175" s="5"/>
+      <c r="H175" s="13"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
-      <c r="G176" s="13"/>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G176" s="5"/>
+      <c r="H176" s="13"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
-      <c r="G177" s="13"/>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G177" s="5"/>
+      <c r="H177" s="13"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
-      <c r="G178" s="13"/>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G178" s="5"/>
+      <c r="H178" s="13"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
-      <c r="G179" s="13"/>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G179" s="5"/>
+      <c r="H179" s="13"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
-      <c r="G180" s="13"/>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G180" s="5"/>
+      <c r="H180" s="13"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
-      <c r="G181" s="13"/>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G181" s="5"/>
+      <c r="H181" s="13"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
-      <c r="G182" s="13"/>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G182" s="5"/>
+      <c r="H182" s="13"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
-      <c r="G183" s="13"/>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G183" s="5"/>
+      <c r="H183" s="13"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
-      <c r="G184" s="13"/>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G184" s="5"/>
+      <c r="H184" s="13"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
-      <c r="G185" s="13"/>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G185" s="5"/>
+      <c r="H185" s="13"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
-      <c r="G186" s="13"/>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G186" s="5"/>
+      <c r="H186" s="13"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
-      <c r="G187" s="13"/>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G187" s="5"/>
+      <c r="H187" s="13"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
-      <c r="G188" s="13"/>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G188" s="5"/>
+      <c r="H188" s="13"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
-      <c r="G189" s="13"/>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G189" s="5"/>
+      <c r="H189" s="13"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
-      <c r="G190" s="13"/>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G190" s="5"/>
+      <c r="H190" s="13"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
-      <c r="G191" s="13"/>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G191" s="5"/>
+      <c r="H191" s="13"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
-      <c r="G192" s="13"/>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G192" s="5"/>
+      <c r="H192" s="13"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
-      <c r="G193" s="13"/>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G193" s="5"/>
+      <c r="H193" s="13"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
-      <c r="G194" s="13"/>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G194" s="5"/>
+      <c r="H194" s="13"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
-      <c r="G195" s="13"/>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G195" s="5"/>
+      <c r="H195" s="13"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
-      <c r="G196" s="13"/>
+      <c r="G196" s="5"/>
+      <c r="H196" s="13"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197" s="5"/>
+      <c r="B197" s="5"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="5"/>
+      <c r="H197" s="13"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" s="5"/>
+      <c r="B198" s="5"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
+      <c r="E198" s="5"/>
+      <c r="F198" s="5"/>
+      <c r="G198" s="5"/>
+      <c r="H198" s="13"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" s="5"/>
+      <c r="B199" s="5"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
+      <c r="E199" s="5"/>
+      <c r="F199" s="5"/>
+      <c r="G199" s="5"/>
+      <c r="H199" s="13"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200" s="5"/>
+      <c r="B200" s="5"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
+      <c r="E200" s="5"/>
+      <c r="F200" s="5"/>
+      <c r="G200" s="5"/>
+      <c r="H200" s="13"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201" s="5"/>
+      <c r="B201" s="5"/>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5"/>
+      <c r="E201" s="5"/>
+      <c r="F201" s="5"/>
+      <c r="G201" s="5"/>
+      <c r="H201" s="13"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202" s="5"/>
+      <c r="B202" s="5"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="5"/>
+      <c r="E202" s="5"/>
+      <c r="F202" s="5"/>
+      <c r="G202" s="5"/>
+      <c r="H202" s="13"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203" s="5"/>
+      <c r="B203" s="5"/>
+      <c r="C203" s="5"/>
+      <c r="D203" s="5"/>
+      <c r="E203" s="5"/>
+      <c r="F203" s="5"/>
+      <c r="G203" s="5"/>
+      <c r="H203" s="13"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204" s="5"/>
+      <c r="B204" s="5"/>
+      <c r="C204" s="5"/>
+      <c r="D204" s="5"/>
+      <c r="E204" s="5"/>
+      <c r="F204" s="5"/>
+      <c r="G204" s="5"/>
+      <c r="H204" s="13"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205" s="5"/>
+      <c r="B205" s="5"/>
+      <c r="C205" s="5"/>
+      <c r="D205" s="5"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="5"/>
+      <c r="G205" s="5"/>
+      <c r="H205" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="A67:A74"/>
-    <mergeCell ref="B67:B74"/>
-    <mergeCell ref="C67:C74"/>
-    <mergeCell ref="A75:A82"/>
-    <mergeCell ref="B75:B82"/>
-    <mergeCell ref="C75:C82"/>
-    <mergeCell ref="C52:C58"/>
-    <mergeCell ref="B52:B58"/>
-    <mergeCell ref="A52:A58"/>
-    <mergeCell ref="A59:A66"/>
-    <mergeCell ref="B59:B66"/>
-    <mergeCell ref="C59:C66"/>
-    <mergeCell ref="A44:A51"/>
-    <mergeCell ref="B44:B51"/>
-    <mergeCell ref="C44:C51"/>
-    <mergeCell ref="C28:C35"/>
-    <mergeCell ref="B28:B35"/>
-    <mergeCell ref="A28:A35"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="B36:B43"/>
-    <mergeCell ref="C36:C43"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F15:F16"/>
+  <mergeCells count="36">
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="C10:C23"/>
+    <mergeCell ref="B10:B23"/>
+    <mergeCell ref="A10:A23"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A76:A83"/>
+    <mergeCell ref="B76:B83"/>
+    <mergeCell ref="C76:C83"/>
+    <mergeCell ref="A84:A91"/>
+    <mergeCell ref="B84:B91"/>
+    <mergeCell ref="C84:C91"/>
+    <mergeCell ref="C61:C67"/>
+    <mergeCell ref="B61:B67"/>
+    <mergeCell ref="A61:A67"/>
+    <mergeCell ref="A68:A75"/>
+    <mergeCell ref="B68:B75"/>
+    <mergeCell ref="C68:C75"/>
+    <mergeCell ref="A53:A60"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="C53:C60"/>
+    <mergeCell ref="C36:C44"/>
+    <mergeCell ref="B36:B44"/>
+    <mergeCell ref="A36:A44"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="B45:B52"/>
+    <mergeCell ref="C45:C52"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G18:G21"/>
     <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A19"/>
-    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="A24:A35"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="C2:C9"/>
-    <mergeCell ref="C10:C19"/>
-    <mergeCell ref="B10:B19"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="C20:C27"/>
+    <mergeCell ref="B24:B35"/>
+    <mergeCell ref="C24:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/pheknowlator_source_metadata.xlsx
+++ b/resources/pheknowlator_source_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiffanycallahan/Dropbox/GraduateSchool/PhD/LabWork/PheKnowLator/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8984D6F-3D87-2B4C-B10F-C190FEEBB516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA07D578-29E0-3142-8D34-D85EB4A17740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9820" yWindow="460" windowWidth="37820" windowHeight="23880" xr2:uid="{82CFCCA6-69D0-6D4F-8FD9-9511C5B37B8B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="227">
   <si>
     <t>edge_type</t>
   </si>
@@ -1619,6 +1619,27 @@
   </si>
   <si>
     <t>Value derived from DisGeNET (column:15)</t>
+  </si>
+  <si>
+    <t>gene-gene</t>
+  </si>
+  <si>
+    <t>Value derived from GeneMania (column:2)</t>
+  </si>
+  <si>
+    <t>GeneMania</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Gene-Gene</t>
+  </si>
+  <si>
+    <t>Mapped through RO concept RO:0002435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	biolink:genetically_interacts_with</t>
   </si>
 </sst>
 </file>
@@ -2119,11 +2140,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC7A73D-1C32-0943-8AF1-D604CF68867B}">
-  <dimension ref="A1:G163"/>
+  <dimension ref="A1:G169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C161" sqref="C161"/>
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F172" sqref="F172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5393,8 +5414,126 @@
       </c>
       <c r="G163" s="3"/>
     </row>
+    <row r="164" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A164" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1" t="str">
+        <f>_xlfn.CONCAT(B164, "_", C164)</f>
+        <v>GeneMania_Weight</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A165" s="14"/>
+      <c r="B165" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A166" s="14"/>
+      <c r="B166" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G166" s="1"/>
+    </row>
+    <row r="167" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A167" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3" t="str">
+        <f>_xlfn.CONCAT(B167, "_", C167)</f>
+        <v>GeneMania_Weight</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A168" s="15"/>
+      <c r="B168" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A169" s="15"/>
+      <c r="B169" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="G169" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
+    <mergeCell ref="A164:A166"/>
+    <mergeCell ref="A167:A169"/>
     <mergeCell ref="A88:A96"/>
     <mergeCell ref="A70:A78"/>
     <mergeCell ref="A124:A132"/>

--- a/resources/pheknowlator_source_metadata.xlsx
+++ b/resources/pheknowlator_source_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiffanycallahan/Dropbox/GraduateSchool/PhD/LabWork/PheKnowLator/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA07D578-29E0-3142-8D34-D85EB4A17740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49399490-F0E6-F14A-8EB9-D10869481F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9820" yWindow="460" windowWidth="37820" windowHeight="23880" xr2:uid="{82CFCCA6-69D0-6D4F-8FD9-9511C5B37B8B}"/>
+    <workbookView xWindow="13380" yWindow="460" windowWidth="37820" windowHeight="23880" activeTab="1" xr2:uid="{82CFCCA6-69D0-6D4F-8FD9-9511C5B37B8B}"/>
   </bookViews>
   <sheets>
     <sheet name="edges" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="247">
   <si>
     <t>edge_type</t>
   </si>
@@ -746,58 +746,6 @@
   </si>
   <si>
     <t>CTD:ReactomeID</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CTD Data Information</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-chemical-gene:column 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pulled from data provided by CTD
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CTD Data Information</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-chemical-gene:column 5</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1031,6 +979,450 @@
     <t>CTD:GOTermName</t>
   </si>
   <si>
+    <t>CTD:Ontology</t>
+  </si>
+  <si>
+    <t>CTD_Ontology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	biolink:molecularly_interacts_with</t>
+  </si>
+  <si>
+    <t>HighestGOLevel</t>
+  </si>
+  <si>
+    <t>Pvalue</t>
+  </si>
+  <si>
+    <t>CorrectedPValue</t>
+  </si>
+  <si>
+    <t>TargetMatchQty</t>
+  </si>
+  <si>
+    <t>TargetTotalQty</t>
+  </si>
+  <si>
+    <t>BackgroundMatchQty</t>
+  </si>
+  <si>
+    <t>BackgroundTotalQty</t>
+  </si>
+  <si>
+    <t>Gene Ontology (GO)</t>
+  </si>
+  <si>
+    <t>Value derived from CTD (column:6)</t>
+  </si>
+  <si>
+    <t>Value derived from CTD (column:11)</t>
+  </si>
+  <si>
+    <t>Value derived from CTD (column:12)</t>
+  </si>
+  <si>
+    <t>gocc</t>
+  </si>
+  <si>
+    <t>gomf</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Keyword provided by a user in the resource_info.txt, edge_source_list.txt, ontology_source_list.txt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">The Default value is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GOCellularComponent</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Value determined by NodeNormalization. When no match is found, use nearest parent's mapped concept. If no map can be found to a parent concept use the BioLink concept use the default value.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> The Default value is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>biolink:CellularComponent</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Value determined by NodeNormalization. When no match is found, use nearest parent's mapped concept. If no map can be found to a parent concept use the BioLink concept use the default value.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> The Default value is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>biolink:MolecularFunction</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Keyword provided by a user in the resource_info.txt, edge_source_list.txt, ontology_source_list.txt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">The Default value is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GOMolecularFunction</t>
+    </r>
+  </si>
+  <si>
+    <t>disease-chemical</t>
+  </si>
+  <si>
+    <t>Mapped through RO concept RO:0002302</t>
+  </si>
+  <si>
+    <t>biolink:treated_by</t>
+  </si>
+  <si>
+    <t>phenotype-chemical</t>
+  </si>
+  <si>
+    <t>gene-chemical</t>
+  </si>
+  <si>
+    <t>rna-chemical</t>
+  </si>
+  <si>
+    <t>protein-chemical</t>
+  </si>
+  <si>
+    <t>biolink:biolink:has_participant</t>
+  </si>
+  <si>
+    <t>Mapped through RO concept RO:0000057</t>
+  </si>
+  <si>
+    <t>pathway-chemical</t>
+  </si>
+  <si>
+    <t>gobp-chemical</t>
+  </si>
+  <si>
+    <t>chemical-gocc</t>
+  </si>
+  <si>
+    <t>gocc-chemical</t>
+  </si>
+  <si>
+    <t>chemical-gomf</t>
+  </si>
+  <si>
+    <t>gomf-chemical</t>
+  </si>
+  <si>
+    <t>disease-phenotype</t>
+  </si>
+  <si>
+    <t>Mapped through RO concept RO:0002200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	biolink:has_phenotype</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Evidence</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Modifier</t>
+  </si>
+  <si>
+    <t>Aspect</t>
+  </si>
+  <si>
+    <t>Biocuration</t>
+  </si>
+  <si>
+    <t>HPO:DatabaseID</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulled from data provided by CTD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTD Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-disease:column 8</t>
+    </r>
+  </si>
+  <si>
+    <t>HPO:DiseaseName</t>
+  </si>
+  <si>
+    <t>OBO Ontology
+HPO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulled from data provided by HPO
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>HPO Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-disease:column 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Mapped through RO concept RO:0002201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	biolink:phenotype_of</t>
+  </si>
+  <si>
+    <t>gene-disease</t>
+  </si>
+  <si>
+    <t>DisGeNET</t>
+  </si>
+  <si>
+    <t>OBO Ontology
+DisGeNET</t>
+  </si>
+  <si>
+    <t>DisGeNET:geneSymbol</t>
+  </si>
+  <si>
+    <t>DisGeNET:diseaseName</t>
+  </si>
+  <si>
+    <t>DisGeNET:diseaseId</t>
+  </si>
+  <si>
+    <t>DisGeNET:diseaseSematicType</t>
+  </si>
+  <si>
+    <t>DisGeNET_diseaseSematicType</t>
+  </si>
+  <si>
+    <t>DisGeNET:diseaseClass</t>
+  </si>
+  <si>
+    <t>DisGeNET_diseaseClass</t>
+  </si>
+  <si>
+    <t>DSI</t>
+  </si>
+  <si>
+    <t>DPI</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>EI</t>
+  </si>
+  <si>
+    <t>YearInitial</t>
+  </si>
+  <si>
+    <t>YearFinal</t>
+  </si>
+  <si>
+    <t>NofPmids</t>
+  </si>
+  <si>
+    <t>NofSnps</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Mapped through RO concept RO:0003302</t>
+  </si>
+  <si>
+    <t>phenotype-disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	biolink:causes_or_contributes_to_condition</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>gene-phenotype</t>
+  </si>
+  <si>
+    <t>Value derived from HPO (column:4)</t>
+  </si>
+  <si>
+    <t>Value derived from HPO (column:5)</t>
+  </si>
+  <si>
+    <t>Value derived from HPO (column:7)</t>
+  </si>
+  <si>
+    <t>Value derived from HPO (column:8)</t>
+  </si>
+  <si>
+    <t>Value derived from HPO (column:9)</t>
+  </si>
+  <si>
+    <t>Value derived from HPO (column:10)</t>
+  </si>
+  <si>
+    <t>Value derived from HPO (column:11)</t>
+  </si>
+  <si>
+    <t>Value derived from DisGeNET (column:2)</t>
+  </si>
+  <si>
+    <t>Value derived from DisGeNET (column:3)</t>
+  </si>
+  <si>
+    <t>Value derived from DisGeNET (column:9)</t>
+  </si>
+  <si>
+    <t>Value derived from DisGeNET (column:10)</t>
+  </si>
+  <si>
+    <t>Value derived from DisGeNET (column:11)</t>
+  </si>
+  <si>
+    <t>Value derived from DisGeNET (column:12)</t>
+  </si>
+  <si>
+    <t>Value derived from DisGeNET (column:13)</t>
+  </si>
+  <si>
+    <t>Value derived from DisGeNET (column:14)</t>
+  </si>
+  <si>
+    <t>Value derived from DisGeNET (column:15)</t>
+  </si>
+  <si>
+    <t>gene-gene</t>
+  </si>
+  <si>
+    <t>Value derived from GeneMania (column:2)</t>
+  </si>
+  <si>
+    <t>GeneMania</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Mapped through RO concept RO:0002435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	biolink:genetically_interacts_with</t>
+  </si>
+  <si>
+    <t>gene-pathway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	biolink:participates_in</t>
+  </si>
+  <si>
+    <t>pathway-gene</t>
+  </si>
+  <si>
+    <t>biolink:has_participant</t>
+  </si>
+  <si>
+    <t>CTD:PathwayName</t>
+  </si>
+  <si>
+    <t>CTD:PathwayID</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
 </t>
@@ -1053,230 +1445,190 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-chemical-gene:column 4</t>
-    </r>
-  </si>
-  <si>
-    <t>CTD:Ontology</t>
-  </si>
-  <si>
-    <t>CTD_Ontology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	biolink:molecularly_interacts_with</t>
-  </si>
-  <si>
-    <t>HighestGOLevel</t>
-  </si>
-  <si>
-    <t>Pvalue</t>
-  </si>
-  <si>
-    <t>CorrectedPValue</t>
-  </si>
-  <si>
-    <t>TargetMatchQty</t>
-  </si>
-  <si>
-    <t>TargetTotalQty</t>
-  </si>
-  <si>
-    <t>BackgroundMatchQty</t>
-  </si>
-  <si>
-    <t>BackgroundTotalQty</t>
-  </si>
-  <si>
-    <t>Gene Ontology (GO)</t>
-  </si>
-  <si>
-    <t>Value derived from CTD (column:6)</t>
-  </si>
-  <si>
-    <t>Value derived from CTD (column:11)</t>
-  </si>
-  <si>
-    <t>Value derived from CTD (column:12)</t>
-  </si>
-  <si>
-    <t>gocc</t>
-  </si>
-  <si>
-    <t>gomf</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Keyword provided by a user in the resource_info.txt, edge_source_list.txt, ontology_source_list.txt. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">The Default value is </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>GOCellularComponent</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Value determined by NodeNormalization. When no match is found, use nearest parent's mapped concept. If no map can be found to a parent concept use the BioLink concept use the default value.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> The Default value is </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>biolink:CellularComponent</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Value determined by NodeNormalization. When no match is found, use nearest parent's mapped concept. If no map can be found to a parent concept use the BioLink concept use the default value.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> The Default value is </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>biolink:MolecularFunction</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Keyword provided by a user in the resource_info.txt, edge_source_list.txt, ontology_source_list.txt. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">The Default value is </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>GOMolecularFunction</t>
-    </r>
-  </si>
-  <si>
-    <t>disease-chemical</t>
-  </si>
-  <si>
-    <t>Mapped through RO concept RO:0002302</t>
-  </si>
-  <si>
-    <t>biolink:treated_by</t>
-  </si>
-  <si>
-    <t>phenotype-chemical</t>
-  </si>
-  <si>
-    <t>gene-chemical</t>
-  </si>
-  <si>
-    <t>rna-chemical</t>
-  </si>
-  <si>
-    <t>protein-chemical</t>
-  </si>
-  <si>
-    <t>biolink:biolink:has_participant</t>
-  </si>
-  <si>
-    <t>Mapped through RO concept RO:0000057</t>
-  </si>
-  <si>
-    <t>pathway-chemical</t>
-  </si>
-  <si>
-    <t>gobp-chemical</t>
-  </si>
-  <si>
-    <t>chemical-gocc</t>
-  </si>
-  <si>
-    <t>gocc-chemical</t>
-  </si>
-  <si>
-    <t>chemical-gomf</t>
-  </si>
-  <si>
-    <t>gomf-chemical</t>
-  </si>
-  <si>
-    <t>disease-phenotype</t>
-  </si>
-  <si>
-    <t>Mapped through RO concept RO:0002200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	biolink:has_phenotype</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>Evidence</t>
-  </si>
-  <si>
-    <t>Frequency</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>Modifier</t>
-  </si>
-  <si>
-    <t>Aspect</t>
-  </si>
-  <si>
-    <t>Biocuration</t>
-  </si>
-  <si>
-    <t>HPO:DatabaseID</t>
+pathway-gene:column 3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTD Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+pathway-gene:column 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTD Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-gomf:column 3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTD Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-gomf:column 4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTD Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-gocc:column 4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTD Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-gocc:column 3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTD Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-gobp:column 4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTD Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-gobp:column 3</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1301,15 +1653,372 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-chemical-disease:column 8</t>
-    </r>
-  </si>
-  <si>
-    <t>HPO:DiseaseName</t>
-  </si>
-  <si>
-    <t>OBO Ontology
-HPO</t>
+chemical-pathway:column 5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTD Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-pathway:column 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulled from data provided by CTD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTD Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-protein:column 7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTD Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-protein:column 3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulled from data provided by CTD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTD Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-rna:column 7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTD Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-rna:column 3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by DisGeNET
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DisGeNET Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+gene-disease:column 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulled from data provided by DisGeNET
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DisGeNET Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+gene-phenotype:column 7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulled from data provided by DisGeNET
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DisGeNET Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+gene-phenotype:column 8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulled from data provided by DisGeNET
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DisGeNET Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+gene-phenotype:column 4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulled from data provided by DisGeNET
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DisGeNET Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+gene-phenotype:column 5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulled from data provided by DisGeNET
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DisGeNET Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+gene-disease:column 7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulled from data provided by DisGeNET
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DisGeNET Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+gene-disease:column 8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulled from data provided by DisGeNET
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DisGeNET Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+gene-disease:column 4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulled from data provided by DisGeNET
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DisGeNET Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+gene-disease:column 5</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1334,312 +2043,8 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-chemical-disease:column 0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pulled from data provided by HPO
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>HPO Data Information</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-chemical-disease:column 1</t>
-    </r>
-  </si>
-  <si>
-    <t>Mapped through RO concept RO:0002201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	biolink:phenotype_of</t>
-  </si>
-  <si>
-    <t>gene-disease</t>
-  </si>
-  <si>
-    <t>DisGeNET</t>
-  </si>
-  <si>
-    <t>OBO Ontology
-DisGeNET</t>
-  </si>
-  <si>
-    <t>DisGeNET:geneSymbol</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Derived from ontology and pulled from data provided by DisGeNET
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DisGeNET Data Information</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-chemical-gene:column 1</t>
-    </r>
-  </si>
-  <si>
-    <t>DisGeNET:diseaseName</t>
-  </si>
-  <si>
-    <t>DisGeNET:diseaseId</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pulled from data provided by DisGeNET
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DisGeNET Data Information</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-chemical-disease:column 5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pulled from data provided by DisGeNET
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DisGeNET Data Information</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-chemical-disease:column 4</t>
-    </r>
-  </si>
-  <si>
-    <t>DisGeNET:diseaseSematicType</t>
-  </si>
-  <si>
-    <t>DisGeNET_diseaseSematicType</t>
-  </si>
-  <si>
-    <t>DisGeNET:diseaseClass</t>
-  </si>
-  <si>
-    <t>DisGeNET_diseaseClass</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pulled from data provided by DisGeNET
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DisGeNET Data Information</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-chemical-disease:column 8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pulled from data provided by DisGeNET
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DisGeNET Data Information</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-chemical-disease:column 7</t>
-    </r>
-  </si>
-  <si>
-    <t>DSI</t>
-  </si>
-  <si>
-    <t>DPI</t>
-  </si>
-  <si>
-    <t>score</t>
-  </si>
-  <si>
-    <t>EI</t>
-  </si>
-  <si>
-    <t>YearInitial</t>
-  </si>
-  <si>
-    <t>YearFinal</t>
-  </si>
-  <si>
-    <t>NofPmids</t>
-  </si>
-  <si>
-    <t>NofSnps</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>Mapped through RO concept RO:0003302</t>
-  </si>
-  <si>
-    <t>phenotype-disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	biolink:causes_or_contributes_to_condition</t>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>gene-phenotype</t>
-  </si>
-  <si>
-    <t>Value derived from HPO (column:4)</t>
-  </si>
-  <si>
-    <t>Value derived from HPO (column:5)</t>
-  </si>
-  <si>
-    <t>Value derived from HPO (column:7)</t>
-  </si>
-  <si>
-    <t>Value derived from HPO (column:8)</t>
-  </si>
-  <si>
-    <t>Value derived from HPO (column:9)</t>
-  </si>
-  <si>
-    <t>Value derived from HPO (column:10)</t>
-  </si>
-  <si>
-    <t>Value derived from HPO (column:11)</t>
-  </si>
-  <si>
-    <t>Value derived from DisGeNET (column:2)</t>
-  </si>
-  <si>
-    <t>Value derived from DisGeNET (column:3)</t>
-  </si>
-  <si>
-    <t>Value derived from DisGeNET (column:9)</t>
-  </si>
-  <si>
-    <t>Value derived from DisGeNET (column:10)</t>
-  </si>
-  <si>
-    <t>Value derived from DisGeNET (column:11)</t>
-  </si>
-  <si>
-    <t>Value derived from DisGeNET (column:12)</t>
-  </si>
-  <si>
-    <t>Value derived from DisGeNET (column:13)</t>
-  </si>
-  <si>
-    <t>Value derived from DisGeNET (column:14)</t>
-  </si>
-  <si>
-    <t>Value derived from DisGeNET (column:15)</t>
-  </si>
-  <si>
-    <t>gene-gene</t>
-  </si>
-  <si>
-    <t>Value derived from GeneMania (column:2)</t>
-  </si>
-  <si>
-    <t>GeneMania</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>Gene-Gene</t>
-  </si>
-  <si>
-    <t>Mapped through RO concept RO:0002435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	biolink:genetically_interacts_with</t>
+disease-phenotype:column 1</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1714,7 +2119,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1737,11 +2142,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1809,11 +2240,17 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2140,11 +2577,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC7A73D-1C32-0943-8AF1-D604CF68867B}">
-  <dimension ref="A1:G169"/>
+  <dimension ref="A1:G173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F172" sqref="F172"/>
+      <selection pane="bottomLeft" activeCell="E169" sqref="E169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2306,7 +2743,7 @@
     </row>
     <row r="8" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>1</v>
@@ -2403,10 +2840,10 @@
         <v>27</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2422,7 +2859,7 @@
         <v>30</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G13" s="4"/>
     </row>
@@ -2550,7 +2987,7 @@
     </row>
     <row r="20" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>1</v>
@@ -2647,10 +3084,10 @@
         <v>27</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -2666,7 +3103,7 @@
         <v>30</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -2794,7 +3231,7 @@
     </row>
     <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>1</v>
@@ -2910,7 +3347,7 @@
         <v>30</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G37" s="3"/>
     </row>
@@ -3036,7 +3473,7 @@
     </row>
     <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>1</v>
@@ -3150,7 +3587,7 @@
         <v>30</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G49" s="3"/>
     </row>
@@ -3278,7 +3715,7 @@
     </row>
     <row r="56" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>1</v>
@@ -3394,19 +3831,19 @@
         <v>30</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G61" s="3"/>
     </row>
     <row r="62" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A62" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6" t="str">
@@ -3417,7 +3854,7 @@
         <v>18</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -3426,7 +3863,7 @@
         <v>1</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6" t="str">
@@ -3437,7 +3874,7 @@
         <v>18</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -3453,10 +3890,10 @@
         <v>27</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -3472,19 +3909,19 @@
         <v>30</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G65" s="6"/>
     </row>
     <row r="66" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="str">
@@ -3495,7 +3932,7 @@
         <v>18</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -3504,7 +3941,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="str">
@@ -3515,7 +3952,7 @@
         <v>18</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -3531,10 +3968,10 @@
         <v>27</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -3550,19 +3987,19 @@
         <v>30</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G69" s="3"/>
     </row>
     <row r="70" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1" t="str">
@@ -3573,7 +4010,7 @@
         <v>18</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -3582,7 +4019,7 @@
         <v>1</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1" t="str">
@@ -3602,7 +4039,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1" t="str">
@@ -3622,7 +4059,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1" t="str">
@@ -3642,7 +4079,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="str">
@@ -3662,7 +4099,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1" t="str">
@@ -3673,7 +4110,7 @@
         <v>18</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -3682,7 +4119,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1" t="str">
@@ -3693,7 +4130,7 @@
         <v>18</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -3709,10 +4146,10 @@
         <v>27</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -3728,19 +4165,19 @@
         <v>30</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3" t="str">
@@ -3751,7 +4188,7 @@
         <v>18</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -3760,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3" t="str">
@@ -3780,7 +4217,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3" t="str">
@@ -3800,7 +4237,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3" t="str">
@@ -3820,7 +4257,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3" t="str">
@@ -3840,7 +4277,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3" t="str">
@@ -3851,7 +4288,7 @@
         <v>18</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -3860,7 +4297,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3" t="str">
@@ -3871,7 +4308,7 @@
         <v>18</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -3887,10 +4324,10 @@
         <v>27</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -3906,19 +4343,19 @@
         <v>30</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G87" s="3"/>
     </row>
     <row r="88" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A88" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D88" s="6"/>
       <c r="E88" s="6" t="str">
@@ -3929,7 +4366,7 @@
         <v>18</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -3938,7 +4375,7 @@
         <v>1</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D89" s="6"/>
       <c r="E89" s="6" t="str">
@@ -3958,7 +4395,7 @@
         <v>1</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D90" s="6"/>
       <c r="E90" s="6" t="str">
@@ -3978,7 +4415,7 @@
         <v>1</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D91" s="6"/>
       <c r="E91" s="6" t="str">
@@ -3998,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D92" s="6"/>
       <c r="E92" s="6" t="str">
@@ -4018,7 +4455,7 @@
         <v>1</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D93" s="6"/>
       <c r="E93" s="6" t="str">
@@ -4029,7 +4466,7 @@
         <v>18</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4038,7 +4475,7 @@
         <v>1</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D94" s="6"/>
       <c r="E94" s="6" t="str">
@@ -4049,7 +4486,7 @@
         <v>18</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -4065,10 +4502,10 @@
         <v>27</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4084,19 +4521,19 @@
         <v>30</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G96" s="6"/>
     </row>
     <row r="97" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A97" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3" t="str">
@@ -4107,7 +4544,7 @@
         <v>18</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4116,7 +4553,7 @@
         <v>1</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3" t="str">
@@ -4136,7 +4573,7 @@
         <v>1</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3" t="str">
@@ -4156,7 +4593,7 @@
         <v>1</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3" t="str">
@@ -4176,7 +4613,7 @@
         <v>1</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3" t="str">
@@ -4196,7 +4633,7 @@
         <v>1</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3" t="str">
@@ -4207,7 +4644,7 @@
         <v>18</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4216,7 +4653,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3" t="str">
@@ -4227,7 +4664,7 @@
         <v>18</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -4243,10 +4680,10 @@
         <v>27</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4262,19 +4699,19 @@
         <v>30</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G105" s="3"/>
     </row>
     <row r="106" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1" t="str">
@@ -4285,7 +4722,7 @@
         <v>18</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4294,7 +4731,7 @@
         <v>1</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1" t="str">
@@ -4314,7 +4751,7 @@
         <v>1</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1" t="str">
@@ -4334,7 +4771,7 @@
         <v>1</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1" t="str">
@@ -4354,7 +4791,7 @@
         <v>1</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1" t="str">
@@ -4374,7 +4811,7 @@
         <v>1</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1" t="str">
@@ -4385,7 +4822,7 @@
         <v>18</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4394,7 +4831,7 @@
         <v>1</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1" t="str">
@@ -4405,7 +4842,7 @@
         <v>18</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -4421,10 +4858,10 @@
         <v>27</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4440,19 +4877,19 @@
         <v>30</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A115" s="15" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3" t="str">
@@ -4463,7 +4900,7 @@
         <v>18</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4472,7 +4909,7 @@
         <v>1</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3" t="str">
@@ -4492,7 +4929,7 @@
         <v>1</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3" t="str">
@@ -4512,7 +4949,7 @@
         <v>1</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3" t="str">
@@ -4532,7 +4969,7 @@
         <v>1</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3" t="str">
@@ -4552,7 +4989,7 @@
         <v>1</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3" t="str">
@@ -4563,7 +5000,7 @@
         <v>18</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4572,7 +5009,7 @@
         <v>1</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3" t="str">
@@ -4583,7 +5020,7 @@
         <v>18</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -4599,10 +5036,10 @@
         <v>27</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4618,19 +5055,19 @@
         <v>30</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G123" s="3"/>
     </row>
     <row r="124" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1" t="str">
@@ -4641,7 +5078,7 @@
         <v>18</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4650,7 +5087,7 @@
         <v>40</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1" t="str">
@@ -4661,7 +5098,7 @@
         <v>18</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4670,7 +5107,7 @@
         <v>40</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1" t="str">
@@ -4681,7 +5118,7 @@
         <v>18</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4690,7 +5127,7 @@
         <v>40</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1" t="str">
@@ -4701,7 +5138,7 @@
         <v>18</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4710,7 +5147,7 @@
         <v>40</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1" t="str">
@@ -4721,7 +5158,7 @@
         <v>18</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4730,7 +5167,7 @@
         <v>40</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1" t="str">
@@ -4741,7 +5178,7 @@
         <v>18</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4750,7 +5187,7 @@
         <v>40</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1" t="str">
@@ -4761,7 +5198,7 @@
         <v>18</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4777,10 +5214,10 @@
         <v>27</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4796,19 +5233,19 @@
         <v>30</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G132" s="1"/>
     </row>
     <row r="133" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A133" s="15" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3" t="str">
@@ -4819,7 +5256,7 @@
         <v>18</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4828,7 +5265,7 @@
         <v>40</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="3" t="str">
@@ -4839,7 +5276,7 @@
         <v>18</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4848,7 +5285,7 @@
         <v>40</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3" t="str">
@@ -4859,7 +5296,7 @@
         <v>18</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4868,7 +5305,7 @@
         <v>40</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3" t="str">
@@ -4879,7 +5316,7 @@
         <v>18</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4888,7 +5325,7 @@
         <v>40</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3" t="str">
@@ -4899,7 +5336,7 @@
         <v>18</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4908,7 +5345,7 @@
         <v>40</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3" t="str">
@@ -4919,7 +5356,7 @@
         <v>18</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4928,7 +5365,7 @@
         <v>40</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3" t="str">
@@ -4939,7 +5376,7 @@
         <v>18</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4955,10 +5392,10 @@
         <v>27</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4974,19 +5411,19 @@
         <v>30</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="G141" s="3"/>
     </row>
     <row r="142" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A142" s="14" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1" t="str">
@@ -4997,16 +5434,16 @@
         <v>18</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A143" s="14"/>
       <c r="B143" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1" t="str">
@@ -5017,16 +5454,16 @@
         <v>18</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A144" s="14"/>
       <c r="B144" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1" t="str">
@@ -5037,16 +5474,16 @@
         <v>18</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A145" s="14"/>
       <c r="B145" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1" t="str">
@@ -5057,16 +5494,16 @@
         <v>18</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A146" s="14"/>
       <c r="B146" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1" t="str">
@@ -5077,16 +5514,16 @@
         <v>18</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A147" s="14"/>
       <c r="B147" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1" t="str">
@@ -5097,16 +5534,16 @@
         <v>18</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A148" s="14"/>
       <c r="B148" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1" t="str">
@@ -5117,16 +5554,16 @@
         <v>18</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A149" s="14"/>
       <c r="B149" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1" t="str">
@@ -5137,16 +5574,16 @@
         <v>18</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A150" s="14"/>
       <c r="B150" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1" t="str">
@@ -5157,7 +5594,7 @@
         <v>18</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -5173,10 +5610,10 @@
         <v>27</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5192,19 +5629,19 @@
         <v>30</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G152" s="1"/>
     </row>
     <row r="153" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A153" s="15" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D153" s="3"/>
       <c r="E153" s="3" t="str">
@@ -5215,16 +5652,16 @@
         <v>18</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A154" s="15"/>
       <c r="B154" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D154" s="3"/>
       <c r="E154" s="3" t="str">
@@ -5235,16 +5672,16 @@
         <v>18</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A155" s="15"/>
       <c r="B155" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D155" s="3"/>
       <c r="E155" s="3" t="str">
@@ -5255,16 +5692,16 @@
         <v>18</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A156" s="15"/>
       <c r="B156" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D156" s="3"/>
       <c r="E156" s="3" t="str">
@@ -5275,16 +5712,16 @@
         <v>18</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A157" s="15"/>
       <c r="B157" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3" t="str">
@@ -5295,16 +5732,16 @@
         <v>18</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A158" s="15"/>
       <c r="B158" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D158" s="3"/>
       <c r="E158" s="3" t="str">
@@ -5315,16 +5752,16 @@
         <v>18</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A159" s="15"/>
       <c r="B159" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D159" s="3"/>
       <c r="E159" s="3" t="str">
@@ -5335,16 +5772,16 @@
         <v>18</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A160" s="15"/>
       <c r="B160" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D160" s="3"/>
       <c r="E160" s="3" t="str">
@@ -5355,16 +5792,16 @@
         <v>18</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A161" s="15"/>
       <c r="B161" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D161" s="3"/>
       <c r="E161" s="3" t="str">
@@ -5375,7 +5812,7 @@
         <v>18</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5391,10 +5828,10 @@
         <v>27</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5410,19 +5847,19 @@
         <v>30</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="G163" s="3"/>
     </row>
     <row r="164" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A164" s="14" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1" t="str">
@@ -5433,7 +5870,7 @@
         <v>18</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5449,10 +5886,10 @@
         <v>27</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5468,19 +5905,19 @@
         <v>30</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="G166" s="1"/>
     </row>
     <row r="167" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A167" s="15" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D167" s="3"/>
       <c r="E167" s="3" t="str">
@@ -5491,7 +5928,7 @@
         <v>18</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5507,10 +5944,10 @@
         <v>27</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5526,14 +5963,92 @@
         <v>30</v>
       </c>
       <c r="F169" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G169" s="3"/>
+    </row>
+    <row r="170" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A170" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A171" s="14"/>
+      <c r="B171" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G171" s="1"/>
+    </row>
+    <row r="172" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A172" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F172" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="G169" s="3"/>
+      <c r="G172" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A173" s="14"/>
+      <c r="B173" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G173" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="26">
     <mergeCell ref="A164:A166"/>
     <mergeCell ref="A167:A169"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="A172:A173"/>
     <mergeCell ref="A88:A96"/>
     <mergeCell ref="A70:A78"/>
     <mergeCell ref="A124:A132"/>
@@ -5563,11 +6078,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780CD01F-0819-CA44-B0D6-41E21FE9EADE}">
-  <dimension ref="A1:H205"/>
+  <dimension ref="A1:H207"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8:G9"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5720,7 +6235,7 @@
         <v>37</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="154" x14ac:dyDescent="0.2">
@@ -5738,7 +6253,7 @@
         <v>36</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="154" x14ac:dyDescent="0.2">
@@ -5754,7 +6269,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="14"/>
       <c r="H9" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -5876,15 +6391,15 @@
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="15"/>
       <c r="H16" s="4" t="s">
-        <v>172</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -5892,15 +6407,15 @@
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="15"/>
       <c r="H17" s="4" t="s">
-        <v>182</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -5934,7 +6449,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="15"/>
       <c r="H19" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -5942,15 +6457,15 @@
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="15"/>
       <c r="H20" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -5958,15 +6473,15 @@
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="15"/>
       <c r="H21" s="4" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -5974,17 +6489,17 @@
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>188</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -5992,19 +6507,19 @@
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>189</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -6126,15 +6641,15 @@
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="16"/>
       <c r="H30" s="21" t="s">
-        <v>182</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -6148,7 +6663,7 @@
         <v>65</v>
       </c>
       <c r="F31" s="20"/>
-      <c r="G31" s="23" t="s">
+      <c r="G31" s="24" t="s">
         <v>36</v>
       </c>
       <c r="H31" s="21" t="s">
@@ -6166,7 +6681,7 @@
         <v>66</v>
       </c>
       <c r="F32" s="20"/>
-      <c r="G32" s="23"/>
+      <c r="G32" s="24"/>
       <c r="H32" s="21" t="s">
         <v>67</v>
       </c>
@@ -6176,15 +6691,15 @@
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F33" s="20"/>
-      <c r="G33" s="23"/>
+      <c r="G33" s="24"/>
       <c r="H33" s="21" t="s">
-        <v>183</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -6192,17 +6707,17 @@
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F34" s="20"/>
       <c r="G34" s="20" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -6210,19 +6725,19 @@
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>189</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -6362,15 +6877,15 @@
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
       <c r="D43" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="15"/>
       <c r="H43" s="4" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -6392,13 +6907,13 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="25" t="s">
         <v>95</v>
       </c>
       <c r="D45" s="20" t="s">
@@ -6416,9 +6931,9 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
       <c r="D46" s="20" t="s">
         <v>19</v>
       </c>
@@ -6434,9 +6949,9 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
       <c r="D47" s="20" t="s">
         <v>19</v>
       </c>
@@ -6452,9 +6967,9 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
       <c r="D48" s="20" t="s">
         <v>24</v>
       </c>
@@ -6470,9 +6985,9 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
       <c r="D49" s="20" t="s">
         <v>24</v>
       </c>
@@ -6488,9 +7003,9 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
       <c r="D50" s="20" t="s">
         <v>25</v>
       </c>
@@ -6502,13 +7017,13 @@
         <v>37</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>72</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="20" t="s">
         <v>25</v>
       </c>
@@ -6520,13 +7035,13 @@
         <v>36</v>
       </c>
       <c r="H51" s="21" t="s">
-        <v>72</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
       <c r="D52" s="6" t="s">
         <v>1</v>
       </c>
@@ -6538,7 +7053,7 @@
         <v>78</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>79</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -6652,7 +7167,7 @@
         <v>37</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>72</v>
+        <v>234</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -6670,7 +7185,7 @@
         <v>36</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>72</v>
+        <v>234</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -6688,7 +7203,7 @@
         <v>78</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>79</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="42" x14ac:dyDescent="0.2">
@@ -6712,7 +7227,7 @@
         <v>15</v>
       </c>
       <c r="H61" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -6730,7 +7245,7 @@
         <v>20</v>
       </c>
       <c r="H62" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="14" x14ac:dyDescent="0.2">
@@ -6795,110 +7310,108 @@
         <v>25</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>98</v>
+        <v>221</v>
       </c>
       <c r="F66" s="20"/>
       <c r="G66" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H66" s="21" t="s">
-        <v>99</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A67" s="17"/>
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
-      <c r="D67" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A68" s="18" t="s">
+      <c r="D67" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F67" s="20"/>
+      <c r="G67" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H67" s="21" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="F68" s="20"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A69" s="17"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A70" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B68" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="D68" s="3" t="s">
+      <c r="B70" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A69" s="18"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A70" s="18"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A71" s="18"/>
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
       <c r="D71" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="14" x14ac:dyDescent="0.2">
@@ -6906,35 +7419,35 @@
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
       <c r="D72" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A73" s="18"/>
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
       <c r="D73" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="14" x14ac:dyDescent="0.2">
@@ -6949,7 +7462,7 @@
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>42</v>
@@ -6960,95 +7473,95 @@
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
       <c r="D75" s="3" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A76" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A76" s="18"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A77" s="18"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A78" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C76" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D76" s="6" t="s">
+      <c r="B78" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A77" s="19"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A78" s="19"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A79" s="19"/>
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
       <c r="D79" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="14" x14ac:dyDescent="0.2">
@@ -7056,35 +7569,35 @@
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
       <c r="D80" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F80" s="6"/>
       <c r="G80" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A81" s="19"/>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
       <c r="D81" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="F81" s="6"/>
       <c r="G81" s="6" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="14" x14ac:dyDescent="0.2">
@@ -7099,7 +7612,7 @@
       </c>
       <c r="F82" s="6"/>
       <c r="G82" s="6" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H82" s="7" t="s">
         <v>42</v>
@@ -7110,95 +7623,95 @@
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
       <c r="D83" s="6" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F83" s="6"/>
       <c r="G83" s="6" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A84" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A84" s="19"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A85" s="19"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A86" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B84" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="C84" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="D84" s="3" t="s">
+      <c r="B86" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A85" s="18"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A86" s="18"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A87" s="18"/>
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
       <c r="D87" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="14" x14ac:dyDescent="0.2">
@@ -7206,35 +7719,35 @@
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
       <c r="D88" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A89" s="18"/>
       <c r="B89" s="18"/>
       <c r="C89" s="18"/>
       <c r="D89" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="14" x14ac:dyDescent="0.2">
@@ -7249,7 +7762,7 @@
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>42</v>
@@ -7260,38 +7773,54 @@
       <c r="B91" s="18"/>
       <c r="C91" s="18"/>
       <c r="D91" s="3" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="13"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="13"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A92" s="18"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A93" s="18"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
@@ -8413,26 +8942,47 @@
       <c r="G205" s="5"/>
       <c r="H205" s="13"/>
     </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206" s="5"/>
+      <c r="B206" s="5"/>
+      <c r="C206" s="5"/>
+      <c r="D206" s="5"/>
+      <c r="E206" s="5"/>
+      <c r="F206" s="5"/>
+      <c r="G206" s="5"/>
+      <c r="H206" s="13"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207" s="5"/>
+      <c r="B207" s="5"/>
+      <c r="C207" s="5"/>
+      <c r="D207" s="5"/>
+      <c r="E207" s="5"/>
+      <c r="F207" s="5"/>
+      <c r="G207" s="5"/>
+      <c r="H207" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="37">
+    <mergeCell ref="G67:G68"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="C10:C23"/>
     <mergeCell ref="B10:B23"/>
     <mergeCell ref="A10:A23"/>
     <mergeCell ref="G31:G33"/>
     <mergeCell ref="G29:G30"/>
-    <mergeCell ref="A76:A83"/>
-    <mergeCell ref="B76:B83"/>
-    <mergeCell ref="C76:C83"/>
-    <mergeCell ref="A84:A91"/>
-    <mergeCell ref="B84:B91"/>
-    <mergeCell ref="C84:C91"/>
-    <mergeCell ref="C61:C67"/>
-    <mergeCell ref="B61:B67"/>
-    <mergeCell ref="A61:A67"/>
-    <mergeCell ref="A68:A75"/>
-    <mergeCell ref="B68:B75"/>
-    <mergeCell ref="C68:C75"/>
+    <mergeCell ref="A78:A85"/>
+    <mergeCell ref="B78:B85"/>
+    <mergeCell ref="C78:C85"/>
+    <mergeCell ref="A86:A93"/>
+    <mergeCell ref="B86:B93"/>
+    <mergeCell ref="C86:C93"/>
+    <mergeCell ref="C61:C69"/>
+    <mergeCell ref="B61:B69"/>
+    <mergeCell ref="A61:A69"/>
+    <mergeCell ref="A70:A77"/>
+    <mergeCell ref="B70:B77"/>
+    <mergeCell ref="C70:C77"/>
     <mergeCell ref="A53:A60"/>
     <mergeCell ref="B53:B60"/>
     <mergeCell ref="C53:C60"/>

--- a/resources/pheknowlator_source_metadata.xlsx
+++ b/resources/pheknowlator_source_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiffanycallahan/Dropbox/GraduateSchool/PhD/LabWork/PheKnowLator/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49399490-F0E6-F14A-8EB9-D10869481F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D505729-0444-3C48-B16C-20DED0C899D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13380" yWindow="460" windowWidth="37820" windowHeight="23880" activeTab="1" xr2:uid="{82CFCCA6-69D0-6D4F-8FD9-9511C5B37B8B}"/>
+    <workbookView xWindow="13380" yWindow="460" windowWidth="37820" windowHeight="23880" xr2:uid="{82CFCCA6-69D0-6D4F-8FD9-9511C5B37B8B}"/>
   </bookViews>
   <sheets>
     <sheet name="edges" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="259">
   <si>
     <t>edge_type</t>
   </si>
@@ -2045,6 +2045,42 @@
       <t xml:space="preserve">
 disease-phenotype:column 1</t>
     </r>
+  </si>
+  <si>
+    <t>gene-protein</t>
+  </si>
+  <si>
+    <t>protein-gene</t>
+  </si>
+  <si>
+    <t>Mapped through RO concept RO:0002205</t>
+  </si>
+  <si>
+    <t>Mapped through RO concept RO:0002204</t>
+  </si>
+  <si>
+    <t>biolink:has_gene_product</t>
+  </si>
+  <si>
+    <t>biolink:gene_product_of</t>
+  </si>
+  <si>
+    <t>gene-rna</t>
+  </si>
+  <si>
+    <t>rna-gene</t>
+  </si>
+  <si>
+    <t>Mapped through RO concept RO:0002511</t>
+  </si>
+  <si>
+    <t>Mapped through RO concept RO:0002510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	biolink:transcribed_to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	biolink:transcribed_from</t>
   </si>
 </sst>
 </file>
@@ -2577,11 +2613,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC7A73D-1C32-0943-8AF1-D604CF68867B}">
-  <dimension ref="A1:G173"/>
+  <dimension ref="A1:G181"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E169" sqref="E169"/>
+      <selection pane="bottomLeft" activeCell="E183" sqref="E183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -6006,49 +6042,205 @@
       <c r="G171" s="1"/>
     </row>
     <row r="172" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A172" s="14" t="s">
+      <c r="A172" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B172" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1" t="s">
+      <c r="C172" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F172" s="1" t="s">
+      <c r="F172" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="G172" s="2" t="s">
+      <c r="G172" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A173" s="14"/>
-      <c r="B173" s="1" t="s">
+      <c r="A173" s="15"/>
+      <c r="B173" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1" t="s">
+      <c r="C173" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D173" s="3"/>
+      <c r="E173" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F173" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G173" s="1"/>
+      <c r="F173" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G173" s="3"/>
+    </row>
+    <row r="174" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A174" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A175" s="14"/>
+      <c r="B175" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G175" s="1"/>
+    </row>
+    <row r="176" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A176" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A177" s="15"/>
+      <c r="B177" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G177" s="3"/>
+    </row>
+    <row r="178" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A178" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A179" s="14"/>
+      <c r="B179" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G179" s="1"/>
+    </row>
+    <row r="180" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A180" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G180" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A181" s="15"/>
+      <c r="B181" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D181" s="3"/>
+      <c r="E181" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="G181" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="30">
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="A180:A181"/>
     <mergeCell ref="A164:A166"/>
     <mergeCell ref="A167:A169"/>
     <mergeCell ref="A170:A171"/>
     <mergeCell ref="A172:A173"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="A176:A177"/>
     <mergeCell ref="A88:A96"/>
     <mergeCell ref="A70:A78"/>
     <mergeCell ref="A124:A132"/>
@@ -6080,7 +6272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780CD01F-0819-CA44-B0D6-41E21FE9EADE}">
   <dimension ref="A1:H207"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E94" sqref="E94"/>
     </sheetView>

--- a/resources/pheknowlator_source_metadata.xlsx
+++ b/resources/pheknowlator_source_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiffanycallahan/Dropbox/GraduateSchool/PhD/LabWork/PheKnowLator/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D505729-0444-3C48-B16C-20DED0C899D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC39126F-A9AC-4E44-BFC9-669E410EC664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13380" yWindow="460" windowWidth="37820" windowHeight="23880" xr2:uid="{82CFCCA6-69D0-6D4F-8FD9-9511C5B37B8B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="296">
   <si>
     <t>edge_type</t>
   </si>
@@ -815,12 +815,6 @@
   </si>
   <si>
     <t>Species</t>
-  </si>
-  <si>
-    <t>CTD:Species</t>
-  </si>
-  <si>
-    <t>CTD_Species</t>
   </si>
   <si>
     <t>chemical-gobp</t>
@@ -1632,6 +1626,32 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTD Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-pathway:column 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Pulled from data provided by CTD
 </t>
     </r>
@@ -1653,7 +1673,7 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-chemical-pathway:column 5</t>
+chemical-protein:column 7</t>
     </r>
   </si>
   <si>
@@ -1679,7 +1699,7 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-chemical-pathway:column 1</t>
+chemical-protein:column 3</t>
     </r>
   </si>
   <si>
@@ -1705,7 +1725,7 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-chemical-protein:column 7</t>
+chemical-rna:column 7</t>
     </r>
   </si>
   <si>
@@ -1731,58 +1751,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-chemical-protein:column 3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pulled from data provided by CTD
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CTD Data Information</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-chemical-rna:column 7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CTD Data Information</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
 chemical-rna:column 3</t>
     </r>
   </si>
@@ -2081,6 +2049,382 @@
   </si>
   <si>
     <t xml:space="preserve">	biolink:transcribed_from</t>
+  </si>
+  <si>
+    <t>Reactome</t>
+  </si>
+  <si>
+    <t>Reactome:Species</t>
+  </si>
+  <si>
+    <t>Reactome_Species</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulled from data provided by Reactome
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Reactome Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-pathway:column 5</t>
+    </r>
+  </si>
+  <si>
+    <t>gobp-pathway</t>
+  </si>
+  <si>
+    <t>Mapped through RO concept RO:0009501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	biolink:caused_by</t>
+  </si>
+  <si>
+    <t>EvidenceCode</t>
+  </si>
+  <si>
+    <t>TaxonID</t>
+  </si>
+  <si>
+    <t>AssignedBy</t>
+  </si>
+  <si>
+    <t>Value derived from Reactome (column:6)</t>
+  </si>
+  <si>
+    <t>Value derived from Reactome (column:12)</t>
+  </si>
+  <si>
+    <t>Value derived from Reactome (column:14)</t>
+  </si>
+  <si>
+    <t>pathway-gocc</t>
+  </si>
+  <si>
+    <t>pathway-gomf</t>
+  </si>
+  <si>
+    <t>gomf-pathway</t>
+  </si>
+  <si>
+    <t>Mapped through RO concept RO:0002180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	biolink:has_part</t>
+  </si>
+  <si>
+    <t>Mapped through RO concept RO:0000085</t>
+  </si>
+  <si>
+    <t>Mapped through RO concept RO:0000079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	biolink:has_function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	biolink:function_of</t>
+  </si>
+  <si>
+    <t>OBO Ontology
+Reactome</t>
+  </si>
+  <si>
+    <t>Reactome:GOID</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by Reactome
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Reactome Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+gobp-pathway:column 4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by Reactome
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Reactome Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+pathway-gomf:column 4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by Reactome
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Reactome Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+pathway-gocc:column 4</t>
+    </r>
+  </si>
+  <si>
+    <t>Reactome:TaxonID</t>
+  </si>
+  <si>
+    <t>Reactome_TaxonID</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by Reactome
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Reactome Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+gobp-pathway:column 12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by Reactome
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Reactome Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+pathway-gocc:column 12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by Reactome
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Reactome Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+pathway-gomf:column 12</t>
+    </r>
+  </si>
+  <si>
+    <t>Reactome:Aspect</t>
+  </si>
+  <si>
+    <t>Reactome_Aspect</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by Reactome
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Reactome Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+pathway-gomf:column 8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by Reactome
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Reactome Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+pathway-gocc:column 8</t>
+    </r>
+  </si>
+  <si>
+    <t>ReactomeAspect</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by Reactome
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Reactome Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+gobp-pathway:column 8</t>
+    </r>
+  </si>
+  <si>
+    <t>Reactome:DBReference</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by Reactome
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Reactome Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+gobp-pathway:column 5
+pathway-gocc:column 5
+pathway-gomf:column 5</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2155,7 +2499,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2199,6 +2543,17 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -2208,7 +2563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2252,7 +2607,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2261,7 +2634,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2279,13 +2670,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2613,11 +3007,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC7A73D-1C32-0943-8AF1-D604CF68867B}">
-  <dimension ref="A1:G181"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E183" sqref="E183"/>
+      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F202" sqref="F202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2778,8 +3172,8 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>139</v>
+      <c r="A8" s="18" t="s">
+        <v>137</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>1</v>
@@ -2802,7 +3196,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -2822,7 +3216,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
@@ -2844,7 +3238,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
@@ -2864,7 +3258,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
@@ -2876,14 +3270,14 @@
         <v>27</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
@@ -2895,12 +3289,12 @@
         <v>30</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="22" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -2924,7 +3318,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="6" t="s">
         <v>1</v>
       </c>
@@ -2944,7 +3338,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="6" t="s">
         <v>1</v>
       </c>
@@ -2966,7 +3360,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="6" t="s">
         <v>1</v>
       </c>
@@ -2986,7 +3380,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="6" t="s">
         <v>28</v>
       </c>
@@ -3005,7 +3399,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="6" t="s">
         <v>29</v>
       </c>
@@ -3022,8 +3416,8 @@
       <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
-        <v>142</v>
+      <c r="A20" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>1</v>
@@ -3046,7 +3440,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="3" t="s">
         <v>1</v>
       </c>
@@ -3066,7 +3460,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="3" t="s">
         <v>1</v>
       </c>
@@ -3088,7 +3482,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="3" t="s">
         <v>1</v>
       </c>
@@ -3108,7 +3502,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="3" t="s">
         <v>28</v>
       </c>
@@ -3120,14 +3514,14 @@
         <v>27</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="3" t="s">
         <v>29</v>
       </c>
@@ -3139,7 +3533,7 @@
         <v>30</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -3266,8 +3660,8 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
-        <v>143</v>
+      <c r="A32" s="18" t="s">
+        <v>141</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>1</v>
@@ -3288,7 +3682,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="3" t="s">
         <v>1</v>
       </c>
@@ -3310,7 +3704,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="3" t="s">
         <v>1</v>
       </c>
@@ -3332,7 +3726,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="3" t="s">
         <v>1</v>
       </c>
@@ -3352,7 +3746,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="3" t="s">
         <v>28</v>
       </c>
@@ -3371,7 +3765,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="3" t="s">
         <v>29</v>
       </c>
@@ -3383,12 +3777,12 @@
         <v>30</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A38" s="16" t="s">
+    <row r="38" spans="1:7" s="34" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A38" s="22" t="s">
         <v>60</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -3409,8 +3803,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A39" s="16"/>
+    <row r="39" spans="1:7" s="34" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A39" s="22"/>
       <c r="B39" s="6" t="s">
         <v>1</v>
       </c>
@@ -3431,8 +3825,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
+    <row r="40" spans="1:7" s="34" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A40" s="22"/>
       <c r="B40" s="6" t="s">
         <v>1</v>
       </c>
@@ -3453,8 +3847,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A41" s="16"/>
+    <row r="41" spans="1:7" s="34" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A41" s="22"/>
       <c r="B41" s="6" t="s">
         <v>1</v>
       </c>
@@ -3471,8 +3865,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A42" s="16"/>
+    <row r="42" spans="1:7" s="34" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A42" s="22"/>
       <c r="B42" s="6" t="s">
         <v>28</v>
       </c>
@@ -3490,8 +3884,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A43" s="16"/>
+    <row r="43" spans="1:7" s="34" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A43" s="22"/>
       <c r="B43" s="6" t="s">
         <v>29</v>
       </c>
@@ -3508,8 +3902,8 @@
       <c r="G43" s="6"/>
     </row>
     <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A44" s="15" t="s">
-        <v>145</v>
+      <c r="A44" s="18" t="s">
+        <v>143</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>1</v>
@@ -3530,7 +3924,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="3" t="s">
         <v>1</v>
       </c>
@@ -3552,7 +3946,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="3" t="s">
         <v>1</v>
       </c>
@@ -3574,7 +3968,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A47" s="15"/>
+      <c r="A47" s="18"/>
       <c r="B47" s="3" t="s">
         <v>1</v>
       </c>
@@ -3592,7 +3986,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A48" s="15"/>
+      <c r="A48" s="18"/>
       <c r="B48" s="3" t="s">
         <v>28</v>
       </c>
@@ -3611,7 +4005,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
+      <c r="A49" s="18"/>
       <c r="B49" s="3" t="s">
         <v>29</v>
       </c>
@@ -3623,7 +4017,7 @@
         <v>30</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G49" s="3"/>
     </row>
@@ -3750,8 +4144,8 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A56" s="15" t="s">
-        <v>144</v>
+      <c r="A56" s="18" t="s">
+        <v>142</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>1</v>
@@ -3772,7 +4166,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
+      <c r="A57" s="18"/>
       <c r="B57" s="3" t="s">
         <v>1</v>
       </c>
@@ -3794,7 +4188,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
+      <c r="A58" s="18"/>
       <c r="B58" s="3" t="s">
         <v>1</v>
       </c>
@@ -3816,7 +4210,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
+      <c r="A59" s="18"/>
       <c r="B59" s="3" t="s">
         <v>1</v>
       </c>
@@ -3836,7 +4230,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
+      <c r="A60" s="18"/>
       <c r="B60" s="3" t="s">
         <v>28</v>
       </c>
@@ -3855,7 +4249,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A61" s="15"/>
+      <c r="A61" s="18"/>
       <c r="B61" s="3" t="s">
         <v>29</v>
       </c>
@@ -3867,16 +4261,16 @@
         <v>30</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G61" s="3"/>
     </row>
     <row r="62" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="22" t="s">
         <v>100</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>103</v>
@@ -3884,7 +4278,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="6" t="str">
         <f t="shared" ref="E62" si="10">_xlfn.CONCAT(B62, "_", C62)</f>
-        <v>CTD_EvidenceID</v>
+        <v>Reactome_EvidenceID</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>18</v>
@@ -3894,9 +4288,9 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A63" s="16"/>
+      <c r="A63" s="22"/>
       <c r="B63" s="6" t="s">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>107</v>
@@ -3904,7 +4298,7 @@
       <c r="D63" s="6"/>
       <c r="E63" s="6" t="str">
         <f>_xlfn.CONCAT(B63, "_", C63)</f>
-        <v>CTD_Species</v>
+        <v>Reactome_Species</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>18</v>
@@ -3914,7 +4308,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A64" s="16"/>
+      <c r="A64" s="22"/>
       <c r="B64" s="6" t="s">
         <v>28</v>
       </c>
@@ -3933,7 +4327,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A65" s="16"/>
+      <c r="A65" s="22"/>
       <c r="B65" s="6" t="s">
         <v>29</v>
       </c>
@@ -3950,8 +4344,8 @@
       <c r="G65" s="6"/>
     </row>
     <row r="66" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A66" s="15" t="s">
-        <v>148</v>
+      <c r="A66" s="18" t="s">
+        <v>146</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>1</v>
@@ -3972,7 +4366,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
+      <c r="A67" s="18"/>
       <c r="B67" s="3" t="s">
         <v>1</v>
       </c>
@@ -3992,7 +4386,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
+      <c r="A68" s="18"/>
       <c r="B68" s="3" t="s">
         <v>28</v>
       </c>
@@ -4004,14 +4398,14 @@
         <v>27</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A69" s="15"/>
+      <c r="A69" s="18"/>
       <c r="B69" s="3" t="s">
         <v>29</v>
       </c>
@@ -4023,19 +4417,19 @@
         <v>30</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G69" s="3"/>
     </row>
     <row r="70" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1" t="str">
@@ -4046,7 +4440,7 @@
         <v>18</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4055,7 +4449,7 @@
         <v>1</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1" t="str">
@@ -4075,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1" t="str">
@@ -4095,7 +4489,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1" t="str">
@@ -4115,7 +4509,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="str">
@@ -4135,7 +4529,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1" t="str">
@@ -4146,7 +4540,7 @@
         <v>18</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4155,7 +4549,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1" t="str">
@@ -4166,7 +4560,7 @@
         <v>18</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -4182,10 +4576,10 @@
         <v>27</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4201,19 +4595,19 @@
         <v>30</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A79" s="15" t="s">
-        <v>149</v>
+      <c r="A79" s="18" t="s">
+        <v>147</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3" t="str">
@@ -4224,16 +4618,16 @@
         <v>18</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
+      <c r="A80" s="18"/>
       <c r="B80" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3" t="str">
@@ -4248,12 +4642,12 @@
       </c>
     </row>
     <row r="81" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
+      <c r="A81" s="18"/>
       <c r="B81" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3" t="str">
@@ -4268,12 +4662,12 @@
       </c>
     </row>
     <row r="82" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A82" s="15"/>
+      <c r="A82" s="18"/>
       <c r="B82" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3" t="str">
@@ -4288,12 +4682,12 @@
       </c>
     </row>
     <row r="83" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A83" s="15"/>
+      <c r="A83" s="18"/>
       <c r="B83" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3" t="str">
@@ -4308,12 +4702,12 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A84" s="15"/>
+      <c r="A84" s="18"/>
       <c r="B84" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3" t="str">
@@ -4324,16 +4718,16 @@
         <v>18</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A85" s="15"/>
+      <c r="A85" s="18"/>
       <c r="B85" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3" t="str">
@@ -4344,11 +4738,11 @@
         <v>18</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A86" s="15"/>
+      <c r="A86" s="18"/>
       <c r="B86" s="3" t="s">
         <v>28</v>
       </c>
@@ -4360,14 +4754,14 @@
         <v>27</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A87" s="15"/>
+      <c r="A87" s="18"/>
       <c r="B87" s="3" t="s">
         <v>29</v>
       </c>
@@ -4379,19 +4773,19 @@
         <v>30</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G87" s="3"/>
     </row>
     <row r="88" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A88" s="16" t="s">
-        <v>150</v>
+      <c r="A88" s="22" t="s">
+        <v>148</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D88" s="6"/>
       <c r="E88" s="6" t="str">
@@ -4402,16 +4796,16 @@
         <v>18</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A89" s="16"/>
+      <c r="A89" s="22"/>
       <c r="B89" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D89" s="6"/>
       <c r="E89" s="6" t="str">
@@ -4426,12 +4820,12 @@
       </c>
     </row>
     <row r="90" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A90" s="16"/>
+      <c r="A90" s="22"/>
       <c r="B90" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D90" s="6"/>
       <c r="E90" s="6" t="str">
@@ -4446,12 +4840,12 @@
       </c>
     </row>
     <row r="91" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A91" s="16"/>
+      <c r="A91" s="22"/>
       <c r="B91" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D91" s="6"/>
       <c r="E91" s="6" t="str">
@@ -4466,12 +4860,12 @@
       </c>
     </row>
     <row r="92" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A92" s="16"/>
+      <c r="A92" s="22"/>
       <c r="B92" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D92" s="6"/>
       <c r="E92" s="6" t="str">
@@ -4486,12 +4880,12 @@
       </c>
     </row>
     <row r="93" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A93" s="16"/>
+      <c r="A93" s="22"/>
       <c r="B93" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D93" s="6"/>
       <c r="E93" s="6" t="str">
@@ -4502,16 +4896,16 @@
         <v>18</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A94" s="16"/>
+      <c r="A94" s="22"/>
       <c r="B94" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D94" s="6"/>
       <c r="E94" s="6" t="str">
@@ -4522,11 +4916,11 @@
         <v>18</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A95" s="16"/>
+      <c r="A95" s="22"/>
       <c r="B95" s="6" t="s">
         <v>28</v>
       </c>
@@ -4538,14 +4932,14 @@
         <v>27</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A96" s="16"/>
+      <c r="A96" s="22"/>
       <c r="B96" s="6" t="s">
         <v>29</v>
       </c>
@@ -4557,19 +4951,19 @@
         <v>30</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G96" s="6"/>
     </row>
     <row r="97" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A97" s="15" t="s">
-        <v>151</v>
+      <c r="A97" s="18" t="s">
+        <v>149</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3" t="str">
@@ -4580,16 +4974,16 @@
         <v>18</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A98" s="15"/>
+      <c r="A98" s="18"/>
       <c r="B98" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3" t="str">
@@ -4604,12 +4998,12 @@
       </c>
     </row>
     <row r="99" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A99" s="15"/>
+      <c r="A99" s="18"/>
       <c r="B99" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3" t="str">
@@ -4624,12 +5018,12 @@
       </c>
     </row>
     <row r="100" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A100" s="15"/>
+      <c r="A100" s="18"/>
       <c r="B100" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3" t="str">
@@ -4644,12 +5038,12 @@
       </c>
     </row>
     <row r="101" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A101" s="15"/>
+      <c r="A101" s="18"/>
       <c r="B101" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3" t="str">
@@ -4664,12 +5058,12 @@
       </c>
     </row>
     <row r="102" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A102" s="15"/>
+      <c r="A102" s="18"/>
       <c r="B102" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3" t="str">
@@ -4680,16 +5074,16 @@
         <v>18</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A103" s="15"/>
+      <c r="A103" s="18"/>
       <c r="B103" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3" t="str">
@@ -4700,11 +5094,11 @@
         <v>18</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A104" s="15"/>
+      <c r="A104" s="18"/>
       <c r="B104" s="3" t="s">
         <v>28</v>
       </c>
@@ -4716,14 +5110,14 @@
         <v>27</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A105" s="15"/>
+      <c r="A105" s="18"/>
       <c r="B105" s="3" t="s">
         <v>29</v>
       </c>
@@ -4735,19 +5129,19 @@
         <v>30</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G105" s="3"/>
     </row>
     <row r="106" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1" t="str">
@@ -4758,7 +5152,7 @@
         <v>18</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4767,7 +5161,7 @@
         <v>1</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1" t="str">
@@ -4787,7 +5181,7 @@
         <v>1</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1" t="str">
@@ -4807,7 +5201,7 @@
         <v>1</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1" t="str">
@@ -4827,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1" t="str">
@@ -4847,7 +5241,7 @@
         <v>1</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1" t="str">
@@ -4858,7 +5252,7 @@
         <v>18</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4867,7 +5261,7 @@
         <v>1</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1" t="str">
@@ -4878,7 +5272,7 @@
         <v>18</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -4894,10 +5288,10 @@
         <v>27</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4913,19 +5307,19 @@
         <v>30</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A115" s="15" t="s">
-        <v>153</v>
+      <c r="A115" s="18" t="s">
+        <v>151</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3" t="str">
@@ -4936,16 +5330,16 @@
         <v>18</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A116" s="15"/>
+      <c r="A116" s="18"/>
       <c r="B116" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3" t="str">
@@ -4960,12 +5354,12 @@
       </c>
     </row>
     <row r="117" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A117" s="15"/>
+      <c r="A117" s="18"/>
       <c r="B117" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3" t="str">
@@ -4980,12 +5374,12 @@
       </c>
     </row>
     <row r="118" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A118" s="15"/>
+      <c r="A118" s="18"/>
       <c r="B118" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3" t="str">
@@ -5000,12 +5394,12 @@
       </c>
     </row>
     <row r="119" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A119" s="15"/>
+      <c r="A119" s="18"/>
       <c r="B119" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3" t="str">
@@ -5020,12 +5414,12 @@
       </c>
     </row>
     <row r="120" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A120" s="15"/>
+      <c r="A120" s="18"/>
       <c r="B120" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3" t="str">
@@ -5036,16 +5430,16 @@
         <v>18</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A121" s="15"/>
+      <c r="A121" s="18"/>
       <c r="B121" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3" t="str">
@@ -5056,11 +5450,11 @@
         <v>18</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A122" s="15"/>
+      <c r="A122" s="18"/>
       <c r="B122" s="3" t="s">
         <v>28</v>
       </c>
@@ -5072,14 +5466,14 @@
         <v>27</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A123" s="15"/>
+      <c r="A123" s="18"/>
       <c r="B123" s="3" t="s">
         <v>29</v>
       </c>
@@ -5091,19 +5485,19 @@
         <v>30</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G123" s="3"/>
     </row>
     <row r="124" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1" t="str">
@@ -5114,7 +5508,7 @@
         <v>18</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5123,7 +5517,7 @@
         <v>40</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1" t="str">
@@ -5134,7 +5528,7 @@
         <v>18</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5143,7 +5537,7 @@
         <v>40</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1" t="str">
@@ -5154,7 +5548,7 @@
         <v>18</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5163,7 +5557,7 @@
         <v>40</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1" t="str">
@@ -5174,7 +5568,7 @@
         <v>18</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5183,7 +5577,7 @@
         <v>40</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1" t="str">
@@ -5194,7 +5588,7 @@
         <v>18</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5203,7 +5597,7 @@
         <v>40</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1" t="str">
@@ -5214,7 +5608,7 @@
         <v>18</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5223,7 +5617,7 @@
         <v>40</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1" t="str">
@@ -5234,7 +5628,7 @@
         <v>18</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5250,10 +5644,10 @@
         <v>27</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5269,19 +5663,19 @@
         <v>30</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G132" s="1"/>
     </row>
     <row r="133" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A133" s="15" t="s">
-        <v>191</v>
+      <c r="A133" s="18" t="s">
+        <v>189</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3" t="str">
@@ -5292,16 +5686,16 @@
         <v>18</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A134" s="15"/>
+      <c r="A134" s="18"/>
       <c r="B134" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="3" t="str">
@@ -5312,16 +5706,16 @@
         <v>18</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A135" s="15"/>
+      <c r="A135" s="18"/>
       <c r="B135" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3" t="str">
@@ -5332,16 +5726,16 @@
         <v>18</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A136" s="15"/>
+      <c r="A136" s="18"/>
       <c r="B136" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3" t="str">
@@ -5352,16 +5746,16 @@
         <v>18</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A137" s="15"/>
+      <c r="A137" s="18"/>
       <c r="B137" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3" t="str">
@@ -5372,16 +5766,16 @@
         <v>18</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A138" s="15"/>
+      <c r="A138" s="18"/>
       <c r="B138" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3" t="str">
@@ -5392,16 +5786,16 @@
         <v>18</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A139" s="15"/>
+      <c r="A139" s="18"/>
       <c r="B139" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3" t="str">
@@ -5412,11 +5806,11 @@
         <v>18</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A140" s="15"/>
+      <c r="A140" s="18"/>
       <c r="B140" s="3" t="s">
         <v>28</v>
       </c>
@@ -5428,14 +5822,14 @@
         <v>27</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A141" s="15"/>
+      <c r="A141" s="18"/>
       <c r="B141" s="3" t="s">
         <v>29</v>
       </c>
@@ -5447,19 +5841,19 @@
         <v>30</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G141" s="3"/>
     </row>
     <row r="142" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A142" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1" t="str">
@@ -5470,16 +5864,16 @@
         <v>18</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A143" s="14"/>
       <c r="B143" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1" t="str">
@@ -5490,16 +5884,16 @@
         <v>18</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A144" s="14"/>
       <c r="B144" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1" t="str">
@@ -5510,16 +5904,16 @@
         <v>18</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A145" s="14"/>
       <c r="B145" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1" t="str">
@@ -5530,16 +5924,16 @@
         <v>18</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A146" s="14"/>
       <c r="B146" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1" t="str">
@@ -5550,16 +5944,16 @@
         <v>18</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A147" s="14"/>
       <c r="B147" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1" t="str">
@@ -5570,16 +5964,16 @@
         <v>18</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A148" s="14"/>
       <c r="B148" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1" t="str">
@@ -5590,16 +5984,16 @@
         <v>18</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A149" s="14"/>
       <c r="B149" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1" t="str">
@@ -5610,16 +6004,16 @@
         <v>18</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A150" s="14"/>
       <c r="B150" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1" t="str">
@@ -5630,7 +6024,7 @@
         <v>18</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -5646,10 +6040,10 @@
         <v>27</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5665,19 +6059,19 @@
         <v>30</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G152" s="1"/>
     </row>
     <row r="153" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A153" s="15" t="s">
-        <v>194</v>
+      <c r="A153" s="18" t="s">
+        <v>192</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D153" s="3"/>
       <c r="E153" s="3" t="str">
@@ -5688,16 +6082,16 @@
         <v>18</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A154" s="15"/>
+      <c r="A154" s="18"/>
       <c r="B154" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D154" s="3"/>
       <c r="E154" s="3" t="str">
@@ -5708,16 +6102,16 @@
         <v>18</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A155" s="15"/>
+      <c r="A155" s="18"/>
       <c r="B155" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D155" s="3"/>
       <c r="E155" s="3" t="str">
@@ -5728,16 +6122,16 @@
         <v>18</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A156" s="15"/>
+      <c r="A156" s="18"/>
       <c r="B156" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D156" s="3"/>
       <c r="E156" s="3" t="str">
@@ -5748,16 +6142,16 @@
         <v>18</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A157" s="15"/>
+      <c r="A157" s="18"/>
       <c r="B157" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3" t="str">
@@ -5768,16 +6162,16 @@
         <v>18</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A158" s="15"/>
+      <c r="A158" s="18"/>
       <c r="B158" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D158" s="3"/>
       <c r="E158" s="3" t="str">
@@ -5788,16 +6182,16 @@
         <v>18</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A159" s="15"/>
+      <c r="A159" s="18"/>
       <c r="B159" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D159" s="3"/>
       <c r="E159" s="3" t="str">
@@ -5808,16 +6202,16 @@
         <v>18</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A160" s="15"/>
+      <c r="A160" s="18"/>
       <c r="B160" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D160" s="3"/>
       <c r="E160" s="3" t="str">
@@ -5828,16 +6222,16 @@
         <v>18</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A161" s="15"/>
+      <c r="A161" s="18"/>
       <c r="B161" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D161" s="3"/>
       <c r="E161" s="3" t="str">
@@ -5848,11 +6242,11 @@
         <v>18</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A162" s="15"/>
+      <c r="A162" s="18"/>
       <c r="B162" s="3" t="s">
         <v>28</v>
       </c>
@@ -5864,14 +6258,14 @@
         <v>27</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A163" s="15"/>
+      <c r="A163" s="18"/>
       <c r="B163" s="3" t="s">
         <v>29</v>
       </c>
@@ -5883,19 +6277,19 @@
         <v>30</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G163" s="3"/>
     </row>
     <row r="164" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A164" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="C164" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1" t="str">
@@ -5906,7 +6300,7 @@
         <v>18</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5922,10 +6316,10 @@
         <v>27</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5941,19 +6335,19 @@
         <v>30</v>
       </c>
       <c r="F166" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G166" s="1"/>
+    </row>
+    <row r="167" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A167" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="B167" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="G166" s="1"/>
-    </row>
-    <row r="167" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A167" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="C167" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D167" s="3"/>
       <c r="E167" s="3" t="str">
@@ -5964,11 +6358,11 @@
         <v>18</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A168" s="15"/>
+      <c r="A168" s="18"/>
       <c r="B168" s="3" t="s">
         <v>28</v>
       </c>
@@ -5980,14 +6374,14 @@
         <v>27</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A169" s="15"/>
+      <c r="A169" s="18"/>
       <c r="B169" s="3" t="s">
         <v>29</v>
       </c>
@@ -5999,13 +6393,13 @@
         <v>30</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G169" s="3"/>
     </row>
     <row r="170" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A170" s="14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>28</v>
@@ -6018,7 +6412,7 @@
         <v>27</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>101</v>
@@ -6037,13 +6431,13 @@
         <v>30</v>
       </c>
       <c r="F171" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G171" s="1"/>
+    </row>
+    <row r="172" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A172" s="18" t="s">
         <v>217</v>
-      </c>
-      <c r="G171" s="1"/>
-    </row>
-    <row r="172" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A172" s="15" t="s">
-        <v>219</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>28</v>
@@ -6056,14 +6450,14 @@
         <v>27</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A173" s="15"/>
+      <c r="A173" s="18"/>
       <c r="B173" s="3" t="s">
         <v>29</v>
       </c>
@@ -6075,13 +6469,13 @@
         <v>30</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G173" s="3"/>
     </row>
     <row r="174" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A174" s="14" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>28</v>
@@ -6094,10 +6488,10 @@
         <v>27</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -6113,13 +6507,13 @@
         <v>30</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G175" s="1"/>
     </row>
     <row r="176" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A176" s="15" t="s">
-        <v>248</v>
+      <c r="A176" s="18" t="s">
+        <v>245</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>28</v>
@@ -6132,14 +6526,14 @@
         <v>27</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A177" s="15"/>
+      <c r="A177" s="18"/>
       <c r="B177" s="3" t="s">
         <v>29</v>
       </c>
@@ -6151,13 +6545,13 @@
         <v>30</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G177" s="3"/>
     </row>
     <row r="178" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A178" s="14" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>28</v>
@@ -6170,10 +6564,10 @@
         <v>27</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -6189,13 +6583,13 @@
         <v>30</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G179" s="1"/>
     </row>
     <row r="180" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A180" s="15" t="s">
-        <v>254</v>
+      <c r="A180" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>28</v>
@@ -6208,14 +6602,14 @@
         <v>27</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A181" s="15"/>
+      <c r="A181" s="18"/>
       <c r="B181" s="3" t="s">
         <v>29</v>
       </c>
@@ -6227,14 +6621,410 @@
         <v>30</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G181" s="3"/>
     </row>
+    <row r="182" spans="1:7" s="34" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D182" s="6"/>
+      <c r="E182" s="1" t="str">
+        <f t="shared" ref="E182:E184" si="22">_xlfn.CONCAT(B182, "_", C182)</f>
+        <v>Reactome_EvidenceCode</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" s="34" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A183" s="16"/>
+      <c r="B183" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D183" s="6"/>
+      <c r="E183" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>Reactome_TaxonID</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A184" s="16"/>
+      <c r="B184" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D184" s="6"/>
+      <c r="E184" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>Reactome_AssignedBy</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A185" s="16"/>
+      <c r="B185" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A186" s="17"/>
+      <c r="B186" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G186" s="1"/>
+    </row>
+    <row r="187" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A187" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D187" s="3"/>
+      <c r="E187" s="3" t="str">
+        <f t="shared" ref="E187:E189" si="23">_xlfn.CONCAT(B187, "_", C187)</f>
+        <v>Reactome_EvidenceCode</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G187" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A188" s="20"/>
+      <c r="B188" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Reactome_TaxonID</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G188" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A189" s="20"/>
+      <c r="B189" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D189" s="3"/>
+      <c r="E189" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Reactome_AssignedBy</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A190" s="20"/>
+      <c r="B190" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A191" s="21"/>
+      <c r="B191" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G191" s="3"/>
+    </row>
+    <row r="192" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A192" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D192" s="6"/>
+      <c r="E192" s="1" t="str">
+        <f t="shared" ref="E192:E194" si="24">_xlfn.CONCAT(B192, "_", C192)</f>
+        <v>Reactome_EvidenceCode</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A193" s="16"/>
+      <c r="B193" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D193" s="6"/>
+      <c r="E193" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>Reactome_TaxonID</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A194" s="16"/>
+      <c r="B194" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D194" s="6"/>
+      <c r="E194" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>Reactome_AssignedBy</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A195" s="16"/>
+      <c r="B195" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A196" s="17"/>
+      <c r="B196" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G196" s="1"/>
+    </row>
+    <row r="197" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A197" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D197" s="3"/>
+      <c r="E197" s="3" t="str">
+        <f t="shared" ref="E197:E199" si="25">_xlfn.CONCAT(B197, "_", C197)</f>
+        <v>Reactome_EvidenceCode</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G197" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A198" s="20"/>
+      <c r="B198" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D198" s="3"/>
+      <c r="E198" s="3" t="str">
+        <f t="shared" si="25"/>
+        <v>Reactome_TaxonID</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G198" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A199" s="20"/>
+      <c r="B199" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D199" s="3"/>
+      <c r="E199" s="3" t="str">
+        <f t="shared" si="25"/>
+        <v>Reactome_AssignedBy</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G199" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A200" s="20"/>
+      <c r="B200" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D200" s="3"/>
+      <c r="E200" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G200" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A201" s="21"/>
+      <c r="B201" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D201" s="3"/>
+      <c r="E201" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G201" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="34">
+    <mergeCell ref="A197:A201"/>
     <mergeCell ref="A178:A179"/>
     <mergeCell ref="A180:A181"/>
+    <mergeCell ref="A182:A186"/>
+    <mergeCell ref="A187:A191"/>
+    <mergeCell ref="A192:A196"/>
     <mergeCell ref="A164:A166"/>
     <mergeCell ref="A167:A169"/>
     <mergeCell ref="A170:A171"/>
@@ -6270,11 +7060,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780CD01F-0819-CA44-B0D6-41E21FE9EADE}">
-  <dimension ref="A1:H207"/>
+  <dimension ref="A1:H215"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E94" sqref="E94"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G67" sqref="G67:G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -6317,7 +7107,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -6341,7 +7131,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="1" t="s">
@@ -6359,7 +7149,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="1" t="s">
@@ -6377,7 +7167,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="1" t="s">
@@ -6395,7 +7185,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="1" t="s">
@@ -6413,7 +7203,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="112" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="1" t="s">
@@ -6427,11 +7217,11 @@
         <v>37</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="154" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="1" t="s">
@@ -6445,11 +7235,11 @@
         <v>36</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="154" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="1" t="s">
@@ -6461,17 +7251,17 @@
       <c r="F9" s="1"/>
       <c r="G9" s="14"/>
       <c r="H9" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="18" t="s">
         <v>97</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -6489,9 +7279,9 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="3" t="s">
         <v>19</v>
       </c>
@@ -6507,9 +7297,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="3" t="s">
         <v>19</v>
       </c>
@@ -6525,9 +7315,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="3" t="s">
         <v>24</v>
       </c>
@@ -6543,9 +7333,9 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="3" t="s">
         <v>24</v>
       </c>
@@ -6561,9 +7351,9 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="3" t="s">
         <v>25</v>
       </c>
@@ -6571,7 +7361,7 @@
         <v>64</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="18" t="s">
         <v>37</v>
       </c>
       <c r="H15" s="4" t="s">
@@ -6579,41 +7369,41 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="15"/>
+      <c r="G16" s="18"/>
       <c r="H16" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="15"/>
+      <c r="G17" s="18"/>
       <c r="H17" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -6621,7 +7411,7 @@
         <v>65</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="18" t="s">
         <v>36</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -6629,9 +7419,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="3" t="s">
         <v>25</v>
       </c>
@@ -6639,89 +7429,89 @@
         <v>66</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="15"/>
+      <c r="G19" s="18"/>
       <c r="H19" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A20" s="27"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="E20" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="15"/>
+      <c r="G20" s="18"/>
       <c r="H20" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F21" s="3"/>
-      <c r="G21" s="15"/>
+      <c r="G21" s="18"/>
       <c r="H21" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A23" s="27"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="H23" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="22" t="s">
         <v>96</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -6739,9 +7529,9 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="6" t="s">
         <v>19</v>
       </c>
@@ -6757,9 +7547,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="6" t="s">
         <v>19</v>
       </c>
@@ -6775,9 +7565,9 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="6" t="s">
         <v>24</v>
       </c>
@@ -6793,9 +7583,9 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="6" t="s">
         <v>24</v>
       </c>
@@ -6811,9 +7601,9 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="6" t="s">
         <v>25</v>
       </c>
@@ -6821,7 +7611,7 @@
         <v>64</v>
       </c>
       <c r="F29" s="6"/>
-      <c r="G29" s="16" t="s">
+      <c r="G29" s="22" t="s">
         <v>37</v>
       </c>
       <c r="H29" s="7" t="s">
@@ -6829,117 +7619,117 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="20" t="s">
+      <c r="A30" s="31"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="E30" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="F30" s="32"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A31" s="31"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="32"/>
+      <c r="G31" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" s="33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A32" s="31"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="32"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A33" s="31"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="F33" s="32"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A34" s="31"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="E34" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="21" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A32" s="19"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A33" s="19"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="E33" s="20" t="s">
+      <c r="F34" s="32"/>
+      <c r="G34" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="21" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A34" s="19"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="E34" s="20" t="s">
+      <c r="H34" s="33" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A35" s="31"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="E35" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20" t="s">
+      <c r="F35" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="G35" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="H34" s="21" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A35" s="19"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="H35" s="21" t="s">
-        <v>238</v>
+      <c r="H35" s="33" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="27" t="s">
         <v>95</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -6957,9 +7747,9 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
       <c r="D37" s="3" t="s">
         <v>19</v>
       </c>
@@ -6975,9 +7765,9 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
       <c r="D38" s="3" t="s">
         <v>19</v>
       </c>
@@ -6993,9 +7783,9 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
       <c r="D39" s="3" t="s">
         <v>24</v>
       </c>
@@ -7011,9 +7801,9 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
       <c r="D40" s="3" t="s">
         <v>24</v>
       </c>
@@ -7029,9 +7819,9 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
       <c r="D41" s="3" t="s">
         <v>25</v>
       </c>
@@ -7047,9 +7837,9 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
       <c r="D42" s="3" t="s">
         <v>25</v>
       </c>
@@ -7057,7 +7847,7 @@
         <v>73</v>
       </c>
       <c r="F42" s="3"/>
-      <c r="G42" s="15" t="s">
+      <c r="G42" s="18" t="s">
         <v>36</v>
       </c>
       <c r="H42" s="4" t="s">
@@ -7065,25 +7855,25 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
       <c r="D43" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F43" s="3"/>
-      <c r="G43" s="15"/>
+      <c r="G43" s="18"/>
       <c r="H43" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
       <c r="D44" s="3" t="s">
         <v>1</v>
       </c>
@@ -7099,141 +7889,141 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20" t="s">
+      <c r="E45" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="H45" s="21" t="s">
+      <c r="H45" s="33" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A46" s="25"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="20" t="s">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20" t="s">
+      <c r="E46" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H46" s="21" t="s">
+      <c r="H46" s="33" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="20" t="s">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E47" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20" t="s">
+      <c r="E47" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="H47" s="21" t="s">
+      <c r="H47" s="33" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="20" t="s">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E48" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20" t="s">
+      <c r="E48" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="H48" s="21" t="s">
+      <c r="H48" s="33" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="20" t="s">
+      <c r="A49" s="38"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E49" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20" t="s">
+      <c r="E49" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="H49" s="21" t="s">
+      <c r="H49" s="33" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="20" t="s">
+      <c r="A50" s="38"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="E50" s="20" t="s">
+      <c r="E50" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20" t="s">
+      <c r="F50" s="32"/>
+      <c r="G50" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="H50" s="21" t="s">
-        <v>236</v>
+      <c r="H50" s="33" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="20" t="s">
+      <c r="A51" s="38"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="20" t="s">
+      <c r="E51" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20" t="s">
+      <c r="F51" s="32"/>
+      <c r="G51" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="H51" s="21" t="s">
-        <v>236</v>
+      <c r="H51" s="33" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
       <c r="D52" s="6" t="s">
         <v>1</v>
       </c>
@@ -7245,17 +8035,17 @@
         <v>78</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="27" t="s">
         <v>94</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -7273,9 +8063,9 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
       <c r="D54" s="3" t="s">
         <v>19</v>
       </c>
@@ -7291,9 +8081,9 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
+      <c r="A55" s="27"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
       <c r="D55" s="3" t="s">
         <v>19</v>
       </c>
@@ -7309,9 +8099,9 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
       <c r="D56" s="3" t="s">
         <v>24</v>
       </c>
@@ -7327,9 +8117,9 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
+      <c r="A57" s="27"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="3" t="s">
         <v>24</v>
       </c>
@@ -7345,9 +8135,9 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
+      <c r="A58" s="27"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
       <c r="D58" s="3" t="s">
         <v>25</v>
       </c>
@@ -7359,13 +8149,13 @@
         <v>37</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
+      <c r="A59" s="27"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
       <c r="D59" s="3" t="s">
         <v>25</v>
       </c>
@@ -7377,13 +8167,13 @@
         <v>36</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A60" s="18"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
+      <c r="A60" s="27"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
       <c r="D60" s="3" t="s">
         <v>1</v>
       </c>
@@ -7395,293 +8185,291 @@
         <v>78</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D61" s="20" t="s">
+      <c r="D61" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E61" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20" t="s">
+      <c r="E61" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="H61" s="21" t="s">
+      <c r="H61" s="33" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A62" s="17"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="20" t="s">
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E62" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20" t="s">
+      <c r="E62" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H62" s="21" t="s">
+      <c r="H62" s="33" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A63" s="17"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="20" t="s">
+      <c r="A63" s="25"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20" t="s">
+      <c r="E63" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="H63" s="21" t="s">
+      <c r="H63" s="33" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A64" s="17"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="20" t="s">
+      <c r="A64" s="25"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E64" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20" t="s">
+      <c r="E64" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="H64" s="21" t="s">
+      <c r="H64" s="33" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A65" s="17"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="20" t="s">
+      <c r="A65" s="25"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E65" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20" t="s">
+      <c r="E65" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="H65" s="21" t="s">
+      <c r="H65" s="33" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A66" s="17"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="20" t="s">
+      <c r="A66" s="25"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="E66" s="20" t="s">
+      <c r="E66" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H66" s="33" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A67" s="25"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F67" s="32"/>
+      <c r="G67" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="H67" s="33" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A68" s="25"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="F68" s="32"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="H66" s="21" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A67" s="17"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E67" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F67" s="20"/>
-      <c r="G67" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="H67" s="21" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A68" s="17"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E68" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="F68" s="20"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="21" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A69" s="17"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6" t="s">
-        <v>109</v>
-      </c>
+    </row>
+    <row r="69" spans="1:8" ht="84" x14ac:dyDescent="0.2">
+      <c r="A69" s="25"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="E69" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="F69" s="32"/>
+      <c r="G69" s="39"/>
       <c r="H69" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A70" s="18" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A70" s="25"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A71" s="26"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A72" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B70" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D70" s="3" t="s">
+      <c r="B72" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C72" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A71" s="18"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A72" s="18"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A73" s="18"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A73" s="29"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
       <c r="D73" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A74" s="18"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
+      <c r="A74" s="29"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
       <c r="D74" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A75" s="18"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A75" s="29"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
       <c r="D75" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>230</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A76" s="18"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
+      <c r="A76" s="29"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
       <c r="D76" s="3" t="s">
         <v>24</v>
       </c>
@@ -7690,409 +8478,473 @@
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H76" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A77" s="18"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
+      <c r="A77" s="29"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="29"/>
       <c r="D77" s="3" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A78" s="19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A78" s="29"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A79" s="29"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A80" s="29"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A81" s="30"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A82" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B78" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C78" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="D78" s="6" t="s">
+      <c r="B82" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="C82" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="D82" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A79" s="19"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A80" s="19"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A81" s="19"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A82" s="19"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F82" s="6"/>
       <c r="G82" s="6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A83" s="19"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A83" s="31"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="31"/>
       <c r="D83" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="F83" s="6"/>
       <c r="G83" s="6" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>228</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A84" s="19"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
+      <c r="A84" s="31"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="31"/>
       <c r="D84" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="6" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A85" s="19"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A85" s="31"/>
+      <c r="B85" s="31"/>
+      <c r="C85" s="31"/>
       <c r="D85" s="6" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="F85" s="6"/>
       <c r="G85" s="6" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A86" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A86" s="31"/>
+      <c r="B86" s="31"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A87" s="31"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A88" s="31"/>
+      <c r="B88" s="31"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="E88" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="F88" s="32"/>
+      <c r="G88" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="H88" s="33" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A89" s="31"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A90" s="31"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A91" s="31"/>
+      <c r="B91" s="31"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A92" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B86" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="C86" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D86" s="3" t="s">
+      <c r="B92" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C92" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A87" s="18"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A88" s="18"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A89" s="18"/>
-      <c r="B89" s="18"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A90" s="18"/>
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A91" s="18"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A92" s="18"/>
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="3" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A93" s="18"/>
-      <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A93" s="29"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
       <c r="D93" s="3" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="3" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="13"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="13"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="13"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="13"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="13"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="5"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="13"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="13"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="5"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="13"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A94" s="29"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A95" s="29"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A96" s="29"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A97" s="29"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A98" s="29"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A99" s="29"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A100" s="29"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A101" s="30"/>
+      <c r="B101" s="30"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
@@ -9154,27 +10006,107 @@
       <c r="G207" s="5"/>
       <c r="H207" s="13"/>
     </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208" s="5"/>
+      <c r="B208" s="5"/>
+      <c r="C208" s="5"/>
+      <c r="D208" s="5"/>
+      <c r="E208" s="5"/>
+      <c r="F208" s="5"/>
+      <c r="G208" s="5"/>
+      <c r="H208" s="13"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A209" s="5"/>
+      <c r="B209" s="5"/>
+      <c r="C209" s="5"/>
+      <c r="D209" s="5"/>
+      <c r="E209" s="5"/>
+      <c r="F209" s="5"/>
+      <c r="G209" s="5"/>
+      <c r="H209" s="13"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A210" s="5"/>
+      <c r="B210" s="5"/>
+      <c r="C210" s="5"/>
+      <c r="D210" s="5"/>
+      <c r="E210" s="5"/>
+      <c r="F210" s="5"/>
+      <c r="G210" s="5"/>
+      <c r="H210" s="13"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A211" s="5"/>
+      <c r="B211" s="5"/>
+      <c r="C211" s="5"/>
+      <c r="D211" s="5"/>
+      <c r="E211" s="5"/>
+      <c r="F211" s="5"/>
+      <c r="G211" s="5"/>
+      <c r="H211" s="13"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A212" s="5"/>
+      <c r="B212" s="5"/>
+      <c r="C212" s="5"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="5"/>
+      <c r="F212" s="5"/>
+      <c r="G212" s="5"/>
+      <c r="H212" s="13"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A213" s="5"/>
+      <c r="B213" s="5"/>
+      <c r="C213" s="5"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
+      <c r="G213" s="5"/>
+      <c r="H213" s="13"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A214" s="5"/>
+      <c r="B214" s="5"/>
+      <c r="C214" s="5"/>
+      <c r="D214" s="5"/>
+      <c r="E214" s="5"/>
+      <c r="F214" s="5"/>
+      <c r="G214" s="5"/>
+      <c r="H214" s="13"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A215" s="5"/>
+      <c r="B215" s="5"/>
+      <c r="C215" s="5"/>
+      <c r="D215" s="5"/>
+      <c r="E215" s="5"/>
+      <c r="F215" s="5"/>
+      <c r="G215" s="5"/>
+      <c r="H215" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G67:G69"/>
+    <mergeCell ref="C92:C101"/>
+    <mergeCell ref="B92:B101"/>
+    <mergeCell ref="A92:A101"/>
+    <mergeCell ref="C72:C81"/>
+    <mergeCell ref="B72:B81"/>
+    <mergeCell ref="A72:A81"/>
+    <mergeCell ref="C61:C71"/>
+    <mergeCell ref="B61:B71"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="C10:C23"/>
     <mergeCell ref="B10:B23"/>
     <mergeCell ref="A10:A23"/>
     <mergeCell ref="G31:G33"/>
     <mergeCell ref="G29:G30"/>
-    <mergeCell ref="A78:A85"/>
-    <mergeCell ref="B78:B85"/>
-    <mergeCell ref="C78:C85"/>
-    <mergeCell ref="A86:A93"/>
-    <mergeCell ref="B86:B93"/>
-    <mergeCell ref="C86:C93"/>
-    <mergeCell ref="C61:C69"/>
-    <mergeCell ref="B61:B69"/>
-    <mergeCell ref="A61:A69"/>
-    <mergeCell ref="A70:A77"/>
-    <mergeCell ref="B70:B77"/>
-    <mergeCell ref="C70:C77"/>
+    <mergeCell ref="A82:A91"/>
+    <mergeCell ref="B82:B91"/>
+    <mergeCell ref="C82:C91"/>
+    <mergeCell ref="A61:A71"/>
     <mergeCell ref="A53:A60"/>
     <mergeCell ref="B53:B60"/>
     <mergeCell ref="C53:C60"/>

--- a/resources/pheknowlator_source_metadata.xlsx
+++ b/resources/pheknowlator_source_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiffanycallahan/Dropbox/GraduateSchool/PhD/LabWork/PheKnowLator/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC39126F-A9AC-4E44-BFC9-669E410EC664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E957BF-2077-E644-A2C1-67F9CE888C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13380" yWindow="460" windowWidth="37820" windowHeight="23880" xr2:uid="{82CFCCA6-69D0-6D4F-8FD9-9511C5B37B8B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="edges" sheetId="1" r:id="rId1"/>
     <sheet name="nodes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="344">
   <si>
     <t>edge_type</t>
   </si>
@@ -2425,6 +2425,436 @@
 pathway-gocc:column 5
 pathway-gomf:column 5</t>
     </r>
+  </si>
+  <si>
+    <t>OBO Ontology
+HPA/GTEx</t>
+  </si>
+  <si>
+    <t>HPA_GTEx:EnsemblID</t>
+  </si>
+  <si>
+    <t>HPA:UniprotID</t>
+  </si>
+  <si>
+    <t>anatomy</t>
+  </si>
+  <si>
+    <t>Uber Anatomy Ontology (UBERON)</t>
+  </si>
+  <si>
+    <t>HPA_GTEx:Anatomy</t>
+  </si>
+  <si>
+    <t>HPA</t>
+  </si>
+  <si>
+    <t>HPA:Subcellular_Location</t>
+  </si>
+  <si>
+    <t>HPA/GTEx</t>
+  </si>
+  <si>
+    <t>HPA_GTEx:Expression_Value</t>
+  </si>
+  <si>
+    <t>HPA_Subcellular_Location</t>
+  </si>
+  <si>
+    <t>HPA_GTEx_Expression_Value</t>
+  </si>
+  <si>
+    <t>HPA_GTEx:Anatomy_Type</t>
+  </si>
+  <si>
+    <t>HPA_GTEx_Anatomy_Type</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by HPA and/or GTEx
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>HPA/GTEx Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+protein-anatomy:column 6
+protein-cell:column 6
+rna-anatomy:column 6
+rna-cell:column 6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by HPA and/or GTEx
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>HPA/GTEx Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+protein-anatomy:column 4
+protein-cell:column 4
+rna-anatomy:column 4
+rna-cell:column 4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by HPA and/or GTEx
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>HPA/GTEx Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+protein-anatomy:column 7
+protein-cell:column 7
+rna-anatomy:column 7
+rna-cell:column 7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by HPA
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>HPA Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+protein-anatomy:column 5
+protein-cell:column 5
+rna-anatomy:column 4
+rna-cell:column 5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Keyword provided by a user in the resource_info.txt, edge_source_list.txt, ontology_source_list.txt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">The Default value is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Anatomy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by HPA
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>HPA Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+protein-anatomy:column 2
+protein-cell:column 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by HPA and GTEx
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>HPA and GTEx Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+protein-anatomy:column 0
+protein-cell:column 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by HPA and GTEx
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>HPA and GTEx Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+rna-anatomy:column 0
+rna-cell:column 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by HPA
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>HPA Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+rna-anatomy:column 2
+rna-cell:column 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Value determined by NodeNormalization. When no match is found, use nearest parent's mapped concept. If no map can be found to a parent concept use the BioLink concept use the default value.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> The Default value is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>biolink:AnatomicalEntity</t>
+    </r>
+  </si>
+  <si>
+    <t>Cell Ontology (CL)
+Cell Line Ontology (CLO)</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Keyword provided by a user in the resource_info.txt, edge_source_list.txt, ontology_source_list.txt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">The Default value is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cell</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Value determined by NodeNormalization. When no match is found, use nearest parent's mapped concept. If no map can be found to a parent concept use the BioLink concept use the default value.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> The Default value is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>biolink:Cell</t>
+    </r>
+  </si>
+  <si>
+    <t>protein-anatomy</t>
+  </si>
+  <si>
+    <t>HPA_GTEx</t>
+  </si>
+  <si>
+    <t>Expression_Value</t>
+  </si>
+  <si>
+    <t>Subcellular_Location</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>BioLink</t>
+  </si>
+  <si>
+    <t>Mapped through RO concept RO:0001015</t>
+  </si>
+  <si>
+    <t>biolink:location_of</t>
+  </si>
+  <si>
+    <t>anatomy-protein</t>
+  </si>
+  <si>
+    <t>Value derived from Reactome (column:5)</t>
+  </si>
+  <si>
+    <t>Value derived from HPA or GTEx (column:7)</t>
+  </si>
+  <si>
+    <t>Value derived from Reactome (column:8)</t>
+  </si>
+  <si>
+    <t>Mapped through RO concept RO:0001025</t>
+  </si>
+  <si>
+    <t>biolink:located_in</t>
+  </si>
+  <si>
+    <t>protein-cell</t>
+  </si>
+  <si>
+    <t>cell-protein</t>
+  </si>
+  <si>
+    <t>rna-anatomy</t>
+  </si>
+  <si>
+    <t>anatomy-rna</t>
+  </si>
+  <si>
+    <t>rna-cell</t>
+  </si>
+  <si>
+    <t>cell-rna</t>
   </si>
 </sst>
 </file>
@@ -2563,7 +2993,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2607,16 +3037,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2628,10 +3064,40 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2646,58 +3112,35 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3007,11 +3450,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC7A73D-1C32-0943-8AF1-D604CF68867B}">
-  <dimension ref="A1:G201"/>
+  <dimension ref="A1:G241"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F202" sqref="F202"/>
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F233" sqref="F233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3050,7 +3493,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3074,7 +3517,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3094,7 +3537,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3115,8 +3558,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
+    <row r="5" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A5" s="24"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
@@ -3136,7 +3579,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
@@ -3155,7 +3598,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
@@ -3172,7 +3615,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="25" t="s">
         <v>137</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -3196,7 +3639,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -3216,7 +3659,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
@@ -3238,7 +3681,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
@@ -3258,7 +3701,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
@@ -3277,7 +3720,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
@@ -3294,7 +3737,7 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="29" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -3318,7 +3761,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="6" t="s">
         <v>1</v>
       </c>
@@ -3338,7 +3781,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="6" t="s">
         <v>1</v>
       </c>
@@ -3360,7 +3803,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="6" t="s">
         <v>1</v>
       </c>
@@ -3380,7 +3823,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="6" t="s">
         <v>28</v>
       </c>
@@ -3399,7 +3842,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="6" t="s">
         <v>29</v>
       </c>
@@ -3416,7 +3859,7 @@
       <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="25" t="s">
         <v>140</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3440,7 +3883,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="3" t="s">
         <v>1</v>
       </c>
@@ -3460,7 +3903,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="3" t="s">
         <v>1</v>
       </c>
@@ -3482,7 +3925,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="3" t="s">
         <v>1</v>
       </c>
@@ -3502,7 +3945,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="3" t="s">
         <v>28</v>
       </c>
@@ -3521,7 +3964,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="3" t="s">
         <v>29</v>
       </c>
@@ -3538,7 +3981,7 @@
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="24" t="s">
         <v>45</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -3560,7 +4003,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="1" t="s">
         <v>1</v>
       </c>
@@ -3582,7 +4025,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
@@ -3604,7 +4047,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="1" t="s">
         <v>1</v>
       </c>
@@ -3624,7 +4067,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
@@ -3643,7 +4086,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
@@ -3660,7 +4103,7 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="25" t="s">
         <v>141</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -3682,7 +4125,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="3" t="s">
         <v>1</v>
       </c>
@@ -3704,7 +4147,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
+      <c r="A34" s="25"/>
       <c r="B34" s="3" t="s">
         <v>1</v>
       </c>
@@ -3726,7 +4169,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
+      <c r="A35" s="25"/>
       <c r="B35" s="3" t="s">
         <v>1</v>
       </c>
@@ -3746,7 +4189,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
+      <c r="A36" s="25"/>
       <c r="B36" s="3" t="s">
         <v>28</v>
       </c>
@@ -3765,7 +4208,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="3" t="s">
         <v>29</v>
       </c>
@@ -3781,8 +4224,8 @@
       </c>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" s="34" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A38" s="22" t="s">
+    <row r="38" spans="1:7" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A38" s="29" t="s">
         <v>60</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -3803,8 +4246,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="34" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A39" s="22"/>
+    <row r="39" spans="1:7" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A39" s="29"/>
       <c r="B39" s="6" t="s">
         <v>1</v>
       </c>
@@ -3825,8 +4268,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="34" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A40" s="22"/>
+    <row r="40" spans="1:7" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A40" s="29"/>
       <c r="B40" s="6" t="s">
         <v>1</v>
       </c>
@@ -3847,8 +4290,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="34" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A41" s="22"/>
+    <row r="41" spans="1:7" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A41" s="29"/>
       <c r="B41" s="6" t="s">
         <v>1</v>
       </c>
@@ -3865,8 +4308,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="34" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A42" s="22"/>
+    <row r="42" spans="1:7" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A42" s="29"/>
       <c r="B42" s="6" t="s">
         <v>28</v>
       </c>
@@ -3884,8 +4327,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="34" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A43" s="22"/>
+    <row r="43" spans="1:7" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A43" s="29"/>
       <c r="B43" s="6" t="s">
         <v>29</v>
       </c>
@@ -3902,7 +4345,7 @@
       <c r="G43" s="6"/>
     </row>
     <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="25" t="s">
         <v>143</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -3924,7 +4367,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A45" s="18"/>
+      <c r="A45" s="25"/>
       <c r="B45" s="3" t="s">
         <v>1</v>
       </c>
@@ -3946,7 +4389,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A46" s="18"/>
+      <c r="A46" s="25"/>
       <c r="B46" s="3" t="s">
         <v>1</v>
       </c>
@@ -3968,7 +4411,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A47" s="18"/>
+      <c r="A47" s="25"/>
       <c r="B47" s="3" t="s">
         <v>1</v>
       </c>
@@ -3986,7 +4429,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A48" s="18"/>
+      <c r="A48" s="25"/>
       <c r="B48" s="3" t="s">
         <v>28</v>
       </c>
@@ -4005,7 +4448,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
+      <c r="A49" s="25"/>
       <c r="B49" s="3" t="s">
         <v>29</v>
       </c>
@@ -4022,7 +4465,7 @@
       <c r="G49" s="3"/>
     </row>
     <row r="50" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="24" t="s">
         <v>61</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -4044,7 +4487,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
+      <c r="A51" s="24"/>
       <c r="B51" s="1" t="s">
         <v>1</v>
       </c>
@@ -4066,7 +4509,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
+      <c r="A52" s="24"/>
       <c r="B52" s="1" t="s">
         <v>1</v>
       </c>
@@ -4088,7 +4531,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
+      <c r="A53" s="24"/>
       <c r="B53" s="1" t="s">
         <v>1</v>
       </c>
@@ -4108,7 +4551,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A54" s="14"/>
+      <c r="A54" s="24"/>
       <c r="B54" s="1" t="s">
         <v>28</v>
       </c>
@@ -4127,7 +4570,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
+      <c r="A55" s="24"/>
       <c r="B55" s="1" t="s">
         <v>29</v>
       </c>
@@ -4144,7 +4587,7 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="25" t="s">
         <v>142</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -4166,7 +4609,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A57" s="18"/>
+      <c r="A57" s="25"/>
       <c r="B57" s="3" t="s">
         <v>1</v>
       </c>
@@ -4188,7 +4631,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A58" s="18"/>
+      <c r="A58" s="25"/>
       <c r="B58" s="3" t="s">
         <v>1</v>
       </c>
@@ -4210,7 +4653,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A59" s="18"/>
+      <c r="A59" s="25"/>
       <c r="B59" s="3" t="s">
         <v>1</v>
       </c>
@@ -4230,7 +4673,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A60" s="18"/>
+      <c r="A60" s="25"/>
       <c r="B60" s="3" t="s">
         <v>28</v>
       </c>
@@ -4249,7 +4692,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A61" s="18"/>
+      <c r="A61" s="25"/>
       <c r="B61" s="3" t="s">
         <v>29</v>
       </c>
@@ -4266,7 +4709,7 @@
       <c r="G61" s="3"/>
     </row>
     <row r="62" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="29" t="s">
         <v>100</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -4288,7 +4731,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A63" s="22"/>
+      <c r="A63" s="29"/>
       <c r="B63" s="6" t="s">
         <v>256</v>
       </c>
@@ -4308,7 +4751,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A64" s="22"/>
+      <c r="A64" s="29"/>
       <c r="B64" s="6" t="s">
         <v>28</v>
       </c>
@@ -4327,7 +4770,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A65" s="22"/>
+      <c r="A65" s="29"/>
       <c r="B65" s="6" t="s">
         <v>29</v>
       </c>
@@ -4344,7 +4787,7 @@
       <c r="G65" s="6"/>
     </row>
     <row r="66" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A66" s="18" t="s">
+      <c r="A66" s="25" t="s">
         <v>146</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -4366,7 +4809,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A67" s="18"/>
+      <c r="A67" s="25"/>
       <c r="B67" s="3" t="s">
         <v>1</v>
       </c>
@@ -4386,7 +4829,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A68" s="18"/>
+      <c r="A68" s="25"/>
       <c r="B68" s="3" t="s">
         <v>28</v>
       </c>
@@ -4405,7 +4848,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A69" s="18"/>
+      <c r="A69" s="25"/>
       <c r="B69" s="3" t="s">
         <v>29</v>
       </c>
@@ -4422,7 +4865,7 @@
       <c r="G69" s="3"/>
     </row>
     <row r="70" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="24" t="s">
         <v>108</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -4444,7 +4887,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
+      <c r="A71" s="24"/>
       <c r="B71" s="1" t="s">
         <v>1</v>
       </c>
@@ -4464,7 +4907,7 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
+      <c r="A72" s="24"/>
       <c r="B72" s="1" t="s">
         <v>1</v>
       </c>
@@ -4484,7 +4927,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
+      <c r="A73" s="24"/>
       <c r="B73" s="1" t="s">
         <v>1</v>
       </c>
@@ -4504,7 +4947,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
+      <c r="A74" s="24"/>
       <c r="B74" s="1" t="s">
         <v>1</v>
       </c>
@@ -4524,7 +4967,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A75" s="14"/>
+      <c r="A75" s="24"/>
       <c r="B75" s="1" t="s">
         <v>1</v>
       </c>
@@ -4544,7 +4987,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
+      <c r="A76" s="24"/>
       <c r="B76" s="1" t="s">
         <v>1</v>
       </c>
@@ -4563,8 +5006,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
+    <row r="77" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A77" s="24"/>
       <c r="B77" s="1" t="s">
         <v>28</v>
       </c>
@@ -4583,7 +5026,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
+      <c r="A78" s="24"/>
       <c r="B78" s="1" t="s">
         <v>29</v>
       </c>
@@ -4600,7 +5043,7 @@
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A79" s="18" t="s">
+      <c r="A79" s="25" t="s">
         <v>147</v>
       </c>
       <c r="B79" s="3" t="s">
@@ -4622,7 +5065,7 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A80" s="18"/>
+      <c r="A80" s="25"/>
       <c r="B80" s="3" t="s">
         <v>1</v>
       </c>
@@ -4642,7 +5085,7 @@
       </c>
     </row>
     <row r="81" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A81" s="18"/>
+      <c r="A81" s="25"/>
       <c r="B81" s="3" t="s">
         <v>1</v>
       </c>
@@ -4662,7 +5105,7 @@
       </c>
     </row>
     <row r="82" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A82" s="18"/>
+      <c r="A82" s="25"/>
       <c r="B82" s="3" t="s">
         <v>1</v>
       </c>
@@ -4682,7 +5125,7 @@
       </c>
     </row>
     <row r="83" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A83" s="18"/>
+      <c r="A83" s="25"/>
       <c r="B83" s="3" t="s">
         <v>1</v>
       </c>
@@ -4702,7 +5145,7 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A84" s="18"/>
+      <c r="A84" s="25"/>
       <c r="B84" s="3" t="s">
         <v>1</v>
       </c>
@@ -4722,7 +5165,7 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A85" s="18"/>
+      <c r="A85" s="25"/>
       <c r="B85" s="3" t="s">
         <v>1</v>
       </c>
@@ -4741,8 +5184,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A86" s="18"/>
+    <row r="86" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A86" s="25"/>
       <c r="B86" s="3" t="s">
         <v>28</v>
       </c>
@@ -4761,7 +5204,7 @@
       </c>
     </row>
     <row r="87" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A87" s="18"/>
+      <c r="A87" s="25"/>
       <c r="B87" s="3" t="s">
         <v>29</v>
       </c>
@@ -4778,7 +5221,7 @@
       <c r="G87" s="3"/>
     </row>
     <row r="88" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A88" s="22" t="s">
+      <c r="A88" s="29" t="s">
         <v>148</v>
       </c>
       <c r="B88" s="6" t="s">
@@ -4800,7 +5243,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A89" s="22"/>
+      <c r="A89" s="29"/>
       <c r="B89" s="6" t="s">
         <v>1</v>
       </c>
@@ -4820,7 +5263,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A90" s="22"/>
+      <c r="A90" s="29"/>
       <c r="B90" s="6" t="s">
         <v>1</v>
       </c>
@@ -4840,7 +5283,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A91" s="22"/>
+      <c r="A91" s="29"/>
       <c r="B91" s="6" t="s">
         <v>1</v>
       </c>
@@ -4860,7 +5303,7 @@
       </c>
     </row>
     <row r="92" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A92" s="22"/>
+      <c r="A92" s="29"/>
       <c r="B92" s="6" t="s">
         <v>1</v>
       </c>
@@ -4880,7 +5323,7 @@
       </c>
     </row>
     <row r="93" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A93" s="22"/>
+      <c r="A93" s="29"/>
       <c r="B93" s="6" t="s">
         <v>1</v>
       </c>
@@ -4900,7 +5343,7 @@
       </c>
     </row>
     <row r="94" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A94" s="22"/>
+      <c r="A94" s="29"/>
       <c r="B94" s="6" t="s">
         <v>1</v>
       </c>
@@ -4919,8 +5362,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A95" s="22"/>
+    <row r="95" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A95" s="29"/>
       <c r="B95" s="6" t="s">
         <v>28</v>
       </c>
@@ -4939,7 +5382,7 @@
       </c>
     </row>
     <row r="96" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A96" s="22"/>
+      <c r="A96" s="29"/>
       <c r="B96" s="6" t="s">
         <v>29</v>
       </c>
@@ -4956,7 +5399,7 @@
       <c r="G96" s="6"/>
     </row>
     <row r="97" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A97" s="18" t="s">
+      <c r="A97" s="25" t="s">
         <v>149</v>
       </c>
       <c r="B97" s="3" t="s">
@@ -4978,7 +5421,7 @@
       </c>
     </row>
     <row r="98" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A98" s="18"/>
+      <c r="A98" s="25"/>
       <c r="B98" s="3" t="s">
         <v>1</v>
       </c>
@@ -4998,7 +5441,7 @@
       </c>
     </row>
     <row r="99" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A99" s="18"/>
+      <c r="A99" s="25"/>
       <c r="B99" s="3" t="s">
         <v>1</v>
       </c>
@@ -5018,7 +5461,7 @@
       </c>
     </row>
     <row r="100" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A100" s="18"/>
+      <c r="A100" s="25"/>
       <c r="B100" s="3" t="s">
         <v>1</v>
       </c>
@@ -5038,7 +5481,7 @@
       </c>
     </row>
     <row r="101" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A101" s="18"/>
+      <c r="A101" s="25"/>
       <c r="B101" s="3" t="s">
         <v>1</v>
       </c>
@@ -5058,7 +5501,7 @@
       </c>
     </row>
     <row r="102" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A102" s="18"/>
+      <c r="A102" s="25"/>
       <c r="B102" s="3" t="s">
         <v>1</v>
       </c>
@@ -5078,7 +5521,7 @@
       </c>
     </row>
     <row r="103" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A103" s="18"/>
+      <c r="A103" s="25"/>
       <c r="B103" s="3" t="s">
         <v>1</v>
       </c>
@@ -5097,8 +5540,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A104" s="18"/>
+    <row r="104" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A104" s="25"/>
       <c r="B104" s="3" t="s">
         <v>28</v>
       </c>
@@ -5117,7 +5560,7 @@
       </c>
     </row>
     <row r="105" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A105" s="18"/>
+      <c r="A105" s="25"/>
       <c r="B105" s="3" t="s">
         <v>29</v>
       </c>
@@ -5134,7 +5577,7 @@
       <c r="G105" s="3"/>
     </row>
     <row r="106" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A106" s="14" t="s">
+      <c r="A106" s="24" t="s">
         <v>150</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -5156,7 +5599,7 @@
       </c>
     </row>
     <row r="107" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A107" s="14"/>
+      <c r="A107" s="24"/>
       <c r="B107" s="1" t="s">
         <v>1</v>
       </c>
@@ -5176,7 +5619,7 @@
       </c>
     </row>
     <row r="108" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A108" s="14"/>
+      <c r="A108" s="24"/>
       <c r="B108" s="1" t="s">
         <v>1</v>
       </c>
@@ -5196,7 +5639,7 @@
       </c>
     </row>
     <row r="109" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A109" s="14"/>
+      <c r="A109" s="24"/>
       <c r="B109" s="1" t="s">
         <v>1</v>
       </c>
@@ -5216,7 +5659,7 @@
       </c>
     </row>
     <row r="110" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A110" s="14"/>
+      <c r="A110" s="24"/>
       <c r="B110" s="1" t="s">
         <v>1</v>
       </c>
@@ -5236,7 +5679,7 @@
       </c>
     </row>
     <row r="111" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A111" s="14"/>
+      <c r="A111" s="24"/>
       <c r="B111" s="1" t="s">
         <v>1</v>
       </c>
@@ -5256,7 +5699,7 @@
       </c>
     </row>
     <row r="112" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A112" s="14"/>
+      <c r="A112" s="24"/>
       <c r="B112" s="1" t="s">
         <v>1</v>
       </c>
@@ -5275,8 +5718,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A113" s="14"/>
+    <row r="113" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A113" s="24"/>
       <c r="B113" s="1" t="s">
         <v>28</v>
       </c>
@@ -5295,7 +5738,7 @@
       </c>
     </row>
     <row r="114" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A114" s="14"/>
+      <c r="A114" s="24"/>
       <c r="B114" s="1" t="s">
         <v>29</v>
       </c>
@@ -5312,7 +5755,7 @@
       <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A115" s="18" t="s">
+      <c r="A115" s="25" t="s">
         <v>151</v>
       </c>
       <c r="B115" s="3" t="s">
@@ -5334,7 +5777,7 @@
       </c>
     </row>
     <row r="116" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A116" s="18"/>
+      <c r="A116" s="25"/>
       <c r="B116" s="3" t="s">
         <v>1</v>
       </c>
@@ -5354,7 +5797,7 @@
       </c>
     </row>
     <row r="117" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A117" s="18"/>
+      <c r="A117" s="25"/>
       <c r="B117" s="3" t="s">
         <v>1</v>
       </c>
@@ -5374,7 +5817,7 @@
       </c>
     </row>
     <row r="118" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A118" s="18"/>
+      <c r="A118" s="25"/>
       <c r="B118" s="3" t="s">
         <v>1</v>
       </c>
@@ -5394,7 +5837,7 @@
       </c>
     </row>
     <row r="119" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A119" s="18"/>
+      <c r="A119" s="25"/>
       <c r="B119" s="3" t="s">
         <v>1</v>
       </c>
@@ -5414,7 +5857,7 @@
       </c>
     </row>
     <row r="120" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A120" s="18"/>
+      <c r="A120" s="25"/>
       <c r="B120" s="3" t="s">
         <v>1</v>
       </c>
@@ -5434,7 +5877,7 @@
       </c>
     </row>
     <row r="121" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A121" s="18"/>
+      <c r="A121" s="25"/>
       <c r="B121" s="3" t="s">
         <v>1</v>
       </c>
@@ -5453,8 +5896,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A122" s="18"/>
+    <row r="122" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A122" s="25"/>
       <c r="B122" s="3" t="s">
         <v>28</v>
       </c>
@@ -5473,7 +5916,7 @@
       </c>
     </row>
     <row r="123" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A123" s="18"/>
+      <c r="A123" s="25"/>
       <c r="B123" s="3" t="s">
         <v>29</v>
       </c>
@@ -5490,7 +5933,7 @@
       <c r="G123" s="3"/>
     </row>
     <row r="124" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A124" s="14" t="s">
+      <c r="A124" s="24" t="s">
         <v>152</v>
       </c>
       <c r="B124" s="1" t="s">
@@ -5512,7 +5955,7 @@
       </c>
     </row>
     <row r="125" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A125" s="14"/>
+      <c r="A125" s="24"/>
       <c r="B125" s="1" t="s">
         <v>40</v>
       </c>
@@ -5532,7 +5975,7 @@
       </c>
     </row>
     <row r="126" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A126" s="14"/>
+      <c r="A126" s="24"/>
       <c r="B126" s="1" t="s">
         <v>40</v>
       </c>
@@ -5552,7 +5995,7 @@
       </c>
     </row>
     <row r="127" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A127" s="14"/>
+      <c r="A127" s="24"/>
       <c r="B127" s="1" t="s">
         <v>40</v>
       </c>
@@ -5572,7 +6015,7 @@
       </c>
     </row>
     <row r="128" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A128" s="14"/>
+      <c r="A128" s="24"/>
       <c r="B128" s="1" t="s">
         <v>40</v>
       </c>
@@ -5592,7 +6035,7 @@
       </c>
     </row>
     <row r="129" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A129" s="14"/>
+      <c r="A129" s="24"/>
       <c r="B129" s="1" t="s">
         <v>40</v>
       </c>
@@ -5612,7 +6055,7 @@
       </c>
     </row>
     <row r="130" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A130" s="14"/>
+      <c r="A130" s="24"/>
       <c r="B130" s="1" t="s">
         <v>40</v>
       </c>
@@ -5632,7 +6075,7 @@
       </c>
     </row>
     <row r="131" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A131" s="14"/>
+      <c r="A131" s="24"/>
       <c r="B131" s="1" t="s">
         <v>28</v>
       </c>
@@ -5651,7 +6094,7 @@
       </c>
     </row>
     <row r="132" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A132" s="14"/>
+      <c r="A132" s="24"/>
       <c r="B132" s="1" t="s">
         <v>29</v>
       </c>
@@ -5668,7 +6111,7 @@
       <c r="G132" s="1"/>
     </row>
     <row r="133" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A133" s="18" t="s">
+      <c r="A133" s="25" t="s">
         <v>189</v>
       </c>
       <c r="B133" s="3" t="s">
@@ -5690,7 +6133,7 @@
       </c>
     </row>
     <row r="134" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A134" s="18"/>
+      <c r="A134" s="25"/>
       <c r="B134" s="3" t="s">
         <v>40</v>
       </c>
@@ -5710,7 +6153,7 @@
       </c>
     </row>
     <row r="135" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A135" s="18"/>
+      <c r="A135" s="25"/>
       <c r="B135" s="3" t="s">
         <v>40</v>
       </c>
@@ -5730,7 +6173,7 @@
       </c>
     </row>
     <row r="136" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A136" s="18"/>
+      <c r="A136" s="25"/>
       <c r="B136" s="3" t="s">
         <v>40</v>
       </c>
@@ -5750,7 +6193,7 @@
       </c>
     </row>
     <row r="137" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A137" s="18"/>
+      <c r="A137" s="25"/>
       <c r="B137" s="3" t="s">
         <v>40</v>
       </c>
@@ -5770,7 +6213,7 @@
       </c>
     </row>
     <row r="138" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A138" s="18"/>
+      <c r="A138" s="25"/>
       <c r="B138" s="3" t="s">
         <v>40</v>
       </c>
@@ -5790,7 +6233,7 @@
       </c>
     </row>
     <row r="139" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A139" s="18"/>
+      <c r="A139" s="25"/>
       <c r="B139" s="3" t="s">
         <v>40</v>
       </c>
@@ -5810,7 +6253,7 @@
       </c>
     </row>
     <row r="140" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A140" s="18"/>
+      <c r="A140" s="25"/>
       <c r="B140" s="3" t="s">
         <v>28</v>
       </c>
@@ -5829,7 +6272,7 @@
       </c>
     </row>
     <row r="141" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A141" s="18"/>
+      <c r="A141" s="25"/>
       <c r="B141" s="3" t="s">
         <v>29</v>
       </c>
@@ -5846,7 +6289,7 @@
       <c r="G141" s="3"/>
     </row>
     <row r="142" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A142" s="14" t="s">
+      <c r="A142" s="24" t="s">
         <v>169</v>
       </c>
       <c r="B142" s="1" t="s">
@@ -5868,7 +6311,7 @@
       </c>
     </row>
     <row r="143" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A143" s="14"/>
+      <c r="A143" s="24"/>
       <c r="B143" s="1" t="s">
         <v>170</v>
       </c>
@@ -5888,7 +6331,7 @@
       </c>
     </row>
     <row r="144" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A144" s="14"/>
+      <c r="A144" s="24"/>
       <c r="B144" s="1" t="s">
         <v>170</v>
       </c>
@@ -5908,7 +6351,7 @@
       </c>
     </row>
     <row r="145" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A145" s="14"/>
+      <c r="A145" s="24"/>
       <c r="B145" s="1" t="s">
         <v>170</v>
       </c>
@@ -5928,7 +6371,7 @@
       </c>
     </row>
     <row r="146" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A146" s="14"/>
+      <c r="A146" s="24"/>
       <c r="B146" s="1" t="s">
         <v>170</v>
       </c>
@@ -5948,7 +6391,7 @@
       </c>
     </row>
     <row r="147" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A147" s="14"/>
+      <c r="A147" s="24"/>
       <c r="B147" s="1" t="s">
         <v>170</v>
       </c>
@@ -5968,7 +6411,7 @@
       </c>
     </row>
     <row r="148" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A148" s="14"/>
+      <c r="A148" s="24"/>
       <c r="B148" s="1" t="s">
         <v>170</v>
       </c>
@@ -5988,7 +6431,7 @@
       </c>
     </row>
     <row r="149" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A149" s="14"/>
+      <c r="A149" s="24"/>
       <c r="B149" s="1" t="s">
         <v>170</v>
       </c>
@@ -6008,7 +6451,7 @@
       </c>
     </row>
     <row r="150" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A150" s="14"/>
+      <c r="A150" s="24"/>
       <c r="B150" s="1" t="s">
         <v>170</v>
       </c>
@@ -6027,8 +6470,8 @@
         <v>208</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A151" s="14"/>
+    <row r="151" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A151" s="24"/>
       <c r="B151" s="1" t="s">
         <v>28</v>
       </c>
@@ -6047,7 +6490,7 @@
       </c>
     </row>
     <row r="152" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A152" s="14"/>
+      <c r="A152" s="24"/>
       <c r="B152" s="1" t="s">
         <v>29</v>
       </c>
@@ -6064,7 +6507,7 @@
       <c r="G152" s="1"/>
     </row>
     <row r="153" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A153" s="18" t="s">
+      <c r="A153" s="25" t="s">
         <v>192</v>
       </c>
       <c r="B153" s="3" t="s">
@@ -6086,7 +6529,7 @@
       </c>
     </row>
     <row r="154" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A154" s="18"/>
+      <c r="A154" s="25"/>
       <c r="B154" s="3" t="s">
         <v>170</v>
       </c>
@@ -6106,7 +6549,7 @@
       </c>
     </row>
     <row r="155" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A155" s="18"/>
+      <c r="A155" s="25"/>
       <c r="B155" s="3" t="s">
         <v>170</v>
       </c>
@@ -6126,7 +6569,7 @@
       </c>
     </row>
     <row r="156" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A156" s="18"/>
+      <c r="A156" s="25"/>
       <c r="B156" s="3" t="s">
         <v>170</v>
       </c>
@@ -6146,7 +6589,7 @@
       </c>
     </row>
     <row r="157" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A157" s="18"/>
+      <c r="A157" s="25"/>
       <c r="B157" s="3" t="s">
         <v>170</v>
       </c>
@@ -6166,7 +6609,7 @@
       </c>
     </row>
     <row r="158" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A158" s="18"/>
+      <c r="A158" s="25"/>
       <c r="B158" s="3" t="s">
         <v>170</v>
       </c>
@@ -6186,7 +6629,7 @@
       </c>
     </row>
     <row r="159" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A159" s="18"/>
+      <c r="A159" s="25"/>
       <c r="B159" s="3" t="s">
         <v>170</v>
       </c>
@@ -6206,7 +6649,7 @@
       </c>
     </row>
     <row r="160" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A160" s="18"/>
+      <c r="A160" s="25"/>
       <c r="B160" s="3" t="s">
         <v>170</v>
       </c>
@@ -6226,7 +6669,7 @@
       </c>
     </row>
     <row r="161" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A161" s="18"/>
+      <c r="A161" s="25"/>
       <c r="B161" s="3" t="s">
         <v>170</v>
       </c>
@@ -6246,7 +6689,7 @@
       </c>
     </row>
     <row r="162" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A162" s="18"/>
+      <c r="A162" s="25"/>
       <c r="B162" s="3" t="s">
         <v>28</v>
       </c>
@@ -6265,7 +6708,7 @@
       </c>
     </row>
     <row r="163" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A163" s="18"/>
+      <c r="A163" s="25"/>
       <c r="B163" s="3" t="s">
         <v>29</v>
       </c>
@@ -6282,7 +6725,7 @@
       <c r="G163" s="3"/>
     </row>
     <row r="164" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A164" s="14" t="s">
+      <c r="A164" s="24" t="s">
         <v>209</v>
       </c>
       <c r="B164" s="1" t="s">
@@ -6304,7 +6747,7 @@
       </c>
     </row>
     <row r="165" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A165" s="14"/>
+      <c r="A165" s="24"/>
       <c r="B165" s="1" t="s">
         <v>28</v>
       </c>
@@ -6323,7 +6766,7 @@
       </c>
     </row>
     <row r="166" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A166" s="14"/>
+      <c r="A166" s="24"/>
       <c r="B166" s="1" t="s">
         <v>29</v>
       </c>
@@ -6340,7 +6783,7 @@
       <c r="G166" s="1"/>
     </row>
     <row r="167" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A167" s="18" t="s">
+      <c r="A167" s="25" t="s">
         <v>209</v>
       </c>
       <c r="B167" s="3" t="s">
@@ -6362,7 +6805,7 @@
       </c>
     </row>
     <row r="168" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A168" s="18"/>
+      <c r="A168" s="25"/>
       <c r="B168" s="3" t="s">
         <v>28</v>
       </c>
@@ -6381,7 +6824,7 @@
       </c>
     </row>
     <row r="169" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A169" s="18"/>
+      <c r="A169" s="25"/>
       <c r="B169" s="3" t="s">
         <v>29</v>
       </c>
@@ -6398,7 +6841,7 @@
       <c r="G169" s="3"/>
     </row>
     <row r="170" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A170" s="14" t="s">
+      <c r="A170" s="24" t="s">
         <v>215</v>
       </c>
       <c r="B170" s="1" t="s">
@@ -6419,7 +6862,7 @@
       </c>
     </row>
     <row r="171" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A171" s="14"/>
+      <c r="A171" s="24"/>
       <c r="B171" s="1" t="s">
         <v>29</v>
       </c>
@@ -6436,7 +6879,7 @@
       <c r="G171" s="1"/>
     </row>
     <row r="172" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A172" s="18" t="s">
+      <c r="A172" s="25" t="s">
         <v>217</v>
       </c>
       <c r="B172" s="3" t="s">
@@ -6457,7 +6900,7 @@
       </c>
     </row>
     <row r="173" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A173" s="18"/>
+      <c r="A173" s="25"/>
       <c r="B173" s="3" t="s">
         <v>29</v>
       </c>
@@ -6474,7 +6917,7 @@
       <c r="G173" s="3"/>
     </row>
     <row r="174" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A174" s="14" t="s">
+      <c r="A174" s="24" t="s">
         <v>244</v>
       </c>
       <c r="B174" s="1" t="s">
@@ -6495,7 +6938,7 @@
       </c>
     </row>
     <row r="175" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A175" s="14"/>
+      <c r="A175" s="24"/>
       <c r="B175" s="1" t="s">
         <v>29</v>
       </c>
@@ -6512,7 +6955,7 @@
       <c r="G175" s="1"/>
     </row>
     <row r="176" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A176" s="18" t="s">
+      <c r="A176" s="25" t="s">
         <v>245</v>
       </c>
       <c r="B176" s="3" t="s">
@@ -6533,7 +6976,7 @@
       </c>
     </row>
     <row r="177" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A177" s="18"/>
+      <c r="A177" s="25"/>
       <c r="B177" s="3" t="s">
         <v>29</v>
       </c>
@@ -6550,7 +6993,7 @@
       <c r="G177" s="3"/>
     </row>
     <row r="178" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A178" s="14" t="s">
+      <c r="A178" s="24" t="s">
         <v>250</v>
       </c>
       <c r="B178" s="1" t="s">
@@ -6571,7 +7014,7 @@
       </c>
     </row>
     <row r="179" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A179" s="14"/>
+      <c r="A179" s="24"/>
       <c r="B179" s="1" t="s">
         <v>29</v>
       </c>
@@ -6588,7 +7031,7 @@
       <c r="G179" s="1"/>
     </row>
     <row r="180" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A180" s="18" t="s">
+      <c r="A180" s="25" t="s">
         <v>251</v>
       </c>
       <c r="B180" s="3" t="s">
@@ -6609,7 +7052,7 @@
       </c>
     </row>
     <row r="181" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A181" s="18"/>
+      <c r="A181" s="25"/>
       <c r="B181" s="3" t="s">
         <v>29</v>
       </c>
@@ -6625,8 +7068,8 @@
       </c>
       <c r="G181" s="3"/>
     </row>
-    <row r="182" spans="1:7" s="34" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="15" t="s">
+    <row r="182" spans="1:7" s="19" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="26" t="s">
         <v>260</v>
       </c>
       <c r="B182" s="6" t="s">
@@ -6647,8 +7090,8 @@
         <v>266</v>
       </c>
     </row>
-    <row r="183" spans="1:7" s="34" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A183" s="16"/>
+    <row r="183" spans="1:7" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A183" s="27"/>
       <c r="B183" s="6" t="s">
         <v>256</v>
       </c>
@@ -6668,7 +7111,7 @@
       </c>
     </row>
     <row r="184" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A184" s="16"/>
+      <c r="A184" s="27"/>
       <c r="B184" s="6" t="s">
         <v>256</v>
       </c>
@@ -6688,7 +7131,7 @@
       </c>
     </row>
     <row r="185" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A185" s="16"/>
+      <c r="A185" s="27"/>
       <c r="B185" s="1" t="s">
         <v>28</v>
       </c>
@@ -6707,7 +7150,7 @@
       </c>
     </row>
     <row r="186" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A186" s="17"/>
+      <c r="A186" s="28"/>
       <c r="B186" s="1" t="s">
         <v>29</v>
       </c>
@@ -6724,7 +7167,7 @@
       <c r="G186" s="1"/>
     </row>
     <row r="187" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A187" s="19" t="s">
+      <c r="A187" s="21" t="s">
         <v>269</v>
       </c>
       <c r="B187" s="3" t="s">
@@ -6746,7 +7189,7 @@
       </c>
     </row>
     <row r="188" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A188" s="20"/>
+      <c r="A188" s="22"/>
       <c r="B188" s="3" t="s">
         <v>256</v>
       </c>
@@ -6766,7 +7209,7 @@
       </c>
     </row>
     <row r="189" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A189" s="20"/>
+      <c r="A189" s="22"/>
       <c r="B189" s="3" t="s">
         <v>256</v>
       </c>
@@ -6786,7 +7229,7 @@
       </c>
     </row>
     <row r="190" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A190" s="20"/>
+      <c r="A190" s="22"/>
       <c r="B190" s="3" t="s">
         <v>28</v>
       </c>
@@ -6805,7 +7248,7 @@
       </c>
     </row>
     <row r="191" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A191" s="21"/>
+      <c r="A191" s="23"/>
       <c r="B191" s="3" t="s">
         <v>29</v>
       </c>
@@ -6822,7 +7265,7 @@
       <c r="G191" s="3"/>
     </row>
     <row r="192" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A192" s="15" t="s">
+      <c r="A192" s="26" t="s">
         <v>270</v>
       </c>
       <c r="B192" s="6" t="s">
@@ -6844,7 +7287,7 @@
       </c>
     </row>
     <row r="193" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A193" s="16"/>
+      <c r="A193" s="27"/>
       <c r="B193" s="6" t="s">
         <v>256</v>
       </c>
@@ -6864,7 +7307,7 @@
       </c>
     </row>
     <row r="194" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A194" s="16"/>
+      <c r="A194" s="27"/>
       <c r="B194" s="6" t="s">
         <v>256</v>
       </c>
@@ -6884,7 +7327,7 @@
       </c>
     </row>
     <row r="195" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A195" s="16"/>
+      <c r="A195" s="27"/>
       <c r="B195" s="1" t="s">
         <v>28</v>
       </c>
@@ -6903,7 +7346,7 @@
       </c>
     </row>
     <row r="196" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A196" s="17"/>
+      <c r="A196" s="28"/>
       <c r="B196" s="1" t="s">
         <v>29</v>
       </c>
@@ -6920,7 +7363,7 @@
       <c r="G196" s="1"/>
     </row>
     <row r="197" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A197" s="19" t="s">
+      <c r="A197" s="21" t="s">
         <v>271</v>
       </c>
       <c r="B197" s="3" t="s">
@@ -6942,7 +7385,7 @@
       </c>
     </row>
     <row r="198" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A198" s="20"/>
+      <c r="A198" s="22"/>
       <c r="B198" s="3" t="s">
         <v>256</v>
       </c>
@@ -6962,7 +7405,7 @@
       </c>
     </row>
     <row r="199" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A199" s="20"/>
+      <c r="A199" s="22"/>
       <c r="B199" s="3" t="s">
         <v>256</v>
       </c>
@@ -6982,7 +7425,7 @@
       </c>
     </row>
     <row r="200" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A200" s="20"/>
+      <c r="A200" s="22"/>
       <c r="B200" s="3" t="s">
         <v>28</v>
       </c>
@@ -7001,7 +7444,7 @@
       </c>
     </row>
     <row r="201" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A201" s="21"/>
+      <c r="A201" s="23"/>
       <c r="B201" s="3" t="s">
         <v>29</v>
       </c>
@@ -7017,19 +7460,813 @@
       </c>
       <c r="G201" s="3"/>
     </row>
+    <row r="202" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A202" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="B202" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C202" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="D202" s="16"/>
+      <c r="E202" s="14" t="str">
+        <f t="shared" ref="E202:E204" si="26">_xlfn.CONCAT(B202, "_", C202)</f>
+        <v>HPA_GTEx_Expression_Value</v>
+      </c>
+      <c r="F202" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A203" s="27"/>
+      <c r="B203" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C203" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="D203" s="16"/>
+      <c r="E203" s="14" t="str">
+        <f t="shared" si="26"/>
+        <v>HPA_GTEx_Subcellular_Location</v>
+      </c>
+      <c r="F203" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A204" s="27"/>
+      <c r="B204" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C204" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="D204" s="16"/>
+      <c r="E204" s="14" t="str">
+        <f t="shared" si="26"/>
+        <v>HPA_GTEx_Source</v>
+      </c>
+      <c r="F204" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A205" s="27"/>
+      <c r="B205" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="C205" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D205" s="14"/>
+      <c r="E205" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F205" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A206" s="28"/>
+      <c r="B206" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C206" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D206" s="14"/>
+      <c r="E206" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F206" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="G206" s="14"/>
+    </row>
+    <row r="207" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A207" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="B207" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C207" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="D207" s="15"/>
+      <c r="E207" s="15" t="str">
+        <f t="shared" ref="E207:E209" si="27">_xlfn.CONCAT(B207, "_", C207)</f>
+        <v>HPA_GTEx_Expression_Value</v>
+      </c>
+      <c r="F207" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G207" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A208" s="22"/>
+      <c r="B208" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C208" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="D208" s="15"/>
+      <c r="E208" s="15" t="str">
+        <f t="shared" si="27"/>
+        <v>HPA_GTEx_Subcellular_Location</v>
+      </c>
+      <c r="F208" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G208" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A209" s="22"/>
+      <c r="B209" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C209" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="D209" s="15"/>
+      <c r="E209" s="15" t="str">
+        <f t="shared" si="27"/>
+        <v>HPA_GTEx_Source</v>
+      </c>
+      <c r="F209" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G209" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A210" s="22"/>
+      <c r="B210" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="C210" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D210" s="15"/>
+      <c r="E210" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F210" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="G210" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A211" s="23"/>
+      <c r="B211" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C211" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D211" s="15"/>
+      <c r="E211" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F211" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="G211" s="15"/>
+    </row>
+    <row r="212" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A212" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="B212" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C212" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="D212" s="16"/>
+      <c r="E212" s="14" t="str">
+        <f t="shared" ref="E212:E214" si="28">_xlfn.CONCAT(B212, "_", C212)</f>
+        <v>HPA_GTEx_Expression_Value</v>
+      </c>
+      <c r="F212" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A213" s="27"/>
+      <c r="B213" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C213" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="D213" s="16"/>
+      <c r="E213" s="14" t="str">
+        <f t="shared" si="28"/>
+        <v>HPA_GTEx_Subcellular_Location</v>
+      </c>
+      <c r="F213" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A214" s="27"/>
+      <c r="B214" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C214" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="D214" s="16"/>
+      <c r="E214" s="14" t="str">
+        <f t="shared" si="28"/>
+        <v>HPA_GTEx_Source</v>
+      </c>
+      <c r="F214" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A215" s="27"/>
+      <c r="B215" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="C215" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D215" s="14"/>
+      <c r="E215" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F215" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A216" s="28"/>
+      <c r="B216" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C216" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D216" s="14"/>
+      <c r="E216" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F216" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="G216" s="14"/>
+    </row>
+    <row r="217" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A217" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="B217" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C217" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="D217" s="15"/>
+      <c r="E217" s="15" t="str">
+        <f t="shared" ref="E217:E219" si="29">_xlfn.CONCAT(B217, "_", C217)</f>
+        <v>HPA_GTEx_Expression_Value</v>
+      </c>
+      <c r="F217" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G217" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A218" s="22"/>
+      <c r="B218" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C218" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="D218" s="15"/>
+      <c r="E218" s="15" t="str">
+        <f t="shared" si="29"/>
+        <v>HPA_GTEx_Subcellular_Location</v>
+      </c>
+      <c r="F218" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G218" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A219" s="22"/>
+      <c r="B219" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C219" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="D219" s="15"/>
+      <c r="E219" s="15" t="str">
+        <f t="shared" si="29"/>
+        <v>HPA_GTEx_Source</v>
+      </c>
+      <c r="F219" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G219" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A220" s="22"/>
+      <c r="B220" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="C220" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D220" s="15"/>
+      <c r="E220" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F220" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="G220" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A221" s="23"/>
+      <c r="B221" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C221" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D221" s="15"/>
+      <c r="E221" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F221" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="G221" s="15"/>
+    </row>
+    <row r="222" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A222" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="B222" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C222" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="D222" s="16"/>
+      <c r="E222" s="14" t="str">
+        <f t="shared" ref="E222:E224" si="30">_xlfn.CONCAT(B222, "_", C222)</f>
+        <v>HPA_GTEx_Expression_Value</v>
+      </c>
+      <c r="F222" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A223" s="27"/>
+      <c r="B223" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C223" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="D223" s="16"/>
+      <c r="E223" s="14" t="str">
+        <f t="shared" si="30"/>
+        <v>HPA_GTEx_Subcellular_Location</v>
+      </c>
+      <c r="F223" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A224" s="27"/>
+      <c r="B224" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C224" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="D224" s="16"/>
+      <c r="E224" s="14" t="str">
+        <f t="shared" si="30"/>
+        <v>HPA_GTEx_Source</v>
+      </c>
+      <c r="F224" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A225" s="27"/>
+      <c r="B225" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="C225" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D225" s="14"/>
+      <c r="E225" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F225" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A226" s="28"/>
+      <c r="B226" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C226" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D226" s="14"/>
+      <c r="E226" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F226" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="G226" s="14"/>
+    </row>
+    <row r="227" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A227" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="B227" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C227" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="D227" s="15"/>
+      <c r="E227" s="15" t="str">
+        <f t="shared" ref="E227:E229" si="31">_xlfn.CONCAT(B227, "_", C227)</f>
+        <v>HPA_GTEx_Expression_Value</v>
+      </c>
+      <c r="F227" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G227" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A228" s="22"/>
+      <c r="B228" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C228" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="D228" s="15"/>
+      <c r="E228" s="15" t="str">
+        <f t="shared" si="31"/>
+        <v>HPA_GTEx_Subcellular_Location</v>
+      </c>
+      <c r="F228" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G228" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A229" s="22"/>
+      <c r="B229" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C229" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="D229" s="15"/>
+      <c r="E229" s="15" t="str">
+        <f t="shared" si="31"/>
+        <v>HPA_GTEx_Source</v>
+      </c>
+      <c r="F229" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G229" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A230" s="22"/>
+      <c r="B230" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="C230" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D230" s="15"/>
+      <c r="E230" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F230" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="G230" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A231" s="23"/>
+      <c r="B231" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C231" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D231" s="15"/>
+      <c r="E231" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F231" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="G231" s="15"/>
+    </row>
+    <row r="232" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A232" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="B232" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C232" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="D232" s="16"/>
+      <c r="E232" s="14" t="str">
+        <f t="shared" ref="E232:E234" si="32">_xlfn.CONCAT(B232, "_", C232)</f>
+        <v>HPA_GTEx_Expression_Value</v>
+      </c>
+      <c r="F232" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A233" s="27"/>
+      <c r="B233" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C233" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="D233" s="16"/>
+      <c r="E233" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v>HPA_GTEx_Subcellular_Location</v>
+      </c>
+      <c r="F233" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A234" s="27"/>
+      <c r="B234" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C234" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="D234" s="16"/>
+      <c r="E234" s="14" t="str">
+        <f t="shared" si="32"/>
+        <v>HPA_GTEx_Source</v>
+      </c>
+      <c r="F234" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A235" s="27"/>
+      <c r="B235" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="C235" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D235" s="14"/>
+      <c r="E235" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F235" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A236" s="28"/>
+      <c r="B236" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C236" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D236" s="14"/>
+      <c r="E236" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F236" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="G236" s="14"/>
+    </row>
+    <row r="237" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A237" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="B237" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C237" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="D237" s="15"/>
+      <c r="E237" s="15" t="str">
+        <f t="shared" ref="E237:E239" si="33">_xlfn.CONCAT(B237, "_", C237)</f>
+        <v>HPA_GTEx_Expression_Value</v>
+      </c>
+      <c r="F237" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G237" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A238" s="22"/>
+      <c r="B238" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C238" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="D238" s="15"/>
+      <c r="E238" s="15" t="str">
+        <f t="shared" si="33"/>
+        <v>HPA_GTEx_Subcellular_Location</v>
+      </c>
+      <c r="F238" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G238" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A239" s="22"/>
+      <c r="B239" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C239" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="D239" s="15"/>
+      <c r="E239" s="15" t="str">
+        <f t="shared" si="33"/>
+        <v>HPA_GTEx_Source</v>
+      </c>
+      <c r="F239" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G239" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A240" s="22"/>
+      <c r="B240" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="C240" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D240" s="15"/>
+      <c r="E240" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F240" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="G240" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A241" s="23"/>
+      <c r="B241" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C241" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D241" s="15"/>
+      <c r="E241" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F241" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="G241" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="A197:A201"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="A182:A186"/>
-    <mergeCell ref="A187:A191"/>
-    <mergeCell ref="A192:A196"/>
-    <mergeCell ref="A164:A166"/>
-    <mergeCell ref="A167:A169"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="A174:A175"/>
+  <mergeCells count="42">
+    <mergeCell ref="A227:A231"/>
+    <mergeCell ref="A232:A236"/>
+    <mergeCell ref="A237:A241"/>
+    <mergeCell ref="A202:A206"/>
+    <mergeCell ref="A207:A211"/>
+    <mergeCell ref="A212:A216"/>
+    <mergeCell ref="A217:A221"/>
+    <mergeCell ref="A222:A226"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="A106:A114"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="A50:A55"/>
     <mergeCell ref="A176:A177"/>
     <mergeCell ref="A88:A96"/>
     <mergeCell ref="A70:A78"/>
@@ -7040,19 +8277,17 @@
     <mergeCell ref="A79:A87"/>
     <mergeCell ref="A97:A105"/>
     <mergeCell ref="A115:A123"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="A106:A114"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A56:A61"/>
-    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A164:A166"/>
+    <mergeCell ref="A167:A169"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="A197:A201"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="A182:A186"/>
+    <mergeCell ref="A187:A191"/>
+    <mergeCell ref="A192:A196"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7060,11 +8295,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780CD01F-0819-CA44-B0D6-41E21FE9EADE}">
-  <dimension ref="A1:H215"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G67" sqref="G67:G69"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E123" sqref="E123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -7107,13 +8342,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="24" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -7131,9 +8366,9 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
@@ -7149,9 +8384,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
@@ -7167,9 +8402,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
@@ -7185,9 +8420,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
@@ -7203,9 +8438,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="112" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
@@ -7221,9 +8456,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="154" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
@@ -7231,7 +8466,7 @@
         <v>26</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="24" t="s">
         <v>36</v>
       </c>
       <c r="H8" s="7" t="s">
@@ -7239,9 +8474,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="154" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
@@ -7249,19 +8484,19 @@
         <v>63</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="14"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="25" t="s">
         <v>97</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -7279,9 +8514,9 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="3" t="s">
         <v>19</v>
       </c>
@@ -7297,9 +8532,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="3" t="s">
         <v>19</v>
       </c>
@@ -7315,9 +8550,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="3" t="s">
         <v>24</v>
       </c>
@@ -7333,9 +8568,9 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="3" t="s">
         <v>24</v>
       </c>
@@ -7351,9 +8586,9 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="3" t="s">
         <v>25</v>
       </c>
@@ -7361,7 +8596,7 @@
         <v>64</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="25" t="s">
         <v>37</v>
       </c>
       <c r="H15" s="4" t="s">
@@ -7369,9 +8604,9 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="3" t="s">
         <v>165</v>
       </c>
@@ -7379,15 +8614,15 @@
         <v>164</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="18"/>
+      <c r="G16" s="25"/>
       <c r="H16" s="4" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="3" t="s">
         <v>171</v>
       </c>
@@ -7395,15 +8630,15 @@
         <v>173</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="18"/>
+      <c r="G17" s="25"/>
       <c r="H17" s="4" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -7411,7 +8646,7 @@
         <v>65</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="25" t="s">
         <v>36</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -7419,9 +8654,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="3" t="s">
         <v>25</v>
       </c>
@@ -7429,15 +8664,15 @@
         <v>66</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="18"/>
+      <c r="G19" s="25"/>
       <c r="H19" s="4" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A20" s="27"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="3" t="s">
         <v>165</v>
       </c>
@@ -7445,15 +8680,15 @@
         <v>162</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="18"/>
+      <c r="G20" s="25"/>
       <c r="H20" s="4" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A21" s="27"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="3" t="s">
         <v>171</v>
       </c>
@@ -7461,15 +8696,15 @@
         <v>174</v>
       </c>
       <c r="F21" s="3"/>
-      <c r="G21" s="18"/>
+      <c r="G21" s="25"/>
       <c r="H21" s="4" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="3" t="s">
         <v>170</v>
       </c>
@@ -7485,9 +8720,9 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="3" t="s">
         <v>170</v>
       </c>
@@ -7505,13 +8740,13 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="29" t="s">
         <v>96</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -7529,9 +8764,9 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A25" s="31"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="6" t="s">
         <v>19</v>
       </c>
@@ -7547,9 +8782,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A26" s="31"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="6" t="s">
         <v>19</v>
       </c>
@@ -7565,9 +8800,9 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A27" s="31"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="6" t="s">
         <v>24</v>
       </c>
@@ -7583,9 +8818,9 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A28" s="31"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="6" t="s">
         <v>24</v>
       </c>
@@ -7601,9 +8836,9 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="6" t="s">
         <v>25</v>
       </c>
@@ -7611,7 +8846,7 @@
         <v>64</v>
       </c>
       <c r="F29" s="6"/>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="29" t="s">
         <v>37</v>
       </c>
       <c r="H29" s="7" t="s">
@@ -7619,117 +8854,117 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A30" s="31"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="32" t="s">
+      <c r="A30" s="41"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="E30" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="F30" s="32"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="33" t="s">
+      <c r="F30" s="17"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="18" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A31" s="31"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="32" t="s">
+      <c r="A31" s="41"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="32" t="s">
+      <c r="E31" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="32"/>
-      <c r="G31" s="37" t="s">
+      <c r="F31" s="17"/>
+      <c r="G31" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="H31" s="33" t="s">
+      <c r="H31" s="18" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A32" s="31"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="32" t="s">
+      <c r="A32" s="41"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="E32" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F32" s="32"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="33" t="s">
+      <c r="F32" s="17"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="18" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A33" s="31"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="32" t="s">
+      <c r="A33" s="41"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="E33" s="32" t="s">
+      <c r="E33" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="F33" s="32"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="33" t="s">
+      <c r="F33" s="17"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="18" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A34" s="31"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="32" t="s">
+      <c r="A34" s="41"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="E34" s="32" t="s">
+      <c r="E34" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32" t="s">
+      <c r="F34" s="17"/>
+      <c r="G34" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="H34" s="33" t="s">
+      <c r="H34" s="18" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A35" s="31"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="32" t="s">
+      <c r="A35" s="41"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="E35" s="32" t="s">
+      <c r="E35" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="F35" s="32" t="s">
+      <c r="F35" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="G35" s="32" t="s">
+      <c r="G35" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="H35" s="33" t="s">
+      <c r="H35" s="18" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="39" t="s">
         <v>95</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -7747,9 +8982,9 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
       <c r="D37" s="3" t="s">
         <v>19</v>
       </c>
@@ -7765,9 +9000,9 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
       <c r="D38" s="3" t="s">
         <v>19</v>
       </c>
@@ -7783,9 +9018,9 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
       <c r="D39" s="3" t="s">
         <v>24</v>
       </c>
@@ -7801,9 +9036,9 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
       <c r="D40" s="3" t="s">
         <v>24</v>
       </c>
@@ -7819,9 +9054,9 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
       <c r="D41" s="3" t="s">
         <v>25</v>
       </c>
@@ -7837,9 +9072,9 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
       <c r="D42" s="3" t="s">
         <v>25</v>
       </c>
@@ -7847,7 +9082,7 @@
         <v>73</v>
       </c>
       <c r="F42" s="3"/>
-      <c r="G42" s="18" t="s">
+      <c r="G42" s="25" t="s">
         <v>36</v>
       </c>
       <c r="H42" s="4" t="s">
@@ -7855,9 +9090,9 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
+      <c r="A43" s="39"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
       <c r="D43" s="3" t="s">
         <v>171</v>
       </c>
@@ -7865,15 +9100,15 @@
         <v>172</v>
       </c>
       <c r="F43" s="3"/>
-      <c r="G43" s="18"/>
+      <c r="G43" s="25"/>
       <c r="H43" s="4" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
       <c r="D44" s="3" t="s">
         <v>1</v>
       </c>
@@ -7889,1302 +9124,1498 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="38" t="s">
+      <c r="C45" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="D45" s="32" t="s">
+      <c r="D45" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32" t="s">
+      <c r="E45" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H45" s="33" t="s">
+      <c r="H45" s="18" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A46" s="38"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="32" t="s">
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32" t="s">
+      <c r="E46" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H46" s="33" t="s">
+      <c r="H46" s="18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A47" s="38"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="32" t="s">
+      <c r="A47" s="42"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E47" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32" t="s">
+      <c r="E47" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H47" s="33" t="s">
+      <c r="H47" s="18" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="32" t="s">
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E48" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32" t="s">
+      <c r="E48" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H48" s="33" t="s">
+      <c r="H48" s="18" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A49" s="38"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="32" t="s">
+      <c r="A49" s="42"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E49" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32" t="s">
+      <c r="E49" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H49" s="33" t="s">
+      <c r="H49" s="18" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A50" s="38"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="32" t="s">
+      <c r="A50" s="42"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E50" s="32" t="s">
+      <c r="E50" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32" t="s">
+      <c r="F50" s="17"/>
+      <c r="G50" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H50" s="33" t="s">
+      <c r="H50" s="18" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A51" s="38"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="32" t="s">
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="32" t="s">
+      <c r="E51" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32" t="s">
+      <c r="F51" s="17"/>
+      <c r="G51" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="H51" s="33" t="s">
+      <c r="H51" s="18" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A52" s="38"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="6" t="s">
+    <row r="52" spans="1:8" s="44" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="A52" s="42"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="F52" s="20"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="18" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="44" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="A53" s="42"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="F53" s="20"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="18" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A54" s="42"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E54" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6" t="s">
+      <c r="F54" s="6"/>
+      <c r="G54" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="H52" s="7" t="s">
+      <c r="H54" s="7" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A53" s="27" t="s">
+    <row r="55" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A55" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="27" t="s">
+      <c r="B55" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C55" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A54" s="27"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A55" s="27"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A56" s="39"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
       <c r="D56" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A57" s="27"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
+      <c r="A57" s="39"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
       <c r="D57" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A58" s="27"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A58" s="39"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
       <c r="D58" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A59" s="39"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
       <c r="D59" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>231</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A60" s="27"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
+      <c r="A60" s="39"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
       <c r="D60" s="3" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A61" s="39"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F61" s="3"/>
+      <c r="G61" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="70" x14ac:dyDescent="0.2">
+      <c r="A62" s="39"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="F62" s="15"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="70" x14ac:dyDescent="0.2">
+      <c r="A63" s="39"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="F63" s="15"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A64" s="39"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H60" s="4" t="s">
+      <c r="H64" s="4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A61" s="24" t="s">
+    <row r="65" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A65" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="24" t="s">
+      <c r="B65" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="C61" s="24" t="s">
+      <c r="C65" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="D61" s="32" t="s">
+      <c r="D65" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E61" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32" t="s">
+      <c r="E65" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H61" s="33" t="s">
+      <c r="H65" s="18" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A62" s="25"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="32" t="s">
+    <row r="66" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A66" s="37"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E62" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32" t="s">
+      <c r="E66" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H62" s="33" t="s">
+      <c r="H66" s="18" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A63" s="25"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="32" t="s">
+    <row r="67" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A67" s="37"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32" t="s">
+      <c r="E67" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H63" s="33" t="s">
+      <c r="H67" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A64" s="25"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="32" t="s">
+    <row r="68" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A68" s="37"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E64" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32" t="s">
+      <c r="E68" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H64" s="33" t="s">
+      <c r="H68" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A65" s="25"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="32" t="s">
+    <row r="69" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A69" s="37"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E65" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F65" s="32"/>
-      <c r="G65" s="32" t="s">
+      <c r="E69" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H65" s="33" t="s">
+      <c r="H69" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A66" s="25"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="32" t="s">
+    <row r="70" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A70" s="37"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E66" s="32" t="s">
+      <c r="E70" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="F66" s="32"/>
-      <c r="G66" s="32" t="s">
+      <c r="F70" s="17"/>
+      <c r="G70" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H66" s="33" t="s">
+      <c r="H70" s="18" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A67" s="25"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="32" t="s">
+    <row r="71" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A71" s="37"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="32" t="s">
+      <c r="E71" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="F67" s="32"/>
-      <c r="G67" s="35" t="s">
+      <c r="F71" s="17"/>
+      <c r="G71" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="H67" s="33" t="s">
+      <c r="H71" s="18" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A68" s="25"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="32" t="s">
+    <row r="72" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A72" s="37"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E68" s="32" t="s">
+      <c r="E72" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="F68" s="32"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="33" t="s">
+      <c r="F72" s="17"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="18" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="84" x14ac:dyDescent="0.2">
-      <c r="A69" s="25"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="32" t="s">
+    <row r="73" spans="1:8" ht="84" x14ac:dyDescent="0.2">
+      <c r="A73" s="37"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="E69" s="32" t="s">
+      <c r="E73" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="F69" s="32"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="7" t="s">
+      <c r="F73" s="17"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="7" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A70" s="25"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="6" t="s">
+    <row r="74" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A74" s="37"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="37"/>
+      <c r="D74" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E74" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6" t="s">
+      <c r="F74" s="6"/>
+      <c r="G74" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="H70" s="7" t="s">
+      <c r="H74" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A71" s="26"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="6" t="s">
+    <row r="75" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A75" s="38"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E75" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6" t="s">
+      <c r="F75" s="6"/>
+      <c r="G75" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="H71" s="7" t="s">
+      <c r="H75" s="7" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A72" s="28" t="s">
+    <row r="76" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A76" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B72" s="28" t="s">
+      <c r="B76" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="C72" s="28" t="s">
+      <c r="C76" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D76" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A73" s="29"/>
-      <c r="B73" s="29"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A74" s="29"/>
-      <c r="B74" s="29"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A75" s="29"/>
-      <c r="B75" s="29"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A76" s="29"/>
-      <c r="B76" s="29"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A77" s="29"/>
-      <c r="B77" s="29"/>
-      <c r="C77" s="29"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A77" s="34"/>
+      <c r="B77" s="34"/>
+      <c r="C77" s="34"/>
       <c r="D77" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A78" s="29"/>
-      <c r="B78" s="29"/>
-      <c r="C78" s="29"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A78" s="34"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="34"/>
       <c r="D78" s="3" t="s">
-        <v>278</v>
+        <v>19</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>279</v>
+        <v>18</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A79" s="29"/>
-      <c r="B79" s="29"/>
-      <c r="C79" s="29"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A79" s="34"/>
+      <c r="B79" s="34"/>
+      <c r="C79" s="34"/>
       <c r="D79" s="3" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A80" s="29"/>
-      <c r="B80" s="29"/>
-      <c r="C80" s="29"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A80" s="34"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="34"/>
       <c r="D80" s="3" t="s">
-        <v>256</v>
+        <v>24</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>292</v>
+        <v>18</v>
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3" t="s">
-        <v>289</v>
+        <v>23</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>293</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A81" s="30"/>
-      <c r="B81" s="30"/>
-      <c r="C81" s="30"/>
+      <c r="A81" s="34"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="34"/>
       <c r="D81" s="3" t="s">
-        <v>256</v>
+        <v>25</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>283</v>
+        <v>116</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A82" s="34"/>
+      <c r="B82" s="34"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A83" s="34"/>
+      <c r="B83" s="34"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A84" s="34"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A85" s="35"/>
+      <c r="B85" s="35"/>
+      <c r="C85" s="35"/>
+      <c r="D85" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="H81" s="4" t="s">
+      <c r="H85" s="4" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A82" s="31" t="s">
+    <row r="86" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A86" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B82" s="31" t="s">
+      <c r="B86" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="C82" s="31" t="s">
+      <c r="C86" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D86" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A83" s="31"/>
-      <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A84" s="31"/>
-      <c r="B84" s="31"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A85" s="31"/>
-      <c r="B85" s="31"/>
-      <c r="C85" s="31"/>
-      <c r="D85" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A86" s="31"/>
-      <c r="B86" s="31"/>
-      <c r="C86" s="31"/>
-      <c r="D86" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F86" s="6"/>
       <c r="G86" s="6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A87" s="31"/>
-      <c r="B87" s="31"/>
-      <c r="C87" s="31"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A87" s="41"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="41"/>
       <c r="D87" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="F87" s="6"/>
       <c r="G87" s="6" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A88" s="31"/>
-      <c r="B88" s="31"/>
-      <c r="C88" s="31"/>
-      <c r="D88" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="E88" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="F88" s="32"/>
-      <c r="G88" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="H88" s="33" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A89" s="31"/>
-      <c r="B89" s="31"/>
-      <c r="C89" s="31"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A88" s="41"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A89" s="41"/>
+      <c r="B89" s="41"/>
+      <c r="C89" s="41"/>
       <c r="D89" s="6" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="F89" s="6"/>
       <c r="G89" s="6" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A90" s="31"/>
-      <c r="B90" s="31"/>
-      <c r="C90" s="31"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A90" s="41"/>
+      <c r="B90" s="41"/>
+      <c r="C90" s="41"/>
       <c r="D90" s="6" t="s">
-        <v>256</v>
+        <v>24</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>288</v>
+        <v>18</v>
       </c>
       <c r="F90" s="6"/>
       <c r="G90" s="6" t="s">
-        <v>289</v>
+        <v>23</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>291</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A91" s="31"/>
-      <c r="B91" s="31"/>
-      <c r="C91" s="31"/>
+      <c r="A91" s="41"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="41"/>
       <c r="D91" s="6" t="s">
-        <v>256</v>
+        <v>25</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>283</v>
+        <v>116</v>
       </c>
       <c r="F91" s="6"/>
       <c r="G91" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A92" s="41"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="41"/>
+      <c r="D92" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="E92" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H92" s="18" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A93" s="41"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="41"/>
+      <c r="D93" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A94" s="41"/>
+      <c r="B94" s="41"/>
+      <c r="C94" s="41"/>
+      <c r="D94" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A95" s="41"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="41"/>
+      <c r="D95" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="H91" s="7" t="s">
+      <c r="H95" s="7" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A92" s="28" t="s">
+    <row r="96" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A96" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B92" s="28" t="s">
+      <c r="B96" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="C92" s="28" t="s">
+      <c r="C96" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D96" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H92" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A93" s="29"/>
-      <c r="B93" s="29"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A94" s="29"/>
-      <c r="B94" s="29"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A95" s="29"/>
-      <c r="B95" s="29"/>
-      <c r="C95" s="29"/>
-      <c r="D95" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A96" s="29"/>
-      <c r="B96" s="29"/>
-      <c r="C96" s="29"/>
-      <c r="D96" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A97" s="29"/>
-      <c r="B97" s="29"/>
-      <c r="C97" s="29"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A97" s="34"/>
+      <c r="B97" s="34"/>
+      <c r="C97" s="34"/>
       <c r="D97" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A98" s="29"/>
-      <c r="B98" s="29"/>
-      <c r="C98" s="29"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A98" s="34"/>
+      <c r="B98" s="34"/>
+      <c r="C98" s="34"/>
       <c r="D98" s="3" t="s">
-        <v>278</v>
+        <v>19</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>279</v>
+        <v>18</v>
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A99" s="29"/>
-      <c r="B99" s="29"/>
-      <c r="C99" s="29"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A99" s="34"/>
+      <c r="B99" s="34"/>
+      <c r="C99" s="34"/>
       <c r="D99" s="3" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A100" s="29"/>
-      <c r="B100" s="29"/>
-      <c r="C100" s="29"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A100" s="34"/>
+      <c r="B100" s="34"/>
+      <c r="C100" s="34"/>
       <c r="D100" s="3" t="s">
-        <v>256</v>
+        <v>24</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>288</v>
+        <v>18</v>
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3" t="s">
-        <v>289</v>
+        <v>23</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>290</v>
+        <v>42</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A101" s="30"/>
-      <c r="B101" s="30"/>
-      <c r="C101" s="30"/>
+      <c r="A101" s="34"/>
+      <c r="B101" s="34"/>
+      <c r="C101" s="34"/>
       <c r="D101" s="3" t="s">
-        <v>256</v>
+        <v>25</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>283</v>
+        <v>116</v>
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A102" s="34"/>
+      <c r="B102" s="34"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A103" s="34"/>
+      <c r="B103" s="34"/>
+      <c r="C103" s="34"/>
+      <c r="D103" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A104" s="34"/>
+      <c r="B104" s="34"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A105" s="35"/>
+      <c r="B105" s="35"/>
+      <c r="C105" s="35"/>
+      <c r="D105" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="H101" s="4" t="s">
+      <c r="H105" s="4" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" s="5"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="13"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="5"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="13"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="5"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="13"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="5"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="13"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
-      <c r="H106" s="13"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="5"/>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="13"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="13"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
-      <c r="H109" s="13"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5"/>
-      <c r="H110" s="13"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="5"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="5"/>
-      <c r="H111" s="13"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="5"/>
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
-      <c r="H112" s="13"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="5"/>
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="13"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="5"/>
-      <c r="B114" s="5"/>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="5"/>
-      <c r="H114" s="13"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="5"/>
-      <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="5"/>
-      <c r="H115" s="13"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="5"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="5"/>
-      <c r="H116" s="13"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="5"/>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
-      <c r="H117" s="13"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="5"/>
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
-      <c r="G118" s="5"/>
-      <c r="H118" s="13"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="5"/>
-      <c r="B119" s="5"/>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
-      <c r="H119" s="13"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="5"/>
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
-      <c r="G120" s="5"/>
-      <c r="H120" s="13"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="5"/>
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
-      <c r="G121" s="5"/>
-      <c r="H121" s="13"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="5"/>
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="5"/>
-      <c r="H122" s="13"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="5"/>
-      <c r="B123" s="5"/>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
-      <c r="G123" s="5"/>
-      <c r="H123" s="13"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="5"/>
-      <c r="B124" s="5"/>
-      <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="5"/>
-      <c r="H124" s="13"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" s="5"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="5"/>
-      <c r="H125" s="13"/>
+    <row r="106" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A106" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B106" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="C106" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="D106" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F106" s="16"/>
+      <c r="G106" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A107" s="46"/>
+      <c r="B107" s="46"/>
+      <c r="C107" s="46"/>
+      <c r="D107" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E107" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A108" s="46"/>
+      <c r="B108" s="46"/>
+      <c r="C108" s="46"/>
+      <c r="D108" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F108" s="16"/>
+      <c r="G108" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A109" s="46"/>
+      <c r="B109" s="46"/>
+      <c r="C109" s="46"/>
+      <c r="D109" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F109" s="16"/>
+      <c r="G109" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A110" s="46"/>
+      <c r="B110" s="46"/>
+      <c r="C110" s="46"/>
+      <c r="D110" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F110" s="16"/>
+      <c r="G110" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H110" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="98" x14ac:dyDescent="0.2">
+      <c r="A111" s="46"/>
+      <c r="B111" s="46"/>
+      <c r="C111" s="46"/>
+      <c r="D111" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="E111" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="F111" s="16"/>
+      <c r="G111" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A112" s="46"/>
+      <c r="B112" s="46"/>
+      <c r="C112" s="46"/>
+      <c r="D112" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F112" s="20"/>
+      <c r="G112" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H112" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="98" x14ac:dyDescent="0.2">
+      <c r="A113" s="46"/>
+      <c r="B113" s="46"/>
+      <c r="C113" s="46"/>
+      <c r="D113" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="E113" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="F113" s="20"/>
+      <c r="G113" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="98" x14ac:dyDescent="0.2">
+      <c r="A114" s="46"/>
+      <c r="B114" s="46"/>
+      <c r="C114" s="46"/>
+      <c r="D114" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="E114" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="F114" s="16"/>
+      <c r="G114" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="98" x14ac:dyDescent="0.2">
+      <c r="A115" s="47"/>
+      <c r="B115" s="47"/>
+      <c r="C115" s="47"/>
+      <c r="D115" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="E115" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="F115" s="16"/>
+      <c r="G115" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A116" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B116" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="C116" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="D116" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F116" s="15"/>
+      <c r="G116" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A117" s="34"/>
+      <c r="B117" s="34"/>
+      <c r="C117" s="34"/>
+      <c r="D117" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E117" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F117" s="15"/>
+      <c r="G117" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A118" s="34"/>
+      <c r="B118" s="34"/>
+      <c r="C118" s="34"/>
+      <c r="D118" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E118" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F118" s="15"/>
+      <c r="G118" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A119" s="34"/>
+      <c r="B119" s="34"/>
+      <c r="C119" s="34"/>
+      <c r="D119" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E119" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F119" s="15"/>
+      <c r="G119" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A120" s="34"/>
+      <c r="B120" s="34"/>
+      <c r="C120" s="34"/>
+      <c r="D120" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E120" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F120" s="15"/>
+      <c r="G120" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="98" x14ac:dyDescent="0.2">
+      <c r="A121" s="34"/>
+      <c r="B121" s="34"/>
+      <c r="C121" s="34"/>
+      <c r="D121" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="E121" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="F121" s="15"/>
+      <c r="G121" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A122" s="34"/>
+      <c r="B122" s="34"/>
+      <c r="C122" s="34"/>
+      <c r="D122" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E122" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F122" s="15"/>
+      <c r="G122" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="98" x14ac:dyDescent="0.2">
+      <c r="A123" s="34"/>
+      <c r="B123" s="34"/>
+      <c r="C123" s="34"/>
+      <c r="D123" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="E123" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="F123" s="15"/>
+      <c r="G123" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="98" x14ac:dyDescent="0.2">
+      <c r="A124" s="34"/>
+      <c r="B124" s="34"/>
+      <c r="C124" s="34"/>
+      <c r="D124" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="E124" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="98" x14ac:dyDescent="0.2">
+      <c r="A125" s="35"/>
+      <c r="B125" s="35"/>
+      <c r="C125" s="35"/>
+      <c r="D125" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="E125" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
@@ -10086,36 +11517,46 @@
       <c r="G215" s="5"/>
       <c r="H215" s="13"/>
     </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A216" s="5"/>
+      <c r="B216" s="5"/>
+      <c r="C216" s="5"/>
+      <c r="D216" s="5"/>
+      <c r="E216" s="5"/>
+      <c r="F216" s="5"/>
+      <c r="G216" s="5"/>
+      <c r="H216" s="13"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A217" s="5"/>
+      <c r="B217" s="5"/>
+      <c r="C217" s="5"/>
+      <c r="D217" s="5"/>
+      <c r="E217" s="5"/>
+      <c r="F217" s="5"/>
+      <c r="G217" s="5"/>
+      <c r="H217" s="13"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A218" s="5"/>
+      <c r="B218" s="5"/>
+      <c r="C218" s="5"/>
+      <c r="D218" s="5"/>
+      <c r="E218" s="5"/>
+      <c r="F218" s="5"/>
+      <c r="G218" s="5"/>
+      <c r="H218" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="G67:G69"/>
-    <mergeCell ref="C92:C101"/>
-    <mergeCell ref="B92:B101"/>
-    <mergeCell ref="A92:A101"/>
-    <mergeCell ref="C72:C81"/>
-    <mergeCell ref="B72:B81"/>
-    <mergeCell ref="A72:A81"/>
-    <mergeCell ref="C61:C71"/>
-    <mergeCell ref="B61:B71"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="C10:C23"/>
-    <mergeCell ref="B10:B23"/>
-    <mergeCell ref="A10:A23"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="A82:A91"/>
-    <mergeCell ref="B82:B91"/>
-    <mergeCell ref="C82:C91"/>
-    <mergeCell ref="A61:A71"/>
-    <mergeCell ref="A53:A60"/>
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="C53:C60"/>
-    <mergeCell ref="C36:C44"/>
-    <mergeCell ref="B36:B44"/>
-    <mergeCell ref="A36:A44"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="B45:B52"/>
-    <mergeCell ref="C45:C52"/>
+  <mergeCells count="45">
+    <mergeCell ref="A116:A125"/>
+    <mergeCell ref="B116:B125"/>
+    <mergeCell ref="C116:C125"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="C106:C115"/>
+    <mergeCell ref="B106:B115"/>
+    <mergeCell ref="A106:A115"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="G42:G43"/>
     <mergeCell ref="G18:G21"/>
@@ -10125,6 +11566,34 @@
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="B24:B35"/>
     <mergeCell ref="C24:C35"/>
+    <mergeCell ref="A55:A64"/>
+    <mergeCell ref="B55:B64"/>
+    <mergeCell ref="C55:C64"/>
+    <mergeCell ref="C36:C44"/>
+    <mergeCell ref="B36:B44"/>
+    <mergeCell ref="A36:A44"/>
+    <mergeCell ref="A45:A54"/>
+    <mergeCell ref="B45:B54"/>
+    <mergeCell ref="C45:C54"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="C10:C23"/>
+    <mergeCell ref="B10:B23"/>
+    <mergeCell ref="A10:A23"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G71:G73"/>
+    <mergeCell ref="C96:C105"/>
+    <mergeCell ref="B96:B105"/>
+    <mergeCell ref="A96:A105"/>
+    <mergeCell ref="C76:C85"/>
+    <mergeCell ref="B76:B85"/>
+    <mergeCell ref="A76:A85"/>
+    <mergeCell ref="C65:C75"/>
+    <mergeCell ref="B65:B75"/>
+    <mergeCell ref="A86:A95"/>
+    <mergeCell ref="B86:B95"/>
+    <mergeCell ref="C86:C95"/>
+    <mergeCell ref="A65:A75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/pheknowlator_source_metadata.xlsx
+++ b/resources/pheknowlator_source_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiffanycallahan/Dropbox/GraduateSchool/PhD/LabWork/PheKnowLator/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E957BF-2077-E644-A2C1-67F9CE888C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF920056-DFBF-7042-9324-C816B27606DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13380" yWindow="460" windowWidth="37820" windowHeight="23880" xr2:uid="{82CFCCA6-69D0-6D4F-8FD9-9511C5B37B8B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="361">
   <si>
     <t>edge_type</t>
   </si>
@@ -2855,6 +2855,148 @@
   </si>
   <si>
     <t>cell-rna</t>
+  </si>
+  <si>
+    <t>catalyst</t>
+  </si>
+  <si>
+    <t>Uniprot</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Keyword provided by a user in the resource_info.txt, edge_source_list.txt, ontology_source_list.txt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">The Default value is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Catalyst</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Value determined by NodeNormalization. When no match is found, use nearest parent's mapped concept. If no map can be found to a parent concept use the BioLink concept use the default value.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> The Default value is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>biolink:SmallMolecule</t>
+    </r>
+  </si>
+  <si>
+    <t>OBO Ontology
+Uniprot</t>
+  </si>
+  <si>
+    <t>Uniprot:Uniprot_ID</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by Uniprot
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Uniprot Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+protein-catalyst:column 3
+protein-cofactor:column 3</t>
+    </r>
+  </si>
+  <si>
+    <t>Derived from ontology and pulled from data provided by Uniprot
+Uniprot Data Information
+protein-catalyst:column 4
+protein-cofactor:column 4</t>
+  </si>
+  <si>
+    <t>Uniprot:Uniprot_Entry_Name</t>
+  </si>
+  <si>
+    <t>protein-catalyst</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Value derived from Uniprot (column:2)</t>
+  </si>
+  <si>
+    <t>catalyst-protein</t>
+  </si>
+  <si>
+    <t>protein-cofactor</t>
+  </si>
+  <si>
+    <t>cofactor-protein</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Keyword provided by a user in the resource_info.txt, edge_source_list.txt, ontology_source_list.txt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">The Default value is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cofactor</t>
+    </r>
+  </si>
+  <si>
+    <t>cofactor</t>
   </si>
 </sst>
 </file>
@@ -3450,11 +3592,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC7A73D-1C32-0943-8AF1-D604CF68867B}">
-  <dimension ref="A1:G241"/>
+  <dimension ref="A1:G253"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F233" sqref="F233"/>
+      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C263" sqref="C263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -8244,11 +8386,247 @@
       </c>
       <c r="G241" s="15"/>
     </row>
+    <row r="242" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A242" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="B242" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="C242" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="D242" s="16"/>
+      <c r="E242" s="14" t="str">
+        <f t="shared" ref="E242" si="34">_xlfn.CONCAT(B242, "_", C242)</f>
+        <v>Uniprot_Status</v>
+      </c>
+      <c r="F242" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G242" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A243" s="27"/>
+      <c r="B243" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="C243" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D243" s="14"/>
+      <c r="E243" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F243" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A244" s="28"/>
+      <c r="B244" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C244" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D244" s="14"/>
+      <c r="E244" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F244" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="G244" s="14"/>
+    </row>
+    <row r="245" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A245" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="B245" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="C245" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="D245" s="15"/>
+      <c r="E245" s="15" t="str">
+        <f t="shared" ref="E245" si="35">_xlfn.CONCAT(B245, "_", C245)</f>
+        <v>Uniprot_Status</v>
+      </c>
+      <c r="F245" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G245" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A246" s="22"/>
+      <c r="B246" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="C246" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D246" s="15"/>
+      <c r="E246" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F246" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G246" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A247" s="23"/>
+      <c r="B247" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C247" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D247" s="15"/>
+      <c r="E247" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F247" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="G247" s="15"/>
+    </row>
+    <row r="248" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A248" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="B248" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="C248" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="D248" s="16"/>
+      <c r="E248" s="14" t="str">
+        <f t="shared" ref="E248" si="36">_xlfn.CONCAT(B248, "_", C248)</f>
+        <v>Uniprot_Status</v>
+      </c>
+      <c r="F248" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G248" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A249" s="27"/>
+      <c r="B249" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="C249" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D249" s="14"/>
+      <c r="E249" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F249" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G249" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A250" s="28"/>
+      <c r="B250" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C250" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D250" s="14"/>
+      <c r="E250" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F250" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="G250" s="14"/>
+    </row>
+    <row r="251" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A251" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="B251" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="C251" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="D251" s="15"/>
+      <c r="E251" s="15" t="str">
+        <f t="shared" ref="E251" si="37">_xlfn.CONCAT(B251, "_", C251)</f>
+        <v>Uniprot_Status</v>
+      </c>
+      <c r="F251" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G251" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A252" s="22"/>
+      <c r="B252" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="C252" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D252" s="15"/>
+      <c r="E252" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F252" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G252" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A253" s="23"/>
+      <c r="B253" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C253" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D253" s="15"/>
+      <c r="E253" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F253" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="G253" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="46">
+    <mergeCell ref="A248:A250"/>
+    <mergeCell ref="A251:A253"/>
     <mergeCell ref="A227:A231"/>
     <mergeCell ref="A232:A236"/>
     <mergeCell ref="A237:A241"/>
+    <mergeCell ref="A242:A244"/>
+    <mergeCell ref="A245:A247"/>
     <mergeCell ref="A202:A206"/>
     <mergeCell ref="A207:A211"/>
     <mergeCell ref="A212:A216"/>
@@ -8295,11 +8673,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780CD01F-0819-CA44-B0D6-41E21FE9EADE}">
-  <dimension ref="A1:H218"/>
+  <dimension ref="A1:H216"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E123" sqref="E123"/>
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -9464,105 +9842,101 @@
         <v>298</v>
       </c>
       <c r="F63" s="15"/>
-      <c r="G63" s="23"/>
+      <c r="G63" s="22"/>
       <c r="H63" s="4" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="70" x14ac:dyDescent="0.2">
       <c r="A64" s="39"/>
       <c r="B64" s="39"/>
       <c r="C64" s="39"/>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="F64" s="15"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="70" x14ac:dyDescent="0.2">
+      <c r="A65" s="39"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="F65" s="15"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A66" s="39"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E66" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3" t="s">
+      <c r="F66" s="3"/>
+      <c r="G66" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H64" s="4" t="s">
+      <c r="H66" s="4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A65" s="36" t="s">
+    <row r="67" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A67" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B65" s="36" t="s">
+      <c r="B67" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="C65" s="36" t="s">
+      <c r="C67" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="D65" s="17" t="s">
+      <c r="D67" s="17" t="s">
         <v>14</v>
-      </c>
-      <c r="E65" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H65" s="18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A66" s="37"/>
-      <c r="B66" s="37"/>
-      <c r="C66" s="37"/>
-      <c r="D66" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E66" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H66" s="18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A67" s="37"/>
-      <c r="B67" s="37"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="17" t="s">
-        <v>19</v>
       </c>
       <c r="E67" s="17" t="s">
         <v>18</v>
       </c>
       <c r="F67" s="17"/>
       <c r="G67" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A68" s="37"/>
       <c r="B68" s="37"/>
       <c r="C68" s="37"/>
       <c r="D68" s="17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E68" s="17" t="s">
         <v>18</v>
       </c>
       <c r="F68" s="17"/>
       <c r="G68" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="14" x14ac:dyDescent="0.2">
@@ -9570,53 +9944,53 @@
       <c r="B69" s="37"/>
       <c r="C69" s="37"/>
       <c r="D69" s="17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E69" s="17" t="s">
         <v>18</v>
       </c>
       <c r="F69" s="17"/>
       <c r="G69" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H69" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A70" s="37"/>
       <c r="B70" s="37"/>
       <c r="C70" s="37"/>
       <c r="D70" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>219</v>
+        <v>18</v>
       </c>
       <c r="F70" s="17"/>
       <c r="G70" s="17" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A71" s="37"/>
       <c r="B71" s="37"/>
       <c r="C71" s="37"/>
       <c r="D71" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="F71" s="17"/>
-      <c r="G71" s="30" t="s">
-        <v>36</v>
+      <c r="G71" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="H71" s="18" t="s">
-        <v>229</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -9627,142 +10001,142 @@
         <v>25</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F72" s="17"/>
-      <c r="G72" s="31"/>
+      <c r="G72" s="17" t="s">
+        <v>37</v>
+      </c>
       <c r="H72" s="18" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="84" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A73" s="37"/>
       <c r="B73" s="37"/>
       <c r="C73" s="37"/>
       <c r="D73" s="17" t="s">
-        <v>256</v>
+        <v>25</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>294</v>
+        <v>98</v>
       </c>
       <c r="F73" s="17"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="7" t="s">
-        <v>295</v>
+      <c r="G73" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="H73" s="18" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A74" s="37"/>
       <c r="B74" s="37"/>
       <c r="C74" s="37"/>
-      <c r="D74" s="6" t="s">
+      <c r="D74" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="F74" s="17"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="84" x14ac:dyDescent="0.2">
+      <c r="A75" s="37"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="E75" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="F75" s="17"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A76" s="37"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="E76" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6" t="s">
+      <c r="F76" s="6"/>
+      <c r="G76" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="H74" s="7" t="s">
+      <c r="H76" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A75" s="38"/>
-      <c r="B75" s="38"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="6" t="s">
+    <row r="77" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A77" s="38"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E77" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6" t="s">
+      <c r="F77" s="6"/>
+      <c r="G77" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="H75" s="7" t="s">
+      <c r="H77" s="7" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A76" s="33" t="s">
+    <row r="78" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A78" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="33" t="s">
+      <c r="B78" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="C76" s="33" t="s">
+      <c r="C78" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D78" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A77" s="34"/>
-      <c r="B77" s="34"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A78" s="34"/>
-      <c r="B78" s="34"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A79" s="34"/>
       <c r="B79" s="34"/>
       <c r="C79" s="34"/>
       <c r="D79" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="14" x14ac:dyDescent="0.2">
@@ -9770,53 +10144,53 @@
       <c r="B80" s="34"/>
       <c r="C80" s="34"/>
       <c r="D80" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A81" s="34"/>
       <c r="B81" s="34"/>
       <c r="C81" s="34"/>
       <c r="D81" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A82" s="34"/>
       <c r="B82" s="34"/>
       <c r="C82" s="34"/>
       <c r="D82" s="3" t="s">
-        <v>278</v>
+        <v>24</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>279</v>
+        <v>18</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>280</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -9824,17 +10198,17 @@
       <c r="B83" s="34"/>
       <c r="C83" s="34"/>
       <c r="D83" s="3" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -9842,113 +10216,113 @@
       <c r="B84" s="34"/>
       <c r="C84" s="34"/>
       <c r="D84" s="3" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3" t="s">
-        <v>289</v>
+        <v>36</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A85" s="35"/>
-      <c r="B85" s="35"/>
-      <c r="C85" s="35"/>
+      <c r="A85" s="34"/>
+      <c r="B85" s="34"/>
+      <c r="C85" s="34"/>
       <c r="D85" s="3" t="s">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>283</v>
+        <v>117</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A86" s="34"/>
+      <c r="B86" s="34"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A87" s="35"/>
+      <c r="B87" s="35"/>
+      <c r="C87" s="35"/>
+      <c r="D87" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="H85" s="4" t="s">
+      <c r="H87" s="4" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A86" s="41" t="s">
+    <row r="88" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A88" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B86" s="41" t="s">
+      <c r="B88" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="C86" s="41" t="s">
+      <c r="C88" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="D88" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A87" s="41"/>
-      <c r="B87" s="41"/>
-      <c r="C87" s="41"/>
-      <c r="D87" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H87" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A88" s="41"/>
-      <c r="B88" s="41"/>
-      <c r="C88" s="41"/>
-      <c r="D88" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A89" s="41"/>
       <c r="B89" s="41"/>
       <c r="C89" s="41"/>
       <c r="D89" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F89" s="6"/>
       <c r="G89" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="14" x14ac:dyDescent="0.2">
@@ -9956,53 +10330,53 @@
       <c r="B90" s="41"/>
       <c r="C90" s="41"/>
       <c r="D90" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F90" s="6"/>
       <c r="G90" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A91" s="41"/>
       <c r="B91" s="41"/>
       <c r="C91" s="41"/>
       <c r="D91" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="F91" s="6"/>
       <c r="G91" s="6" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A92" s="41"/>
       <c r="B92" s="41"/>
       <c r="C92" s="41"/>
-      <c r="D92" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="E92" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H92" s="18" t="s">
-        <v>282</v>
+      <c r="D92" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -10010,35 +10384,35 @@
       <c r="B93" s="41"/>
       <c r="C93" s="41"/>
       <c r="D93" s="6" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F93" s="6"/>
       <c r="G93" s="6" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A94" s="41"/>
       <c r="B94" s="41"/>
       <c r="C94" s="41"/>
-      <c r="D94" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="H94" s="7" t="s">
-        <v>291</v>
+      <c r="D94" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H94" s="18" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -10046,95 +10420,95 @@
       <c r="B95" s="41"/>
       <c r="C95" s="41"/>
       <c r="D95" s="6" t="s">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>283</v>
+        <v>117</v>
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A96" s="41"/>
+      <c r="B96" s="41"/>
+      <c r="C96" s="41"/>
+      <c r="D96" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A97" s="41"/>
+      <c r="B97" s="41"/>
+      <c r="C97" s="41"/>
+      <c r="D97" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="H95" s="7" t="s">
+      <c r="H97" s="7" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A96" s="33" t="s">
+    <row r="98" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A98" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B96" s="33" t="s">
+      <c r="B98" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="C96" s="33" t="s">
+      <c r="C98" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D98" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A97" s="34"/>
-      <c r="B97" s="34"/>
-      <c r="C97" s="34"/>
-      <c r="D97" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A98" s="34"/>
-      <c r="B98" s="34"/>
-      <c r="C98" s="34"/>
-      <c r="D98" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A99" s="34"/>
       <c r="B99" s="34"/>
       <c r="C99" s="34"/>
       <c r="D99" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="14" x14ac:dyDescent="0.2">
@@ -10142,53 +10516,53 @@
       <c r="B100" s="34"/>
       <c r="C100" s="34"/>
       <c r="D100" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A101" s="34"/>
       <c r="B101" s="34"/>
       <c r="C101" s="34"/>
       <c r="D101" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A102" s="34"/>
       <c r="B102" s="34"/>
       <c r="C102" s="34"/>
       <c r="D102" s="3" t="s">
-        <v>278</v>
+        <v>24</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>279</v>
+        <v>18</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>281</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -10196,17 +10570,17 @@
       <c r="B103" s="34"/>
       <c r="C103" s="34"/>
       <c r="D103" s="3" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -10214,113 +10588,113 @@
       <c r="B104" s="34"/>
       <c r="C104" s="34"/>
       <c r="D104" s="3" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3" t="s">
-        <v>289</v>
+        <v>36</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A105" s="35"/>
-      <c r="B105" s="35"/>
-      <c r="C105" s="35"/>
+      <c r="A105" s="34"/>
+      <c r="B105" s="34"/>
+      <c r="C105" s="34"/>
       <c r="D105" s="3" t="s">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>283</v>
+        <v>117</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A106" s="34"/>
+      <c r="B106" s="34"/>
+      <c r="C106" s="34"/>
+      <c r="D106" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A107" s="35"/>
+      <c r="B107" s="35"/>
+      <c r="C107" s="35"/>
+      <c r="D107" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="H105" s="4" t="s">
+      <c r="H107" s="4" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A106" s="45" t="s">
+    <row r="108" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A108" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B106" s="45" t="s">
+      <c r="B108" s="45" t="s">
         <v>299</v>
       </c>
-      <c r="C106" s="45" t="s">
+      <c r="C108" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="D106" s="16" t="s">
+      <c r="D108" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="E106" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F106" s="16"/>
-      <c r="G106" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H106" s="7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A107" s="46"/>
-      <c r="B107" s="46"/>
-      <c r="C107" s="46"/>
-      <c r="D107" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E107" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F107" s="16"/>
-      <c r="G107" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H107" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A108" s="46"/>
-      <c r="B108" s="46"/>
-      <c r="C108" s="46"/>
-      <c r="D108" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="E108" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F108" s="16"/>
       <c r="G108" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A109" s="46"/>
       <c r="B109" s="46"/>
       <c r="C109" s="46"/>
       <c r="D109" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E109" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F109" s="16"/>
       <c r="G109" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>42</v>
+        <v>314</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="14" x14ac:dyDescent="0.2">
@@ -10328,35 +10702,35 @@
       <c r="B110" s="46"/>
       <c r="C110" s="46"/>
       <c r="D110" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E110" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F110" s="16"/>
       <c r="G110" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="98" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A111" s="46"/>
       <c r="B111" s="46"/>
       <c r="C111" s="46"/>
-      <c r="D111" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="E111" s="20" t="s">
-        <v>301</v>
+      <c r="D111" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="F111" s="16"/>
       <c r="G111" s="16" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>310</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="14" x14ac:dyDescent="0.2">
@@ -10369,11 +10743,11 @@
       <c r="E112" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F112" s="20"/>
-      <c r="G112" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="H112" s="18" t="s">
+      <c r="F112" s="16"/>
+      <c r="G112" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H112" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -10381,132 +10755,132 @@
       <c r="A113" s="46"/>
       <c r="B113" s="46"/>
       <c r="C113" s="46"/>
-      <c r="D113" s="16" t="s">
-        <v>304</v>
+      <c r="D113" s="20" t="s">
+        <v>296</v>
       </c>
       <c r="E113" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="F113" s="20"/>
-      <c r="G113" s="20" t="s">
-        <v>309</v>
+        <v>301</v>
+      </c>
+      <c r="F113" s="16"/>
+      <c r="G113" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="98" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A114" s="46"/>
       <c r="B114" s="46"/>
       <c r="C114" s="46"/>
       <c r="D114" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E114" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F114" s="20"/>
+      <c r="G114" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H114" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="98" x14ac:dyDescent="0.2">
+      <c r="A115" s="46"/>
+      <c r="B115" s="46"/>
+      <c r="C115" s="46"/>
+      <c r="D115" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="E114" s="20" t="s">
+      <c r="E115" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="F115" s="20"/>
+      <c r="G115" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="98" x14ac:dyDescent="0.2">
+      <c r="A116" s="46"/>
+      <c r="B116" s="46"/>
+      <c r="C116" s="46"/>
+      <c r="D116" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="E116" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="F114" s="16"/>
-      <c r="G114" s="20" t="s">
+      <c r="F116" s="16"/>
+      <c r="G116" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="H114" s="7" t="s">
+      <c r="H116" s="7" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="98" x14ac:dyDescent="0.2">
-      <c r="A115" s="47"/>
-      <c r="B115" s="47"/>
-      <c r="C115" s="47"/>
-      <c r="D115" s="16" t="s">
+    <row r="117" spans="1:8" ht="98" x14ac:dyDescent="0.2">
+      <c r="A117" s="47"/>
+      <c r="B117" s="47"/>
+      <c r="C117" s="47"/>
+      <c r="D117" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="E115" s="20" t="s">
+      <c r="E117" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="F115" s="16"/>
-      <c r="G115" s="16" t="s">
+      <c r="F117" s="16"/>
+      <c r="G117" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="H115" s="7" t="s">
+      <c r="H117" s="7" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A116" s="33" t="s">
+    <row r="118" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A118" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B116" s="33" t="s">
+      <c r="B118" s="33" t="s">
         <v>321</v>
       </c>
-      <c r="C116" s="21" t="s">
+      <c r="C118" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="D116" s="15" t="s">
+      <c r="D118" s="15" t="s">
         <v>14</v>
-      </c>
-      <c r="E116" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F116" s="15"/>
-      <c r="G116" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H116" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A117" s="34"/>
-      <c r="B117" s="34"/>
-      <c r="C117" s="34"/>
-      <c r="D117" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E117" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F117" s="15"/>
-      <c r="G117" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H117" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A118" s="34"/>
-      <c r="B118" s="34"/>
-      <c r="C118" s="34"/>
-      <c r="D118" s="15" t="s">
-        <v>19</v>
       </c>
       <c r="E118" s="15" t="s">
         <v>18</v>
       </c>
       <c r="F118" s="15"/>
       <c r="G118" s="15" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A119" s="34"/>
       <c r="B119" s="34"/>
       <c r="C119" s="34"/>
       <c r="D119" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E119" s="15" t="s">
         <v>18</v>
       </c>
       <c r="F119" s="15"/>
       <c r="G119" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>42</v>
+        <v>322</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="14" x14ac:dyDescent="0.2">
@@ -10514,35 +10888,35 @@
       <c r="B120" s="34"/>
       <c r="C120" s="34"/>
       <c r="D120" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E120" s="15" t="s">
         <v>18</v>
       </c>
       <c r="F120" s="15"/>
       <c r="G120" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="98" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A121" s="34"/>
       <c r="B121" s="34"/>
       <c r="C121" s="34"/>
       <c r="D121" s="15" t="s">
-        <v>296</v>
+        <v>24</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>301</v>
+        <v>18</v>
       </c>
       <c r="F121" s="15"/>
       <c r="G121" s="15" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>310</v>
+        <v>42</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="14" x14ac:dyDescent="0.2">
@@ -10557,7 +10931,7 @@
       </c>
       <c r="F122" s="15"/>
       <c r="G122" s="15" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H122" s="4" t="s">
         <v>42</v>
@@ -10568,214 +10942,354 @@
       <c r="B123" s="34"/>
       <c r="C123" s="34"/>
       <c r="D123" s="15" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="E123" s="15" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F123" s="15"/>
       <c r="G123" s="15" t="s">
-        <v>309</v>
+        <v>37</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="98" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A124" s="34"/>
       <c r="B124" s="34"/>
       <c r="C124" s="34"/>
       <c r="D124" s="15" t="s">
-        <v>304</v>
+        <v>24</v>
       </c>
       <c r="E124" s="15" t="s">
-        <v>305</v>
+        <v>18</v>
       </c>
       <c r="F124" s="15"/>
       <c r="G124" s="15" t="s">
-        <v>307</v>
+        <v>36</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>312</v>
+        <v>42</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="98" x14ac:dyDescent="0.2">
-      <c r="A125" s="35"/>
-      <c r="B125" s="35"/>
-      <c r="C125" s="35"/>
+      <c r="A125" s="34"/>
+      <c r="B125" s="34"/>
+      <c r="C125" s="34"/>
       <c r="D125" s="15" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E125" s="15" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="F125" s="15"/>
       <c r="G125" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="98" x14ac:dyDescent="0.2">
+      <c r="A126" s="34"/>
+      <c r="B126" s="34"/>
+      <c r="C126" s="34"/>
+      <c r="D126" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="E126" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="F126" s="15"/>
+      <c r="G126" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="98" x14ac:dyDescent="0.2">
+      <c r="A127" s="35"/>
+      <c r="B127" s="35"/>
+      <c r="C127" s="35"/>
+      <c r="D127" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="E127" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="H125" s="4" t="s">
+      <c r="H127" s="4" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="5"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="13"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="5"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
-      <c r="G127" s="5"/>
-      <c r="H127" s="13"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="5"/>
-      <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="5"/>
-      <c r="H128" s="13"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="5"/>
-      <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5"/>
-      <c r="G129" s="5"/>
-      <c r="H129" s="13"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="5"/>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="5"/>
-      <c r="H130" s="13"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="5"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5"/>
-      <c r="G131" s="5"/>
-      <c r="H131" s="13"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="5"/>
-      <c r="B132" s="5"/>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5"/>
-      <c r="G132" s="5"/>
-      <c r="H132" s="13"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="5"/>
-      <c r="B133" s="5"/>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="5"/>
-      <c r="G133" s="5"/>
-      <c r="H133" s="13"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="5"/>
-      <c r="B134" s="5"/>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="5"/>
-      <c r="H134" s="13"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" s="5"/>
-      <c r="B135" s="5"/>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="5"/>
-      <c r="G135" s="5"/>
-      <c r="H135" s="13"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="5"/>
-      <c r="H136" s="13"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="5"/>
-      <c r="B137" s="5"/>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="5"/>
-      <c r="H137" s="13"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="5"/>
-      <c r="B138" s="5"/>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="5"/>
-      <c r="H138" s="13"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="5"/>
-      <c r="B139" s="5"/>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="5"/>
-      <c r="F139" s="5"/>
-      <c r="G139" s="5"/>
-      <c r="H139" s="13"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="5"/>
-      <c r="B140" s="5"/>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="5"/>
-      <c r="H140" s="13"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="5"/>
-      <c r="B141" s="5"/>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5"/>
-      <c r="G141" s="5"/>
-      <c r="H141" s="13"/>
+    <row r="128" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A128" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128" s="45" t="s">
+        <v>344</v>
+      </c>
+      <c r="C128" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="D128" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F128" s="16"/>
+      <c r="G128" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A129" s="46"/>
+      <c r="B129" s="46"/>
+      <c r="C129" s="46"/>
+      <c r="D129" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E129" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F129" s="16"/>
+      <c r="G129" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A130" s="46"/>
+      <c r="B130" s="46"/>
+      <c r="C130" s="46"/>
+      <c r="D130" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E130" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F130" s="16"/>
+      <c r="G130" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A131" s="46"/>
+      <c r="B131" s="46"/>
+      <c r="C131" s="46"/>
+      <c r="D131" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E131" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F131" s="16"/>
+      <c r="G131" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A132" s="46"/>
+      <c r="B132" s="46"/>
+      <c r="C132" s="46"/>
+      <c r="D132" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E132" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F132" s="16"/>
+      <c r="G132" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A133" s="46"/>
+      <c r="B133" s="46"/>
+      <c r="C133" s="46"/>
+      <c r="D133" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E133" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F133" s="16"/>
+      <c r="G133" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A134" s="46"/>
+      <c r="B134" s="46"/>
+      <c r="C134" s="46"/>
+      <c r="D134" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E134" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F134" s="20"/>
+      <c r="G134" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H134" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A135" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B135" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="C135" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D135" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F135" s="15"/>
+      <c r="G135" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A136" s="34"/>
+      <c r="B136" s="34"/>
+      <c r="C136" s="34"/>
+      <c r="D136" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E136" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F136" s="15"/>
+      <c r="G136" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A137" s="34"/>
+      <c r="B137" s="34"/>
+      <c r="C137" s="34"/>
+      <c r="D137" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E137" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F137" s="15"/>
+      <c r="G137" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A138" s="34"/>
+      <c r="B138" s="34"/>
+      <c r="C138" s="34"/>
+      <c r="D138" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E138" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F138" s="15"/>
+      <c r="G138" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A139" s="34"/>
+      <c r="B139" s="34"/>
+      <c r="C139" s="34"/>
+      <c r="D139" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E139" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A140" s="34"/>
+      <c r="B140" s="34"/>
+      <c r="C140" s="34"/>
+      <c r="D140" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E140" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F140" s="15"/>
+      <c r="G140" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A141" s="34"/>
+      <c r="B141" s="34"/>
+      <c r="C141" s="34"/>
+      <c r="D141" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E141" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F141" s="15"/>
+      <c r="G141" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="5"/>
@@ -11527,36 +12041,22 @@
       <c r="G216" s="5"/>
       <c r="H216" s="13"/>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A217" s="5"/>
-      <c r="B217" s="5"/>
-      <c r="C217" s="5"/>
-      <c r="D217" s="5"/>
-      <c r="E217" s="5"/>
-      <c r="F217" s="5"/>
-      <c r="G217" s="5"/>
-      <c r="H217" s="13"/>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A218" s="5"/>
-      <c r="B218" s="5"/>
-      <c r="C218" s="5"/>
-      <c r="D218" s="5"/>
-      <c r="E218" s="5"/>
-      <c r="F218" s="5"/>
-      <c r="G218" s="5"/>
-      <c r="H218" s="13"/>
-    </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="A116:A125"/>
-    <mergeCell ref="B116:B125"/>
-    <mergeCell ref="C116:C125"/>
-    <mergeCell ref="G61:G63"/>
+  <mergeCells count="51">
+    <mergeCell ref="A135:A141"/>
+    <mergeCell ref="B135:B141"/>
+    <mergeCell ref="C135:C141"/>
+    <mergeCell ref="A118:A127"/>
+    <mergeCell ref="B118:B127"/>
+    <mergeCell ref="C118:C127"/>
+    <mergeCell ref="A128:A134"/>
+    <mergeCell ref="B128:B134"/>
+    <mergeCell ref="C128:C134"/>
     <mergeCell ref="G51:G53"/>
-    <mergeCell ref="C106:C115"/>
-    <mergeCell ref="B106:B115"/>
-    <mergeCell ref="A106:A115"/>
+    <mergeCell ref="C108:C117"/>
+    <mergeCell ref="B108:B117"/>
+    <mergeCell ref="A108:A117"/>
+    <mergeCell ref="G61:G65"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="G42:G43"/>
     <mergeCell ref="G18:G21"/>
@@ -11566,9 +12066,9 @@
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="B24:B35"/>
     <mergeCell ref="C24:C35"/>
-    <mergeCell ref="A55:A64"/>
-    <mergeCell ref="B55:B64"/>
-    <mergeCell ref="C55:C64"/>
+    <mergeCell ref="A55:A66"/>
+    <mergeCell ref="B55:B66"/>
+    <mergeCell ref="C55:C66"/>
     <mergeCell ref="C36:C44"/>
     <mergeCell ref="B36:B44"/>
     <mergeCell ref="A36:A44"/>
@@ -11581,19 +12081,19 @@
     <mergeCell ref="A10:A23"/>
     <mergeCell ref="G31:G33"/>
     <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G71:G73"/>
-    <mergeCell ref="C96:C105"/>
-    <mergeCell ref="B96:B105"/>
-    <mergeCell ref="A96:A105"/>
-    <mergeCell ref="C76:C85"/>
-    <mergeCell ref="B76:B85"/>
-    <mergeCell ref="A76:A85"/>
-    <mergeCell ref="C65:C75"/>
-    <mergeCell ref="B65:B75"/>
-    <mergeCell ref="A86:A95"/>
-    <mergeCell ref="B86:B95"/>
-    <mergeCell ref="C86:C95"/>
-    <mergeCell ref="A65:A75"/>
+    <mergeCell ref="G73:G75"/>
+    <mergeCell ref="C98:C107"/>
+    <mergeCell ref="B98:B107"/>
+    <mergeCell ref="A98:A107"/>
+    <mergeCell ref="C78:C87"/>
+    <mergeCell ref="B78:B87"/>
+    <mergeCell ref="A78:A87"/>
+    <mergeCell ref="C67:C77"/>
+    <mergeCell ref="B67:B77"/>
+    <mergeCell ref="A88:A97"/>
+    <mergeCell ref="B88:B97"/>
+    <mergeCell ref="C88:C97"/>
+    <mergeCell ref="A67:A77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/pheknowlator_source_metadata.xlsx
+++ b/resources/pheknowlator_source_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiffanycallahan/Dropbox/GraduateSchool/PhD/LabWork/PheKnowLator/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF920056-DFBF-7042-9324-C816B27606DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E701E7-5B68-B748-8D42-FC3BFD5D72A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13380" yWindow="460" windowWidth="37820" windowHeight="23880" xr2:uid="{82CFCCA6-69D0-6D4F-8FD9-9511C5B37B8B}"/>
   </bookViews>
@@ -3596,7 +3596,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C263" sqref="C263"/>
+      <selection pane="bottomLeft" activeCell="C254" sqref="C254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.2"/>

--- a/resources/pheknowlator_source_metadata.xlsx
+++ b/resources/pheknowlator_source_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiffanycallahan/Dropbox/GraduateSchool/PhD/LabWork/PheKnowLator/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E701E7-5B68-B748-8D42-FC3BFD5D72A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE69B4F8-9A55-634F-87B8-C8A7BF7C2986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13380" yWindow="460" windowWidth="37820" windowHeight="23880" xr2:uid="{82CFCCA6-69D0-6D4F-8FD9-9511C5B37B8B}"/>
+    <workbookView xWindow="12160" yWindow="1040" windowWidth="36820" windowHeight="23880" xr2:uid="{82CFCCA6-69D0-6D4F-8FD9-9511C5B37B8B}"/>
   </bookViews>
   <sheets>
     <sheet name="edges" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="390">
   <si>
     <t>edge_type</t>
   </si>
@@ -2367,9 +2367,6 @@
     </r>
   </si>
   <si>
-    <t>ReactomeAspect</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Derived from ontology and pulled from data provided by Reactome
 </t>
@@ -2945,58 +2942,320 @@
     </r>
   </si>
   <si>
-    <t>Derived from ontology and pulled from data provided by Uniprot
-Uniprot Data Information
+    <t>Uniprot:Uniprot_Entry_Name</t>
+  </si>
+  <si>
+    <t>protein-catalyst</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Value derived from Uniprot (column:2)</t>
+  </si>
+  <si>
+    <t>catalyst-protein</t>
+  </si>
+  <si>
+    <t>protein-cofactor</t>
+  </si>
+  <si>
+    <t>cofactor-protein</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Keyword provided by a user in the resource_info.txt, edge_source_list.txt, ontology_source_list.txt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">The Default value is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cofactor</t>
+    </r>
+  </si>
+  <si>
+    <t>cofactor</t>
+  </si>
+  <si>
+    <t>Qualifier</t>
+  </si>
+  <si>
+    <t>Reactome_Qualifier</t>
+  </si>
+  <si>
+    <t>Value derived from Reactome (column:4)</t>
+  </si>
+  <si>
+    <t>protein-gobp</t>
+  </si>
+  <si>
+    <t>GOA</t>
+  </si>
+  <si>
+    <t>DB_Reference</t>
+  </si>
+  <si>
+    <t>Value derived from Reactome (column:3)</t>
+  </si>
+  <si>
+    <t>GOA:DB_Object_Type</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulled from data provided by GOA
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GOA Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+protein-gobp:column 11
+protein-gocc:column 11
+protein-gomf:column 11</t>
+    </r>
+  </si>
+  <si>
+    <t>OBO Ontology
+GOA</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by Uniprot
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Uniprot Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
 protein-catalyst:column 4
 protein-cofactor:column 4</t>
-  </si>
-  <si>
-    <t>Uniprot:Uniprot_Entry_Name</t>
-  </si>
-  <si>
-    <t>protein-catalyst</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Value derived from Uniprot (column:2)</t>
-  </si>
-  <si>
-    <t>catalyst-protein</t>
-  </si>
-  <si>
-    <t>protein-cofactor</t>
-  </si>
-  <si>
-    <t>cofactor-protein</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Keyword provided by a user in the resource_info.txt, edge_source_list.txt, ontology_source_list.txt. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">The Default value is </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Cofactor</t>
-    </r>
-  </si>
-  <si>
-    <t>cofactor</t>
+    </r>
+  </si>
+  <si>
+    <t>GOA:DB_Object_Symbol</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulled from data provided by GOA
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GOA Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+protein-gobp:column 2
+protein-gocc:column 2
+protein-gomf:column 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulled from data provided by GOA
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GOA Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+protein-gobp:column 7
+protein-gocc:column 7
+protein-gomf:column 7</t>
+    </r>
+  </si>
+  <si>
+    <t>GOA:With_Or_From</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulled from data provided by GOA
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GOA Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+protein-gobp:column 9
+protein-gocc:column 9
+protein-gomf:column 9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulled from data provided by GOA
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GOA Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+protein-gobp:column 10
+protein-gocc:column 10
+protein-gomf:column 10</t>
+    </r>
+  </si>
+  <si>
+    <t>GOA:DB_Object_Name</t>
+  </si>
+  <si>
+    <t>GOA:DB_Object_Synonym</t>
+  </si>
+  <si>
+    <t>GOA_DB_Object_Type</t>
+  </si>
+  <si>
+    <t>GOA:Aspect</t>
+  </si>
+  <si>
+    <t>GOA_Aspect</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulled from data provided by GOA
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GOA Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+protein-gobp:column 8
+protein-gocc:column 8
+protein-gomf:column 8</t>
+    </r>
+  </si>
+  <si>
+    <t>Taxon</t>
+  </si>
+  <si>
+    <t>gobp-protein</t>
+  </si>
+  <si>
+    <t>gocc-protein</t>
+  </si>
+  <si>
+    <t>protein-gocc</t>
+  </si>
+  <si>
+    <t>gomf-protein</t>
+  </si>
+  <si>
+    <t>protein-gomf</t>
+  </si>
+  <si>
+    <t>biolink:has_function</t>
+  </si>
+  <si>
+    <t>biolink:function_of</t>
   </si>
 </sst>
 </file>
@@ -3135,7 +3394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3197,7 +3456,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3206,31 +3483,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3242,6 +3507,39 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3249,33 +3547,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3592,11 +3863,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC7A73D-1C32-0943-8AF1-D604CF68867B}">
-  <dimension ref="A1:G253"/>
+  <dimension ref="A1:I299"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C254" sqref="C254"/>
+      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E261" sqref="E261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3635,7 +3906,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="33" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3659,7 +3930,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3679,7 +3950,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3701,7 +3972,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A5" s="24"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
@@ -3721,7 +3992,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
@@ -3740,7 +4011,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
@@ -3757,7 +4028,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="34" t="s">
         <v>137</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -3781,7 +4052,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -3801,7 +4072,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
@@ -3823,7 +4094,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
@@ -3843,7 +4114,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
@@ -3862,7 +4133,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
@@ -3879,7 +4150,7 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="32" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -3903,7 +4174,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="6" t="s">
         <v>1</v>
       </c>
@@ -3923,7 +4194,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="6" t="s">
         <v>1</v>
       </c>
@@ -3945,7 +4216,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A17" s="29"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="6" t="s">
         <v>1</v>
       </c>
@@ -3965,7 +4236,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="6" t="s">
         <v>28</v>
       </c>
@@ -3984,7 +4255,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="6" t="s">
         <v>29</v>
       </c>
@@ -4001,7 +4272,7 @@
       <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="34" t="s">
         <v>140</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -4025,7 +4296,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A21" s="25"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="3" t="s">
         <v>1</v>
       </c>
@@ -4045,7 +4316,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A22" s="25"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="3" t="s">
         <v>1</v>
       </c>
@@ -4067,7 +4338,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A23" s="25"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="3" t="s">
         <v>1</v>
       </c>
@@ -4087,7 +4358,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A24" s="25"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="3" t="s">
         <v>28</v>
       </c>
@@ -4106,7 +4377,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A25" s="25"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="3" t="s">
         <v>29</v>
       </c>
@@ -4123,7 +4394,7 @@
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="33" t="s">
         <v>45</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -4145,7 +4416,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A27" s="24"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="1" t="s">
         <v>1</v>
       </c>
@@ -4167,7 +4438,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A28" s="24"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
@@ -4189,7 +4460,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A29" s="24"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="1" t="s">
         <v>1</v>
       </c>
@@ -4209,7 +4480,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A30" s="24"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
@@ -4228,7 +4499,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A31" s="24"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
@@ -4245,7 +4516,7 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="34" t="s">
         <v>141</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -4267,7 +4538,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="3" t="s">
         <v>1</v>
       </c>
@@ -4289,7 +4560,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A34" s="25"/>
+      <c r="A34" s="34"/>
       <c r="B34" s="3" t="s">
         <v>1</v>
       </c>
@@ -4311,7 +4582,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A35" s="25"/>
+      <c r="A35" s="34"/>
       <c r="B35" s="3" t="s">
         <v>1</v>
       </c>
@@ -4331,7 +4602,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A36" s="25"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="3" t="s">
         <v>28</v>
       </c>
@@ -4350,7 +4621,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A37" s="25"/>
+      <c r="A37" s="34"/>
       <c r="B37" s="3" t="s">
         <v>29</v>
       </c>
@@ -4367,7 +4638,7 @@
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="32" t="s">
         <v>60</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -4389,7 +4660,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A39" s="29"/>
+      <c r="A39" s="32"/>
       <c r="B39" s="6" t="s">
         <v>1</v>
       </c>
@@ -4411,7 +4682,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A40" s="29"/>
+      <c r="A40" s="32"/>
       <c r="B40" s="6" t="s">
         <v>1</v>
       </c>
@@ -4433,7 +4704,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A41" s="29"/>
+      <c r="A41" s="32"/>
       <c r="B41" s="6" t="s">
         <v>1</v>
       </c>
@@ -4451,7 +4722,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A42" s="29"/>
+      <c r="A42" s="32"/>
       <c r="B42" s="6" t="s">
         <v>28</v>
       </c>
@@ -4470,7 +4741,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A43" s="29"/>
+      <c r="A43" s="32"/>
       <c r="B43" s="6" t="s">
         <v>29</v>
       </c>
@@ -4487,7 +4758,7 @@
       <c r="G43" s="6"/>
     </row>
     <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="34" t="s">
         <v>143</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -4509,7 +4780,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A45" s="25"/>
+      <c r="A45" s="34"/>
       <c r="B45" s="3" t="s">
         <v>1</v>
       </c>
@@ -4531,7 +4802,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A46" s="25"/>
+      <c r="A46" s="34"/>
       <c r="B46" s="3" t="s">
         <v>1</v>
       </c>
@@ -4553,7 +4824,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
+      <c r="A47" s="34"/>
       <c r="B47" s="3" t="s">
         <v>1</v>
       </c>
@@ -4571,7 +4842,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A48" s="25"/>
+      <c r="A48" s="34"/>
       <c r="B48" s="3" t="s">
         <v>28</v>
       </c>
@@ -4590,7 +4861,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A49" s="25"/>
+      <c r="A49" s="34"/>
       <c r="B49" s="3" t="s">
         <v>29</v>
       </c>
@@ -4607,7 +4878,7 @@
       <c r="G49" s="3"/>
     </row>
     <row r="50" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="33" t="s">
         <v>61</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -4629,7 +4900,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A51" s="24"/>
+      <c r="A51" s="33"/>
       <c r="B51" s="1" t="s">
         <v>1</v>
       </c>
@@ -4651,7 +4922,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A52" s="24"/>
+      <c r="A52" s="33"/>
       <c r="B52" s="1" t="s">
         <v>1</v>
       </c>
@@ -4673,7 +4944,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A53" s="24"/>
+      <c r="A53" s="33"/>
       <c r="B53" s="1" t="s">
         <v>1</v>
       </c>
@@ -4693,7 +4964,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A54" s="24"/>
+      <c r="A54" s="33"/>
       <c r="B54" s="1" t="s">
         <v>28</v>
       </c>
@@ -4712,7 +4983,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A55" s="24"/>
+      <c r="A55" s="33"/>
       <c r="B55" s="1" t="s">
         <v>29</v>
       </c>
@@ -4729,7 +5000,7 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="34" t="s">
         <v>142</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -4751,7 +5022,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A57" s="25"/>
+      <c r="A57" s="34"/>
       <c r="B57" s="3" t="s">
         <v>1</v>
       </c>
@@ -4773,7 +5044,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A58" s="25"/>
+      <c r="A58" s="34"/>
       <c r="B58" s="3" t="s">
         <v>1</v>
       </c>
@@ -4795,7 +5066,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A59" s="25"/>
+      <c r="A59" s="34"/>
       <c r="B59" s="3" t="s">
         <v>1</v>
       </c>
@@ -4815,7 +5086,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A60" s="25"/>
+      <c r="A60" s="34"/>
       <c r="B60" s="3" t="s">
         <v>28</v>
       </c>
@@ -4834,7 +5105,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A61" s="25"/>
+      <c r="A61" s="34"/>
       <c r="B61" s="3" t="s">
         <v>29</v>
       </c>
@@ -4851,7 +5122,7 @@
       <c r="G61" s="3"/>
     </row>
     <row r="62" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A62" s="29" t="s">
+      <c r="A62" s="32" t="s">
         <v>100</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -4873,7 +5144,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A63" s="29"/>
+      <c r="A63" s="32"/>
       <c r="B63" s="6" t="s">
         <v>256</v>
       </c>
@@ -4893,7 +5164,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A64" s="29"/>
+      <c r="A64" s="32"/>
       <c r="B64" s="6" t="s">
         <v>28</v>
       </c>
@@ -4912,7 +5183,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A65" s="29"/>
+      <c r="A65" s="32"/>
       <c r="B65" s="6" t="s">
         <v>29</v>
       </c>
@@ -4929,7 +5200,7 @@
       <c r="G65" s="6"/>
     </row>
     <row r="66" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="34" t="s">
         <v>146</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -4951,7 +5222,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A67" s="25"/>
+      <c r="A67" s="34"/>
       <c r="B67" s="3" t="s">
         <v>1</v>
       </c>
@@ -4971,7 +5242,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A68" s="25"/>
+      <c r="A68" s="34"/>
       <c r="B68" s="3" t="s">
         <v>28</v>
       </c>
@@ -4990,7 +5261,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A69" s="25"/>
+      <c r="A69" s="34"/>
       <c r="B69" s="3" t="s">
         <v>29</v>
       </c>
@@ -5007,7 +5278,7 @@
       <c r="G69" s="3"/>
     </row>
     <row r="70" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A70" s="24" t="s">
+      <c r="A70" s="33" t="s">
         <v>108</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -5029,7 +5300,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A71" s="24"/>
+      <c r="A71" s="33"/>
       <c r="B71" s="1" t="s">
         <v>1</v>
       </c>
@@ -5049,7 +5320,7 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A72" s="24"/>
+      <c r="A72" s="33"/>
       <c r="B72" s="1" t="s">
         <v>1</v>
       </c>
@@ -5069,7 +5340,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A73" s="24"/>
+      <c r="A73" s="33"/>
       <c r="B73" s="1" t="s">
         <v>1</v>
       </c>
@@ -5089,7 +5360,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A74" s="24"/>
+      <c r="A74" s="33"/>
       <c r="B74" s="1" t="s">
         <v>1</v>
       </c>
@@ -5109,7 +5380,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A75" s="24"/>
+      <c r="A75" s="33"/>
       <c r="B75" s="1" t="s">
         <v>1</v>
       </c>
@@ -5129,7 +5400,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A76" s="24"/>
+      <c r="A76" s="33"/>
       <c r="B76" s="1" t="s">
         <v>1</v>
       </c>
@@ -5149,7 +5420,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A77" s="24"/>
+      <c r="A77" s="33"/>
       <c r="B77" s="1" t="s">
         <v>28</v>
       </c>
@@ -5168,7 +5439,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A78" s="24"/>
+      <c r="A78" s="33"/>
       <c r="B78" s="1" t="s">
         <v>29</v>
       </c>
@@ -5185,7 +5456,7 @@
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A79" s="25" t="s">
+      <c r="A79" s="34" t="s">
         <v>147</v>
       </c>
       <c r="B79" s="3" t="s">
@@ -5207,7 +5478,7 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A80" s="25"/>
+      <c r="A80" s="34"/>
       <c r="B80" s="3" t="s">
         <v>1</v>
       </c>
@@ -5227,7 +5498,7 @@
       </c>
     </row>
     <row r="81" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A81" s="25"/>
+      <c r="A81" s="34"/>
       <c r="B81" s="3" t="s">
         <v>1</v>
       </c>
@@ -5247,7 +5518,7 @@
       </c>
     </row>
     <row r="82" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A82" s="25"/>
+      <c r="A82" s="34"/>
       <c r="B82" s="3" t="s">
         <v>1</v>
       </c>
@@ -5267,7 +5538,7 @@
       </c>
     </row>
     <row r="83" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A83" s="25"/>
+      <c r="A83" s="34"/>
       <c r="B83" s="3" t="s">
         <v>1</v>
       </c>
@@ -5287,7 +5558,7 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A84" s="25"/>
+      <c r="A84" s="34"/>
       <c r="B84" s="3" t="s">
         <v>1</v>
       </c>
@@ -5307,7 +5578,7 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A85" s="25"/>
+      <c r="A85" s="34"/>
       <c r="B85" s="3" t="s">
         <v>1</v>
       </c>
@@ -5327,7 +5598,7 @@
       </c>
     </row>
     <row r="86" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A86" s="25"/>
+      <c r="A86" s="34"/>
       <c r="B86" s="3" t="s">
         <v>28</v>
       </c>
@@ -5346,7 +5617,7 @@
       </c>
     </row>
     <row r="87" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A87" s="25"/>
+      <c r="A87" s="34"/>
       <c r="B87" s="3" t="s">
         <v>29</v>
       </c>
@@ -5363,7 +5634,7 @@
       <c r="G87" s="3"/>
     </row>
     <row r="88" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A88" s="29" t="s">
+      <c r="A88" s="32" t="s">
         <v>148</v>
       </c>
       <c r="B88" s="6" t="s">
@@ -5385,7 +5656,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A89" s="29"/>
+      <c r="A89" s="32"/>
       <c r="B89" s="6" t="s">
         <v>1</v>
       </c>
@@ -5405,7 +5676,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A90" s="29"/>
+      <c r="A90" s="32"/>
       <c r="B90" s="6" t="s">
         <v>1</v>
       </c>
@@ -5425,7 +5696,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A91" s="29"/>
+      <c r="A91" s="32"/>
       <c r="B91" s="6" t="s">
         <v>1</v>
       </c>
@@ -5445,7 +5716,7 @@
       </c>
     </row>
     <row r="92" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A92" s="29"/>
+      <c r="A92" s="32"/>
       <c r="B92" s="6" t="s">
         <v>1</v>
       </c>
@@ -5465,7 +5736,7 @@
       </c>
     </row>
     <row r="93" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A93" s="29"/>
+      <c r="A93" s="32"/>
       <c r="B93" s="6" t="s">
         <v>1</v>
       </c>
@@ -5485,7 +5756,7 @@
       </c>
     </row>
     <row r="94" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A94" s="29"/>
+      <c r="A94" s="32"/>
       <c r="B94" s="6" t="s">
         <v>1</v>
       </c>
@@ -5505,7 +5776,7 @@
       </c>
     </row>
     <row r="95" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A95" s="29"/>
+      <c r="A95" s="32"/>
       <c r="B95" s="6" t="s">
         <v>28</v>
       </c>
@@ -5524,7 +5795,7 @@
       </c>
     </row>
     <row r="96" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A96" s="29"/>
+      <c r="A96" s="32"/>
       <c r="B96" s="6" t="s">
         <v>29</v>
       </c>
@@ -5541,7 +5812,7 @@
       <c r="G96" s="6"/>
     </row>
     <row r="97" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A97" s="25" t="s">
+      <c r="A97" s="34" t="s">
         <v>149</v>
       </c>
       <c r="B97" s="3" t="s">
@@ -5563,7 +5834,7 @@
       </c>
     </row>
     <row r="98" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A98" s="25"/>
+      <c r="A98" s="34"/>
       <c r="B98" s="3" t="s">
         <v>1</v>
       </c>
@@ -5583,7 +5854,7 @@
       </c>
     </row>
     <row r="99" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A99" s="25"/>
+      <c r="A99" s="34"/>
       <c r="B99" s="3" t="s">
         <v>1</v>
       </c>
@@ -5603,7 +5874,7 @@
       </c>
     </row>
     <row r="100" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A100" s="25"/>
+      <c r="A100" s="34"/>
       <c r="B100" s="3" t="s">
         <v>1</v>
       </c>
@@ -5623,7 +5894,7 @@
       </c>
     </row>
     <row r="101" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A101" s="25"/>
+      <c r="A101" s="34"/>
       <c r="B101" s="3" t="s">
         <v>1</v>
       </c>
@@ -5643,7 +5914,7 @@
       </c>
     </row>
     <row r="102" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A102" s="25"/>
+      <c r="A102" s="34"/>
       <c r="B102" s="3" t="s">
         <v>1</v>
       </c>
@@ -5663,7 +5934,7 @@
       </c>
     </row>
     <row r="103" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A103" s="25"/>
+      <c r="A103" s="34"/>
       <c r="B103" s="3" t="s">
         <v>1</v>
       </c>
@@ -5683,7 +5954,7 @@
       </c>
     </row>
     <row r="104" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A104" s="25"/>
+      <c r="A104" s="34"/>
       <c r="B104" s="3" t="s">
         <v>28</v>
       </c>
@@ -5702,7 +5973,7 @@
       </c>
     </row>
     <row r="105" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A105" s="25"/>
+      <c r="A105" s="34"/>
       <c r="B105" s="3" t="s">
         <v>29</v>
       </c>
@@ -5719,7 +5990,7 @@
       <c r="G105" s="3"/>
     </row>
     <row r="106" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A106" s="24" t="s">
+      <c r="A106" s="33" t="s">
         <v>150</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -5741,7 +6012,7 @@
       </c>
     </row>
     <row r="107" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A107" s="24"/>
+      <c r="A107" s="33"/>
       <c r="B107" s="1" t="s">
         <v>1</v>
       </c>
@@ -5761,7 +6032,7 @@
       </c>
     </row>
     <row r="108" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A108" s="24"/>
+      <c r="A108" s="33"/>
       <c r="B108" s="1" t="s">
         <v>1</v>
       </c>
@@ -5781,7 +6052,7 @@
       </c>
     </row>
     <row r="109" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A109" s="24"/>
+      <c r="A109" s="33"/>
       <c r="B109" s="1" t="s">
         <v>1</v>
       </c>
@@ -5801,7 +6072,7 @@
       </c>
     </row>
     <row r="110" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A110" s="24"/>
+      <c r="A110" s="33"/>
       <c r="B110" s="1" t="s">
         <v>1</v>
       </c>
@@ -5821,7 +6092,7 @@
       </c>
     </row>
     <row r="111" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A111" s="24"/>
+      <c r="A111" s="33"/>
       <c r="B111" s="1" t="s">
         <v>1</v>
       </c>
@@ -5841,7 +6112,7 @@
       </c>
     </row>
     <row r="112" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A112" s="24"/>
+      <c r="A112" s="33"/>
       <c r="B112" s="1" t="s">
         <v>1</v>
       </c>
@@ -5861,7 +6132,7 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A113" s="24"/>
+      <c r="A113" s="33"/>
       <c r="B113" s="1" t="s">
         <v>28</v>
       </c>
@@ -5880,7 +6151,7 @@
       </c>
     </row>
     <row r="114" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A114" s="24"/>
+      <c r="A114" s="33"/>
       <c r="B114" s="1" t="s">
         <v>29</v>
       </c>
@@ -5897,7 +6168,7 @@
       <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A115" s="25" t="s">
+      <c r="A115" s="34" t="s">
         <v>151</v>
       </c>
       <c r="B115" s="3" t="s">
@@ -5919,7 +6190,7 @@
       </c>
     </row>
     <row r="116" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A116" s="25"/>
+      <c r="A116" s="34"/>
       <c r="B116" s="3" t="s">
         <v>1</v>
       </c>
@@ -5939,7 +6210,7 @@
       </c>
     </row>
     <row r="117" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A117" s="25"/>
+      <c r="A117" s="34"/>
       <c r="B117" s="3" t="s">
         <v>1</v>
       </c>
@@ -5959,7 +6230,7 @@
       </c>
     </row>
     <row r="118" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A118" s="25"/>
+      <c r="A118" s="34"/>
       <c r="B118" s="3" t="s">
         <v>1</v>
       </c>
@@ -5979,7 +6250,7 @@
       </c>
     </row>
     <row r="119" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A119" s="25"/>
+      <c r="A119" s="34"/>
       <c r="B119" s="3" t="s">
         <v>1</v>
       </c>
@@ -5999,7 +6270,7 @@
       </c>
     </row>
     <row r="120" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A120" s="25"/>
+      <c r="A120" s="34"/>
       <c r="B120" s="3" t="s">
         <v>1</v>
       </c>
@@ -6019,7 +6290,7 @@
       </c>
     </row>
     <row r="121" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A121" s="25"/>
+      <c r="A121" s="34"/>
       <c r="B121" s="3" t="s">
         <v>1</v>
       </c>
@@ -6039,7 +6310,7 @@
       </c>
     </row>
     <row r="122" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A122" s="25"/>
+      <c r="A122" s="34"/>
       <c r="B122" s="3" t="s">
         <v>28</v>
       </c>
@@ -6058,7 +6329,7 @@
       </c>
     </row>
     <row r="123" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A123" s="25"/>
+      <c r="A123" s="34"/>
       <c r="B123" s="3" t="s">
         <v>29</v>
       </c>
@@ -6075,7 +6346,7 @@
       <c r="G123" s="3"/>
     </row>
     <row r="124" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A124" s="24" t="s">
+      <c r="A124" s="33" t="s">
         <v>152</v>
       </c>
       <c r="B124" s="1" t="s">
@@ -6097,7 +6368,7 @@
       </c>
     </row>
     <row r="125" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A125" s="24"/>
+      <c r="A125" s="33"/>
       <c r="B125" s="1" t="s">
         <v>40</v>
       </c>
@@ -6117,7 +6388,7 @@
       </c>
     </row>
     <row r="126" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A126" s="24"/>
+      <c r="A126" s="33"/>
       <c r="B126" s="1" t="s">
         <v>40</v>
       </c>
@@ -6137,7 +6408,7 @@
       </c>
     </row>
     <row r="127" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A127" s="24"/>
+      <c r="A127" s="33"/>
       <c r="B127" s="1" t="s">
         <v>40</v>
       </c>
@@ -6157,7 +6428,7 @@
       </c>
     </row>
     <row r="128" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A128" s="24"/>
+      <c r="A128" s="33"/>
       <c r="B128" s="1" t="s">
         <v>40</v>
       </c>
@@ -6177,7 +6448,7 @@
       </c>
     </row>
     <row r="129" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A129" s="24"/>
+      <c r="A129" s="33"/>
       <c r="B129" s="1" t="s">
         <v>40</v>
       </c>
@@ -6197,7 +6468,7 @@
       </c>
     </row>
     <row r="130" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A130" s="24"/>
+      <c r="A130" s="33"/>
       <c r="B130" s="1" t="s">
         <v>40</v>
       </c>
@@ -6217,7 +6488,7 @@
       </c>
     </row>
     <row r="131" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A131" s="24"/>
+      <c r="A131" s="33"/>
       <c r="B131" s="1" t="s">
         <v>28</v>
       </c>
@@ -6236,7 +6507,7 @@
       </c>
     </row>
     <row r="132" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A132" s="24"/>
+      <c r="A132" s="33"/>
       <c r="B132" s="1" t="s">
         <v>29</v>
       </c>
@@ -6253,7 +6524,7 @@
       <c r="G132" s="1"/>
     </row>
     <row r="133" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A133" s="25" t="s">
+      <c r="A133" s="34" t="s">
         <v>189</v>
       </c>
       <c r="B133" s="3" t="s">
@@ -6275,7 +6546,7 @@
       </c>
     </row>
     <row r="134" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A134" s="25"/>
+      <c r="A134" s="34"/>
       <c r="B134" s="3" t="s">
         <v>40</v>
       </c>
@@ -6295,7 +6566,7 @@
       </c>
     </row>
     <row r="135" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A135" s="25"/>
+      <c r="A135" s="34"/>
       <c r="B135" s="3" t="s">
         <v>40</v>
       </c>
@@ -6315,7 +6586,7 @@
       </c>
     </row>
     <row r="136" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A136" s="25"/>
+      <c r="A136" s="34"/>
       <c r="B136" s="3" t="s">
         <v>40</v>
       </c>
@@ -6335,7 +6606,7 @@
       </c>
     </row>
     <row r="137" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A137" s="25"/>
+      <c r="A137" s="34"/>
       <c r="B137" s="3" t="s">
         <v>40</v>
       </c>
@@ -6355,7 +6626,7 @@
       </c>
     </row>
     <row r="138" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A138" s="25"/>
+      <c r="A138" s="34"/>
       <c r="B138" s="3" t="s">
         <v>40</v>
       </c>
@@ -6375,7 +6646,7 @@
       </c>
     </row>
     <row r="139" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A139" s="25"/>
+      <c r="A139" s="34"/>
       <c r="B139" s="3" t="s">
         <v>40</v>
       </c>
@@ -6395,7 +6666,7 @@
       </c>
     </row>
     <row r="140" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A140" s="25"/>
+      <c r="A140" s="34"/>
       <c r="B140" s="3" t="s">
         <v>28</v>
       </c>
@@ -6414,7 +6685,7 @@
       </c>
     </row>
     <row r="141" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A141" s="25"/>
+      <c r="A141" s="34"/>
       <c r="B141" s="3" t="s">
         <v>29</v>
       </c>
@@ -6431,7 +6702,7 @@
       <c r="G141" s="3"/>
     </row>
     <row r="142" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A142" s="24" t="s">
+      <c r="A142" s="33" t="s">
         <v>169</v>
       </c>
       <c r="B142" s="1" t="s">
@@ -6453,7 +6724,7 @@
       </c>
     </row>
     <row r="143" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A143" s="24"/>
+      <c r="A143" s="33"/>
       <c r="B143" s="1" t="s">
         <v>170</v>
       </c>
@@ -6473,7 +6744,7 @@
       </c>
     </row>
     <row r="144" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A144" s="24"/>
+      <c r="A144" s="33"/>
       <c r="B144" s="1" t="s">
         <v>170</v>
       </c>
@@ -6493,7 +6764,7 @@
       </c>
     </row>
     <row r="145" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A145" s="24"/>
+      <c r="A145" s="33"/>
       <c r="B145" s="1" t="s">
         <v>170</v>
       </c>
@@ -6513,7 +6784,7 @@
       </c>
     </row>
     <row r="146" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A146" s="24"/>
+      <c r="A146" s="33"/>
       <c r="B146" s="1" t="s">
         <v>170</v>
       </c>
@@ -6533,7 +6804,7 @@
       </c>
     </row>
     <row r="147" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A147" s="24"/>
+      <c r="A147" s="33"/>
       <c r="B147" s="1" t="s">
         <v>170</v>
       </c>
@@ -6553,7 +6824,7 @@
       </c>
     </row>
     <row r="148" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A148" s="24"/>
+      <c r="A148" s="33"/>
       <c r="B148" s="1" t="s">
         <v>170</v>
       </c>
@@ -6573,7 +6844,7 @@
       </c>
     </row>
     <row r="149" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A149" s="24"/>
+      <c r="A149" s="33"/>
       <c r="B149" s="1" t="s">
         <v>170</v>
       </c>
@@ -6593,7 +6864,7 @@
       </c>
     </row>
     <row r="150" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A150" s="24"/>
+      <c r="A150" s="33"/>
       <c r="B150" s="1" t="s">
         <v>170</v>
       </c>
@@ -6613,7 +6884,7 @@
       </c>
     </row>
     <row r="151" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A151" s="24"/>
+      <c r="A151" s="33"/>
       <c r="B151" s="1" t="s">
         <v>28</v>
       </c>
@@ -6632,7 +6903,7 @@
       </c>
     </row>
     <row r="152" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A152" s="24"/>
+      <c r="A152" s="33"/>
       <c r="B152" s="1" t="s">
         <v>29</v>
       </c>
@@ -6649,7 +6920,7 @@
       <c r="G152" s="1"/>
     </row>
     <row r="153" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A153" s="25" t="s">
+      <c r="A153" s="34" t="s">
         <v>192</v>
       </c>
       <c r="B153" s="3" t="s">
@@ -6671,7 +6942,7 @@
       </c>
     </row>
     <row r="154" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A154" s="25"/>
+      <c r="A154" s="34"/>
       <c r="B154" s="3" t="s">
         <v>170</v>
       </c>
@@ -6691,7 +6962,7 @@
       </c>
     </row>
     <row r="155" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A155" s="25"/>
+      <c r="A155" s="34"/>
       <c r="B155" s="3" t="s">
         <v>170</v>
       </c>
@@ -6711,7 +6982,7 @@
       </c>
     </row>
     <row r="156" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A156" s="25"/>
+      <c r="A156" s="34"/>
       <c r="B156" s="3" t="s">
         <v>170</v>
       </c>
@@ -6731,7 +7002,7 @@
       </c>
     </row>
     <row r="157" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A157" s="25"/>
+      <c r="A157" s="34"/>
       <c r="B157" s="3" t="s">
         <v>170</v>
       </c>
@@ -6751,7 +7022,7 @@
       </c>
     </row>
     <row r="158" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A158" s="25"/>
+      <c r="A158" s="34"/>
       <c r="B158" s="3" t="s">
         <v>170</v>
       </c>
@@ -6771,7 +7042,7 @@
       </c>
     </row>
     <row r="159" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A159" s="25"/>
+      <c r="A159" s="34"/>
       <c r="B159" s="3" t="s">
         <v>170</v>
       </c>
@@ -6791,7 +7062,7 @@
       </c>
     </row>
     <row r="160" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A160" s="25"/>
+      <c r="A160" s="34"/>
       <c r="B160" s="3" t="s">
         <v>170</v>
       </c>
@@ -6811,7 +7082,7 @@
       </c>
     </row>
     <row r="161" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A161" s="25"/>
+      <c r="A161" s="34"/>
       <c r="B161" s="3" t="s">
         <v>170</v>
       </c>
@@ -6831,7 +7102,7 @@
       </c>
     </row>
     <row r="162" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A162" s="25"/>
+      <c r="A162" s="34"/>
       <c r="B162" s="3" t="s">
         <v>28</v>
       </c>
@@ -6850,7 +7121,7 @@
       </c>
     </row>
     <row r="163" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A163" s="25"/>
+      <c r="A163" s="34"/>
       <c r="B163" s="3" t="s">
         <v>29</v>
       </c>
@@ -6867,7 +7138,7 @@
       <c r="G163" s="3"/>
     </row>
     <row r="164" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A164" s="24" t="s">
+      <c r="A164" s="33" t="s">
         <v>209</v>
       </c>
       <c r="B164" s="1" t="s">
@@ -6889,7 +7160,7 @@
       </c>
     </row>
     <row r="165" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A165" s="24"/>
+      <c r="A165" s="33"/>
       <c r="B165" s="1" t="s">
         <v>28</v>
       </c>
@@ -6908,7 +7179,7 @@
       </c>
     </row>
     <row r="166" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A166" s="24"/>
+      <c r="A166" s="33"/>
       <c r="B166" s="1" t="s">
         <v>29</v>
       </c>
@@ -6925,7 +7196,7 @@
       <c r="G166" s="1"/>
     </row>
     <row r="167" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A167" s="25" t="s">
+      <c r="A167" s="34" t="s">
         <v>209</v>
       </c>
       <c r="B167" s="3" t="s">
@@ -6947,7 +7218,7 @@
       </c>
     </row>
     <row r="168" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A168" s="25"/>
+      <c r="A168" s="34"/>
       <c r="B168" s="3" t="s">
         <v>28</v>
       </c>
@@ -6966,7 +7237,7 @@
       </c>
     </row>
     <row r="169" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A169" s="25"/>
+      <c r="A169" s="34"/>
       <c r="B169" s="3" t="s">
         <v>29</v>
       </c>
@@ -6983,7 +7254,7 @@
       <c r="G169" s="3"/>
     </row>
     <row r="170" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A170" s="24" t="s">
+      <c r="A170" s="33" t="s">
         <v>215</v>
       </c>
       <c r="B170" s="1" t="s">
@@ -7004,7 +7275,7 @@
       </c>
     </row>
     <row r="171" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A171" s="24"/>
+      <c r="A171" s="33"/>
       <c r="B171" s="1" t="s">
         <v>29</v>
       </c>
@@ -7021,7 +7292,7 @@
       <c r="G171" s="1"/>
     </row>
     <row r="172" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A172" s="25" t="s">
+      <c r="A172" s="34" t="s">
         <v>217</v>
       </c>
       <c r="B172" s="3" t="s">
@@ -7042,7 +7313,7 @@
       </c>
     </row>
     <row r="173" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A173" s="25"/>
+      <c r="A173" s="34"/>
       <c r="B173" s="3" t="s">
         <v>29</v>
       </c>
@@ -7059,7 +7330,7 @@
       <c r="G173" s="3"/>
     </row>
     <row r="174" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A174" s="24" t="s">
+      <c r="A174" s="33" t="s">
         <v>244</v>
       </c>
       <c r="B174" s="1" t="s">
@@ -7080,7 +7351,7 @@
       </c>
     </row>
     <row r="175" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A175" s="24"/>
+      <c r="A175" s="33"/>
       <c r="B175" s="1" t="s">
         <v>29</v>
       </c>
@@ -7097,7 +7368,7 @@
       <c r="G175" s="1"/>
     </row>
     <row r="176" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A176" s="25" t="s">
+      <c r="A176" s="34" t="s">
         <v>245</v>
       </c>
       <c r="B176" s="3" t="s">
@@ -7118,7 +7389,7 @@
       </c>
     </row>
     <row r="177" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A177" s="25"/>
+      <c r="A177" s="34"/>
       <c r="B177" s="3" t="s">
         <v>29</v>
       </c>
@@ -7135,7 +7406,7 @@
       <c r="G177" s="3"/>
     </row>
     <row r="178" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A178" s="24" t="s">
+      <c r="A178" s="33" t="s">
         <v>250</v>
       </c>
       <c r="B178" s="1" t="s">
@@ -7156,7 +7427,7 @@
       </c>
     </row>
     <row r="179" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A179" s="24"/>
+      <c r="A179" s="33"/>
       <c r="B179" s="1" t="s">
         <v>29</v>
       </c>
@@ -7173,7 +7444,7 @@
       <c r="G179" s="1"/>
     </row>
     <row r="180" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A180" s="25" t="s">
+      <c r="A180" s="34" t="s">
         <v>251</v>
       </c>
       <c r="B180" s="3" t="s">
@@ -7194,7 +7465,7 @@
       </c>
     </row>
     <row r="181" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A181" s="25"/>
+      <c r="A181" s="34"/>
       <c r="B181" s="3" t="s">
         <v>29</v>
       </c>
@@ -7211,7 +7482,7 @@
       <c r="G181" s="3"/>
     </row>
     <row r="182" spans="1:7" s="19" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="26" t="s">
+      <c r="A182" s="31" t="s">
         <v>260</v>
       </c>
       <c r="B182" s="6" t="s">
@@ -7233,7 +7504,7 @@
       </c>
     </row>
     <row r="183" spans="1:7" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A183" s="27"/>
+      <c r="A183" s="26"/>
       <c r="B183" s="6" t="s">
         <v>256</v>
       </c>
@@ -7253,7 +7524,7 @@
       </c>
     </row>
     <row r="184" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A184" s="27"/>
+      <c r="A184" s="26"/>
       <c r="B184" s="6" t="s">
         <v>256</v>
       </c>
@@ -7273,1378 +7544,2271 @@
       </c>
     </row>
     <row r="185" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A185" s="27"/>
-      <c r="B185" s="1" t="s">
+      <c r="A185" s="26"/>
+      <c r="B185" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="C185" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="D185" s="23"/>
+      <c r="E185" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="F185" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A186" s="26"/>
+      <c r="B186" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D185" s="1"/>
-      <c r="E185" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A186" s="28"/>
-      <c r="B186" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D186" s="1"/>
       <c r="E186" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A187" s="27"/>
+      <c r="B187" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F186" s="1" t="s">
+      <c r="F187" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="G186" s="1"/>
-    </row>
-    <row r="187" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A187" s="21" t="s">
+      <c r="G187" s="1"/>
+    </row>
+    <row r="188" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A188" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="B187" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D187" s="3"/>
-      <c r="E187" s="3" t="str">
-        <f t="shared" ref="E187:E189" si="23">_xlfn.CONCAT(B187, "_", C187)</f>
-        <v>Reactome_EvidenceCode</v>
-      </c>
-      <c r="F187" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G187" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A188" s="22"/>
       <c r="B188" s="3" t="s">
         <v>256</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D188" s="3"/>
       <c r="E188" s="3" t="str">
-        <f t="shared" si="23"/>
-        <v>Reactome_TaxonID</v>
+        <f t="shared" ref="E188:E190" si="23">_xlfn.CONCAT(B188, "_", C188)</f>
+        <v>Reactome_EvidenceCode</v>
       </c>
       <c r="F188" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A189" s="22"/>
+      <c r="A189" s="28"/>
       <c r="B189" s="3" t="s">
         <v>256</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D189" s="3"/>
       <c r="E189" s="3" t="str">
         <f t="shared" si="23"/>
+        <v>Reactome_TaxonID</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A190" s="28"/>
+      <c r="B190" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3" t="str">
+        <f t="shared" si="23"/>
         <v>Reactome_AssignedBy</v>
       </c>
-      <c r="F189" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G189" s="4" t="s">
+      <c r="F190" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G190" s="4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A190" s="22"/>
-      <c r="B190" s="3" t="s">
+    <row r="191" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A191" s="28"/>
+      <c r="B191" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C191" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="D191" s="22"/>
+      <c r="E191" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="F191" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G191" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A192" s="28"/>
+      <c r="B192" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C190" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D190" s="3"/>
-      <c r="E190" s="3" t="s">
+      <c r="C192" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F190" s="3" t="s">
+      <c r="F192" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="G190" s="4" t="s">
+      <c r="G192" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A191" s="23"/>
-      <c r="B191" s="3" t="s">
+    <row r="193" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A193" s="29"/>
+      <c r="B193" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C191" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D191" s="3"/>
-      <c r="E191" s="3" t="s">
+      <c r="C193" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F191" s="3" t="s">
+      <c r="F193" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="G191" s="3"/>
-    </row>
-    <row r="192" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A192" s="26" t="s">
+      <c r="G193" s="3"/>
+    </row>
+    <row r="194" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A194" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="B192" s="6" t="s">
+      <c r="B194" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C192" s="6" t="s">
+      <c r="C194" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="D192" s="6"/>
-      <c r="E192" s="1" t="str">
-        <f t="shared" ref="E192:E194" si="24">_xlfn.CONCAT(B192, "_", C192)</f>
+      <c r="D194" s="6"/>
+      <c r="E194" s="1" t="str">
+        <f t="shared" ref="E194:E196" si="24">_xlfn.CONCAT(B194, "_", C194)</f>
         <v>Reactome_EvidenceCode</v>
       </c>
-      <c r="F192" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G192" s="2" t="s">
+      <c r="F194" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G194" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A193" s="27"/>
-      <c r="B193" s="6" t="s">
+    <row r="195" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A195" s="26"/>
+      <c r="B195" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C193" s="6" t="s">
+      <c r="C195" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="D193" s="6"/>
-      <c r="E193" s="1" t="str">
+      <c r="D195" s="6"/>
+      <c r="E195" s="1" t="str">
         <f t="shared" si="24"/>
         <v>Reactome_TaxonID</v>
       </c>
-      <c r="F193" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G193" s="2" t="s">
+      <c r="F195" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G195" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A194" s="27"/>
-      <c r="B194" s="6" t="s">
+    <row r="196" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A196" s="26"/>
+      <c r="B196" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C194" s="6" t="s">
+      <c r="C196" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D194" s="6"/>
-      <c r="E194" s="1" t="str">
+      <c r="D196" s="6"/>
+      <c r="E196" s="1" t="str">
         <f t="shared" si="24"/>
         <v>Reactome_AssignedBy</v>
       </c>
-      <c r="F194" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G194" s="2" t="s">
+      <c r="F196" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G196" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A195" s="27"/>
-      <c r="B195" s="1" t="s">
+    <row r="197" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A197" s="26"/>
+      <c r="B197" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="C197" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="D197" s="23"/>
+      <c r="E197" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="F197" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A198" s="26"/>
+      <c r="B198" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C195" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D195" s="1"/>
-      <c r="E195" s="1" t="s">
+      <c r="C198" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F195" s="1" t="s">
+      <c r="F198" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G195" s="2" t="s">
+      <c r="G198" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A196" s="28"/>
-      <c r="B196" s="1" t="s">
+    <row r="199" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A199" s="27"/>
+      <c r="B199" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C196" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D196" s="1"/>
-      <c r="E196" s="1" t="s">
+      <c r="C199" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F196" s="1" t="s">
+      <c r="F199" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="G196" s="1"/>
-    </row>
-    <row r="197" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A197" s="21" t="s">
+      <c r="G199" s="1"/>
+    </row>
+    <row r="200" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A200" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="B200" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="C200" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D197" s="3"/>
-      <c r="E197" s="3" t="str">
-        <f t="shared" ref="E197:E199" si="25">_xlfn.CONCAT(B197, "_", C197)</f>
+      <c r="D200" s="3"/>
+      <c r="E200" s="3" t="str">
+        <f t="shared" ref="E200:E202" si="25">_xlfn.CONCAT(B200, "_", C200)</f>
         <v>Reactome_EvidenceCode</v>
       </c>
-      <c r="F197" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G197" s="4" t="s">
+      <c r="F200" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G200" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A198" s="22"/>
-      <c r="B198" s="3" t="s">
+    <row r="201" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A201" s="28"/>
+      <c r="B201" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="C201" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D198" s="3"/>
-      <c r="E198" s="3" t="str">
+      <c r="D201" s="3"/>
+      <c r="E201" s="3" t="str">
         <f t="shared" si="25"/>
         <v>Reactome_TaxonID</v>
       </c>
-      <c r="F198" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G198" s="4" t="s">
+      <c r="F201" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G201" s="4" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A199" s="22"/>
-      <c r="B199" s="3" t="s">
+    <row r="202" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A202" s="28"/>
+      <c r="B202" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="C202" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D199" s="3"/>
-      <c r="E199" s="3" t="str">
+      <c r="D202" s="3"/>
+      <c r="E202" s="3" t="str">
         <f t="shared" si="25"/>
         <v>Reactome_AssignedBy</v>
       </c>
-      <c r="F199" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G199" s="4" t="s">
+      <c r="F202" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G202" s="4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A200" s="22"/>
-      <c r="B200" s="3" t="s">
+    <row r="203" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A203" s="28"/>
+      <c r="B203" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C203" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="D203" s="22"/>
+      <c r="E203" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="F203" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G203" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A204" s="28"/>
+      <c r="B204" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C200" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D200" s="3"/>
-      <c r="E200" s="3" t="s">
+      <c r="C204" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D204" s="3"/>
+      <c r="E204" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F200" s="3" t="s">
+      <c r="F204" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="G200" s="4" t="s">
+      <c r="G204" s="4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A201" s="23"/>
-      <c r="B201" s="3" t="s">
+    <row r="205" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A205" s="29"/>
+      <c r="B205" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C201" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D201" s="3"/>
-      <c r="E201" s="3" t="s">
+      <c r="C205" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D205" s="3"/>
+      <c r="E205" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F201" s="3" t="s">
+      <c r="F205" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="G201" s="3"/>
-    </row>
-    <row r="202" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A202" s="26" t="s">
+      <c r="G205" s="3"/>
+    </row>
+    <row r="206" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A206" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="B206" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="B202" s="16" t="s">
+      <c r="C206" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="C202" s="16" t="s">
+      <c r="D206" s="16"/>
+      <c r="E206" s="14" t="str">
+        <f t="shared" ref="E206:E208" si="26">_xlfn.CONCAT(B206, "_", C206)</f>
+        <v>HPA_GTEx_Expression_Value</v>
+      </c>
+      <c r="F206" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A207" s="26"/>
+      <c r="B207" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="C207" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="D202" s="16"/>
-      <c r="E202" s="14" t="str">
-        <f t="shared" ref="E202:E204" si="26">_xlfn.CONCAT(B202, "_", C202)</f>
-        <v>HPA_GTEx_Expression_Value</v>
-      </c>
-      <c r="F202" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G202" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A203" s="27"/>
-      <c r="B203" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="C203" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="D203" s="16"/>
-      <c r="E203" s="14" t="str">
+      <c r="D207" s="16"/>
+      <c r="E207" s="14" t="str">
         <f t="shared" si="26"/>
         <v>HPA_GTEx_Subcellular_Location</v>
       </c>
-      <c r="F203" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G203" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A204" s="27"/>
-      <c r="B204" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="C204" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="D204" s="16"/>
-      <c r="E204" s="14" t="str">
+      <c r="F207" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A208" s="26"/>
+      <c r="B208" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="C208" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="D208" s="16"/>
+      <c r="E208" s="14" t="str">
         <f t="shared" si="26"/>
         <v>HPA_GTEx_Source</v>
       </c>
-      <c r="F204" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G204" s="2" t="s">
+      <c r="F208" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="14" x14ac:dyDescent="0.2">
+      <c r="A209" s="26"/>
+      <c r="B209" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="C209" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D209" s="14"/>
+      <c r="E209" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F209" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="G209" s="18" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A205" s="27"/>
-      <c r="B205" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="C205" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D205" s="14"/>
-      <c r="E205" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F205" s="14" t="s">
+      <c r="H209" s="24"/>
+      <c r="I209" s="18"/>
+    </row>
+    <row r="210" spans="1:9" ht="14" x14ac:dyDescent="0.2">
+      <c r="A210" s="27"/>
+      <c r="B210" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C210" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D210" s="14"/>
+      <c r="E210" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F210" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="G210" s="14"/>
+    </row>
+    <row r="211" spans="1:9" ht="14" x14ac:dyDescent="0.2">
+      <c r="A211" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="G205" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A206" s="28"/>
-      <c r="B206" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C206" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D206" s="14"/>
-      <c r="E206" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F206" s="14" t="s">
+      <c r="B211" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="G206" s="14"/>
-    </row>
-    <row r="207" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A207" s="21" t="s">
-        <v>332</v>
-      </c>
-      <c r="B207" s="15" t="s">
+      <c r="C211" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="C207" s="15" t="s">
+      <c r="D211" s="15"/>
+      <c r="E211" s="15" t="str">
+        <f t="shared" ref="E211:E213" si="27">_xlfn.CONCAT(B211, "_", C211)</f>
+        <v>HPA_GTEx_Expression_Value</v>
+      </c>
+      <c r="F211" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G211" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="14" x14ac:dyDescent="0.2">
+      <c r="A212" s="28"/>
+      <c r="B212" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="C212" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="D207" s="15"/>
-      <c r="E207" s="15" t="str">
-        <f t="shared" ref="E207:E209" si="27">_xlfn.CONCAT(B207, "_", C207)</f>
-        <v>HPA_GTEx_Expression_Value</v>
-      </c>
-      <c r="F207" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G207" s="4" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A208" s="22"/>
-      <c r="B208" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="C208" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="D208" s="15"/>
-      <c r="E208" s="15" t="str">
+      <c r="D212" s="15"/>
+      <c r="E212" s="15" t="str">
         <f t="shared" si="27"/>
         <v>HPA_GTEx_Subcellular_Location</v>
       </c>
-      <c r="F208" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G208" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A209" s="22"/>
-      <c r="B209" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="C209" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="D209" s="15"/>
-      <c r="E209" s="15" t="str">
+      <c r="F212" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G212" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="14" x14ac:dyDescent="0.2">
+      <c r="A213" s="28"/>
+      <c r="B213" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="C213" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="D213" s="15"/>
+      <c r="E213" s="15" t="str">
         <f t="shared" si="27"/>
         <v>HPA_GTEx_Source</v>
       </c>
-      <c r="F209" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G209" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A210" s="22"/>
-      <c r="B210" s="15" t="s">
+      <c r="F213" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G213" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" ht="14" x14ac:dyDescent="0.2">
+      <c r="A214" s="28"/>
+      <c r="B214" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="C214" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D214" s="15"/>
+      <c r="E214" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F214" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="G214" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C210" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D210" s="15"/>
-      <c r="E210" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F210" s="15" t="s">
+    </row>
+    <row r="215" spans="1:9" ht="14" x14ac:dyDescent="0.2">
+      <c r="A215" s="29"/>
+      <c r="B215" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C215" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D215" s="15"/>
+      <c r="E215" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F215" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="G215" s="15"/>
+    </row>
+    <row r="216" spans="1:9" ht="14" x14ac:dyDescent="0.2">
+      <c r="A216" s="31" t="s">
         <v>337</v>
       </c>
-      <c r="G210" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A211" s="23"/>
-      <c r="B211" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C211" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D211" s="15"/>
-      <c r="E211" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F211" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="G211" s="15"/>
-    </row>
-    <row r="212" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A212" s="26" t="s">
-        <v>338</v>
-      </c>
-      <c r="B212" s="16" t="s">
+      <c r="B216" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="C216" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="C212" s="16" t="s">
+      <c r="D216" s="16"/>
+      <c r="E216" s="14" t="str">
+        <f t="shared" ref="E216:E218" si="28">_xlfn.CONCAT(B216, "_", C216)</f>
+        <v>HPA_GTEx_Expression_Value</v>
+      </c>
+      <c r="F216" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" ht="14" x14ac:dyDescent="0.2">
+      <c r="A217" s="26"/>
+      <c r="B217" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="C217" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="D212" s="16"/>
-      <c r="E212" s="14" t="str">
-        <f t="shared" ref="E212:E214" si="28">_xlfn.CONCAT(B212, "_", C212)</f>
-        <v>HPA_GTEx_Expression_Value</v>
-      </c>
-      <c r="F212" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A213" s="27"/>
-      <c r="B213" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="C213" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="D213" s="16"/>
-      <c r="E213" s="14" t="str">
+      <c r="D217" s="16"/>
+      <c r="E217" s="14" t="str">
         <f t="shared" si="28"/>
         <v>HPA_GTEx_Subcellular_Location</v>
       </c>
-      <c r="F213" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G213" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A214" s="27"/>
-      <c r="B214" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="C214" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="D214" s="16"/>
-      <c r="E214" s="14" t="str">
+      <c r="F217" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" ht="14" x14ac:dyDescent="0.2">
+      <c r="A218" s="26"/>
+      <c r="B218" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="C218" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="D218" s="16"/>
+      <c r="E218" s="14" t="str">
         <f t="shared" si="28"/>
         <v>HPA_GTEx_Source</v>
       </c>
-      <c r="F214" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G214" s="2" t="s">
+      <c r="F218" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="14" x14ac:dyDescent="0.2">
+      <c r="A219" s="26"/>
+      <c r="B219" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="C219" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D219" s="14"/>
+      <c r="E219" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F219" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="G219" s="18" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A215" s="27"/>
-      <c r="B215" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="C215" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D215" s="14"/>
-      <c r="E215" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F215" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="G215" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A216" s="28"/>
-      <c r="B216" s="14" t="s">
+    <row r="220" spans="1:9" ht="14" x14ac:dyDescent="0.2">
+      <c r="A220" s="27"/>
+      <c r="B220" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C216" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D216" s="14"/>
-      <c r="E216" s="14" t="s">
+      <c r="C220" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D220" s="14"/>
+      <c r="E220" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F216" s="14" t="s">
+      <c r="F220" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="G220" s="14"/>
+    </row>
+    <row r="221" spans="1:9" ht="14" x14ac:dyDescent="0.2">
+      <c r="A221" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="G216" s="14"/>
-    </row>
-    <row r="217" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A217" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="B217" s="15" t="s">
+      <c r="B221" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="C221" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="C217" s="15" t="s">
+      <c r="D221" s="15"/>
+      <c r="E221" s="15" t="str">
+        <f t="shared" ref="E221:E223" si="29">_xlfn.CONCAT(B221, "_", C221)</f>
+        <v>HPA_GTEx_Expression_Value</v>
+      </c>
+      <c r="F221" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G221" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" ht="14" x14ac:dyDescent="0.2">
+      <c r="A222" s="28"/>
+      <c r="B222" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="C222" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="D217" s="15"/>
-      <c r="E217" s="15" t="str">
-        <f t="shared" ref="E217:E219" si="29">_xlfn.CONCAT(B217, "_", C217)</f>
-        <v>HPA_GTEx_Expression_Value</v>
-      </c>
-      <c r="F217" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G217" s="4" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A218" s="22"/>
-      <c r="B218" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="C218" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="D218" s="15"/>
-      <c r="E218" s="15" t="str">
+      <c r="D222" s="15"/>
+      <c r="E222" s="15" t="str">
         <f t="shared" si="29"/>
         <v>HPA_GTEx_Subcellular_Location</v>
       </c>
-      <c r="F218" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G218" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A219" s="22"/>
-      <c r="B219" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="C219" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="D219" s="15"/>
-      <c r="E219" s="15" t="str">
+      <c r="F222" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G222" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" ht="14" x14ac:dyDescent="0.2">
+      <c r="A223" s="28"/>
+      <c r="B223" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="C223" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="D223" s="15"/>
+      <c r="E223" s="15" t="str">
         <f t="shared" si="29"/>
         <v>HPA_GTEx_Source</v>
       </c>
-      <c r="F219" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G219" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A220" s="22"/>
-      <c r="B220" s="15" t="s">
+      <c r="F223" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G223" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" ht="14" x14ac:dyDescent="0.2">
+      <c r="A224" s="28"/>
+      <c r="B224" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="C224" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D224" s="15"/>
+      <c r="E224" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F224" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="G224" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C220" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D220" s="15"/>
-      <c r="E220" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F220" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="G220" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A221" s="23"/>
-      <c r="B221" s="15" t="s">
+    </row>
+    <row r="225" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A225" s="29"/>
+      <c r="B225" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C221" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D221" s="15"/>
-      <c r="E221" s="15" t="s">
+      <c r="C225" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D225" s="15"/>
+      <c r="E225" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F221" s="15" t="s">
+      <c r="F225" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="G225" s="15"/>
+    </row>
+    <row r="226" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A226" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="G221" s="15"/>
-    </row>
-    <row r="222" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A222" s="26" t="s">
-        <v>340</v>
-      </c>
-      <c r="B222" s="16" t="s">
+      <c r="B226" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="C226" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="C222" s="16" t="s">
+      <c r="D226" s="16"/>
+      <c r="E226" s="14" t="str">
+        <f t="shared" ref="E226:E228" si="30">_xlfn.CONCAT(B226, "_", C226)</f>
+        <v>HPA_GTEx_Expression_Value</v>
+      </c>
+      <c r="F226" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A227" s="26"/>
+      <c r="B227" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="C227" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="D222" s="16"/>
-      <c r="E222" s="14" t="str">
-        <f t="shared" ref="E222:E224" si="30">_xlfn.CONCAT(B222, "_", C222)</f>
-        <v>HPA_GTEx_Expression_Value</v>
-      </c>
-      <c r="F222" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G222" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A223" s="27"/>
-      <c r="B223" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="C223" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="D223" s="16"/>
-      <c r="E223" s="14" t="str">
+      <c r="D227" s="16"/>
+      <c r="E227" s="14" t="str">
         <f t="shared" si="30"/>
         <v>HPA_GTEx_Subcellular_Location</v>
       </c>
-      <c r="F223" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G223" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A224" s="27"/>
-      <c r="B224" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="C224" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="D224" s="16"/>
-      <c r="E224" s="14" t="str">
+      <c r="F227" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A228" s="26"/>
+      <c r="B228" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="C228" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="D228" s="16"/>
+      <c r="E228" s="14" t="str">
         <f t="shared" si="30"/>
         <v>HPA_GTEx_Source</v>
       </c>
-      <c r="F224" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G224" s="2" t="s">
+      <c r="F228" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A229" s="26"/>
+      <c r="B229" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="C229" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D229" s="14"/>
+      <c r="E229" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F229" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="G229" s="18" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A225" s="27"/>
-      <c r="B225" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="C225" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D225" s="14"/>
-      <c r="E225" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F225" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="G225" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A226" s="28"/>
-      <c r="B226" s="14" t="s">
+    <row r="230" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A230" s="27"/>
+      <c r="B230" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C226" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D226" s="14"/>
-      <c r="E226" s="14" t="s">
+      <c r="C230" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D230" s="14"/>
+      <c r="E230" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F226" s="14" t="s">
+      <c r="F230" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="G230" s="14"/>
+    </row>
+    <row r="231" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A231" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="G226" s="14"/>
-    </row>
-    <row r="227" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A227" s="21" t="s">
-        <v>341</v>
-      </c>
-      <c r="B227" s="15" t="s">
+      <c r="B231" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="C231" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="C227" s="15" t="s">
+      <c r="D231" s="15"/>
+      <c r="E231" s="15" t="str">
+        <f t="shared" ref="E231:E233" si="31">_xlfn.CONCAT(B231, "_", C231)</f>
+        <v>HPA_GTEx_Expression_Value</v>
+      </c>
+      <c r="F231" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G231" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A232" s="28"/>
+      <c r="B232" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="C232" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="D227" s="15"/>
-      <c r="E227" s="15" t="str">
-        <f t="shared" ref="E227:E229" si="31">_xlfn.CONCAT(B227, "_", C227)</f>
-        <v>HPA_GTEx_Expression_Value</v>
-      </c>
-      <c r="F227" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G227" s="4" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A228" s="22"/>
-      <c r="B228" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="C228" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="D228" s="15"/>
-      <c r="E228" s="15" t="str">
+      <c r="D232" s="15"/>
+      <c r="E232" s="15" t="str">
         <f t="shared" si="31"/>
         <v>HPA_GTEx_Subcellular_Location</v>
       </c>
-      <c r="F228" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G228" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A229" s="22"/>
-      <c r="B229" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="C229" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="D229" s="15"/>
-      <c r="E229" s="15" t="str">
+      <c r="F232" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G232" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A233" s="28"/>
+      <c r="B233" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="C233" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="D233" s="15"/>
+      <c r="E233" s="15" t="str">
         <f t="shared" si="31"/>
         <v>HPA_GTEx_Source</v>
       </c>
-      <c r="F229" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G229" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A230" s="22"/>
-      <c r="B230" s="15" t="s">
+      <c r="F233" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G233" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A234" s="28"/>
+      <c r="B234" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="C234" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D234" s="15"/>
+      <c r="E234" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F234" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="G234" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C230" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D230" s="15"/>
-      <c r="E230" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F230" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="G230" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A231" s="23"/>
-      <c r="B231" s="15" t="s">
+    </row>
+    <row r="235" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A235" s="29"/>
+      <c r="B235" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C231" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D231" s="15"/>
-      <c r="E231" s="15" t="s">
+      <c r="C235" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D235" s="15"/>
+      <c r="E235" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F231" s="15" t="s">
+      <c r="F235" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="G235" s="15"/>
+    </row>
+    <row r="236" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A236" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="G231" s="15"/>
-    </row>
-    <row r="232" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A232" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="B232" s="16" t="s">
+      <c r="B236" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="C236" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="C232" s="16" t="s">
+      <c r="D236" s="16"/>
+      <c r="E236" s="14" t="str">
+        <f t="shared" ref="E236:E238" si="32">_xlfn.CONCAT(B236, "_", C236)</f>
+        <v>HPA_GTEx_Expression_Value</v>
+      </c>
+      <c r="F236" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A237" s="26"/>
+      <c r="B237" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="C237" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="D232" s="16"/>
-      <c r="E232" s="14" t="str">
-        <f t="shared" ref="E232:E234" si="32">_xlfn.CONCAT(B232, "_", C232)</f>
-        <v>HPA_GTEx_Expression_Value</v>
-      </c>
-      <c r="F232" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G232" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A233" s="27"/>
-      <c r="B233" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="C233" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="D233" s="16"/>
-      <c r="E233" s="14" t="str">
+      <c r="D237" s="16"/>
+      <c r="E237" s="14" t="str">
         <f t="shared" si="32"/>
         <v>HPA_GTEx_Subcellular_Location</v>
       </c>
-      <c r="F233" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G233" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A234" s="27"/>
-      <c r="B234" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="C234" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="D234" s="16"/>
-      <c r="E234" s="14" t="str">
+      <c r="F237" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A238" s="26"/>
+      <c r="B238" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="C238" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="D238" s="16"/>
+      <c r="E238" s="14" t="str">
         <f t="shared" si="32"/>
         <v>HPA_GTEx_Source</v>
       </c>
-      <c r="F234" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G234" s="2" t="s">
+      <c r="F238" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A239" s="26"/>
+      <c r="B239" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="C239" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D239" s="14"/>
+      <c r="E239" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F239" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="G239" s="18" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A235" s="27"/>
-      <c r="B235" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="C235" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D235" s="14"/>
-      <c r="E235" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F235" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="G235" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A236" s="28"/>
-      <c r="B236" s="14" t="s">
+    <row r="240" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A240" s="27"/>
+      <c r="B240" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C236" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D236" s="14"/>
-      <c r="E236" s="14" t="s">
+      <c r="C240" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D240" s="14"/>
+      <c r="E240" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F236" s="14" t="s">
+      <c r="F240" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="G240" s="14"/>
+    </row>
+    <row r="241" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A241" s="30" t="s">
         <v>342</v>
       </c>
-      <c r="G236" s="14"/>
-    </row>
-    <row r="237" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A237" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="B237" s="15" t="s">
+      <c r="B241" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="C241" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="C237" s="15" t="s">
+      <c r="D241" s="15"/>
+      <c r="E241" s="15" t="str">
+        <f t="shared" ref="E241:E243" si="33">_xlfn.CONCAT(B241, "_", C241)</f>
+        <v>HPA_GTEx_Expression_Value</v>
+      </c>
+      <c r="F241" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G241" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A242" s="28"/>
+      <c r="B242" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="C242" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="D237" s="15"/>
-      <c r="E237" s="15" t="str">
-        <f t="shared" ref="E237:E239" si="33">_xlfn.CONCAT(B237, "_", C237)</f>
-        <v>HPA_GTEx_Expression_Value</v>
-      </c>
-      <c r="F237" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G237" s="4" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A238" s="22"/>
-      <c r="B238" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="C238" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="D238" s="15"/>
-      <c r="E238" s="15" t="str">
+      <c r="D242" s="15"/>
+      <c r="E242" s="15" t="str">
         <f t="shared" si="33"/>
         <v>HPA_GTEx_Subcellular_Location</v>
       </c>
-      <c r="F238" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G238" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A239" s="22"/>
-      <c r="B239" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="C239" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="D239" s="15"/>
-      <c r="E239" s="15" t="str">
+      <c r="F242" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G242" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A243" s="28"/>
+      <c r="B243" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="C243" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="D243" s="15"/>
+      <c r="E243" s="15" t="str">
         <f t="shared" si="33"/>
         <v>HPA_GTEx_Source</v>
       </c>
-      <c r="F239" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G239" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A240" s="22"/>
-      <c r="B240" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="C240" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D240" s="15"/>
-      <c r="E240" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F240" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="G240" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A241" s="23"/>
-      <c r="B241" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C241" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D241" s="15"/>
-      <c r="E241" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F241" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="G241" s="15"/>
-    </row>
-    <row r="242" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A242" s="27" t="s">
-        <v>353</v>
-      </c>
-      <c r="B242" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="C242" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="D242" s="16"/>
-      <c r="E242" s="14" t="str">
-        <f t="shared" ref="E242" si="34">_xlfn.CONCAT(B242, "_", C242)</f>
-        <v>Uniprot_Status</v>
-      </c>
-      <c r="F242" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G242" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A243" s="27"/>
-      <c r="B243" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="C243" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D243" s="14"/>
-      <c r="E243" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F243" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="G243" s="2" t="s">
-        <v>109</v>
+      <c r="F243" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G243" s="4" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A244" s="28"/>
-      <c r="B244" s="14" t="s">
+      <c r="B244" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="C244" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D244" s="15"/>
+      <c r="E244" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F244" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="G244" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A245" s="29"/>
+      <c r="B245" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C244" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D244" s="14"/>
-      <c r="E244" s="14" t="s">
+      <c r="C245" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D245" s="15"/>
+      <c r="E245" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F244" s="14" t="s">
+      <c r="F245" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="G245" s="15"/>
+    </row>
+    <row r="246" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A246" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="B246" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="C246" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="D246" s="16"/>
+      <c r="E246" s="14" t="str">
+        <f t="shared" ref="E246" si="34">_xlfn.CONCAT(B246, "_", C246)</f>
+        <v>Uniprot_Status</v>
+      </c>
+      <c r="F246" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G246" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="G244" s="14"/>
-    </row>
-    <row r="245" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A245" s="22" t="s">
-        <v>356</v>
-      </c>
-      <c r="B245" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="C245" s="15" t="s">
+    </row>
+    <row r="247" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A247" s="26"/>
+      <c r="B247" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="C247" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D247" s="14"/>
+      <c r="E247" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F247" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G247" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A248" s="27"/>
+      <c r="B248" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C248" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D248" s="14"/>
+      <c r="E248" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F248" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G248" s="14"/>
+    </row>
+    <row r="249" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A249" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="D245" s="15"/>
-      <c r="E245" s="15" t="str">
-        <f t="shared" ref="E245" si="35">_xlfn.CONCAT(B245, "_", C245)</f>
+      <c r="B249" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="C249" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="D249" s="15"/>
+      <c r="E249" s="15" t="str">
+        <f t="shared" ref="E249" si="35">_xlfn.CONCAT(B249, "_", C249)</f>
         <v>Uniprot_Status</v>
       </c>
-      <c r="F245" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G245" s="4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A246" s="22"/>
-      <c r="B246" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="C246" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D246" s="15"/>
-      <c r="E246" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F246" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="G246" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A247" s="23"/>
-      <c r="B247" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C247" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D247" s="15"/>
-      <c r="E247" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F247" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="G247" s="15"/>
-    </row>
-    <row r="248" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A248" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="B248" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="C248" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="D248" s="16"/>
-      <c r="E248" s="14" t="str">
-        <f t="shared" ref="E248" si="36">_xlfn.CONCAT(B248, "_", C248)</f>
-        <v>Uniprot_Status</v>
-      </c>
-      <c r="F248" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G248" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A249" s="27"/>
-      <c r="B249" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="C249" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D249" s="14"/>
-      <c r="E249" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F249" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="G249" s="2" t="s">
-        <v>109</v>
+      <c r="F249" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G249" s="4" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A250" s="28"/>
-      <c r="B250" s="14" t="s">
+      <c r="B250" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="C250" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D250" s="15"/>
+      <c r="E250" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F250" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G250" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A251" s="29"/>
+      <c r="B251" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C250" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D250" s="14"/>
-      <c r="E250" s="14" t="s">
+      <c r="C251" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D251" s="15"/>
+      <c r="E251" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F250" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="G250" s="14"/>
-    </row>
-    <row r="251" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A251" s="22" t="s">
-        <v>358</v>
-      </c>
-      <c r="B251" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="C251" s="15" t="s">
+      <c r="F251" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="D251" s="15"/>
-      <c r="E251" s="15" t="str">
-        <f t="shared" ref="E251" si="37">_xlfn.CONCAT(B251, "_", C251)</f>
+      <c r="G251" s="15"/>
+    </row>
+    <row r="252" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A252" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="B252" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="C252" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="D252" s="16"/>
+      <c r="E252" s="14" t="str">
+        <f t="shared" ref="E252" si="36">_xlfn.CONCAT(B252, "_", C252)</f>
         <v>Uniprot_Status</v>
       </c>
-      <c r="F251" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G251" s="4" t="s">
+      <c r="F252" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G252" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A253" s="26"/>
+      <c r="B253" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="C253" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D253" s="14"/>
+      <c r="E253" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F253" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G253" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A254" s="27"/>
+      <c r="B254" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C254" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D254" s="14"/>
+      <c r="E254" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F254" s="14" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A252" s="22"/>
-      <c r="B252" s="15" t="s">
+      <c r="G254" s="14"/>
+    </row>
+    <row r="255" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A255" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="B255" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="C255" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="D255" s="15"/>
+      <c r="E255" s="15" t="str">
+        <f t="shared" ref="E255" si="37">_xlfn.CONCAT(B255, "_", C255)</f>
+        <v>Uniprot_Status</v>
+      </c>
+      <c r="F255" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G255" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A256" s="28"/>
+      <c r="B256" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="C256" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D256" s="15"/>
+      <c r="E256" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F256" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G256" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A257" s="29"/>
+      <c r="B257" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C257" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D257" s="15"/>
+      <c r="E257" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F257" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="G257" s="15"/>
+    </row>
+    <row r="258" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A258" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="B258" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="C258" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="D258" s="23"/>
+      <c r="E258" s="21" t="str">
+        <f>_xlfn.CONCAT(B258, "_", C258)</f>
+        <v>GOA_Qualifier</v>
+      </c>
+      <c r="F258" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G258" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A259" s="26"/>
+      <c r="B259" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="C259" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="D259" s="23"/>
+      <c r="E259" s="21" t="str">
+        <f>_xlfn.CONCAT(B259, "_", C259)</f>
+        <v>GOA_DB_Reference</v>
+      </c>
+      <c r="F259" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G259" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A260" s="26"/>
+      <c r="B260" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="C260" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="D260" s="23"/>
+      <c r="E260" s="21" t="str">
+        <f>_xlfn.CONCAT(B260, "_", C260)</f>
+        <v>GOA_EvidenceCode</v>
+      </c>
+      <c r="F260" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G260" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A261" s="26"/>
+      <c r="B261" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="C261" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="D261" s="23"/>
+      <c r="E261" s="21" t="str">
+        <f>_xlfn.CONCAT(B261, "_", C261)</f>
+        <v>GOA_Taxon</v>
+      </c>
+      <c r="F261" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G261" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A262" s="26"/>
+      <c r="B262" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="C262" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="D262" s="23"/>
+      <c r="E262" s="21" t="str">
+        <f>_xlfn.CONCAT(B262, "_", C262)</f>
+        <v>GOA_AssignedBy</v>
+      </c>
+      <c r="F262" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G262" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A263" s="26"/>
+      <c r="B263" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C263" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D263" s="21"/>
+      <c r="E263" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F263" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G263" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A264" s="27"/>
+      <c r="B264" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C264" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D264" s="21"/>
+      <c r="E264" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F264" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="G264" s="21"/>
+    </row>
+    <row r="265" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A265" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="B265" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="C265" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="D265" s="22"/>
+      <c r="E265" s="22" t="str">
+        <f>_xlfn.CONCAT(B265, "_", C265)</f>
+        <v>GOA_Qualifier</v>
+      </c>
+      <c r="F265" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G265" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A266" s="28"/>
+      <c r="B266" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="C266" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="D266" s="22"/>
+      <c r="E266" s="22" t="str">
+        <f>_xlfn.CONCAT(B266, "_", C266)</f>
+        <v>GOA_DB_Reference</v>
+      </c>
+      <c r="F266" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G266" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A267" s="28"/>
+      <c r="B267" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="C267" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="D267" s="22"/>
+      <c r="E267" s="22" t="str">
+        <f>_xlfn.CONCAT(B267, "_", C267)</f>
+        <v>GOA_EvidenceCode</v>
+      </c>
+      <c r="F267" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G267" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A268" s="28"/>
+      <c r="B268" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="C268" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="D268" s="22"/>
+      <c r="E268" s="22" t="str">
+        <f>_xlfn.CONCAT(B268, "_", C268)</f>
+        <v>GOA_Taxon</v>
+      </c>
+      <c r="F268" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G268" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A269" s="28"/>
+      <c r="B269" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="C269" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="D269" s="22"/>
+      <c r="E269" s="22" t="str">
+        <f>_xlfn.CONCAT(B269, "_", C269)</f>
+        <v>GOA_AssignedBy</v>
+      </c>
+      <c r="F269" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G269" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A270" s="28"/>
+      <c r="B270" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C270" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D270" s="22"/>
+      <c r="E270" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F270" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="G270" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A271" s="29"/>
+      <c r="B271" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C271" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D271" s="22"/>
+      <c r="E271" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F271" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="G271" s="22"/>
+    </row>
+    <row r="272" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A272" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="B272" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="C272" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="D272" s="23"/>
+      <c r="E272" s="21" t="str">
+        <f>_xlfn.CONCAT(B272, "_", C272)</f>
+        <v>GOA_Qualifier</v>
+      </c>
+      <c r="F272" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G272" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A273" s="26"/>
+      <c r="B273" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="C273" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="D273" s="23"/>
+      <c r="E273" s="21" t="str">
+        <f>_xlfn.CONCAT(B273, "_", C273)</f>
+        <v>GOA_DB_Reference</v>
+      </c>
+      <c r="F273" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G273" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A274" s="26"/>
+      <c r="B274" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="C274" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="D274" s="23"/>
+      <c r="E274" s="21" t="str">
+        <f>_xlfn.CONCAT(B274, "_", C274)</f>
+        <v>GOA_EvidenceCode</v>
+      </c>
+      <c r="F274" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G274" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A275" s="26"/>
+      <c r="B275" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="C275" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="D275" s="23"/>
+      <c r="E275" s="21" t="str">
+        <f>_xlfn.CONCAT(B275, "_", C275)</f>
+        <v>GOA_Taxon</v>
+      </c>
+      <c r="F275" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G275" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A276" s="26"/>
+      <c r="B276" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="C276" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="D276" s="23"/>
+      <c r="E276" s="21" t="str">
+        <f>_xlfn.CONCAT(B276, "_", C276)</f>
+        <v>GOA_AssignedBy</v>
+      </c>
+      <c r="F276" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G276" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A277" s="26"/>
+      <c r="B277" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C277" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D277" s="21"/>
+      <c r="E277" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F277" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="G277" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A278" s="27"/>
+      <c r="B278" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C278" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D278" s="21"/>
+      <c r="E278" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F278" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="G278" s="21"/>
+    </row>
+    <row r="279" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A279" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="B279" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="C279" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="D279" s="22"/>
+      <c r="E279" s="22" t="str">
+        <f>_xlfn.CONCAT(B279, "_", C279)</f>
+        <v>GOA_Qualifier</v>
+      </c>
+      <c r="F279" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G279" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A280" s="28"/>
+      <c r="B280" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="C280" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="D280" s="22"/>
+      <c r="E280" s="22" t="str">
+        <f>_xlfn.CONCAT(B280, "_", C280)</f>
+        <v>GOA_DB_Reference</v>
+      </c>
+      <c r="F280" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G280" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A281" s="28"/>
+      <c r="B281" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="C281" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="D281" s="22"/>
+      <c r="E281" s="22" t="str">
+        <f>_xlfn.CONCAT(B281, "_", C281)</f>
+        <v>GOA_EvidenceCode</v>
+      </c>
+      <c r="F281" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G281" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A282" s="28"/>
+      <c r="B282" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="C282" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="D282" s="22"/>
+      <c r="E282" s="22" t="str">
+        <f>_xlfn.CONCAT(B282, "_", C282)</f>
+        <v>GOA_Taxon</v>
+      </c>
+      <c r="F282" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G282" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A283" s="28"/>
+      <c r="B283" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="C283" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="D283" s="22"/>
+      <c r="E283" s="22" t="str">
+        <f>_xlfn.CONCAT(B283, "_", C283)</f>
+        <v>GOA_AssignedBy</v>
+      </c>
+      <c r="F283" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G283" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A284" s="28"/>
+      <c r="B284" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C284" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D284" s="22"/>
+      <c r="E284" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F284" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="G284" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C252" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D252" s="15"/>
-      <c r="E252" s="15" t="s">
+    </row>
+    <row r="285" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A285" s="29"/>
+      <c r="B285" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C285" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D285" s="22"/>
+      <c r="E285" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F285" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="G285" s="22"/>
+    </row>
+    <row r="286" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A286" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="B286" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="C286" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="D286" s="23"/>
+      <c r="E286" s="21" t="str">
+        <f>_xlfn.CONCAT(B286, "_", C286)</f>
+        <v>GOA_Qualifier</v>
+      </c>
+      <c r="F286" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G286" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A287" s="26"/>
+      <c r="B287" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="C287" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="D287" s="23"/>
+      <c r="E287" s="21" t="str">
+        <f>_xlfn.CONCAT(B287, "_", C287)</f>
+        <v>GOA_DB_Reference</v>
+      </c>
+      <c r="F287" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G287" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A288" s="26"/>
+      <c r="B288" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="C288" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="D288" s="23"/>
+      <c r="E288" s="21" t="str">
+        <f>_xlfn.CONCAT(B288, "_", C288)</f>
+        <v>GOA_EvidenceCode</v>
+      </c>
+      <c r="F288" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G288" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A289" s="26"/>
+      <c r="B289" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="C289" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="D289" s="23"/>
+      <c r="E289" s="21" t="str">
+        <f>_xlfn.CONCAT(B289, "_", C289)</f>
+        <v>GOA_Taxon</v>
+      </c>
+      <c r="F289" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G289" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A290" s="26"/>
+      <c r="B290" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="C290" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="D290" s="23"/>
+      <c r="E290" s="21" t="str">
+        <f>_xlfn.CONCAT(B290, "_", C290)</f>
+        <v>GOA_AssignedBy</v>
+      </c>
+      <c r="F290" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G290" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A291" s="26"/>
+      <c r="B291" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C291" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D291" s="21"/>
+      <c r="E291" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F252" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="G252" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A253" s="23"/>
-      <c r="B253" s="15" t="s">
+      <c r="F291" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="G291" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A292" s="27"/>
+      <c r="B292" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C253" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D253" s="15"/>
-      <c r="E253" s="15" t="s">
+      <c r="C292" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D292" s="21"/>
+      <c r="E292" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F253" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="G253" s="15"/>
+      <c r="F292" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="G292" s="21"/>
+    </row>
+    <row r="293" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A293" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="B293" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="C293" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="D293" s="22"/>
+      <c r="E293" s="22" t="str">
+        <f>_xlfn.CONCAT(B293, "_", C293)</f>
+        <v>GOA_Qualifier</v>
+      </c>
+      <c r="F293" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G293" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A294" s="28"/>
+      <c r="B294" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="C294" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="D294" s="22"/>
+      <c r="E294" s="22" t="str">
+        <f>_xlfn.CONCAT(B294, "_", C294)</f>
+        <v>GOA_DB_Reference</v>
+      </c>
+      <c r="F294" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G294" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A295" s="28"/>
+      <c r="B295" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="C295" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="D295" s="22"/>
+      <c r="E295" s="22" t="str">
+        <f>_xlfn.CONCAT(B295, "_", C295)</f>
+        <v>GOA_EvidenceCode</v>
+      </c>
+      <c r="F295" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G295" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A296" s="28"/>
+      <c r="B296" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="C296" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="D296" s="22"/>
+      <c r="E296" s="22" t="str">
+        <f>_xlfn.CONCAT(B296, "_", C296)</f>
+        <v>GOA_Taxon</v>
+      </c>
+      <c r="F296" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G296" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A297" s="28"/>
+      <c r="B297" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="C297" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="D297" s="22"/>
+      <c r="E297" s="22" t="str">
+        <f>_xlfn.CONCAT(B297, "_", C297)</f>
+        <v>GOA_AssignedBy</v>
+      </c>
+      <c r="F297" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G297" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A298" s="28"/>
+      <c r="B298" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C298" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D298" s="22"/>
+      <c r="E298" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F298" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="G298" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A299" s="29"/>
+      <c r="B299" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C299" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D299" s="22"/>
+      <c r="E299" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F299" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="G299" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="A248:A250"/>
-    <mergeCell ref="A251:A253"/>
-    <mergeCell ref="A227:A231"/>
-    <mergeCell ref="A232:A236"/>
-    <mergeCell ref="A237:A241"/>
-    <mergeCell ref="A242:A244"/>
-    <mergeCell ref="A245:A247"/>
-    <mergeCell ref="A202:A206"/>
-    <mergeCell ref="A207:A211"/>
-    <mergeCell ref="A212:A216"/>
-    <mergeCell ref="A217:A221"/>
-    <mergeCell ref="A222:A226"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="A106:A114"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A56:A61"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="A50:A55"/>
+  <mergeCells count="52">
+    <mergeCell ref="A293:A299"/>
+    <mergeCell ref="A258:A264"/>
+    <mergeCell ref="A265:A271"/>
+    <mergeCell ref="A272:A278"/>
+    <mergeCell ref="A279:A285"/>
+    <mergeCell ref="A286:A292"/>
+    <mergeCell ref="A200:A205"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="A182:A187"/>
+    <mergeCell ref="A188:A193"/>
+    <mergeCell ref="A194:A199"/>
     <mergeCell ref="A176:A177"/>
     <mergeCell ref="A88:A96"/>
     <mergeCell ref="A70:A78"/>
@@ -8660,12 +9824,31 @@
     <mergeCell ref="A170:A171"/>
     <mergeCell ref="A172:A173"/>
     <mergeCell ref="A174:A175"/>
-    <mergeCell ref="A197:A201"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="A182:A186"/>
-    <mergeCell ref="A187:A191"/>
-    <mergeCell ref="A192:A196"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="A106:A114"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="A206:A210"/>
+    <mergeCell ref="A211:A215"/>
+    <mergeCell ref="A216:A220"/>
+    <mergeCell ref="A221:A225"/>
+    <mergeCell ref="A226:A230"/>
+    <mergeCell ref="A252:A254"/>
+    <mergeCell ref="A255:A257"/>
+    <mergeCell ref="A231:A235"/>
+    <mergeCell ref="A236:A240"/>
+    <mergeCell ref="A241:A245"/>
+    <mergeCell ref="A246:A248"/>
+    <mergeCell ref="A249:A251"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8673,11 +9856,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780CD01F-0819-CA44-B0D6-41E21FE9EADE}">
-  <dimension ref="A1:H216"/>
+  <dimension ref="A1:H224"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B142" sqref="B142"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G63" sqref="G63:G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -8720,13 +9903,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="33" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -8744,9 +9927,9 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A3" s="43"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
@@ -8762,9 +9945,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A4" s="43"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
@@ -8780,9 +9963,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A5" s="43"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
@@ -8798,9 +9981,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A6" s="43"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
@@ -8816,9 +9999,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="112" x14ac:dyDescent="0.2">
-      <c r="A7" s="43"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
@@ -8834,9 +10017,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="154" x14ac:dyDescent="0.2">
-      <c r="A8" s="43"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
@@ -8844,7 +10027,7 @@
         <v>26</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="33" t="s">
         <v>36</v>
       </c>
       <c r="H8" s="7" t="s">
@@ -8852,9 +10035,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="154" x14ac:dyDescent="0.2">
-      <c r="A9" s="43"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
@@ -8862,19 +10045,19 @@
         <v>63</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="24"/>
+      <c r="G9" s="33"/>
       <c r="H9" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="34" t="s">
         <v>97</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -8892,9 +10075,9 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A11" s="39"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="3" t="s">
         <v>19</v>
       </c>
@@ -8910,9 +10093,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A12" s="39"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="3" t="s">
         <v>19</v>
       </c>
@@ -8928,9 +10111,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A13" s="39"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="3" t="s">
         <v>24</v>
       </c>
@@ -8946,9 +10129,9 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A14" s="39"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="3" t="s">
         <v>24</v>
       </c>
@@ -8964,9 +10147,9 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A15" s="39"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="3" t="s">
         <v>25</v>
       </c>
@@ -8974,7 +10157,7 @@
         <v>64</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="34" t="s">
         <v>37</v>
       </c>
       <c r="H15" s="4" t="s">
@@ -8982,9 +10165,9 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A16" s="39"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="3" t="s">
         <v>165</v>
       </c>
@@ -8992,15 +10175,15 @@
         <v>164</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="25"/>
+      <c r="G16" s="34"/>
       <c r="H16" s="4" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A17" s="39"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="3" t="s">
         <v>171</v>
       </c>
@@ -9008,15 +10191,15 @@
         <v>173</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="25"/>
+      <c r="G17" s="34"/>
       <c r="H17" s="4" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A18" s="39"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -9024,7 +10207,7 @@
         <v>65</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="34" t="s">
         <v>36</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -9032,9 +10215,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A19" s="39"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="3" t="s">
         <v>25</v>
       </c>
@@ -9042,15 +10225,15 @@
         <v>66</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="25"/>
+      <c r="G19" s="34"/>
       <c r="H19" s="4" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A20" s="39"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="3" t="s">
         <v>165</v>
       </c>
@@ -9058,15 +10241,15 @@
         <v>162</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="25"/>
+      <c r="G20" s="34"/>
       <c r="H20" s="4" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="3" t="s">
         <v>171</v>
       </c>
@@ -9074,15 +10257,15 @@
         <v>174</v>
       </c>
       <c r="F21" s="3"/>
-      <c r="G21" s="25"/>
+      <c r="G21" s="34"/>
       <c r="H21" s="4" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A22" s="39"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="3" t="s">
         <v>170</v>
       </c>
@@ -9098,9 +10281,9 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A23" s="39"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="3" t="s">
         <v>170</v>
       </c>
@@ -9118,13 +10301,13 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="32" t="s">
         <v>96</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -9142,9 +10325,9 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A25" s="41"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="6" t="s">
         <v>19</v>
       </c>
@@ -9160,9 +10343,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A26" s="41"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="6" t="s">
         <v>19</v>
       </c>
@@ -9178,9 +10361,9 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A27" s="41"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="6" t="s">
         <v>24</v>
       </c>
@@ -9196,9 +10379,9 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A28" s="41"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="6" t="s">
         <v>24</v>
       </c>
@@ -9214,9 +10397,9 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A29" s="41"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="6" t="s">
         <v>25</v>
       </c>
@@ -9224,7 +10407,7 @@
         <v>64</v>
       </c>
       <c r="F29" s="6"/>
-      <c r="G29" s="29" t="s">
+      <c r="G29" s="32" t="s">
         <v>37</v>
       </c>
       <c r="H29" s="7" t="s">
@@ -9232,9 +10415,9 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A30" s="41"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
       <c r="D30" s="17" t="s">
         <v>171</v>
       </c>
@@ -9242,15 +10425,15 @@
         <v>173</v>
       </c>
       <c r="F30" s="17"/>
-      <c r="G30" s="29"/>
+      <c r="G30" s="32"/>
       <c r="H30" s="18" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A31" s="41"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="17" t="s">
         <v>25</v>
       </c>
@@ -9258,7 +10441,7 @@
         <v>65</v>
       </c>
       <c r="F31" s="17"/>
-      <c r="G31" s="40" t="s">
+      <c r="G31" s="48" t="s">
         <v>36</v>
       </c>
       <c r="H31" s="18" t="s">
@@ -9266,9 +10449,9 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A32" s="41"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
       <c r="D32" s="17" t="s">
         <v>25</v>
       </c>
@@ -9276,15 +10459,15 @@
         <v>66</v>
       </c>
       <c r="F32" s="17"/>
-      <c r="G32" s="40"/>
+      <c r="G32" s="48"/>
       <c r="H32" s="18" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A33" s="41"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
       <c r="D33" s="17" t="s">
         <v>171</v>
       </c>
@@ -9292,15 +10475,15 @@
         <v>174</v>
       </c>
       <c r="F33" s="17"/>
-      <c r="G33" s="40"/>
+      <c r="G33" s="48"/>
       <c r="H33" s="18" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A34" s="41"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
       <c r="D34" s="17" t="s">
         <v>170</v>
       </c>
@@ -9316,9 +10499,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A35" s="41"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="17" t="s">
         <v>170</v>
       </c>
@@ -9336,13 +10519,13 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="46" t="s">
         <v>95</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -9360,9 +10543,9 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A37" s="39"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
       <c r="D37" s="3" t="s">
         <v>19</v>
       </c>
@@ -9378,9 +10561,9 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A38" s="39"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
       <c r="D38" s="3" t="s">
         <v>19</v>
       </c>
@@ -9396,9 +10579,9 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A39" s="39"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
       <c r="D39" s="3" t="s">
         <v>24</v>
       </c>
@@ -9414,9 +10597,9 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A40" s="39"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
       <c r="D40" s="3" t="s">
         <v>24</v>
       </c>
@@ -9432,9 +10615,9 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A41" s="39"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
       <c r="D41" s="3" t="s">
         <v>25</v>
       </c>
@@ -9450,9 +10633,9 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A42" s="39"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
+      <c r="A42" s="46"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
       <c r="D42" s="3" t="s">
         <v>25</v>
       </c>
@@ -9460,7 +10643,7 @@
         <v>73</v>
       </c>
       <c r="F42" s="3"/>
-      <c r="G42" s="25" t="s">
+      <c r="G42" s="34" t="s">
         <v>36</v>
       </c>
       <c r="H42" s="4" t="s">
@@ -9468,9 +10651,9 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A43" s="39"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
       <c r="D43" s="3" t="s">
         <v>171</v>
       </c>
@@ -9478,15 +10661,15 @@
         <v>172</v>
       </c>
       <c r="F43" s="3"/>
-      <c r="G43" s="25"/>
+      <c r="G43" s="34"/>
       <c r="H43" s="4" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A44" s="39"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
+      <c r="A44" s="46"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
       <c r="D44" s="3" t="s">
         <v>1</v>
       </c>
@@ -9502,13 +10685,13 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A45" s="42" t="s">
+      <c r="A45" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="42" t="s">
+      <c r="B45" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="42" t="s">
+      <c r="C45" s="47" t="s">
         <v>95</v>
       </c>
       <c r="D45" s="17" t="s">
@@ -9526,9 +10709,9 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A46" s="42"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="47"/>
       <c r="D46" s="17" t="s">
         <v>19</v>
       </c>
@@ -9544,9 +10727,9 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A47" s="42"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
       <c r="D47" s="17" t="s">
         <v>19</v>
       </c>
@@ -9562,9 +10745,9 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A48" s="42"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
+      <c r="A48" s="47"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
       <c r="D48" s="17" t="s">
         <v>24</v>
       </c>
@@ -9580,9 +10763,9 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A49" s="42"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
+      <c r="A49" s="47"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
       <c r="D49" s="17" t="s">
         <v>24</v>
       </c>
@@ -9598,9 +10781,9 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A50" s="42"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="42"/>
+      <c r="A50" s="47"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="47"/>
       <c r="D50" s="17" t="s">
         <v>25</v>
       </c>
@@ -9616,9 +10799,9 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A51" s="42"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
+      <c r="A51" s="47"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="47"/>
       <c r="D51" s="17" t="s">
         <v>25</v>
       </c>
@@ -9626,49 +10809,49 @@
         <v>73</v>
       </c>
       <c r="F51" s="17"/>
-      <c r="G51" s="30" t="s">
+      <c r="G51" s="40" t="s">
         <v>36</v>
       </c>
       <c r="H51" s="18" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="44" customFormat="1" ht="70" x14ac:dyDescent="0.2">
-      <c r="A52" s="42"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
+    <row r="52" spans="1:8" s="25" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="A52" s="47"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="47"/>
       <c r="D52" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="E52" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="E52" s="20" t="s">
+      <c r="F52" s="20"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="18" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="25" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="A53" s="47"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="E53" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="F52" s="20"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="18" t="s">
+      <c r="F53" s="20"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="18" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="44" customFormat="1" ht="70" x14ac:dyDescent="0.2">
-      <c r="A53" s="42"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="E53" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="F53" s="20"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
     <row r="54" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A54" s="42"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="42"/>
+      <c r="A54" s="47"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="47"/>
       <c r="D54" s="6" t="s">
         <v>1</v>
       </c>
@@ -9684,13 +10867,13 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A55" s="39" t="s">
+      <c r="A55" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B55" s="39" t="s">
+      <c r="B55" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="39" t="s">
+      <c r="C55" s="46" t="s">
         <v>94</v>
       </c>
       <c r="D55" s="3" t="s">
@@ -9708,9 +10891,9 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A56" s="39"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
+      <c r="A56" s="46"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
       <c r="D56" s="3" t="s">
         <v>19</v>
       </c>
@@ -9726,9 +10909,9 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A57" s="39"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
+      <c r="A57" s="46"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="46"/>
       <c r="D57" s="3" t="s">
         <v>19</v>
       </c>
@@ -9744,9 +10927,9 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A58" s="39"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="39"/>
+      <c r="A58" s="46"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="46"/>
       <c r="D58" s="3" t="s">
         <v>24</v>
       </c>
@@ -9762,9 +10945,9 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A59" s="39"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
+      <c r="A59" s="46"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="46"/>
       <c r="D59" s="3" t="s">
         <v>24</v>
       </c>
@@ -9780,9 +10963,9 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A60" s="39"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="39"/>
+      <c r="A60" s="46"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="46"/>
       <c r="D60" s="3" t="s">
         <v>25</v>
       </c>
@@ -9790,1586 +10973,1644 @@
         <v>73</v>
       </c>
       <c r="F60" s="3"/>
-      <c r="G60" s="3" t="s">
+      <c r="G60" s="30" t="s">
         <v>37</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A61" s="39"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="3" t="s">
+    <row r="61" spans="1:8" ht="84" x14ac:dyDescent="0.2">
+      <c r="A61" s="46"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="E61" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="F61" s="22"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="84" x14ac:dyDescent="0.2">
+      <c r="A62" s="46"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="F62" s="22"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A63" s="46"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E63" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F61" s="3"/>
-      <c r="G61" s="21" t="s">
+      <c r="F63" s="3"/>
+      <c r="G63" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="H63" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="70" x14ac:dyDescent="0.2">
-      <c r="A62" s="39"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="15" t="s">
+    <row r="64" spans="1:8" ht="70" x14ac:dyDescent="0.2">
+      <c r="A64" s="46"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="E64" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="E62" s="15" t="s">
+      <c r="F64" s="15"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="70" x14ac:dyDescent="0.2">
+      <c r="A65" s="46"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="E65" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="F62" s="15"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="70" x14ac:dyDescent="0.2">
-      <c r="A63" s="39"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="F63" s="15"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="70" x14ac:dyDescent="0.2">
-      <c r="A64" s="39"/>
-      <c r="B64" s="39"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="15" t="s">
+      <c r="F65" s="15"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="70" x14ac:dyDescent="0.2">
+      <c r="A66" s="46"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="E66" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="E64" s="15" t="s">
+      <c r="F66" s="15"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="F64" s="15"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="4" t="s">
+    </row>
+    <row r="67" spans="1:8" ht="70" x14ac:dyDescent="0.2">
+      <c r="A67" s="46"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="E67" s="15" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" ht="70" x14ac:dyDescent="0.2">
-      <c r="A65" s="39"/>
-      <c r="B65" s="39"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="F65" s="15"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A66" s="39"/>
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="3" t="s">
+      <c r="F67" s="15"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="84" x14ac:dyDescent="0.2">
+      <c r="A68" s="46"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="F68" s="22"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="84" x14ac:dyDescent="0.2">
+      <c r="A69" s="46"/>
+      <c r="B69" s="46"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="E69" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="F69" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="29"/>
+      <c r="H69" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="84" x14ac:dyDescent="0.2">
+      <c r="A70" s="46"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="46"/>
+      <c r="D70" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A71" s="46"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E71" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3" t="s">
+      <c r="F71" s="3"/>
+      <c r="G71" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H66" s="4" t="s">
+      <c r="H71" s="4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A67" s="36" t="s">
+    <row r="72" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A72" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B67" s="36" t="s">
+      <c r="B72" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="C67" s="36" t="s">
+      <c r="C72" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="D67" s="17" t="s">
+      <c r="D72" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E67" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H67" s="18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A68" s="37"/>
-      <c r="B68" s="37"/>
-      <c r="C68" s="37"/>
-      <c r="D68" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E68" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H68" s="18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A69" s="37"/>
-      <c r="B69" s="37"/>
-      <c r="C69" s="37"/>
-      <c r="D69" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E69" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H69" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A70" s="37"/>
-      <c r="B70" s="37"/>
-      <c r="C70" s="37"/>
-      <c r="D70" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E70" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H70" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A71" s="37"/>
-      <c r="B71" s="37"/>
-      <c r="C71" s="37"/>
-      <c r="D71" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E71" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H71" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A72" s="37"/>
-      <c r="B72" s="37"/>
-      <c r="C72" s="37"/>
-      <c r="D72" s="17" t="s">
-        <v>25</v>
-      </c>
       <c r="E72" s="17" t="s">
-        <v>219</v>
+        <v>18</v>
       </c>
       <c r="F72" s="17"/>
       <c r="G72" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A73" s="50"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="50"/>
+      <c r="D73" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A74" s="50"/>
+      <c r="B74" s="50"/>
+      <c r="C74" s="50"/>
+      <c r="D74" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H74" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A75" s="50"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H75" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A76" s="50"/>
+      <c r="B76" s="50"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H76" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A77" s="50"/>
+      <c r="B77" s="50"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H72" s="18" t="s">
+      <c r="H77" s="18" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A73" s="37"/>
-      <c r="B73" s="37"/>
-      <c r="C73" s="37"/>
-      <c r="D73" s="17" t="s">
+    <row r="78" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A78" s="50"/>
+      <c r="B78" s="50"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E73" s="17" t="s">
+      <c r="E78" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="17"/>
-      <c r="G73" s="30" t="s">
+      <c r="F78" s="17"/>
+      <c r="G78" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="H73" s="18" t="s">
+      <c r="H78" s="18" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A74" s="37"/>
-      <c r="B74" s="37"/>
-      <c r="C74" s="37"/>
-      <c r="D74" s="17" t="s">
+    <row r="79" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A79" s="50"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="50"/>
+      <c r="D79" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E74" s="17" t="s">
+      <c r="E79" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="F74" s="17"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="18" t="s">
+      <c r="F79" s="17"/>
+      <c r="G79" s="41"/>
+      <c r="H79" s="18" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="84" x14ac:dyDescent="0.2">
-      <c r="A75" s="37"/>
-      <c r="B75" s="37"/>
-      <c r="C75" s="37"/>
-      <c r="D75" s="17" t="s">
+    <row r="80" spans="1:8" ht="84" x14ac:dyDescent="0.2">
+      <c r="A80" s="50"/>
+      <c r="B80" s="50"/>
+      <c r="C80" s="50"/>
+      <c r="D80" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="E75" s="17" t="s">
+      <c r="E80" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="F80" s="17"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F75" s="17"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A76" s="37"/>
-      <c r="B76" s="37"/>
-      <c r="C76" s="37"/>
-      <c r="D76" s="6" t="s">
+    </row>
+    <row r="81" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A81" s="50"/>
+      <c r="B81" s="50"/>
+      <c r="C81" s="50"/>
+      <c r="D81" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="E81" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6" t="s">
+      <c r="F81" s="6"/>
+      <c r="G81" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="H76" s="7" t="s">
+      <c r="H81" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A77" s="38"/>
-      <c r="B77" s="38"/>
-      <c r="C77" s="38"/>
-      <c r="D77" s="6" t="s">
+    <row r="82" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A82" s="51"/>
+      <c r="B82" s="51"/>
+      <c r="C82" s="51"/>
+      <c r="D82" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="E82" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6" t="s">
+      <c r="F82" s="6"/>
+      <c r="G82" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="H77" s="7" t="s">
+      <c r="H82" s="7" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A78" s="33" t="s">
+    <row r="83" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A83" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B78" s="33" t="s">
+      <c r="B83" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="C78" s="33" t="s">
+      <c r="C83" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D83" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A79" s="34"/>
-      <c r="B79" s="34"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A80" s="34"/>
-      <c r="B80" s="34"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A81" s="34"/>
-      <c r="B81" s="34"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A82" s="34"/>
-      <c r="B82" s="34"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A83" s="34"/>
-      <c r="B83" s="34"/>
-      <c r="C83" s="34"/>
-      <c r="D83" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="E83" s="3" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A84" s="34"/>
-      <c r="B84" s="34"/>
-      <c r="C84" s="34"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A84" s="36"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
       <c r="D84" s="3" t="s">
-        <v>278</v>
+        <v>19</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>279</v>
+        <v>18</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A85" s="34"/>
-      <c r="B85" s="34"/>
-      <c r="C85" s="34"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A85" s="36"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="36"/>
       <c r="D85" s="3" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A86" s="34"/>
-      <c r="B86" s="34"/>
-      <c r="C86" s="34"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A86" s="36"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="36"/>
       <c r="D86" s="3" t="s">
-        <v>256</v>
+        <v>24</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>292</v>
+        <v>18</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="3" t="s">
-        <v>289</v>
+        <v>22</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A87" s="35"/>
-      <c r="B87" s="35"/>
-      <c r="C87" s="35"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A87" s="36"/>
+      <c r="B87" s="36"/>
+      <c r="C87" s="36"/>
       <c r="D87" s="3" t="s">
-        <v>256</v>
+        <v>24</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>283</v>
+        <v>18</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A88" s="36"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A89" s="36"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A90" s="36"/>
+      <c r="B90" s="36"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A91" s="36"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="84" x14ac:dyDescent="0.2">
+      <c r="A92" s="36"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="E92" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A93" s="37"/>
+      <c r="B93" s="37"/>
+      <c r="C93" s="37"/>
+      <c r="D93" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="H87" s="4" t="s">
+      <c r="H93" s="4" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A88" s="41" t="s">
+    <row r="94" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A94" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B88" s="41" t="s">
+      <c r="B94" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="C88" s="41" t="s">
+      <c r="C94" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="D94" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E88" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6" t="s">
+      <c r="E94" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H88" s="7" t="s">
+      <c r="H94" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A89" s="41"/>
-      <c r="B89" s="41"/>
-      <c r="C89" s="41"/>
-      <c r="D89" s="6" t="s">
+    <row r="95" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A95" s="45"/>
+      <c r="B95" s="45"/>
+      <c r="C95" s="45"/>
+      <c r="D95" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E89" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H89" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A90" s="41"/>
-      <c r="B90" s="41"/>
-      <c r="C90" s="41"/>
-      <c r="D90" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H90" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A91" s="41"/>
-      <c r="B91" s="41"/>
-      <c r="C91" s="41"/>
-      <c r="D91" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H91" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A92" s="41"/>
-      <c r="B92" s="41"/>
-      <c r="C92" s="41"/>
-      <c r="D92" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H92" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A93" s="41"/>
-      <c r="B93" s="41"/>
-      <c r="C93" s="41"/>
-      <c r="D93" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H93" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A94" s="41"/>
-      <c r="B94" s="41"/>
-      <c r="C94" s="41"/>
-      <c r="D94" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="E94" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H94" s="18" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A95" s="41"/>
-      <c r="B95" s="41"/>
-      <c r="C95" s="41"/>
-      <c r="D95" s="6" t="s">
-        <v>1</v>
-      </c>
       <c r="E95" s="6" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="6" t="s">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A96" s="41"/>
-      <c r="B96" s="41"/>
-      <c r="C96" s="41"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A96" s="45"/>
+      <c r="B96" s="45"/>
+      <c r="C96" s="45"/>
       <c r="D96" s="6" t="s">
-        <v>256</v>
+        <v>19</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>288</v>
+        <v>18</v>
       </c>
       <c r="F96" s="6"/>
       <c r="G96" s="6" t="s">
-        <v>289</v>
+        <v>21</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A97" s="41"/>
-      <c r="B97" s="41"/>
-      <c r="C97" s="41"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A97" s="45"/>
+      <c r="B97" s="45"/>
+      <c r="C97" s="45"/>
       <c r="D97" s="6" t="s">
-        <v>256</v>
+        <v>24</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>283</v>
+        <v>18</v>
       </c>
       <c r="F97" s="6"/>
       <c r="G97" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A98" s="45"/>
+      <c r="B98" s="45"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A99" s="45"/>
+      <c r="B99" s="45"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A100" s="45"/>
+      <c r="B100" s="45"/>
+      <c r="C100" s="45"/>
+      <c r="D100" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="E100" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H100" s="18" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A101" s="45"/>
+      <c r="B101" s="45"/>
+      <c r="C101" s="45"/>
+      <c r="D101" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A102" s="45"/>
+      <c r="B102" s="45"/>
+      <c r="C102" s="45"/>
+      <c r="D102" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="84" x14ac:dyDescent="0.2">
+      <c r="A103" s="45"/>
+      <c r="B103" s="45"/>
+      <c r="C103" s="45"/>
+      <c r="D103" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="E103" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="F103" s="24"/>
+      <c r="G103" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="H103" s="18" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A104" s="45"/>
+      <c r="B104" s="45"/>
+      <c r="C104" s="45"/>
+      <c r="D104" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="H97" s="7" t="s">
+      <c r="H104" s="7" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A98" s="33" t="s">
+    <row r="105" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A105" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B98" s="33" t="s">
+      <c r="B105" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="C98" s="33" t="s">
+      <c r="C105" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D105" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E98" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H98" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A99" s="34"/>
-      <c r="B99" s="34"/>
-      <c r="C99" s="34"/>
-      <c r="D99" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H99" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A100" s="34"/>
-      <c r="B100" s="34"/>
-      <c r="C100" s="34"/>
-      <c r="D100" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H100" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A101" s="34"/>
-      <c r="B101" s="34"/>
-      <c r="C101" s="34"/>
-      <c r="D101" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H101" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A102" s="34"/>
-      <c r="B102" s="34"/>
-      <c r="C102" s="34"/>
-      <c r="D102" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H102" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A103" s="34"/>
-      <c r="B103" s="34"/>
-      <c r="C103" s="34"/>
-      <c r="D103" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A104" s="34"/>
-      <c r="B104" s="34"/>
-      <c r="C104" s="34"/>
-      <c r="D104" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H104" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A105" s="34"/>
-      <c r="B105" s="34"/>
-      <c r="C105" s="34"/>
-      <c r="D105" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="E105" s="3" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A106" s="34"/>
-      <c r="B106" s="34"/>
-      <c r="C106" s="34"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A106" s="36"/>
+      <c r="B106" s="36"/>
+      <c r="C106" s="36"/>
       <c r="D106" s="3" t="s">
-        <v>256</v>
+        <v>19</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>288</v>
+        <v>18</v>
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="3" t="s">
-        <v>289</v>
+        <v>20</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A107" s="35"/>
-      <c r="B107" s="35"/>
-      <c r="C107" s="35"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A107" s="36"/>
+      <c r="B107" s="36"/>
+      <c r="C107" s="36"/>
       <c r="D107" s="3" t="s">
-        <v>256</v>
+        <v>19</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>283</v>
+        <v>18</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A108" s="36"/>
+      <c r="B108" s="36"/>
+      <c r="C108" s="36"/>
+      <c r="D108" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A109" s="36"/>
+      <c r="B109" s="36"/>
+      <c r="C109" s="36"/>
+      <c r="D109" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A110" s="36"/>
+      <c r="B110" s="36"/>
+      <c r="C110" s="36"/>
+      <c r="D110" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A111" s="36"/>
+      <c r="B111" s="36"/>
+      <c r="C111" s="36"/>
+      <c r="D111" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A112" s="36"/>
+      <c r="B112" s="36"/>
+      <c r="C112" s="36"/>
+      <c r="D112" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A113" s="36"/>
+      <c r="B113" s="36"/>
+      <c r="C113" s="36"/>
+      <c r="D113" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="84" x14ac:dyDescent="0.2">
+      <c r="A114" s="36"/>
+      <c r="B114" s="36"/>
+      <c r="C114" s="36"/>
+      <c r="D114" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="E114" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="F114" s="22"/>
+      <c r="G114" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A115" s="37"/>
+      <c r="B115" s="37"/>
+      <c r="C115" s="37"/>
+      <c r="D115" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="H107" s="4" t="s">
+      <c r="H115" s="4" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A108" s="45" t="s">
+    <row r="116" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A116" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B108" s="45" t="s">
+      <c r="B116" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="C116" s="38" t="s">
         <v>299</v>
       </c>
-      <c r="C108" s="45" t="s">
-        <v>300</v>
-      </c>
-      <c r="D108" s="16" t="s">
+      <c r="D116" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E108" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F108" s="16"/>
-      <c r="G108" s="16" t="s">
+      <c r="E116" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F116" s="16"/>
+      <c r="G116" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H108" s="7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A109" s="46"/>
-      <c r="B109" s="46"/>
-      <c r="C109" s="46"/>
-      <c r="D109" s="16" t="s">
+      <c r="H116" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A117" s="39"/>
+      <c r="B117" s="39"/>
+      <c r="C117" s="39"/>
+      <c r="D117" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E109" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F109" s="16"/>
-      <c r="G109" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H109" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A110" s="46"/>
-      <c r="B110" s="46"/>
-      <c r="C110" s="46"/>
-      <c r="D110" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E110" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F110" s="16"/>
-      <c r="G110" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H110" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A111" s="46"/>
-      <c r="B111" s="46"/>
-      <c r="C111" s="46"/>
-      <c r="D111" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E111" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F111" s="16"/>
-      <c r="G111" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H111" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A112" s="46"/>
-      <c r="B112" s="46"/>
-      <c r="C112" s="46"/>
-      <c r="D112" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E112" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F112" s="16"/>
-      <c r="G112" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H112" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="98" x14ac:dyDescent="0.2">
-      <c r="A113" s="46"/>
-      <c r="B113" s="46"/>
-      <c r="C113" s="46"/>
-      <c r="D113" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="E113" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="F113" s="16"/>
-      <c r="G113" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H113" s="7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A114" s="46"/>
-      <c r="B114" s="46"/>
-      <c r="C114" s="46"/>
-      <c r="D114" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E114" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F114" s="20"/>
-      <c r="G114" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="H114" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="98" x14ac:dyDescent="0.2">
-      <c r="A115" s="46"/>
-      <c r="B115" s="46"/>
-      <c r="C115" s="46"/>
-      <c r="D115" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="E115" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="F115" s="20"/>
-      <c r="G115" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="H115" s="7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="98" x14ac:dyDescent="0.2">
-      <c r="A116" s="46"/>
-      <c r="B116" s="46"/>
-      <c r="C116" s="46"/>
-      <c r="D116" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="E116" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="F116" s="16"/>
-      <c r="G116" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="H116" s="7" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="98" x14ac:dyDescent="0.2">
-      <c r="A117" s="47"/>
-      <c r="B117" s="47"/>
-      <c r="C117" s="47"/>
-      <c r="D117" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="E117" s="20" t="s">
-        <v>303</v>
+      <c r="E117" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="F117" s="16"/>
       <c r="G117" s="16" t="s">
-        <v>306</v>
+        <v>20</v>
       </c>
       <c r="H117" s="7" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A118" s="33" t="s">
+    <row r="118" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A118" s="39"/>
+      <c r="B118" s="39"/>
+      <c r="C118" s="39"/>
+      <c r="D118" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E118" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F118" s="16"/>
+      <c r="G118" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H118" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A119" s="39"/>
+      <c r="B119" s="39"/>
+      <c r="C119" s="39"/>
+      <c r="D119" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E119" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F119" s="16"/>
+      <c r="G119" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A120" s="39"/>
+      <c r="B120" s="39"/>
+      <c r="C120" s="39"/>
+      <c r="D120" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E120" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F120" s="16"/>
+      <c r="G120" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="98" x14ac:dyDescent="0.2">
+      <c r="A121" s="39"/>
+      <c r="B121" s="39"/>
+      <c r="C121" s="39"/>
+      <c r="D121" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="E121" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="F121" s="16"/>
+      <c r="G121" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A122" s="39"/>
+      <c r="B122" s="39"/>
+      <c r="C122" s="39"/>
+      <c r="D122" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E122" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F122" s="20"/>
+      <c r="G122" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H122" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="98" x14ac:dyDescent="0.2">
+      <c r="A123" s="39"/>
+      <c r="B123" s="39"/>
+      <c r="C123" s="39"/>
+      <c r="D123" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="E123" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="F123" s="20"/>
+      <c r="G123" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="98" x14ac:dyDescent="0.2">
+      <c r="A124" s="39"/>
+      <c r="B124" s="39"/>
+      <c r="C124" s="39"/>
+      <c r="D124" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="E124" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="F124" s="16"/>
+      <c r="G124" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="98" x14ac:dyDescent="0.2">
+      <c r="A125" s="43"/>
+      <c r="B125" s="43"/>
+      <c r="C125" s="43"/>
+      <c r="D125" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="E125" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="F125" s="16"/>
+      <c r="G125" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A126" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B118" s="33" t="s">
-        <v>321</v>
-      </c>
-      <c r="C118" s="21" t="s">
+      <c r="B126" s="35" t="s">
         <v>320</v>
       </c>
-      <c r="D118" s="15" t="s">
+      <c r="C126" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="D126" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E118" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F118" s="15"/>
-      <c r="G118" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H118" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A119" s="34"/>
-      <c r="B119" s="34"/>
-      <c r="C119" s="34"/>
-      <c r="D119" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E119" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F119" s="15"/>
-      <c r="G119" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H119" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A120" s="34"/>
-      <c r="B120" s="34"/>
-      <c r="C120" s="34"/>
-      <c r="D120" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E120" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F120" s="15"/>
-      <c r="G120" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H120" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A121" s="34"/>
-      <c r="B121" s="34"/>
-      <c r="C121" s="34"/>
-      <c r="D121" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E121" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F121" s="15"/>
-      <c r="G121" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H121" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A122" s="34"/>
-      <c r="B122" s="34"/>
-      <c r="C122" s="34"/>
-      <c r="D122" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E122" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F122" s="15"/>
-      <c r="G122" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H122" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="98" x14ac:dyDescent="0.2">
-      <c r="A123" s="34"/>
-      <c r="B123" s="34"/>
-      <c r="C123" s="34"/>
-      <c r="D123" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="E123" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="F123" s="15"/>
-      <c r="G123" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H123" s="4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A124" s="34"/>
-      <c r="B124" s="34"/>
-      <c r="C124" s="34"/>
-      <c r="D124" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E124" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F124" s="15"/>
-      <c r="G124" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H124" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="98" x14ac:dyDescent="0.2">
-      <c r="A125" s="34"/>
-      <c r="B125" s="34"/>
-      <c r="C125" s="34"/>
-      <c r="D125" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="E125" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="F125" s="15"/>
-      <c r="G125" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="H125" s="4" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="98" x14ac:dyDescent="0.2">
-      <c r="A126" s="34"/>
-      <c r="B126" s="34"/>
-      <c r="C126" s="34"/>
-      <c r="D126" s="15" t="s">
-        <v>304</v>
-      </c>
       <c r="E126" s="15" t="s">
-        <v>305</v>
+        <v>18</v>
       </c>
       <c r="F126" s="15"/>
       <c r="G126" s="15" t="s">
-        <v>307</v>
+        <v>15</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="98" x14ac:dyDescent="0.2">
-      <c r="A127" s="35"/>
-      <c r="B127" s="35"/>
-      <c r="C127" s="35"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A127" s="36"/>
+      <c r="B127" s="36"/>
+      <c r="C127" s="36"/>
       <c r="D127" s="15" t="s">
-        <v>302</v>
+        <v>19</v>
       </c>
       <c r="E127" s="15" t="s">
-        <v>303</v>
+        <v>18</v>
       </c>
       <c r="F127" s="15"/>
       <c r="G127" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A128" s="36"/>
+      <c r="B128" s="36"/>
+      <c r="C128" s="36"/>
+      <c r="D128" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E128" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F128" s="15"/>
+      <c r="G128" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A129" s="36"/>
+      <c r="B129" s="36"/>
+      <c r="C129" s="36"/>
+      <c r="D129" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E129" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F129" s="15"/>
+      <c r="G129" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A130" s="36"/>
+      <c r="B130" s="36"/>
+      <c r="C130" s="36"/>
+      <c r="D130" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E130" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F130" s="15"/>
+      <c r="G130" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="98" x14ac:dyDescent="0.2">
+      <c r="A131" s="36"/>
+      <c r="B131" s="36"/>
+      <c r="C131" s="36"/>
+      <c r="D131" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="E131" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="F131" s="15"/>
+      <c r="G131" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A132" s="36"/>
+      <c r="B132" s="36"/>
+      <c r="C132" s="36"/>
+      <c r="D132" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E132" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F132" s="15"/>
+      <c r="G132" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="98" x14ac:dyDescent="0.2">
+      <c r="A133" s="36"/>
+      <c r="B133" s="36"/>
+      <c r="C133" s="36"/>
+      <c r="D133" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="E133" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="F133" s="15"/>
+      <c r="G133" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="98" x14ac:dyDescent="0.2">
+      <c r="A134" s="36"/>
+      <c r="B134" s="36"/>
+      <c r="C134" s="36"/>
+      <c r="D134" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="E134" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="F134" s="15"/>
+      <c r="G134" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="H127" s="4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A128" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B128" s="45" t="s">
-        <v>344</v>
-      </c>
-      <c r="C128" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="D128" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E128" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F128" s="16"/>
-      <c r="G128" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H128" s="7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A129" s="46"/>
-      <c r="B129" s="46"/>
-      <c r="C129" s="46"/>
-      <c r="D129" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E129" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F129" s="16"/>
-      <c r="G129" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H129" s="7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A130" s="46"/>
-      <c r="B130" s="46"/>
-      <c r="C130" s="46"/>
-      <c r="D130" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E130" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F130" s="16"/>
-      <c r="G130" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H130" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A131" s="46"/>
-      <c r="B131" s="46"/>
-      <c r="C131" s="46"/>
-      <c r="D131" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E131" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F131" s="16"/>
-      <c r="G131" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H131" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A132" s="46"/>
-      <c r="B132" s="46"/>
-      <c r="C132" s="46"/>
-      <c r="D132" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E132" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F132" s="16"/>
-      <c r="G132" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H132" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A133" s="46"/>
-      <c r="B133" s="46"/>
-      <c r="C133" s="46"/>
-      <c r="D133" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E133" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F133" s="16"/>
-      <c r="G133" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H133" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A134" s="46"/>
-      <c r="B134" s="46"/>
-      <c r="C134" s="46"/>
-      <c r="D134" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E134" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F134" s="20"/>
-      <c r="G134" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="H134" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A135" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B135" s="33" t="s">
-        <v>360</v>
-      </c>
-      <c r="C135" s="33" t="s">
-        <v>41</v>
-      </c>
+      <c r="H134" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="98" x14ac:dyDescent="0.2">
+      <c r="A135" s="37"/>
+      <c r="B135" s="37"/>
+      <c r="C135" s="37"/>
       <c r="D135" s="15" t="s">
-        <v>14</v>
+        <v>301</v>
       </c>
       <c r="E135" s="15" t="s">
-        <v>18</v>
+        <v>302</v>
       </c>
       <c r="F135" s="15"/>
       <c r="G135" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A136" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B136" s="38" t="s">
+        <v>343</v>
+      </c>
+      <c r="C136" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D136" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E136" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F136" s="16"/>
+      <c r="G136" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H135" s="4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A136" s="34"/>
-      <c r="B136" s="34"/>
-      <c r="C136" s="34"/>
-      <c r="D136" s="15" t="s">
+      <c r="H136" s="7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A137" s="39"/>
+      <c r="B137" s="39"/>
+      <c r="C137" s="39"/>
+      <c r="D137" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E136" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F136" s="15"/>
-      <c r="G136" s="15" t="s">
+      <c r="E137" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F137" s="16"/>
+      <c r="G137" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H136" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A137" s="34"/>
-      <c r="B137" s="34"/>
-      <c r="C137" s="34"/>
-      <c r="D137" s="15" t="s">
+      <c r="H137" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A138" s="39"/>
+      <c r="B138" s="39"/>
+      <c r="C138" s="39"/>
+      <c r="D138" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E137" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F137" s="15"/>
-      <c r="G137" s="15" t="s">
+      <c r="E138" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F138" s="16"/>
+      <c r="G138" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H137" s="4" t="s">
+      <c r="H138" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A138" s="34"/>
-      <c r="B138" s="34"/>
-      <c r="C138" s="34"/>
-      <c r="D138" s="15" t="s">
+    <row r="139" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A139" s="39"/>
+      <c r="B139" s="39"/>
+      <c r="C139" s="39"/>
+      <c r="D139" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E138" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F138" s="15"/>
-      <c r="G138" s="15" t="s">
+      <c r="E139" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F139" s="16"/>
+      <c r="G139" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H138" s="4" t="s">
+      <c r="H139" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A139" s="34"/>
-      <c r="B139" s="34"/>
-      <c r="C139" s="34"/>
-      <c r="D139" s="15" t="s">
+    <row r="140" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A140" s="39"/>
+      <c r="B140" s="39"/>
+      <c r="C140" s="39"/>
+      <c r="D140" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E139" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F139" s="15"/>
-      <c r="G139" s="15" t="s">
+      <c r="E140" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F140" s="16"/>
+      <c r="G140" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H139" s="4" t="s">
+      <c r="H140" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A140" s="34"/>
-      <c r="B140" s="34"/>
-      <c r="C140" s="34"/>
-      <c r="D140" s="15" t="s">
+    <row r="141" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A141" s="39"/>
+      <c r="B141" s="39"/>
+      <c r="C141" s="39"/>
+      <c r="D141" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E140" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F140" s="15"/>
-      <c r="G140" s="15" t="s">
+      <c r="E141" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F141" s="16"/>
+      <c r="G141" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H140" s="4" t="s">
+      <c r="H141" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A141" s="34"/>
-      <c r="B141" s="34"/>
-      <c r="C141" s="34"/>
-      <c r="D141" s="15" t="s">
+    <row r="142" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A142" s="39"/>
+      <c r="B142" s="39"/>
+      <c r="C142" s="39"/>
+      <c r="D142" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E141" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F141" s="15"/>
-      <c r="G141" s="15" t="s">
+      <c r="E142" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F142" s="20"/>
+      <c r="G142" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="H141" s="4" t="s">
+      <c r="H142" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="5"/>
-      <c r="B142" s="5"/>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5"/>
-      <c r="H142" s="13"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A143" s="5"/>
-      <c r="B143" s="5"/>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5"/>
-      <c r="G143" s="5"/>
-      <c r="H143" s="13"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A144" s="5"/>
-      <c r="B144" s="5"/>
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5"/>
-      <c r="G144" s="5"/>
-      <c r="H144" s="13"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A145" s="5"/>
-      <c r="B145" s="5"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="5"/>
-      <c r="H145" s="13"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A146" s="5"/>
-      <c r="B146" s="5"/>
-      <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
-      <c r="F146" s="5"/>
-      <c r="G146" s="5"/>
-      <c r="H146" s="13"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A147" s="5"/>
-      <c r="B147" s="5"/>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
-      <c r="G147" s="5"/>
-      <c r="H147" s="13"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A148" s="5"/>
-      <c r="B148" s="5"/>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5"/>
-      <c r="G148" s="5"/>
-      <c r="H148" s="13"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A149" s="5"/>
-      <c r="B149" s="5"/>
-      <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
-      <c r="E149" s="5"/>
-      <c r="F149" s="5"/>
-      <c r="G149" s="5"/>
-      <c r="H149" s="13"/>
+    <row r="143" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A143" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B143" s="35" t="s">
+        <v>358</v>
+      </c>
+      <c r="C143" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D143" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E143" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F143" s="15"/>
+      <c r="G143" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A144" s="36"/>
+      <c r="B144" s="36"/>
+      <c r="C144" s="36"/>
+      <c r="D144" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E144" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F144" s="15"/>
+      <c r="G144" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A145" s="36"/>
+      <c r="B145" s="36"/>
+      <c r="C145" s="36"/>
+      <c r="D145" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E145" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F145" s="15"/>
+      <c r="G145" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A146" s="36"/>
+      <c r="B146" s="36"/>
+      <c r="C146" s="36"/>
+      <c r="D146" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E146" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F146" s="15"/>
+      <c r="G146" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A147" s="36"/>
+      <c r="B147" s="36"/>
+      <c r="C147" s="36"/>
+      <c r="D147" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E147" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F147" s="15"/>
+      <c r="G147" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A148" s="36"/>
+      <c r="B148" s="36"/>
+      <c r="C148" s="36"/>
+      <c r="D148" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E148" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F148" s="15"/>
+      <c r="G148" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A149" s="36"/>
+      <c r="B149" s="36"/>
+      <c r="C149" s="36"/>
+      <c r="D149" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E149" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F149" s="15"/>
+      <c r="G149" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="5"/>
@@ -12041,22 +13282,101 @@
       <c r="G216" s="5"/>
       <c r="H216" s="13"/>
     </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A217" s="5"/>
+      <c r="B217" s="5"/>
+      <c r="C217" s="5"/>
+      <c r="D217" s="5"/>
+      <c r="E217" s="5"/>
+      <c r="F217" s="5"/>
+      <c r="G217" s="5"/>
+      <c r="H217" s="13"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A218" s="5"/>
+      <c r="B218" s="5"/>
+      <c r="C218" s="5"/>
+      <c r="D218" s="5"/>
+      <c r="E218" s="5"/>
+      <c r="F218" s="5"/>
+      <c r="G218" s="5"/>
+      <c r="H218" s="13"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A219" s="5"/>
+      <c r="B219" s="5"/>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5"/>
+      <c r="E219" s="5"/>
+      <c r="F219" s="5"/>
+      <c r="G219" s="5"/>
+      <c r="H219" s="13"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A220" s="5"/>
+      <c r="B220" s="5"/>
+      <c r="C220" s="5"/>
+      <c r="D220" s="5"/>
+      <c r="E220" s="5"/>
+      <c r="F220" s="5"/>
+      <c r="G220" s="5"/>
+      <c r="H220" s="13"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A221" s="5"/>
+      <c r="B221" s="5"/>
+      <c r="C221" s="5"/>
+      <c r="D221" s="5"/>
+      <c r="E221" s="5"/>
+      <c r="F221" s="5"/>
+      <c r="G221" s="5"/>
+      <c r="H221" s="13"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A222" s="5"/>
+      <c r="B222" s="5"/>
+      <c r="C222" s="5"/>
+      <c r="D222" s="5"/>
+      <c r="E222" s="5"/>
+      <c r="F222" s="5"/>
+      <c r="G222" s="5"/>
+      <c r="H222" s="13"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A223" s="5"/>
+      <c r="B223" s="5"/>
+      <c r="C223" s="5"/>
+      <c r="D223" s="5"/>
+      <c r="E223" s="5"/>
+      <c r="F223" s="5"/>
+      <c r="G223" s="5"/>
+      <c r="H223" s="13"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A224" s="5"/>
+      <c r="B224" s="5"/>
+      <c r="C224" s="5"/>
+      <c r="D224" s="5"/>
+      <c r="E224" s="5"/>
+      <c r="F224" s="5"/>
+      <c r="G224" s="5"/>
+      <c r="H224" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="A135:A141"/>
-    <mergeCell ref="B135:B141"/>
-    <mergeCell ref="C135:C141"/>
-    <mergeCell ref="A118:A127"/>
-    <mergeCell ref="B118:B127"/>
-    <mergeCell ref="C118:C127"/>
-    <mergeCell ref="A128:A134"/>
-    <mergeCell ref="B128:B134"/>
-    <mergeCell ref="C128:C134"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="C108:C117"/>
-    <mergeCell ref="B108:B117"/>
-    <mergeCell ref="A108:A117"/>
-    <mergeCell ref="G61:G65"/>
+  <mergeCells count="52">
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G78:G80"/>
+    <mergeCell ref="C105:C115"/>
+    <mergeCell ref="B105:B115"/>
+    <mergeCell ref="C83:C93"/>
+    <mergeCell ref="B83:B93"/>
+    <mergeCell ref="C72:C82"/>
+    <mergeCell ref="B72:B82"/>
+    <mergeCell ref="B94:B104"/>
+    <mergeCell ref="C94:C104"/>
+    <mergeCell ref="G63:G69"/>
+    <mergeCell ref="G60:G62"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="G42:G43"/>
     <mergeCell ref="G18:G21"/>
@@ -12066,34 +13386,36 @@
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="B24:B35"/>
     <mergeCell ref="C24:C35"/>
-    <mergeCell ref="A55:A66"/>
-    <mergeCell ref="B55:B66"/>
-    <mergeCell ref="C55:C66"/>
     <mergeCell ref="C36:C44"/>
     <mergeCell ref="B36:B44"/>
     <mergeCell ref="A36:A44"/>
-    <mergeCell ref="A45:A54"/>
-    <mergeCell ref="B45:B54"/>
-    <mergeCell ref="C45:C54"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="C10:C23"/>
     <mergeCell ref="B10:B23"/>
     <mergeCell ref="A10:A23"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G73:G75"/>
-    <mergeCell ref="C98:C107"/>
-    <mergeCell ref="B98:B107"/>
-    <mergeCell ref="A98:A107"/>
-    <mergeCell ref="C78:C87"/>
-    <mergeCell ref="B78:B87"/>
-    <mergeCell ref="A78:A87"/>
-    <mergeCell ref="C67:C77"/>
-    <mergeCell ref="B67:B77"/>
-    <mergeCell ref="A88:A97"/>
-    <mergeCell ref="B88:B97"/>
-    <mergeCell ref="C88:C97"/>
-    <mergeCell ref="A67:A77"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="C116:C125"/>
+    <mergeCell ref="B116:B125"/>
+    <mergeCell ref="A116:A125"/>
+    <mergeCell ref="A55:A71"/>
+    <mergeCell ref="B55:B71"/>
+    <mergeCell ref="C55:C71"/>
+    <mergeCell ref="A45:A54"/>
+    <mergeCell ref="B45:B54"/>
+    <mergeCell ref="C45:C54"/>
+    <mergeCell ref="A105:A115"/>
+    <mergeCell ref="A83:A93"/>
+    <mergeCell ref="A94:A104"/>
+    <mergeCell ref="A72:A82"/>
+    <mergeCell ref="A143:A149"/>
+    <mergeCell ref="B143:B149"/>
+    <mergeCell ref="C143:C149"/>
+    <mergeCell ref="A126:A135"/>
+    <mergeCell ref="B126:B135"/>
+    <mergeCell ref="C126:C135"/>
+    <mergeCell ref="A136:A142"/>
+    <mergeCell ref="B136:B142"/>
+    <mergeCell ref="C136:C142"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/pheknowlator_source_metadata.xlsx
+++ b/resources/pheknowlator_source_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiffanycallahan/Dropbox/GraduateSchool/PhD/LabWork/PheKnowLator/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE69B4F8-9A55-634F-87B8-C8A7BF7C2986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF126CD8-3ABB-C440-AF69-2641D6788F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12160" yWindow="1040" windowWidth="36820" windowHeight="23880" xr2:uid="{82CFCCA6-69D0-6D4F-8FD9-9511C5B37B8B}"/>
+    <workbookView xWindow="12160" yWindow="1040" windowWidth="36820" windowHeight="23880" activeTab="1" xr2:uid="{82CFCCA6-69D0-6D4F-8FD9-9511C5B37B8B}"/>
   </bookViews>
   <sheets>
     <sheet name="edges" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="390">
   <si>
     <t>edge_type</t>
   </si>
@@ -782,12 +782,6 @@
   </si>
   <si>
     <t>EvidenceID</t>
-  </si>
-  <si>
-    <t>Value derived from CTD (column:5)</t>
-  </si>
-  <si>
-    <t>Value derived from CTD (column:4)</t>
   </si>
   <si>
     <r>
@@ -1626,6 +1620,32 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Pulled from data provided by CTD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTD Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-protein:column 7</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
 </t>
     </r>
@@ -1647,7 +1667,7 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-chemical-pathway:column 1</t>
+chemical-protein:column 3</t>
     </r>
   </si>
   <si>
@@ -1673,7 +1693,7 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-chemical-protein:column 7</t>
+chemical-rna:column 7</t>
     </r>
   </si>
   <si>
@@ -1699,58 +1719,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-chemical-protein:column 3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pulled from data provided by CTD
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CTD Data Information</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-chemical-rna:column 7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CTD Data Information</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
 chemical-rna:column 3</t>
     </r>
   </si>
@@ -2058,32 +2026,6 @@
   </si>
   <si>
     <t>Reactome_Species</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pulled from data provided by Reactome
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Reactome Data Information</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-chemical-pathway:column 5</t>
-    </r>
   </si>
   <si>
     <t>gobp-pathway</t>
@@ -3256,6 +3198,66 @@
   </si>
   <si>
     <t>biolink:function_of</t>
+  </si>
+  <si>
+    <t>protein-pathway</t>
+  </si>
+  <si>
+    <t>pathway-protein</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulled from data provided by Reactome
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Reactome Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-pathway:column 5
+protein-pathway:column 5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Derived from ontology and pulled from data provided by CTD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTD Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+chemical-pathway:column 1
+protein-pathway:column 1</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3394,7 +3396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3548,6 +3550,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3863,11 +3874,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC7A73D-1C32-0943-8AF1-D604CF68867B}">
-  <dimension ref="A1:I299"/>
+  <dimension ref="A1:I307"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E261" sqref="E261"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F302" sqref="F302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4029,7 +4040,7 @@
     </row>
     <row r="8" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>1</v>
@@ -4126,10 +4137,10 @@
         <v>27</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4145,7 +4156,7 @@
         <v>30</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G13" s="4"/>
     </row>
@@ -4273,7 +4284,7 @@
     </row>
     <row r="20" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A20" s="34" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>1</v>
@@ -4370,10 +4381,10 @@
         <v>27</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -4389,7 +4400,7 @@
         <v>30</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -4517,7 +4528,7 @@
     </row>
     <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A32" s="34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>1</v>
@@ -4633,7 +4644,7 @@
         <v>30</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G37" s="3"/>
     </row>
@@ -4759,7 +4770,7 @@
     </row>
     <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A44" s="34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>1</v>
@@ -4873,7 +4884,7 @@
         <v>30</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G49" s="3"/>
     </row>
@@ -5001,7 +5012,7 @@
     </row>
     <row r="56" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A56" s="34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>1</v>
@@ -5117,7 +5128,7 @@
         <v>30</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G61" s="3"/>
     </row>
@@ -5126,7 +5137,7 @@
         <v>100</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>103</v>
@@ -5140,16 +5151,16 @@
         <v>18</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>105</v>
+        <v>357</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A63" s="32"/>
       <c r="B63" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6" t="str">
@@ -5160,7 +5171,7 @@
         <v>18</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>104</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5201,10 +5212,10 @@
     </row>
     <row r="66" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A66" s="34" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>1</v>
+        <v>253</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>103</v>
@@ -5212,33 +5223,33 @@
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="str">
         <f t="shared" ref="E66" si="11">_xlfn.CONCAT(B66, "_", C66)</f>
-        <v>CTD_EvidenceID</v>
+        <v>Reactome_EvidenceID</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>105</v>
+        <v>357</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A67" s="34"/>
       <c r="B67" s="3" t="s">
-        <v>1</v>
+        <v>253</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="str">
         <f>_xlfn.CONCAT(B67, "_", C67)</f>
-        <v>CTD_Species</v>
+        <v>Reactome_Species</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>104</v>
+        <v>328</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5254,10 +5265,10 @@
         <v>27</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5273,19 +5284,19 @@
         <v>30</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G69" s="3"/>
     </row>
     <row r="70" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A70" s="33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1" t="str">
@@ -5296,7 +5307,7 @@
         <v>18</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5305,7 +5316,7 @@
         <v>1</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1" t="str">
@@ -5325,7 +5336,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1" t="str">
@@ -5345,7 +5356,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1" t="str">
@@ -5365,7 +5376,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="str">
@@ -5385,7 +5396,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1" t="str">
@@ -5396,7 +5407,7 @@
         <v>18</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5405,7 +5416,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1" t="str">
@@ -5416,7 +5427,7 @@
         <v>18</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5432,10 +5443,10 @@
         <v>27</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5451,19 +5462,19 @@
         <v>30</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A79" s="34" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3" t="str">
@@ -5474,7 +5485,7 @@
         <v>18</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5483,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3" t="str">
@@ -5503,7 +5514,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3" t="str">
@@ -5523,7 +5534,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3" t="str">
@@ -5543,7 +5554,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3" t="str">
@@ -5563,7 +5574,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3" t="str">
@@ -5574,7 +5585,7 @@
         <v>18</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5583,7 +5594,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3" t="str">
@@ -5594,7 +5605,7 @@
         <v>18</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5610,10 +5621,10 @@
         <v>27</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5629,19 +5640,19 @@
         <v>30</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G87" s="3"/>
     </row>
     <row r="88" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A88" s="32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D88" s="6"/>
       <c r="E88" s="6" t="str">
@@ -5652,7 +5663,7 @@
         <v>18</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5661,7 +5672,7 @@
         <v>1</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D89" s="6"/>
       <c r="E89" s="6" t="str">
@@ -5681,7 +5692,7 @@
         <v>1</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D90" s="6"/>
       <c r="E90" s="6" t="str">
@@ -5701,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D91" s="6"/>
       <c r="E91" s="6" t="str">
@@ -5721,7 +5732,7 @@
         <v>1</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D92" s="6"/>
       <c r="E92" s="6" t="str">
@@ -5741,7 +5752,7 @@
         <v>1</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D93" s="6"/>
       <c r="E93" s="6" t="str">
@@ -5752,7 +5763,7 @@
         <v>18</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5761,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D94" s="6"/>
       <c r="E94" s="6" t="str">
@@ -5772,7 +5783,7 @@
         <v>18</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5788,10 +5799,10 @@
         <v>27</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5807,19 +5818,19 @@
         <v>30</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G96" s="6"/>
     </row>
     <row r="97" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A97" s="34" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3" t="str">
@@ -5830,7 +5841,7 @@
         <v>18</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5839,7 +5850,7 @@
         <v>1</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3" t="str">
@@ -5859,7 +5870,7 @@
         <v>1</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3" t="str">
@@ -5879,7 +5890,7 @@
         <v>1</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3" t="str">
@@ -5899,7 +5910,7 @@
         <v>1</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3" t="str">
@@ -5919,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3" t="str">
@@ -5930,7 +5941,7 @@
         <v>18</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5939,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3" t="str">
@@ -5950,7 +5961,7 @@
         <v>18</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5966,10 +5977,10 @@
         <v>27</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -5985,19 +5996,19 @@
         <v>30</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G105" s="3"/>
     </row>
     <row r="106" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A106" s="33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1" t="str">
@@ -6008,7 +6019,7 @@
         <v>18</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -6017,7 +6028,7 @@
         <v>1</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1" t="str">
@@ -6037,7 +6048,7 @@
         <v>1</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1" t="str">
@@ -6057,7 +6068,7 @@
         <v>1</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1" t="str">
@@ -6077,7 +6088,7 @@
         <v>1</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1" t="str">
@@ -6097,7 +6108,7 @@
         <v>1</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1" t="str">
@@ -6108,7 +6119,7 @@
         <v>18</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -6117,7 +6128,7 @@
         <v>1</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1" t="str">
@@ -6128,7 +6139,7 @@
         <v>18</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -6144,10 +6155,10 @@
         <v>27</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -6163,19 +6174,19 @@
         <v>30</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A115" s="34" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3" t="str">
@@ -6186,7 +6197,7 @@
         <v>18</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -6195,7 +6206,7 @@
         <v>1</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3" t="str">
@@ -6215,7 +6226,7 @@
         <v>1</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3" t="str">
@@ -6235,7 +6246,7 @@
         <v>1</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3" t="str">
@@ -6255,7 +6266,7 @@
         <v>1</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3" t="str">
@@ -6275,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3" t="str">
@@ -6286,7 +6297,7 @@
         <v>18</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -6295,7 +6306,7 @@
         <v>1</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3" t="str">
@@ -6306,7 +6317,7 @@
         <v>18</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -6322,10 +6333,10 @@
         <v>27</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -6341,19 +6352,19 @@
         <v>30</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G123" s="3"/>
     </row>
     <row r="124" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A124" s="33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1" t="str">
@@ -6364,7 +6375,7 @@
         <v>18</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -6373,7 +6384,7 @@
         <v>40</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1" t="str">
@@ -6384,7 +6395,7 @@
         <v>18</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -6393,7 +6404,7 @@
         <v>40</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1" t="str">
@@ -6404,7 +6415,7 @@
         <v>18</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -6413,7 +6424,7 @@
         <v>40</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1" t="str">
@@ -6424,7 +6435,7 @@
         <v>18</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -6433,7 +6444,7 @@
         <v>40</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1" t="str">
@@ -6444,7 +6455,7 @@
         <v>18</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -6453,7 +6464,7 @@
         <v>40</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1" t="str">
@@ -6464,7 +6475,7 @@
         <v>18</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -6473,7 +6484,7 @@
         <v>40</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1" t="str">
@@ -6484,7 +6495,7 @@
         <v>18</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -6500,10 +6511,10 @@
         <v>27</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -6519,19 +6530,19 @@
         <v>30</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G132" s="1"/>
     </row>
     <row r="133" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A133" s="34" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3" t="str">
@@ -6542,7 +6553,7 @@
         <v>18</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -6551,7 +6562,7 @@
         <v>40</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="3" t="str">
@@ -6562,7 +6573,7 @@
         <v>18</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -6571,7 +6582,7 @@
         <v>40</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3" t="str">
@@ -6582,7 +6593,7 @@
         <v>18</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -6591,7 +6602,7 @@
         <v>40</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3" t="str">
@@ -6602,7 +6613,7 @@
         <v>18</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -6611,7 +6622,7 @@
         <v>40</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3" t="str">
@@ -6622,7 +6633,7 @@
         <v>18</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -6631,7 +6642,7 @@
         <v>40</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3" t="str">
@@ -6642,7 +6653,7 @@
         <v>18</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -6651,7 +6662,7 @@
         <v>40</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3" t="str">
@@ -6662,7 +6673,7 @@
         <v>18</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -6678,10 +6689,10 @@
         <v>27</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -6697,19 +6708,19 @@
         <v>30</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G141" s="3"/>
     </row>
     <row r="142" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A142" s="33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1" t="str">
@@ -6720,16 +6731,16 @@
         <v>18</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A143" s="33"/>
       <c r="B143" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1" t="str">
@@ -6740,16 +6751,16 @@
         <v>18</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A144" s="33"/>
       <c r="B144" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1" t="str">
@@ -6760,16 +6771,16 @@
         <v>18</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A145" s="33"/>
       <c r="B145" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1" t="str">
@@ -6780,16 +6791,16 @@
         <v>18</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A146" s="33"/>
       <c r="B146" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1" t="str">
@@ -6800,16 +6811,16 @@
         <v>18</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A147" s="33"/>
       <c r="B147" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1" t="str">
@@ -6820,16 +6831,16 @@
         <v>18</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A148" s="33"/>
       <c r="B148" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1" t="str">
@@ -6840,16 +6851,16 @@
         <v>18</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A149" s="33"/>
       <c r="B149" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1" t="str">
@@ -6860,16 +6871,16 @@
         <v>18</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A150" s="33"/>
       <c r="B150" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1" t="str">
@@ -6880,7 +6891,7 @@
         <v>18</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -6896,10 +6907,10 @@
         <v>27</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -6915,19 +6926,19 @@
         <v>30</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G152" s="1"/>
     </row>
     <row r="153" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A153" s="34" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D153" s="3"/>
       <c r="E153" s="3" t="str">
@@ -6938,16 +6949,16 @@
         <v>18</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A154" s="34"/>
       <c r="B154" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D154" s="3"/>
       <c r="E154" s="3" t="str">
@@ -6958,16 +6969,16 @@
         <v>18</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A155" s="34"/>
       <c r="B155" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D155" s="3"/>
       <c r="E155" s="3" t="str">
@@ -6978,16 +6989,16 @@
         <v>18</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A156" s="34"/>
       <c r="B156" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D156" s="3"/>
       <c r="E156" s="3" t="str">
@@ -6998,16 +7009,16 @@
         <v>18</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A157" s="34"/>
       <c r="B157" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3" t="str">
@@ -7018,16 +7029,16 @@
         <v>18</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A158" s="34"/>
       <c r="B158" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D158" s="3"/>
       <c r="E158" s="3" t="str">
@@ -7038,16 +7049,16 @@
         <v>18</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A159" s="34"/>
       <c r="B159" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D159" s="3"/>
       <c r="E159" s="3" t="str">
@@ -7058,16 +7069,16 @@
         <v>18</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A160" s="34"/>
       <c r="B160" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D160" s="3"/>
       <c r="E160" s="3" t="str">
@@ -7078,16 +7089,16 @@
         <v>18</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A161" s="34"/>
       <c r="B161" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D161" s="3"/>
       <c r="E161" s="3" t="str">
@@ -7098,7 +7109,7 @@
         <v>18</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -7114,10 +7125,10 @@
         <v>27</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -7133,19 +7144,19 @@
         <v>30</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G163" s="3"/>
     </row>
     <row r="164" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A164" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="C164" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1" t="str">
@@ -7156,7 +7167,7 @@
         <v>18</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -7172,10 +7183,10 @@
         <v>27</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -7191,19 +7202,19 @@
         <v>30</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G166" s="1"/>
     </row>
     <row r="167" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A167" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="B167" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B167" s="3" t="s">
-        <v>211</v>
-      </c>
       <c r="C167" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D167" s="3"/>
       <c r="E167" s="3" t="str">
@@ -7214,7 +7225,7 @@
         <v>18</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -7230,10 +7241,10 @@
         <v>27</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -7249,13 +7260,13 @@
         <v>30</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G169" s="3"/>
     </row>
     <row r="170" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A170" s="33" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>28</v>
@@ -7268,7 +7279,7 @@
         <v>27</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>101</v>
@@ -7287,13 +7298,13 @@
         <v>30</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G171" s="1"/>
     </row>
     <row r="172" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A172" s="34" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>28</v>
@@ -7306,10 +7317,10 @@
         <v>27</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -7325,13 +7336,13 @@
         <v>30</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G173" s="3"/>
     </row>
     <row r="174" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A174" s="33" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>28</v>
@@ -7344,10 +7355,10 @@
         <v>27</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -7363,13 +7374,13 @@
         <v>30</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G175" s="1"/>
     </row>
     <row r="176" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A176" s="34" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>28</v>
@@ -7382,10 +7393,10 @@
         <v>27</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -7401,13 +7412,13 @@
         <v>30</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G177" s="3"/>
     </row>
     <row r="178" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A178" s="33" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>28</v>
@@ -7420,10 +7431,10 @@
         <v>27</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -7439,13 +7450,13 @@
         <v>30</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G179" s="1"/>
     </row>
     <row r="180" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A180" s="34" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>28</v>
@@ -7458,10 +7469,10 @@
         <v>27</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -7477,19 +7488,19 @@
         <v>30</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G181" s="3"/>
     </row>
     <row r="182" spans="1:7" s="19" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D182" s="6"/>
       <c r="E182" s="1" t="str">
@@ -7500,16 +7511,16 @@
         <v>18</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="183" spans="1:7" s="19" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A183" s="26"/>
       <c r="B183" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D183" s="6"/>
       <c r="E183" s="1" t="str">
@@ -7520,16 +7531,16 @@
         <v>18</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A184" s="26"/>
       <c r="B184" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D184" s="6"/>
       <c r="E184" s="1" t="str">
@@ -7540,26 +7551,26 @@
         <v>18</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A185" s="26"/>
       <c r="B185" s="23" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C185" s="23" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D185" s="23"/>
       <c r="E185" s="21" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F185" s="21" t="s">
         <v>11</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -7575,10 +7586,10 @@
         <v>27</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -7594,19 +7605,19 @@
         <v>30</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G187" s="1"/>
     </row>
     <row r="188" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A188" s="30" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D188" s="3"/>
       <c r="E188" s="3" t="str">
@@ -7617,16 +7628,16 @@
         <v>18</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A189" s="28"/>
       <c r="B189" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D189" s="3"/>
       <c r="E189" s="3" t="str">
@@ -7637,16 +7648,16 @@
         <v>18</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A190" s="28"/>
       <c r="B190" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D190" s="3"/>
       <c r="E190" s="3" t="str">
@@ -7657,26 +7668,26 @@
         <v>18</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A191" s="28"/>
       <c r="B191" s="22" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C191" s="22" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D191" s="22"/>
       <c r="E191" s="22" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F191" s="22" t="s">
         <v>11</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -7692,13 +7703,13 @@
         <v>27</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="14" x14ac:dyDescent="0.2">
       <c r="A193" s="29"/>
       <c r="B193" s="3" t="s">
         <v>29</v>
@@ -7711,19 +7722,19 @@
         <v>30</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G193" s="3"/>
     </row>
-    <row r="194" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" ht="14" x14ac:dyDescent="0.2">
       <c r="A194" s="31" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D194" s="6"/>
       <c r="E194" s="1" t="str">
@@ -7734,16 +7745,16 @@
         <v>18</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="14" x14ac:dyDescent="0.2">
       <c r="A195" s="26"/>
       <c r="B195" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D195" s="6"/>
       <c r="E195" s="1" t="str">
@@ -7754,16 +7765,16 @@
         <v>18</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="14" x14ac:dyDescent="0.2">
       <c r="A196" s="26"/>
       <c r="B196" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D196" s="6"/>
       <c r="E196" s="1" t="str">
@@ -7774,29 +7785,29 @@
         <v>18</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="14" x14ac:dyDescent="0.2">
       <c r="A197" s="26"/>
       <c r="B197" s="23" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C197" s="23" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D197" s="23"/>
       <c r="E197" s="21" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F197" s="21" t="s">
         <v>11</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="14" x14ac:dyDescent="0.2">
       <c r="A198" s="26"/>
       <c r="B198" s="1" t="s">
         <v>28</v>
@@ -7809,13 +7820,13 @@
         <v>27</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="14" x14ac:dyDescent="0.2">
       <c r="A199" s="27"/>
       <c r="B199" s="1" t="s">
         <v>29</v>
@@ -7828,19 +7839,19 @@
         <v>30</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G199" s="1"/>
     </row>
-    <row r="200" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" ht="14" x14ac:dyDescent="0.2">
       <c r="A200" s="30" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D200" s="3"/>
       <c r="E200" s="3" t="str">
@@ -7851,16 +7862,16 @@
         <v>18</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="14" x14ac:dyDescent="0.2">
       <c r="A201" s="28"/>
       <c r="B201" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D201" s="3"/>
       <c r="E201" s="3" t="str">
@@ -7871,16 +7882,16 @@
         <v>18</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="14" x14ac:dyDescent="0.2">
       <c r="A202" s="28"/>
       <c r="B202" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D202" s="3"/>
       <c r="E202" s="3" t="str">
@@ -7891,29 +7902,29 @@
         <v>18</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="14" x14ac:dyDescent="0.2">
       <c r="A203" s="28"/>
       <c r="B203" s="22" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C203" s="22" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D203" s="22"/>
       <c r="E203" s="22" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F203" s="22" t="s">
         <v>11</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="14" x14ac:dyDescent="0.2">
       <c r="A204" s="28"/>
       <c r="B204" s="3" t="s">
         <v>28</v>
@@ -7926,13 +7937,13 @@
         <v>27</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="14" x14ac:dyDescent="0.2">
       <c r="A205" s="29"/>
       <c r="B205" s="3" t="s">
         <v>29</v>
@@ -7945,19 +7956,19 @@
         <v>30</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G205" s="3"/>
     </row>
-    <row r="206" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" ht="14" x14ac:dyDescent="0.2">
       <c r="A206" s="31" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B206" s="16" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D206" s="16"/>
       <c r="E206" s="14" t="str">
@@ -7968,16 +7979,16 @@
         <v>18</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="14" x14ac:dyDescent="0.2">
       <c r="A207" s="26"/>
       <c r="B207" s="16" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D207" s="16"/>
       <c r="E207" s="14" t="str">
@@ -7988,16 +7999,16 @@
         <v>18</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="14" x14ac:dyDescent="0.2">
       <c r="A208" s="26"/>
       <c r="B208" s="16" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D208" s="16"/>
       <c r="E208" s="14" t="str">
@@ -8008,13 +8019,15 @@
         <v>18</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>334</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="H208" s="52"/>
+      <c r="I208" s="52"/>
     </row>
     <row r="209" spans="1:9" ht="14" x14ac:dyDescent="0.2">
       <c r="A209" s="26"/>
       <c r="B209" s="16" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C209" s="14" t="s">
         <v>18</v>
@@ -8024,13 +8037,13 @@
         <v>27</v>
       </c>
       <c r="F209" s="24" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G209" s="18" t="s">
-        <v>335</v>
-      </c>
-      <c r="H209" s="24"/>
-      <c r="I209" s="18"/>
+        <v>331</v>
+      </c>
+      <c r="H209" s="53"/>
+      <c r="I209" s="54"/>
     </row>
     <row r="210" spans="1:9" ht="14" x14ac:dyDescent="0.2">
       <c r="A210" s="27"/>
@@ -8045,19 +8058,21 @@
         <v>30</v>
       </c>
       <c r="F210" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="G210" s="14"/>
+        <v>319</v>
+      </c>
+      <c r="G210" s="21"/>
+      <c r="H210" s="52"/>
+      <c r="I210" s="52"/>
     </row>
     <row r="211" spans="1:9" ht="14" x14ac:dyDescent="0.2">
       <c r="A211" s="30" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B211" s="15" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C211" s="15" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D211" s="15"/>
       <c r="E211" s="15" t="str">
@@ -8068,16 +8083,16 @@
         <v>18</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="14" x14ac:dyDescent="0.2">
       <c r="A212" s="28"/>
       <c r="B212" s="15" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C212" s="15" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D212" s="15"/>
       <c r="E212" s="15" t="str">
@@ -8088,16 +8103,16 @@
         <v>18</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="14" x14ac:dyDescent="0.2">
       <c r="A213" s="28"/>
       <c r="B213" s="15" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C213" s="15" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D213" s="15"/>
       <c r="E213" s="15" t="str">
@@ -8108,13 +8123,13 @@
         <v>18</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="14" x14ac:dyDescent="0.2">
       <c r="A214" s="28"/>
       <c r="B214" s="15" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C214" s="15" t="s">
         <v>18</v>
@@ -8124,10 +8139,10 @@
         <v>27</v>
       </c>
       <c r="F214" s="22" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="14" x14ac:dyDescent="0.2">
@@ -8143,19 +8158,19 @@
         <v>30</v>
       </c>
       <c r="F215" s="15" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G215" s="15"/>
     </row>
     <row r="216" spans="1:9" ht="14" x14ac:dyDescent="0.2">
       <c r="A216" s="31" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B216" s="16" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D216" s="16"/>
       <c r="E216" s="14" t="str">
@@ -8166,16 +8181,16 @@
         <v>18</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="14" x14ac:dyDescent="0.2">
       <c r="A217" s="26"/>
       <c r="B217" s="16" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D217" s="16"/>
       <c r="E217" s="14" t="str">
@@ -8186,16 +8201,16 @@
         <v>18</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="14" x14ac:dyDescent="0.2">
       <c r="A218" s="26"/>
       <c r="B218" s="16" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D218" s="16"/>
       <c r="E218" s="14" t="str">
@@ -8206,13 +8221,13 @@
         <v>18</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="14" x14ac:dyDescent="0.2">
       <c r="A219" s="26"/>
       <c r="B219" s="16" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C219" s="14" t="s">
         <v>18</v>
@@ -8222,10 +8237,10 @@
         <v>27</v>
       </c>
       <c r="F219" s="24" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G219" s="18" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="14" x14ac:dyDescent="0.2">
@@ -8241,19 +8256,19 @@
         <v>30</v>
       </c>
       <c r="F220" s="14" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G220" s="14"/>
     </row>
     <row r="221" spans="1:9" ht="14" x14ac:dyDescent="0.2">
       <c r="A221" s="30" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B221" s="15" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C221" s="15" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D221" s="15"/>
       <c r="E221" s="15" t="str">
@@ -8264,16 +8279,16 @@
         <v>18</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="14" x14ac:dyDescent="0.2">
       <c r="A222" s="28"/>
       <c r="B222" s="15" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C222" s="15" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D222" s="15"/>
       <c r="E222" s="15" t="str">
@@ -8284,16 +8299,16 @@
         <v>18</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="14" x14ac:dyDescent="0.2">
       <c r="A223" s="28"/>
       <c r="B223" s="15" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C223" s="15" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D223" s="15"/>
       <c r="E223" s="15" t="str">
@@ -8304,13 +8319,13 @@
         <v>18</v>
       </c>
       <c r="G223" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="14" x14ac:dyDescent="0.2">
       <c r="A224" s="28"/>
       <c r="B224" s="15" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C224" s="15" t="s">
         <v>18</v>
@@ -8320,10 +8335,10 @@
         <v>27</v>
       </c>
       <c r="F224" s="22" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -8339,19 +8354,19 @@
         <v>30</v>
       </c>
       <c r="F225" s="15" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G225" s="15"/>
     </row>
     <row r="226" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A226" s="31" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B226" s="16" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D226" s="16"/>
       <c r="E226" s="14" t="str">
@@ -8362,16 +8377,16 @@
         <v>18</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A227" s="26"/>
       <c r="B227" s="16" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D227" s="16"/>
       <c r="E227" s="14" t="str">
@@ -8382,16 +8397,16 @@
         <v>18</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A228" s="26"/>
       <c r="B228" s="16" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D228" s="16"/>
       <c r="E228" s="14" t="str">
@@ -8402,13 +8417,13 @@
         <v>18</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A229" s="26"/>
       <c r="B229" s="16" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C229" s="14" t="s">
         <v>18</v>
@@ -8418,10 +8433,10 @@
         <v>27</v>
       </c>
       <c r="F229" s="24" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G229" s="18" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -8437,19 +8452,19 @@
         <v>30</v>
       </c>
       <c r="F230" s="14" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G230" s="14"/>
     </row>
     <row r="231" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A231" s="30" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C231" s="15" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D231" s="15"/>
       <c r="E231" s="15" t="str">
@@ -8460,16 +8475,16 @@
         <v>18</v>
       </c>
       <c r="G231" s="4" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A232" s="28"/>
       <c r="B232" s="15" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C232" s="15" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D232" s="15"/>
       <c r="E232" s="15" t="str">
@@ -8480,16 +8495,16 @@
         <v>18</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A233" s="28"/>
       <c r="B233" s="15" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C233" s="15" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D233" s="15"/>
       <c r="E233" s="15" t="str">
@@ -8500,13 +8515,13 @@
         <v>18</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A234" s="28"/>
       <c r="B234" s="15" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C234" s="15" t="s">
         <v>18</v>
@@ -8516,10 +8531,10 @@
         <v>27</v>
       </c>
       <c r="F234" s="22" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G234" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -8535,19 +8550,19 @@
         <v>30</v>
       </c>
       <c r="F235" s="15" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G235" s="15"/>
     </row>
     <row r="236" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A236" s="31" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B236" s="16" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D236" s="16"/>
       <c r="E236" s="14" t="str">
@@ -8558,16 +8573,16 @@
         <v>18</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A237" s="26"/>
       <c r="B237" s="16" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D237" s="16"/>
       <c r="E237" s="14" t="str">
@@ -8578,16 +8593,16 @@
         <v>18</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A238" s="26"/>
       <c r="B238" s="16" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D238" s="16"/>
       <c r="E238" s="14" t="str">
@@ -8598,13 +8613,13 @@
         <v>18</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A239" s="26"/>
       <c r="B239" s="16" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C239" s="14" t="s">
         <v>18</v>
@@ -8614,10 +8629,10 @@
         <v>27</v>
       </c>
       <c r="F239" s="24" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G239" s="18" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -8633,19 +8648,19 @@
         <v>30</v>
       </c>
       <c r="F240" s="14" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G240" s="14"/>
     </row>
     <row r="241" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A241" s="30" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B241" s="15" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C241" s="15" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D241" s="15"/>
       <c r="E241" s="15" t="str">
@@ -8656,16 +8671,16 @@
         <v>18</v>
       </c>
       <c r="G241" s="4" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A242" s="28"/>
       <c r="B242" s="15" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C242" s="15" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D242" s="15"/>
       <c r="E242" s="15" t="str">
@@ -8676,16 +8691,16 @@
         <v>18</v>
       </c>
       <c r="G242" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A243" s="28"/>
       <c r="B243" s="15" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C243" s="15" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D243" s="15"/>
       <c r="E243" s="15" t="str">
@@ -8696,13 +8711,13 @@
         <v>18</v>
       </c>
       <c r="G243" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A244" s="28"/>
       <c r="B244" s="15" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C244" s="15" t="s">
         <v>18</v>
@@ -8712,10 +8727,10 @@
         <v>27</v>
       </c>
       <c r="F244" s="22" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G244" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -8731,19 +8746,19 @@
         <v>30</v>
       </c>
       <c r="F245" s="15" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G245" s="15"/>
     </row>
     <row r="246" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A246" s="26" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B246" s="16" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D246" s="16"/>
       <c r="E246" s="14" t="str">
@@ -8754,13 +8769,13 @@
         <v>18</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A247" s="26"/>
       <c r="B247" s="16" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C247" s="14" t="s">
         <v>18</v>
@@ -8770,10 +8785,10 @@
         <v>27</v>
       </c>
       <c r="F247" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -8789,19 +8804,19 @@
         <v>30</v>
       </c>
       <c r="F248" s="14" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G248" s="14"/>
     </row>
     <row r="249" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A249" s="28" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B249" s="15" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C249" s="15" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D249" s="15"/>
       <c r="E249" s="15" t="str">
@@ -8812,13 +8827,13 @@
         <v>18</v>
       </c>
       <c r="G249" s="4" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A250" s="28"/>
       <c r="B250" s="15" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C250" s="15" t="s">
         <v>18</v>
@@ -8828,10 +8843,10 @@
         <v>27</v>
       </c>
       <c r="F250" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G250" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -8847,19 +8862,19 @@
         <v>30</v>
       </c>
       <c r="F251" s="15" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G251" s="15"/>
     </row>
     <row r="252" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A252" s="26" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B252" s="16" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D252" s="16"/>
       <c r="E252" s="14" t="str">
@@ -8870,13 +8885,13 @@
         <v>18</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A253" s="26"/>
       <c r="B253" s="16" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C253" s="14" t="s">
         <v>18</v>
@@ -8886,10 +8901,10 @@
         <v>27</v>
       </c>
       <c r="F253" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -8905,19 +8920,19 @@
         <v>30</v>
       </c>
       <c r="F254" s="14" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G254" s="14"/>
     </row>
     <row r="255" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A255" s="28" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B255" s="15" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C255" s="15" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D255" s="15"/>
       <c r="E255" s="15" t="str">
@@ -8928,13 +8943,13 @@
         <v>18</v>
       </c>
       <c r="G255" s="4" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="256" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A256" s="28"/>
       <c r="B256" s="15" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C256" s="15" t="s">
         <v>18</v>
@@ -8944,10 +8959,10 @@
         <v>27</v>
       </c>
       <c r="F256" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -8963,19 +8978,19 @@
         <v>30</v>
       </c>
       <c r="F257" s="15" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G257" s="15"/>
     </row>
     <row r="258" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A258" s="31" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B258" s="23" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C258" s="23" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D258" s="23"/>
       <c r="E258" s="21" t="str">
@@ -8986,16 +9001,16 @@
         <v>11</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A259" s="26"/>
       <c r="B259" s="23" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C259" s="23" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D259" s="23"/>
       <c r="E259" s="21" t="str">
@@ -9006,16 +9021,16 @@
         <v>11</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="260" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A260" s="26"/>
       <c r="B260" s="23" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C260" s="23" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D260" s="23"/>
       <c r="E260" s="21" t="str">
@@ -9026,16 +9041,16 @@
         <v>18</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A261" s="26"/>
       <c r="B261" s="23" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C261" s="23" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D261" s="23"/>
       <c r="E261" s="21" t="str">
@@ -9046,16 +9061,16 @@
         <v>18</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A262" s="26"/>
       <c r="B262" s="23" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C262" s="23" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D262" s="23"/>
       <c r="E262" s="21" t="str">
@@ -9066,7 +9081,7 @@
         <v>18</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -9101,19 +9116,19 @@
         <v>30</v>
       </c>
       <c r="F264" s="21" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G264" s="21"/>
     </row>
     <row r="265" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A265" s="30" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B265" s="22" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C265" s="22" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D265" s="22"/>
       <c r="E265" s="22" t="str">
@@ -9124,16 +9139,16 @@
         <v>11</v>
       </c>
       <c r="G265" s="4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A266" s="28"/>
       <c r="B266" s="22" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C266" s="22" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D266" s="22"/>
       <c r="E266" s="22" t="str">
@@ -9144,16 +9159,16 @@
         <v>11</v>
       </c>
       <c r="G266" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="267" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A267" s="28"/>
       <c r="B267" s="22" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C267" s="22" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D267" s="22"/>
       <c r="E267" s="22" t="str">
@@ -9164,16 +9179,16 @@
         <v>18</v>
       </c>
       <c r="G267" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A268" s="28"/>
       <c r="B268" s="22" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C268" s="22" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D268" s="22"/>
       <c r="E268" s="22" t="str">
@@ -9184,16 +9199,16 @@
         <v>18</v>
       </c>
       <c r="G268" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A269" s="28"/>
       <c r="B269" s="22" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C269" s="22" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D269" s="22"/>
       <c r="E269" s="22" t="str">
@@ -9204,7 +9219,7 @@
         <v>18</v>
       </c>
       <c r="G269" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -9220,10 +9235,10 @@
         <v>27</v>
       </c>
       <c r="F270" s="22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G270" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -9239,19 +9254,19 @@
         <v>30</v>
       </c>
       <c r="F271" s="22" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G271" s="22"/>
     </row>
     <row r="272" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A272" s="31" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B272" s="23" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C272" s="23" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D272" s="23"/>
       <c r="E272" s="21" t="str">
@@ -9262,16 +9277,16 @@
         <v>11</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A273" s="26"/>
       <c r="B273" s="23" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C273" s="23" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D273" s="23"/>
       <c r="E273" s="21" t="str">
@@ -9282,16 +9297,16 @@
         <v>11</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="274" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A274" s="26"/>
       <c r="B274" s="23" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C274" s="23" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D274" s="23"/>
       <c r="E274" s="21" t="str">
@@ -9302,16 +9317,16 @@
         <v>18</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A275" s="26"/>
       <c r="B275" s="23" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C275" s="23" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D275" s="23"/>
       <c r="E275" s="21" t="str">
@@ -9322,16 +9337,16 @@
         <v>18</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="276" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A276" s="26"/>
       <c r="B276" s="23" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C276" s="23" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D276" s="23"/>
       <c r="E276" s="21" t="str">
@@ -9342,7 +9357,7 @@
         <v>18</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="277" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -9358,10 +9373,10 @@
         <v>27</v>
       </c>
       <c r="F277" s="21" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="278" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -9377,19 +9392,19 @@
         <v>30</v>
       </c>
       <c r="F278" s="21" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G278" s="21"/>
     </row>
     <row r="279" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A279" s="30" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B279" s="22" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C279" s="22" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D279" s="22"/>
       <c r="E279" s="22" t="str">
@@ -9400,16 +9415,16 @@
         <v>11</v>
       </c>
       <c r="G279" s="4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="280" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A280" s="28"/>
       <c r="B280" s="22" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C280" s="22" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D280" s="22"/>
       <c r="E280" s="22" t="str">
@@ -9420,16 +9435,16 @@
         <v>11</v>
       </c>
       <c r="G280" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="281" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A281" s="28"/>
       <c r="B281" s="22" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C281" s="22" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D281" s="22"/>
       <c r="E281" s="22" t="str">
@@ -9440,16 +9455,16 @@
         <v>18</v>
       </c>
       <c r="G281" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="282" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A282" s="28"/>
       <c r="B282" s="22" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C282" s="22" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D282" s="22"/>
       <c r="E282" s="22" t="str">
@@ -9460,16 +9475,16 @@
         <v>18</v>
       </c>
       <c r="G282" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A283" s="28"/>
       <c r="B283" s="22" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C283" s="22" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D283" s="22"/>
       <c r="E283" s="22" t="str">
@@ -9480,7 +9495,7 @@
         <v>18</v>
       </c>
       <c r="G283" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -9496,10 +9511,10 @@
         <v>27</v>
       </c>
       <c r="F284" s="22" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G284" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -9515,19 +9530,19 @@
         <v>30</v>
       </c>
       <c r="F285" s="22" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G285" s="22"/>
     </row>
     <row r="286" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A286" s="31" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B286" s="23" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C286" s="23" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D286" s="23"/>
       <c r="E286" s="21" t="str">
@@ -9538,16 +9553,16 @@
         <v>11</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="287" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A287" s="26"/>
       <c r="B287" s="23" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C287" s="23" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D287" s="23"/>
       <c r="E287" s="21" t="str">
@@ -9558,16 +9573,16 @@
         <v>11</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="288" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A288" s="26"/>
       <c r="B288" s="23" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C288" s="23" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D288" s="23"/>
       <c r="E288" s="21" t="str">
@@ -9578,16 +9593,16 @@
         <v>18</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A289" s="26"/>
       <c r="B289" s="23" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C289" s="23" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D289" s="23"/>
       <c r="E289" s="21" t="str">
@@ -9598,16 +9613,16 @@
         <v>18</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="290" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A290" s="26"/>
       <c r="B290" s="23" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C290" s="23" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D290" s="23"/>
       <c r="E290" s="21" t="str">
@@ -9618,7 +9633,7 @@
         <v>18</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -9634,10 +9649,10 @@
         <v>27</v>
       </c>
       <c r="F291" s="21" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -9653,19 +9668,19 @@
         <v>30</v>
       </c>
       <c r="F292" s="21" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G292" s="21"/>
     </row>
     <row r="293" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A293" s="30" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B293" s="22" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C293" s="22" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D293" s="22"/>
       <c r="E293" s="22" t="str">
@@ -9676,16 +9691,16 @@
         <v>11</v>
       </c>
       <c r="G293" s="4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A294" s="28"/>
       <c r="B294" s="22" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C294" s="22" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D294" s="22"/>
       <c r="E294" s="22" t="str">
@@ -9696,16 +9711,16 @@
         <v>11</v>
       </c>
       <c r="G294" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A295" s="28"/>
       <c r="B295" s="22" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C295" s="22" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D295" s="22"/>
       <c r="E295" s="22" t="str">
@@ -9716,16 +9731,16 @@
         <v>18</v>
       </c>
       <c r="G295" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="296" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A296" s="28"/>
       <c r="B296" s="22" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C296" s="22" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D296" s="22"/>
       <c r="E296" s="22" t="str">
@@ -9736,16 +9751,16 @@
         <v>18</v>
       </c>
       <c r="G296" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A297" s="28"/>
       <c r="B297" s="22" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C297" s="22" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D297" s="22"/>
       <c r="E297" s="22" t="str">
@@ -9756,7 +9771,7 @@
         <v>18</v>
       </c>
       <c r="G297" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="298" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -9772,10 +9787,10 @@
         <v>27</v>
       </c>
       <c r="F298" s="22" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G298" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="299" spans="1:7" ht="14" x14ac:dyDescent="0.2">
@@ -9791,13 +9806,171 @@
         <v>30</v>
       </c>
       <c r="F299" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="G299" s="22"/>
+    </row>
+    <row r="300" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A300" s="32" t="s">
         <v>386</v>
       </c>
-      <c r="G299" s="22"/>
+      <c r="B300" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C300" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D300" s="23"/>
+      <c r="E300" s="23" t="str">
+        <f t="shared" ref="E300" si="38">_xlfn.CONCAT(B300, "_", C300)</f>
+        <v>Reactome_EvidenceID</v>
+      </c>
+      <c r="F300" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G300" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A301" s="32"/>
+      <c r="B301" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C301" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D301" s="23"/>
+      <c r="E301" s="23" t="str">
+        <f>_xlfn.CONCAT(B301, "_", C301)</f>
+        <v>Reactome_Species</v>
+      </c>
+      <c r="F301" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G301" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A302" s="32"/>
+      <c r="B302" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C302" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D302" s="23"/>
+      <c r="E302" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F302" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G302" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A303" s="32"/>
+      <c r="B303" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C303" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D303" s="23"/>
+      <c r="E303" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F303" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="G303" s="23"/>
+    </row>
+    <row r="304" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A304" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="B304" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="C304" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D304" s="22"/>
+      <c r="E304" s="22" t="str">
+        <f t="shared" ref="E304" si="39">_xlfn.CONCAT(B304, "_", C304)</f>
+        <v>Reactome_EvidenceID</v>
+      </c>
+      <c r="F304" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G304" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A305" s="34"/>
+      <c r="B305" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="C305" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D305" s="22"/>
+      <c r="E305" s="22" t="str">
+        <f>_xlfn.CONCAT(B305, "_", C305)</f>
+        <v>Reactome_Species</v>
+      </c>
+      <c r="F305" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G305" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A306" s="34"/>
+      <c r="B306" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C306" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D306" s="22"/>
+      <c r="E306" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F306" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="G306" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A307" s="34"/>
+      <c r="B307" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C307" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D307" s="22"/>
+      <c r="E307" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F307" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="G307" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="54">
     <mergeCell ref="A293:A299"/>
+    <mergeCell ref="A300:A303"/>
+    <mergeCell ref="A304:A307"/>
     <mergeCell ref="A258:A264"/>
     <mergeCell ref="A265:A271"/>
     <mergeCell ref="A272:A278"/>
@@ -9858,9 +10031,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780CD01F-0819-CA44-B0D6-41E21FE9EADE}">
   <dimension ref="A1:H224"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G63" sqref="G63:G69"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -10013,7 +10186,7 @@
         <v>37</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="154" x14ac:dyDescent="0.2">
@@ -10031,7 +10204,7 @@
         <v>36</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="154" x14ac:dyDescent="0.2">
@@ -10047,7 +10220,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="33"/>
       <c r="H9" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -10169,15 +10342,15 @@
       <c r="B16" s="34"/>
       <c r="C16" s="34"/>
       <c r="D16" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="34"/>
       <c r="H16" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -10185,15 +10358,15 @@
       <c r="B17" s="34"/>
       <c r="C17" s="34"/>
       <c r="D17" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="34"/>
       <c r="H17" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -10227,7 +10400,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="34"/>
       <c r="H19" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -10235,15 +10408,15 @@
       <c r="B20" s="34"/>
       <c r="C20" s="34"/>
       <c r="D20" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="34"/>
       <c r="H20" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -10251,15 +10424,15 @@
       <c r="B21" s="34"/>
       <c r="C21" s="34"/>
       <c r="D21" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="34"/>
       <c r="H21" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -10267,17 +10440,17 @@
       <c r="B22" s="34"/>
       <c r="C22" s="34"/>
       <c r="D22" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -10285,19 +10458,19 @@
       <c r="B23" s="34"/>
       <c r="C23" s="34"/>
       <c r="D23" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -10419,15 +10592,15 @@
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
       <c r="D30" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E30" s="17" t="s">
         <v>171</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>173</v>
       </c>
       <c r="F30" s="17"/>
       <c r="G30" s="32"/>
       <c r="H30" s="18" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -10469,15 +10642,15 @@
       <c r="B33" s="32"/>
       <c r="C33" s="32"/>
       <c r="D33" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="48"/>
       <c r="H33" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -10485,17 +10658,17 @@
       <c r="B34" s="32"/>
       <c r="C34" s="32"/>
       <c r="D34" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -10503,19 +10676,19 @@
       <c r="B35" s="32"/>
       <c r="C35" s="32"/>
       <c r="D35" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -10655,15 +10828,15 @@
       <c r="B43" s="46"/>
       <c r="C43" s="46"/>
       <c r="D43" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="34"/>
       <c r="H43" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -10795,7 +10968,7 @@
         <v>37</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -10813,7 +10986,7 @@
         <v>36</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="25" customFormat="1" ht="70" x14ac:dyDescent="0.2">
@@ -10821,15 +10994,15 @@
       <c r="B52" s="47"/>
       <c r="C52" s="47"/>
       <c r="D52" s="20" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F52" s="20"/>
       <c r="G52" s="41"/>
       <c r="H52" s="18" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="25" customFormat="1" ht="70" x14ac:dyDescent="0.2">
@@ -10837,15 +11010,15 @@
       <c r="B53" s="47"/>
       <c r="C53" s="47"/>
       <c r="D53" s="20" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F53" s="20"/>
       <c r="G53" s="42"/>
       <c r="H53" s="18" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -10863,7 +11036,7 @@
         <v>78</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -10977,7 +11150,7 @@
         <v>37</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -10985,15 +11158,15 @@
       <c r="B61" s="46"/>
       <c r="C61" s="46"/>
       <c r="D61" s="22" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E61" s="22" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F61" s="22"/>
       <c r="G61" s="28"/>
       <c r="H61" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -11001,15 +11174,15 @@
       <c r="B62" s="46"/>
       <c r="C62" s="46"/>
       <c r="D62" s="22" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E62" s="22" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F62" s="22"/>
       <c r="G62" s="29"/>
       <c r="H62" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -11027,7 +11200,7 @@
         <v>36</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -11035,15 +11208,15 @@
       <c r="B64" s="46"/>
       <c r="C64" s="46"/>
       <c r="D64" s="15" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F64" s="15"/>
       <c r="G64" s="28"/>
       <c r="H64" s="4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -11051,15 +11224,15 @@
       <c r="B65" s="46"/>
       <c r="C65" s="46"/>
       <c r="D65" s="15" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F65" s="15"/>
       <c r="G65" s="28"/>
       <c r="H65" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -11067,15 +11240,15 @@
       <c r="B66" s="46"/>
       <c r="C66" s="46"/>
       <c r="D66" s="15" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F66" s="15"/>
       <c r="G66" s="28"/>
       <c r="H66" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -11083,15 +11256,15 @@
       <c r="B67" s="46"/>
       <c r="C67" s="46"/>
       <c r="D67" s="15" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F67" s="15"/>
       <c r="G67" s="28"/>
       <c r="H67" s="4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -11099,15 +11272,15 @@
       <c r="B68" s="46"/>
       <c r="C68" s="46"/>
       <c r="D68" s="22" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E68" s="22" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F68" s="22"/>
       <c r="G68" s="28"/>
       <c r="H68" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -11115,17 +11288,17 @@
       <c r="B69" s="46"/>
       <c r="C69" s="46"/>
       <c r="D69" s="22" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E69" s="22" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F69" s="22" t="s">
         <v>11</v>
       </c>
       <c r="G69" s="29"/>
       <c r="H69" s="4" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -11133,17 +11306,17 @@
       <c r="B70" s="46"/>
       <c r="C70" s="46"/>
       <c r="D70" s="22" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E70" s="22" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F70" s="22"/>
       <c r="G70" s="22" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -11161,7 +11334,7 @@
         <v>78</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="42" x14ac:dyDescent="0.2">
@@ -11185,7 +11358,7 @@
         <v>15</v>
       </c>
       <c r="H72" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -11268,17 +11441,17 @@
         <v>25</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F77" s="17"/>
       <c r="G77" s="17" t="s">
         <v>37</v>
       </c>
       <c r="H77" s="18" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="70" x14ac:dyDescent="0.2">
       <c r="A78" s="50"/>
       <c r="B78" s="50"/>
       <c r="C78" s="50"/>
@@ -11293,7 +11466,7 @@
         <v>36</v>
       </c>
       <c r="H78" s="18" t="s">
-        <v>229</v>
+        <v>389</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -11304,12 +11477,12 @@
         <v>25</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F79" s="17"/>
       <c r="G79" s="41"/>
       <c r="H79" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -11317,33 +11490,33 @@
       <c r="B80" s="50"/>
       <c r="C80" s="50"/>
       <c r="D80" s="17" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F80" s="17"/>
       <c r="G80" s="42"/>
       <c r="H80" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="70" x14ac:dyDescent="0.2">
       <c r="A81" s="50"/>
       <c r="B81" s="50"/>
       <c r="C81" s="50"/>
       <c r="D81" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F81" s="6"/>
       <c r="G81" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>259</v>
+        <v>388</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -11351,17 +11524,17 @@
       <c r="B82" s="51"/>
       <c r="C82" s="51"/>
       <c r="D82" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F82" s="6"/>
       <c r="G82" s="6" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="42" x14ac:dyDescent="0.2">
@@ -11369,10 +11542,10 @@
         <v>13</v>
       </c>
       <c r="B83" s="35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C83" s="35" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>14</v>
@@ -11385,7 +11558,7 @@
         <v>15</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -11403,7 +11576,7 @@
         <v>20</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="14" x14ac:dyDescent="0.2">
@@ -11468,14 +11641,14 @@
         <v>25</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -11483,17 +11656,17 @@
       <c r="B89" s="36"/>
       <c r="C89" s="36"/>
       <c r="D89" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -11504,14 +11677,14 @@
         <v>1</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -11519,17 +11692,17 @@
       <c r="B91" s="36"/>
       <c r="C91" s="36"/>
       <c r="D91" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -11537,17 +11710,17 @@
       <c r="B92" s="36"/>
       <c r="C92" s="36"/>
       <c r="D92" s="22" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E92" s="22" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F92" s="22"/>
       <c r="G92" s="22" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -11555,17 +11728,17 @@
       <c r="B93" s="37"/>
       <c r="C93" s="37"/>
       <c r="D93" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="42" x14ac:dyDescent="0.2">
@@ -11573,10 +11746,10 @@
         <v>13</v>
       </c>
       <c r="B94" s="45" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C94" s="45" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>14</v>
@@ -11589,7 +11762,7 @@
         <v>15</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -11607,7 +11780,7 @@
         <v>20</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="14" x14ac:dyDescent="0.2">
@@ -11672,14 +11845,14 @@
         <v>25</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F99" s="6"/>
       <c r="G99" s="6" t="s">
         <v>37</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -11687,17 +11860,17 @@
       <c r="B100" s="45"/>
       <c r="C100" s="45"/>
       <c r="D100" s="17" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F100" s="17"/>
       <c r="G100" s="17" t="s">
         <v>36</v>
       </c>
       <c r="H100" s="18" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -11708,14 +11881,14 @@
         <v>1</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F101" s="6"/>
       <c r="G101" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -11723,17 +11896,17 @@
       <c r="B102" s="45"/>
       <c r="C102" s="45"/>
       <c r="D102" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F102" s="6"/>
       <c r="G102" s="6" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -11741,17 +11914,17 @@
       <c r="B103" s="45"/>
       <c r="C103" s="45"/>
       <c r="D103" s="24" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E103" s="24" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F103" s="24"/>
       <c r="G103" s="24" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H103" s="18" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -11759,17 +11932,17 @@
       <c r="B104" s="45"/>
       <c r="C104" s="45"/>
       <c r="D104" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F104" s="6"/>
       <c r="G104" s="6" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="42" x14ac:dyDescent="0.2">
@@ -11777,10 +11950,10 @@
         <v>13</v>
       </c>
       <c r="B105" s="35" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C105" s="35" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>14</v>
@@ -11793,7 +11966,7 @@
         <v>15</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -11811,7 +11984,7 @@
         <v>20</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="14" x14ac:dyDescent="0.2">
@@ -11876,14 +12049,14 @@
         <v>25</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -11891,17 +12064,17 @@
       <c r="B111" s="36"/>
       <c r="C111" s="36"/>
       <c r="D111" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -11912,14 +12085,14 @@
         <v>1</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F112" s="3"/>
       <c r="G112" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -11927,17 +12100,17 @@
       <c r="B113" s="36"/>
       <c r="C113" s="36"/>
       <c r="D113" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F113" s="3"/>
       <c r="G113" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -11945,17 +12118,17 @@
       <c r="B114" s="36"/>
       <c r="C114" s="36"/>
       <c r="D114" s="22" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E114" s="22" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F114" s="22"/>
       <c r="G114" s="22" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -11963,17 +12136,17 @@
       <c r="B115" s="37"/>
       <c r="C115" s="37"/>
       <c r="D115" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F115" s="3"/>
       <c r="G115" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="42" x14ac:dyDescent="0.2">
@@ -11981,10 +12154,10 @@
         <v>13</v>
       </c>
       <c r="B116" s="38" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C116" s="38" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D116" s="16" t="s">
         <v>14</v>
@@ -11997,7 +12170,7 @@
         <v>15</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -12015,7 +12188,7 @@
         <v>20</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="14" x14ac:dyDescent="0.2">
@@ -12077,17 +12250,17 @@
       <c r="B121" s="39"/>
       <c r="C121" s="39"/>
       <c r="D121" s="20" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E121" s="20" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F121" s="16"/>
       <c r="G121" s="16" t="s">
         <v>37</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="14" x14ac:dyDescent="0.2">
@@ -12113,17 +12286,17 @@
       <c r="B123" s="39"/>
       <c r="C123" s="39"/>
       <c r="D123" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="E123" s="20" t="s">
         <v>303</v>
-      </c>
-      <c r="E123" s="20" t="s">
-        <v>307</v>
       </c>
       <c r="F123" s="20"/>
       <c r="G123" s="20" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="98" x14ac:dyDescent="0.2">
@@ -12131,17 +12304,17 @@
       <c r="B124" s="39"/>
       <c r="C124" s="39"/>
       <c r="D124" s="16" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E124" s="20" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F124" s="16"/>
       <c r="G124" s="20" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="98" x14ac:dyDescent="0.2">
@@ -12149,17 +12322,17 @@
       <c r="B125" s="43"/>
       <c r="C125" s="43"/>
       <c r="D125" s="16" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E125" s="20" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F125" s="16"/>
       <c r="G125" s="16" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -12167,10 +12340,10 @@
         <v>13</v>
       </c>
       <c r="B126" s="35" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C126" s="30" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D126" s="15" t="s">
         <v>14</v>
@@ -12183,7 +12356,7 @@
         <v>15</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -12201,7 +12374,7 @@
         <v>20</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="14" x14ac:dyDescent="0.2">
@@ -12263,17 +12436,17 @@
       <c r="B131" s="36"/>
       <c r="C131" s="36"/>
       <c r="D131" s="15" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E131" s="15" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F131" s="15"/>
       <c r="G131" s="15" t="s">
         <v>37</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="14" x14ac:dyDescent="0.2">
@@ -12299,17 +12472,17 @@
       <c r="B133" s="36"/>
       <c r="C133" s="36"/>
       <c r="D133" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="E133" s="15" t="s">
         <v>303</v>
-      </c>
-      <c r="E133" s="15" t="s">
-        <v>307</v>
       </c>
       <c r="F133" s="15"/>
       <c r="G133" s="15" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="98" x14ac:dyDescent="0.2">
@@ -12317,17 +12490,17 @@
       <c r="B134" s="36"/>
       <c r="C134" s="36"/>
       <c r="D134" s="15" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E134" s="15" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F134" s="15"/>
       <c r="G134" s="15" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="98" x14ac:dyDescent="0.2">
@@ -12335,17 +12508,17 @@
       <c r="B135" s="37"/>
       <c r="C135" s="37"/>
       <c r="D135" s="15" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E135" s="15" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F135" s="15"/>
       <c r="G135" s="15" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="42" x14ac:dyDescent="0.2">
@@ -12353,7 +12526,7 @@
         <v>13</v>
       </c>
       <c r="B136" s="38" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C136" s="38" t="s">
         <v>41</v>
@@ -12369,7 +12542,7 @@
         <v>15</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -12387,7 +12560,7 @@
         <v>20</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="14" x14ac:dyDescent="0.2">
@@ -12485,7 +12658,7 @@
         <v>13</v>
       </c>
       <c r="B143" s="35" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C143" s="35" t="s">
         <v>41</v>
@@ -12501,7 +12674,7 @@
         <v>15</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -12519,7 +12692,7 @@
         <v>20</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="14" x14ac:dyDescent="0.2">

--- a/resources/pheknowlator_source_metadata.xlsx
+++ b/resources/pheknowlator_source_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiffanycallahan/Dropbox/GraduateSchool/PhD/LabWork/PheKnowLator/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF126CD8-3ABB-C440-AF69-2641D6788F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EFA023-F48B-E340-8837-6B288C841EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12160" yWindow="1040" windowWidth="36820" windowHeight="23880" activeTab="1" xr2:uid="{82CFCCA6-69D0-6D4F-8FD9-9511C5B37B8B}"/>
+    <workbookView xWindow="12160" yWindow="1040" windowWidth="36820" windowHeight="23880" xr2:uid="{82CFCCA6-69D0-6D4F-8FD9-9511C5B37B8B}"/>
   </bookViews>
   <sheets>
     <sheet name="edges" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="399">
   <si>
     <t>edge_type</t>
   </si>
@@ -3258,6 +3258,80 @@
 chemical-pathway:column 1
 protein-pathway:column 1</t>
     </r>
+  </si>
+  <si>
+    <t>OBO Ontology
+STRING</t>
+  </si>
+  <si>
+    <t>STRING:protein1</t>
+  </si>
+  <si>
+    <t>STRING:protein2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulled from data provided by STRING
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>STRING Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+protein-protein:column 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulled from data provided by STRING
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>STRING Data Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+protein-protein:column 1</t>
+    </r>
+  </si>
+  <si>
+    <t>protein-protein</t>
+  </si>
+  <si>
+    <t>STRING</t>
+  </si>
+  <si>
+    <t>combined_score</t>
+  </si>
+  <si>
+    <t>Value derived from Reactome (column:2)</t>
   </si>
 </sst>
 </file>
@@ -3874,11 +3948,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC7A73D-1C32-0943-8AF1-D604CF68867B}">
-  <dimension ref="A1:I307"/>
+  <dimension ref="A1:I313"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F302" sqref="F302"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A282" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F326" sqref="F326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -9966,8 +10040,126 @@
       </c>
       <c r="G307" s="22"/>
     </row>
+    <row r="308" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A308" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="B308" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="C308" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="D308" s="23"/>
+      <c r="E308" s="23" t="str">
+        <f t="shared" ref="E308" si="40">_xlfn.CONCAT(B308, "_", C308)</f>
+        <v>STRING_combined_score</v>
+      </c>
+      <c r="F308" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G308" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A309" s="32"/>
+      <c r="B309" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C309" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D309" s="23"/>
+      <c r="E309" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F309" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="G309" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A310" s="32"/>
+      <c r="B310" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C310" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D310" s="23"/>
+      <c r="E310" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F310" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="G310" s="23"/>
+    </row>
+    <row r="311" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A311" s="34" t="s">
+        <v>395</v>
+      </c>
+      <c r="B311" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="C311" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="D311" s="22"/>
+      <c r="E311" s="22" t="str">
+        <f t="shared" ref="E311" si="41">_xlfn.CONCAT(B311, "_", C311)</f>
+        <v>STRING_combined_score</v>
+      </c>
+      <c r="F311" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G311" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A312" s="34"/>
+      <c r="B312" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C312" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D312" s="22"/>
+      <c r="E312" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F312" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="G312" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A313" s="34"/>
+      <c r="B313" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C313" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D313" s="22"/>
+      <c r="E313" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F313" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="G313" s="22"/>
+    </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="56">
+    <mergeCell ref="A308:A310"/>
+    <mergeCell ref="A311:A313"/>
     <mergeCell ref="A293:A299"/>
     <mergeCell ref="A300:A303"/>
     <mergeCell ref="A304:A307"/>
@@ -10029,11 +10221,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780CD01F-0819-CA44-B0D6-41E21FE9EADE}">
-  <dimension ref="A1:H224"/>
+  <dimension ref="A1:H226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H78" sqref="H78"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -11296,123 +11488,119 @@
       <c r="F69" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G69" s="29"/>
+      <c r="G69" s="28"/>
       <c r="H69" s="4" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="84" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A70" s="46"/>
       <c r="B70" s="46"/>
       <c r="C70" s="46"/>
       <c r="D70" s="22" t="s">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="E70" s="22" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
       <c r="F70" s="22"/>
-      <c r="G70" s="22" t="s">
-        <v>374</v>
-      </c>
+      <c r="G70" s="28"/>
       <c r="H70" s="4" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A71" s="46"/>
       <c r="B71" s="46"/>
       <c r="C71" s="46"/>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="E71" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="F71" s="22"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="84" x14ac:dyDescent="0.2">
+      <c r="A72" s="46"/>
+      <c r="B72" s="46"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A73" s="46"/>
+      <c r="B73" s="46"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E73" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3" t="s">
+      <c r="F73" s="3"/>
+      <c r="G73" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H71" s="4" t="s">
+      <c r="H73" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A72" s="49" t="s">
+    <row r="74" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A74" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B72" s="49" t="s">
+      <c r="B74" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="C72" s="49" t="s">
+      <c r="C74" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="D72" s="17" t="s">
+      <c r="D74" s="17" t="s">
         <v>14</v>
-      </c>
-      <c r="E72" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H72" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A73" s="50"/>
-      <c r="B73" s="50"/>
-      <c r="C73" s="50"/>
-      <c r="D73" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E73" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H73" s="18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A74" s="50"/>
-      <c r="B74" s="50"/>
-      <c r="C74" s="50"/>
-      <c r="D74" s="17" t="s">
-        <v>19</v>
       </c>
       <c r="E74" s="17" t="s">
         <v>18</v>
       </c>
       <c r="F74" s="17"/>
       <c r="G74" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H74" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A75" s="50"/>
       <c r="B75" s="50"/>
       <c r="C75" s="50"/>
       <c r="D75" s="17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E75" s="17" t="s">
         <v>18</v>
       </c>
       <c r="F75" s="17"/>
       <c r="G75" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H75" s="18" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="14" x14ac:dyDescent="0.2">
@@ -11420,53 +11608,53 @@
       <c r="B76" s="50"/>
       <c r="C76" s="50"/>
       <c r="D76" s="17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E76" s="17" t="s">
         <v>18</v>
       </c>
       <c r="F76" s="17"/>
       <c r="G76" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H76" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A77" s="50"/>
       <c r="B77" s="50"/>
       <c r="C77" s="50"/>
       <c r="D77" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>217</v>
+        <v>18</v>
       </c>
       <c r="F77" s="17"/>
       <c r="G77" s="17" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="H77" s="18" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="70" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A78" s="50"/>
       <c r="B78" s="50"/>
       <c r="C78" s="50"/>
       <c r="D78" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="F78" s="17"/>
-      <c r="G78" s="40" t="s">
-        <v>36</v>
+      <c r="G78" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="H78" s="18" t="s">
-        <v>389</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -11477,142 +11665,142 @@
         <v>25</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F79" s="17"/>
-      <c r="G79" s="41"/>
+      <c r="G79" s="17" t="s">
+        <v>37</v>
+      </c>
       <c r="H79" s="18" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="84" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="70" x14ac:dyDescent="0.2">
       <c r="A80" s="50"/>
       <c r="B80" s="50"/>
       <c r="C80" s="50"/>
       <c r="D80" s="17" t="s">
-        <v>253</v>
+        <v>25</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>289</v>
+        <v>98</v>
       </c>
       <c r="F80" s="17"/>
-      <c r="G80" s="42"/>
-      <c r="H80" s="7" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="70" x14ac:dyDescent="0.2">
+      <c r="G80" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="H80" s="18" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A81" s="50"/>
       <c r="B81" s="50"/>
       <c r="C81" s="50"/>
-      <c r="D81" s="6" t="s">
+      <c r="D81" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="F81" s="17"/>
+      <c r="G81" s="41"/>
+      <c r="H81" s="18" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="84" x14ac:dyDescent="0.2">
+      <c r="A82" s="50"/>
+      <c r="B82" s="50"/>
+      <c r="C82" s="50"/>
+      <c r="D82" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="E82" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F82" s="17"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="70" x14ac:dyDescent="0.2">
+      <c r="A83" s="50"/>
+      <c r="B83" s="50"/>
+      <c r="C83" s="50"/>
+      <c r="D83" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E83" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6" t="s">
+      <c r="F83" s="6"/>
+      <c r="G83" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="H81" s="7" t="s">
+      <c r="H83" s="7" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A82" s="51"/>
-      <c r="B82" s="51"/>
-      <c r="C82" s="51"/>
-      <c r="D82" s="6" t="s">
+    <row r="84" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A84" s="51"/>
+      <c r="B84" s="51"/>
+      <c r="C84" s="51"/>
+      <c r="D84" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="E84" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6" t="s">
+      <c r="F84" s="6"/>
+      <c r="G84" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="H82" s="7" t="s">
+      <c r="H84" s="7" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A83" s="35" t="s">
+    <row r="85" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A85" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B83" s="35" t="s">
+      <c r="B85" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="C83" s="35" t="s">
+      <c r="C85" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D85" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A84" s="36"/>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A85" s="36"/>
-      <c r="B85" s="36"/>
-      <c r="C85" s="36"/>
-      <c r="D85" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A86" s="36"/>
       <c r="B86" s="36"/>
       <c r="C86" s="36"/>
       <c r="D86" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="14" x14ac:dyDescent="0.2">
@@ -11620,53 +11808,53 @@
       <c r="B87" s="36"/>
       <c r="C87" s="36"/>
       <c r="D87" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A88" s="36"/>
       <c r="B88" s="36"/>
       <c r="C88" s="36"/>
       <c r="D88" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A89" s="36"/>
       <c r="B89" s="36"/>
       <c r="C89" s="36"/>
       <c r="D89" s="3" t="s">
-        <v>274</v>
+        <v>24</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>275</v>
+        <v>18</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>276</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -11674,17 +11862,17 @@
       <c r="B90" s="36"/>
       <c r="C90" s="36"/>
       <c r="D90" s="3" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="3" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -11692,131 +11880,131 @@
       <c r="B91" s="36"/>
       <c r="C91" s="36"/>
       <c r="D91" s="3" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3" t="s">
-        <v>285</v>
+        <v>36</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="84" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A92" s="36"/>
       <c r="B92" s="36"/>
       <c r="C92" s="36"/>
-      <c r="D92" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="E92" s="22" t="s">
-        <v>375</v>
-      </c>
-      <c r="F92" s="22"/>
-      <c r="G92" s="22" t="s">
-        <v>376</v>
+      <c r="D92" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>377</v>
+        <v>225</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A93" s="37"/>
-      <c r="B93" s="37"/>
-      <c r="C93" s="37"/>
+      <c r="A93" s="36"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="36"/>
       <c r="D93" s="3" t="s">
         <v>253</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="84" x14ac:dyDescent="0.2">
+      <c r="A94" s="36"/>
+      <c r="B94" s="36"/>
+      <c r="C94" s="36"/>
+      <c r="D94" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="E94" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A95" s="37"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="37"/>
+      <c r="D95" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="H93" s="4" t="s">
+      <c r="H95" s="4" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A94" s="45" t="s">
+    <row r="96" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A96" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B94" s="45" t="s">
+      <c r="B96" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="C94" s="45" t="s">
+      <c r="C96" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="D96" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H94" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A95" s="45"/>
-      <c r="B95" s="45"/>
-      <c r="C95" s="45"/>
-      <c r="D95" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H95" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A96" s="45"/>
-      <c r="B96" s="45"/>
-      <c r="C96" s="45"/>
-      <c r="D96" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F96" s="6"/>
       <c r="G96" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A97" s="45"/>
       <c r="B97" s="45"/>
       <c r="C97" s="45"/>
       <c r="D97" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F97" s="6"/>
       <c r="G97" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="14" x14ac:dyDescent="0.2">
@@ -11824,53 +12012,53 @@
       <c r="B98" s="45"/>
       <c r="C98" s="45"/>
       <c r="D98" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F98" s="6"/>
       <c r="G98" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A99" s="45"/>
       <c r="B99" s="45"/>
       <c r="C99" s="45"/>
       <c r="D99" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="F99" s="6"/>
       <c r="G99" s="6" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A100" s="45"/>
       <c r="B100" s="45"/>
       <c r="C100" s="45"/>
-      <c r="D100" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="E100" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="F100" s="17"/>
-      <c r="G100" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H100" s="18" t="s">
-        <v>278</v>
+      <c r="D100" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -11878,53 +12066,53 @@
       <c r="B101" s="45"/>
       <c r="C101" s="45"/>
       <c r="D101" s="6" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F101" s="6"/>
       <c r="G101" s="6" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A102" s="45"/>
       <c r="B102" s="45"/>
       <c r="C102" s="45"/>
-      <c r="D102" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="H102" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="84" x14ac:dyDescent="0.2">
+      <c r="D102" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="E102" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H102" s="18" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A103" s="45"/>
       <c r="B103" s="45"/>
       <c r="C103" s="45"/>
-      <c r="D103" s="24" t="s">
-        <v>359</v>
-      </c>
-      <c r="E103" s="24" t="s">
-        <v>375</v>
-      </c>
-      <c r="F103" s="24"/>
-      <c r="G103" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="H103" s="18" t="s">
-        <v>377</v>
+      <c r="D103" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -11935,92 +12123,92 @@
         <v>253</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F104" s="6"/>
       <c r="G104" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="84" x14ac:dyDescent="0.2">
+      <c r="A105" s="45"/>
+      <c r="B105" s="45"/>
+      <c r="C105" s="45"/>
+      <c r="D105" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="E105" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="F105" s="24"/>
+      <c r="G105" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="H105" s="18" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A106" s="45"/>
+      <c r="B106" s="45"/>
+      <c r="C106" s="45"/>
+      <c r="D106" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="H104" s="7" t="s">
+      <c r="H106" s="7" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A105" s="35" t="s">
+    <row r="107" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A107" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B105" s="35" t="s">
+      <c r="B107" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="C105" s="35" t="s">
+      <c r="C107" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D107" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H105" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A106" s="36"/>
-      <c r="B106" s="36"/>
-      <c r="C106" s="36"/>
-      <c r="D106" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H106" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A107" s="36"/>
-      <c r="B107" s="36"/>
-      <c r="C107" s="36"/>
-      <c r="D107" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A108" s="36"/>
       <c r="B108" s="36"/>
       <c r="C108" s="36"/>
       <c r="D108" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="14" x14ac:dyDescent="0.2">
@@ -12028,53 +12216,53 @@
       <c r="B109" s="36"/>
       <c r="C109" s="36"/>
       <c r="D109" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A110" s="36"/>
       <c r="B110" s="36"/>
       <c r="C110" s="36"/>
       <c r="D110" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A111" s="36"/>
       <c r="B111" s="36"/>
       <c r="C111" s="36"/>
       <c r="D111" s="3" t="s">
-        <v>274</v>
+        <v>24</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>275</v>
+        <v>18</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>277</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -12082,17 +12270,17 @@
       <c r="B112" s="36"/>
       <c r="C112" s="36"/>
       <c r="D112" s="3" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F112" s="3"/>
       <c r="G112" s="3" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -12100,131 +12288,131 @@
       <c r="B113" s="36"/>
       <c r="C113" s="36"/>
       <c r="D113" s="3" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="F113" s="3"/>
       <c r="G113" s="3" t="s">
-        <v>285</v>
+        <v>36</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="84" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A114" s="36"/>
       <c r="B114" s="36"/>
       <c r="C114" s="36"/>
-      <c r="D114" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="E114" s="22" t="s">
-        <v>375</v>
-      </c>
-      <c r="F114" s="22"/>
-      <c r="G114" s="22" t="s">
-        <v>376</v>
+      <c r="D114" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>377</v>
+        <v>222</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A115" s="37"/>
-      <c r="B115" s="37"/>
-      <c r="C115" s="37"/>
+      <c r="A115" s="36"/>
+      <c r="B115" s="36"/>
+      <c r="C115" s="36"/>
       <c r="D115" s="3" t="s">
         <v>253</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F115" s="3"/>
       <c r="G115" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="84" x14ac:dyDescent="0.2">
+      <c r="A116" s="36"/>
+      <c r="B116" s="36"/>
+      <c r="C116" s="36"/>
+      <c r="D116" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="E116" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="F116" s="22"/>
+      <c r="G116" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A117" s="37"/>
+      <c r="B117" s="37"/>
+      <c r="C117" s="37"/>
+      <c r="D117" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="H115" s="4" t="s">
+      <c r="H117" s="4" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A116" s="38" t="s">
+    <row r="118" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A118" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B116" s="38" t="s">
+      <c r="B118" s="38" t="s">
         <v>294</v>
       </c>
-      <c r="C116" s="38" t="s">
+      <c r="C118" s="38" t="s">
         <v>295</v>
       </c>
-      <c r="D116" s="16" t="s">
+      <c r="D118" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="E116" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F116" s="16"/>
-      <c r="G116" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H116" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A117" s="39"/>
-      <c r="B117" s="39"/>
-      <c r="C117" s="39"/>
-      <c r="D117" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E117" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F117" s="16"/>
-      <c r="G117" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H117" s="7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A118" s="39"/>
-      <c r="B118" s="39"/>
-      <c r="C118" s="39"/>
-      <c r="D118" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="E118" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F118" s="16"/>
       <c r="G118" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A119" s="39"/>
       <c r="B119" s="39"/>
       <c r="C119" s="39"/>
       <c r="D119" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E119" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F119" s="16"/>
       <c r="G119" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>42</v>
+        <v>309</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="14" x14ac:dyDescent="0.2">
@@ -12232,35 +12420,35 @@
       <c r="B120" s="39"/>
       <c r="C120" s="39"/>
       <c r="D120" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E120" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F120" s="16"/>
       <c r="G120" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="98" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A121" s="39"/>
       <c r="B121" s="39"/>
       <c r="C121" s="39"/>
-      <c r="D121" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="E121" s="20" t="s">
-        <v>296</v>
+      <c r="D121" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E121" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="F121" s="16"/>
       <c r="G121" s="16" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>305</v>
+        <v>42</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="14" x14ac:dyDescent="0.2">
@@ -12273,11 +12461,11 @@
       <c r="E122" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F122" s="20"/>
-      <c r="G122" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="H122" s="18" t="s">
+      <c r="F122" s="16"/>
+      <c r="G122" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H122" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -12285,132 +12473,132 @@
       <c r="A123" s="39"/>
       <c r="B123" s="39"/>
       <c r="C123" s="39"/>
-      <c r="D123" s="16" t="s">
-        <v>299</v>
+      <c r="D123" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="E123" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="F123" s="20"/>
-      <c r="G123" s="20" t="s">
-        <v>304</v>
+        <v>296</v>
+      </c>
+      <c r="F123" s="16"/>
+      <c r="G123" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="98" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A124" s="39"/>
       <c r="B124" s="39"/>
       <c r="C124" s="39"/>
       <c r="D124" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E124" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F124" s="20"/>
+      <c r="G124" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H124" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="98" x14ac:dyDescent="0.2">
+      <c r="A125" s="39"/>
+      <c r="B125" s="39"/>
+      <c r="C125" s="39"/>
+      <c r="D125" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="E124" s="20" t="s">
+      <c r="E125" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="F125" s="20"/>
+      <c r="G125" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="98" x14ac:dyDescent="0.2">
+      <c r="A126" s="39"/>
+      <c r="B126" s="39"/>
+      <c r="C126" s="39"/>
+      <c r="D126" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="E126" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="F124" s="16"/>
-      <c r="G124" s="20" t="s">
+      <c r="F126" s="16"/>
+      <c r="G126" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="H124" s="7" t="s">
+      <c r="H126" s="7" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="98" x14ac:dyDescent="0.2">
-      <c r="A125" s="43"/>
-      <c r="B125" s="43"/>
-      <c r="C125" s="43"/>
-      <c r="D125" s="16" t="s">
+    <row r="127" spans="1:8" ht="98" x14ac:dyDescent="0.2">
+      <c r="A127" s="43"/>
+      <c r="B127" s="43"/>
+      <c r="C127" s="43"/>
+      <c r="D127" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="E125" s="20" t="s">
+      <c r="E127" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="F125" s="16"/>
-      <c r="G125" s="16" t="s">
+      <c r="F127" s="16"/>
+      <c r="G127" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="H125" s="7" t="s">
+      <c r="H127" s="7" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A126" s="35" t="s">
+    <row r="128" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A128" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B126" s="35" t="s">
+      <c r="B128" s="35" t="s">
         <v>316</v>
       </c>
-      <c r="C126" s="30" t="s">
+      <c r="C128" s="30" t="s">
         <v>315</v>
       </c>
-      <c r="D126" s="15" t="s">
+      <c r="D128" s="15" t="s">
         <v>14</v>
-      </c>
-      <c r="E126" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F126" s="15"/>
-      <c r="G126" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H126" s="4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A127" s="36"/>
-      <c r="B127" s="36"/>
-      <c r="C127" s="36"/>
-      <c r="D127" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E127" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F127" s="15"/>
-      <c r="G127" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H127" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A128" s="36"/>
-      <c r="B128" s="36"/>
-      <c r="C128" s="36"/>
-      <c r="D128" s="15" t="s">
-        <v>19</v>
       </c>
       <c r="E128" s="15" t="s">
         <v>18</v>
       </c>
       <c r="F128" s="15"/>
       <c r="G128" s="15" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A129" s="36"/>
       <c r="B129" s="36"/>
       <c r="C129" s="36"/>
       <c r="D129" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E129" s="15" t="s">
         <v>18</v>
       </c>
       <c r="F129" s="15"/>
       <c r="G129" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>42</v>
+        <v>317</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="14" x14ac:dyDescent="0.2">
@@ -12418,35 +12606,35 @@
       <c r="B130" s="36"/>
       <c r="C130" s="36"/>
       <c r="D130" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E130" s="15" t="s">
         <v>18</v>
       </c>
       <c r="F130" s="15"/>
       <c r="G130" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="98" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A131" s="36"/>
       <c r="B131" s="36"/>
       <c r="C131" s="36"/>
       <c r="D131" s="15" t="s">
-        <v>291</v>
+        <v>24</v>
       </c>
       <c r="E131" s="15" t="s">
-        <v>296</v>
+        <v>18</v>
       </c>
       <c r="F131" s="15"/>
       <c r="G131" s="15" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>305</v>
+        <v>42</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="14" x14ac:dyDescent="0.2">
@@ -12461,7 +12649,7 @@
       </c>
       <c r="F132" s="15"/>
       <c r="G132" s="15" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H132" s="4" t="s">
         <v>42</v>
@@ -12472,131 +12660,131 @@
       <c r="B133" s="36"/>
       <c r="C133" s="36"/>
       <c r="D133" s="15" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="E133" s="15" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F133" s="15"/>
       <c r="G133" s="15" t="s">
-        <v>304</v>
+        <v>37</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="98" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A134" s="36"/>
       <c r="B134" s="36"/>
       <c r="C134" s="36"/>
       <c r="D134" s="15" t="s">
-        <v>299</v>
+        <v>24</v>
       </c>
       <c r="E134" s="15" t="s">
-        <v>300</v>
+        <v>18</v>
       </c>
       <c r="F134" s="15"/>
       <c r="G134" s="15" t="s">
-        <v>302</v>
+        <v>36</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>307</v>
+        <v>42</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="98" x14ac:dyDescent="0.2">
-      <c r="A135" s="37"/>
-      <c r="B135" s="37"/>
-      <c r="C135" s="37"/>
+      <c r="A135" s="36"/>
+      <c r="B135" s="36"/>
+      <c r="C135" s="36"/>
       <c r="D135" s="15" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E135" s="15" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F135" s="15"/>
       <c r="G135" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="98" x14ac:dyDescent="0.2">
+      <c r="A136" s="36"/>
+      <c r="B136" s="36"/>
+      <c r="C136" s="36"/>
+      <c r="D136" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="E136" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="F136" s="15"/>
+      <c r="G136" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="98" x14ac:dyDescent="0.2">
+      <c r="A137" s="37"/>
+      <c r="B137" s="37"/>
+      <c r="C137" s="37"/>
+      <c r="D137" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="E137" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="F137" s="15"/>
+      <c r="G137" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="H135" s="4" t="s">
+      <c r="H137" s="4" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A136" s="38" t="s">
+    <row r="138" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A138" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B136" s="38" t="s">
+      <c r="B138" s="38" t="s">
         <v>339</v>
       </c>
-      <c r="C136" s="38" t="s">
+      <c r="C138" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D136" s="16" t="s">
+      <c r="D138" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="E136" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F136" s="16"/>
-      <c r="G136" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H136" s="7" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A137" s="39"/>
-      <c r="B137" s="39"/>
-      <c r="C137" s="39"/>
-      <c r="D137" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E137" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F137" s="16"/>
-      <c r="G137" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H137" s="7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A138" s="39"/>
-      <c r="B138" s="39"/>
-      <c r="C138" s="39"/>
-      <c r="D138" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="E138" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F138" s="16"/>
       <c r="G138" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A139" s="39"/>
       <c r="B139" s="39"/>
       <c r="C139" s="39"/>
       <c r="D139" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E139" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F139" s="16"/>
       <c r="G139" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>42</v>
+        <v>341</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="14" x14ac:dyDescent="0.2">
@@ -12604,17 +12792,17 @@
       <c r="B140" s="39"/>
       <c r="C140" s="39"/>
       <c r="D140" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E140" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F140" s="16"/>
       <c r="G140" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="14" x14ac:dyDescent="0.2">
@@ -12629,7 +12817,7 @@
       </c>
       <c r="F141" s="16"/>
       <c r="G141" s="16" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="H141" s="7" t="s">
         <v>42</v>
@@ -12645,90 +12833,90 @@
       <c r="E142" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F142" s="20"/>
-      <c r="G142" s="20" t="s">
+      <c r="F142" s="16"/>
+      <c r="G142" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H142" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A143" s="39"/>
+      <c r="B143" s="39"/>
+      <c r="C143" s="39"/>
+      <c r="D143" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E143" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F143" s="16"/>
+      <c r="G143" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H143" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A144" s="39"/>
+      <c r="B144" s="39"/>
+      <c r="C144" s="39"/>
+      <c r="D144" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E144" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F144" s="20"/>
+      <c r="G144" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="H142" s="18" t="s">
+      <c r="H144" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A143" s="35" t="s">
+    <row r="145" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A145" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B143" s="35" t="s">
+      <c r="B145" s="35" t="s">
         <v>354</v>
       </c>
-      <c r="C143" s="35" t="s">
+      <c r="C145" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D143" s="15" t="s">
+      <c r="D145" s="15" t="s">
         <v>14</v>
-      </c>
-      <c r="E143" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F143" s="15"/>
-      <c r="G143" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H143" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A144" s="36"/>
-      <c r="B144" s="36"/>
-      <c r="C144" s="36"/>
-      <c r="D144" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E144" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F144" s="15"/>
-      <c r="G144" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H144" s="4" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A145" s="36"/>
-      <c r="B145" s="36"/>
-      <c r="C145" s="36"/>
-      <c r="D145" s="15" t="s">
-        <v>19</v>
       </c>
       <c r="E145" s="15" t="s">
         <v>18</v>
       </c>
       <c r="F145" s="15"/>
       <c r="G145" s="15" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A146" s="36"/>
       <c r="B146" s="36"/>
       <c r="C146" s="36"/>
       <c r="D146" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E146" s="15" t="s">
         <v>18</v>
       </c>
       <c r="F146" s="15"/>
       <c r="G146" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>42</v>
+        <v>353</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="14" x14ac:dyDescent="0.2">
@@ -12736,17 +12924,17 @@
       <c r="B147" s="36"/>
       <c r="C147" s="36"/>
       <c r="D147" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E147" s="15" t="s">
         <v>18</v>
       </c>
       <c r="F147" s="15"/>
       <c r="G147" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="14" x14ac:dyDescent="0.2">
@@ -12761,7 +12949,7 @@
       </c>
       <c r="F148" s="15"/>
       <c r="G148" s="15" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="H148" s="4" t="s">
         <v>42</v>
@@ -12779,31 +12967,47 @@
       </c>
       <c r="F149" s="15"/>
       <c r="G149" s="15" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H149" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A150" s="5"/>
-      <c r="B150" s="5"/>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5"/>
-      <c r="G150" s="5"/>
-      <c r="H150" s="13"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A151" s="5"/>
-      <c r="B151" s="5"/>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5"/>
-      <c r="G151" s="5"/>
-      <c r="H151" s="13"/>
+    <row r="150" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A150" s="36"/>
+      <c r="B150" s="36"/>
+      <c r="C150" s="36"/>
+      <c r="D150" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E150" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F150" s="15"/>
+      <c r="G150" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A151" s="36"/>
+      <c r="B151" s="36"/>
+      <c r="C151" s="36"/>
+      <c r="D151" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E151" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F151" s="15"/>
+      <c r="G151" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="5"/>
@@ -13535,21 +13739,41 @@
       <c r="G224" s="5"/>
       <c r="H224" s="13"/>
     </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A225" s="5"/>
+      <c r="B225" s="5"/>
+      <c r="C225" s="5"/>
+      <c r="D225" s="5"/>
+      <c r="E225" s="5"/>
+      <c r="F225" s="5"/>
+      <c r="G225" s="5"/>
+      <c r="H225" s="13"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A226" s="5"/>
+      <c r="B226" s="5"/>
+      <c r="C226" s="5"/>
+      <c r="D226" s="5"/>
+      <c r="E226" s="5"/>
+      <c r="F226" s="5"/>
+      <c r="G226" s="5"/>
+      <c r="H226" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="52">
     <mergeCell ref="G31:G33"/>
     <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G78:G80"/>
-    <mergeCell ref="C105:C115"/>
-    <mergeCell ref="B105:B115"/>
-    <mergeCell ref="C83:C93"/>
-    <mergeCell ref="B83:B93"/>
-    <mergeCell ref="C72:C82"/>
-    <mergeCell ref="B72:B82"/>
-    <mergeCell ref="B94:B104"/>
-    <mergeCell ref="C94:C104"/>
-    <mergeCell ref="G63:G69"/>
+    <mergeCell ref="G80:G82"/>
+    <mergeCell ref="C107:C117"/>
+    <mergeCell ref="B107:B117"/>
+    <mergeCell ref="C85:C95"/>
+    <mergeCell ref="B85:B95"/>
+    <mergeCell ref="C74:C84"/>
+    <mergeCell ref="B74:B84"/>
+    <mergeCell ref="B96:B106"/>
+    <mergeCell ref="C96:C106"/>
     <mergeCell ref="G60:G62"/>
+    <mergeCell ref="G63:G71"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="G42:G43"/>
     <mergeCell ref="G18:G21"/>
@@ -13567,28 +13791,28 @@
     <mergeCell ref="B10:B23"/>
     <mergeCell ref="A10:A23"/>
     <mergeCell ref="G51:G53"/>
-    <mergeCell ref="C116:C125"/>
-    <mergeCell ref="B116:B125"/>
-    <mergeCell ref="A116:A125"/>
-    <mergeCell ref="A55:A71"/>
-    <mergeCell ref="B55:B71"/>
-    <mergeCell ref="C55:C71"/>
+    <mergeCell ref="C118:C127"/>
+    <mergeCell ref="B118:B127"/>
+    <mergeCell ref="A118:A127"/>
+    <mergeCell ref="A55:A73"/>
+    <mergeCell ref="B55:B73"/>
+    <mergeCell ref="C55:C73"/>
     <mergeCell ref="A45:A54"/>
     <mergeCell ref="B45:B54"/>
     <mergeCell ref="C45:C54"/>
-    <mergeCell ref="A105:A115"/>
-    <mergeCell ref="A83:A93"/>
-    <mergeCell ref="A94:A104"/>
-    <mergeCell ref="A72:A82"/>
-    <mergeCell ref="A143:A149"/>
-    <mergeCell ref="B143:B149"/>
-    <mergeCell ref="C143:C149"/>
-    <mergeCell ref="A126:A135"/>
-    <mergeCell ref="B126:B135"/>
-    <mergeCell ref="C126:C135"/>
-    <mergeCell ref="A136:A142"/>
-    <mergeCell ref="B136:B142"/>
-    <mergeCell ref="C136:C142"/>
+    <mergeCell ref="A107:A117"/>
+    <mergeCell ref="A85:A95"/>
+    <mergeCell ref="A96:A106"/>
+    <mergeCell ref="A74:A84"/>
+    <mergeCell ref="A145:A151"/>
+    <mergeCell ref="B145:B151"/>
+    <mergeCell ref="C145:C151"/>
+    <mergeCell ref="A128:A137"/>
+    <mergeCell ref="B128:B137"/>
+    <mergeCell ref="C128:C137"/>
+    <mergeCell ref="A138:A144"/>
+    <mergeCell ref="B138:B144"/>
+    <mergeCell ref="C138:C144"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/pheknowlator_source_metadata.xlsx
+++ b/resources/pheknowlator_source_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiffanycallahan/Dropbox/GraduateSchool/PhD/LabWork/PheKnowLator/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EFA023-F48B-E340-8837-6B288C841EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043E7498-4BD7-2B4A-B67C-943D1BF79425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12160" yWindow="1040" windowWidth="36820" windowHeight="23880" xr2:uid="{82CFCCA6-69D0-6D4F-8FD9-9511C5B37B8B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="405">
   <si>
     <t>edge_type</t>
   </si>
@@ -3332,6 +3332,24 @@
   </si>
   <si>
     <t>Value derived from Reactome (column:2)</t>
+  </si>
+  <si>
+    <t>rna-protein</t>
+  </si>
+  <si>
+    <t>Mapped through RO concept RO:0002513</t>
+  </si>
+  <si>
+    <t>Mapped through RO concept RO:0002512</t>
+  </si>
+  <si>
+    <t>protein-rna</t>
+  </si>
+  <si>
+    <t>biolink:translates_to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	biolink:translation_of</t>
   </si>
 </sst>
 </file>
@@ -3948,11 +3966,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC7A73D-1C32-0943-8AF1-D604CF68867B}">
-  <dimension ref="A1:I313"/>
+  <dimension ref="A1:I317"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A282" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F326" sqref="F326"/>
+      <pane ySplit="1" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F319" sqref="F319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -10156,10 +10174,88 @@
       </c>
       <c r="G313" s="22"/>
     </row>
+    <row r="314" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A314" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="B314" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C314" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D314" s="21"/>
+      <c r="E314" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F314" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="G314" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A315" s="33"/>
+      <c r="B315" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C315" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D315" s="21"/>
+      <c r="E315" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F315" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="G315" s="21"/>
+    </row>
+    <row r="316" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A316" s="34" t="s">
+        <v>402</v>
+      </c>
+      <c r="B316" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C316" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D316" s="22"/>
+      <c r="E316" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F316" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="G316" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+      <c r="A317" s="34"/>
+      <c r="B317" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C317" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D317" s="22"/>
+      <c r="E317" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F317" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="G317" s="22"/>
+    </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="58">
     <mergeCell ref="A308:A310"/>
     <mergeCell ref="A311:A313"/>
+    <mergeCell ref="A314:A315"/>
+    <mergeCell ref="A316:A317"/>
     <mergeCell ref="A293:A299"/>
     <mergeCell ref="A300:A303"/>
     <mergeCell ref="A304:A307"/>
@@ -10224,7 +10320,7 @@
   <dimension ref="A1:H226"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
